--- a/mapa_interactivo_AYKO.xlsx
+++ b/mapa_interactivo_AYKO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,27 +508,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2779</t>
+          <t>4915</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>8/6/2024</t>
+          <t>2/19/2025</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>GUEVARA 687</t>
+          <t>BARCA CABO DE HORNOS 6753</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>792041586</t>
+          <t>803607875</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Falta traspaso y retiro</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -563,40 +563,40 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>-58.453307</v>
+        <v>-58.491041</v>
       </c>
       <c r="N2" t="n">
-        <v>-34.585706</v>
+        <v>-34.679704</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2805</t>
+          <t>5110</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>8/6/2024</t>
+          <t>3/25/2025</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MCAL SOLANO LOPEZ 3110</t>
+          <t>CUENCA 158</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>792101640</t>
+          <t>804287943</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Retirar columna. TLC ya traspaso nodo</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -626,7 +626,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -635,36 +635,36 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>-58.498448</v>
+        <v>-58.474432</v>
       </c>
       <c r="N3" t="n">
-        <v>-34.595287</v>
+        <v>-34.629827</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3269</t>
+          <t>5138</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>9/9/2024</t>
+          <t>4/1/2025</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ANDALGALA 2590</t>
+          <t>LOPEZ, CARLOS ANTONIO 3326</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>796141865</t>
+          <t>804468459</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -679,7 +679,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Columna sobre plazoleta frente a altura 2590 - Ver foto para ubicar</t>
+          <t>COLUMNA INCLINADA</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -689,7 +689,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -703,26 +703,26 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>-58.502411</v>
+        <v>-58.508582</v>
       </c>
       <c r="N4" t="n">
-        <v>-34.665815</v>
+        <v>-34.588936</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3765</t>
+          <t>5139</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>10/16/2024</t>
+          <t>4/1/2025</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NAZCA AV. 1675</t>
+          <t>LOPEZ, CARLOS ANTONIO 3346</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -732,7 +732,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>798295165</t>
+          <t>804468467</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -747,7 +747,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Columna con base picada</t>
+          <t>COLUMNA INCLINADA</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -757,12 +757,12 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -771,36 +771,36 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>-58.47874</v>
+        <v>-58.508809</v>
       </c>
       <c r="N5" t="n">
-        <v>-34.61462</v>
+        <v>-34.589076</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4399</t>
+          <t>5479</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>12/12/2024</t>
+          <t>4/4/2025</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>AVALOS 1487</t>
+          <t>CONCORDIA 812</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>801644860</t>
+          <t>804497942</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -835,40 +835,40 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>-58.478352</v>
+        <v>-58.479563</v>
       </c>
       <c r="N6" t="n">
-        <v>-34.58305</v>
+        <v>-34.623886</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4423</t>
+          <t>5485</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>12/18/2024</t>
+          <t>4/4/2025</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>VERA 1081</t>
+          <t>FLORES, VENANCIO, GRAL. 2977</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>801734625</t>
+          <t>804497954</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>PICADA</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -903,40 +903,40 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>-58.44244</v>
+        <v>-58.471643</v>
       </c>
       <c r="N7" t="n">
-        <v>-34.593883</v>
+        <v>-34.629262</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4895</t>
+          <t>5500</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2/12/2025</t>
+          <t>4/7/2025</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ALVAREZ THOMAS AV. 1335</t>
+          <t>LA PLATA AV. 1013</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>803607583</t>
+          <t>804568914</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Quedo fuera de plomo</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -975,36 +975,36 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>-58.460926</v>
+        <v>-58.426804</v>
       </c>
       <c r="N8" t="n">
-        <v>-34.578223</v>
+        <v>-34.627283</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4915</t>
+          <t>3289</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2/19/2025</t>
+          <t>4/7/2025</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BARCA CABO DE HORNOS 6753</t>
+          <t>TRES ARROYOS 251</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>803607875</t>
+          <t>804568949</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1039,40 +1039,40 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>-58.491041</v>
+        <v>-58.447225</v>
       </c>
       <c r="N9" t="n">
-        <v>-34.679704</v>
+        <v>-34.601357</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>5110</t>
+          <t>5728</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3/25/2025</t>
+          <t>4/7/2025</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CUENCA 158</t>
+          <t>FRANCO 3340</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>804287943</t>
+          <t>804568964</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1111,36 +1111,36 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>-58.474432</v>
+        <v>-58.512525</v>
       </c>
       <c r="N10" t="n">
-        <v>-34.629827</v>
+        <v>-34.585228</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2485</t>
+          <t>5521</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3/26/2025</t>
+          <t>4/8/2025</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>LA PLATA AV. 1095</t>
+          <t>EL PEREGRINO 3115</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>804302893</t>
+          <t>804569000</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Sacar ancla de rienda vieja y cementar vereda</t>
+          <t>Aplomar Poste</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1175,40 +1175,40 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>-58.426593</v>
+        <v>-58.485232</v>
       </c>
       <c r="N11" t="n">
-        <v>-34.628211</v>
+        <v>-34.611573</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2124</t>
+          <t>5572</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>LA PAMPA 5510</t>
+          <t>SANABRIA 4289</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>804309657</t>
+          <t>804663652</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1233,7 +1233,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1243,40 +1243,40 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>-58.484185</v>
+        <v>-58.516755</v>
       </c>
       <c r="N12" t="n">
-        <v>-34.582206</v>
+        <v>-34.6002</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3082</t>
+          <t>5573</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CAMACUA 141</t>
+          <t>LASTRA AV. 4379</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>804309680</t>
+          <t>804663677</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1291,7 +1291,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1315,36 +1315,36 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>-58.458015</v>
+        <v>-58.525125</v>
       </c>
       <c r="N13" t="n">
-        <v>-34.629277</v>
+        <v>-34.604668</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4494</t>
+          <t>5574</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>BALLIVIAN 2987</t>
+          <t>GRIVEO 3909</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>804309772</t>
+          <t>804663683</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Poste Inclinado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1379,40 +1379,40 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>-58.48396</v>
+        <v>-58.517126</v>
       </c>
       <c r="N14" t="n">
-        <v>-34.582874</v>
+        <v>-34.592774</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>5127</t>
+          <t>5642</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3/28/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>LAMARCA, EMILIO 224</t>
+          <t>ALVAREZ THOMAS AV. 1212</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>804323949</t>
+          <t>804876050</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1451,26 +1451,26 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>-58.477988</v>
+        <v>-58.458816</v>
       </c>
       <c r="N15" t="n">
-        <v>-34.630001</v>
+        <v>-34.578469</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>5124</t>
+          <t>5664</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>3/28/2025</t>
+          <t>4/28/2025</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>BOGOTA 2936</t>
+          <t>REMEDIOS 2675</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>804323945</t>
+          <t>805507228</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1519,36 +1519,36 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>-58.4716</v>
+        <v>-58.463339</v>
       </c>
       <c r="N16" t="n">
-        <v>-34.627623</v>
+        <v>-34.6369</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>5138</t>
+          <t>5668</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>4/1/2025</t>
+          <t>4/28/2025</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>LOPEZ, CARLOS ANTONIO 3326</t>
+          <t>CURAPALIGUE 367</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>804468459</t>
+          <t>805507231</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1563,7 +1563,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>COLUMNA INCLINADA</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1587,26 +1587,26 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>-58.508582</v>
+        <v>-58.452319</v>
       </c>
       <c r="N17" t="n">
-        <v>-34.588936</v>
+        <v>-34.62917</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>5139</t>
+          <t>5805</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>4/1/2025</t>
+          <t>5/14/2025</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>LOPEZ, CARLOS ANTONIO 3346</t>
+          <t>GUTENBERG 4134</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1616,7 +1616,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>804468467</t>
+          <t>806926378</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>COLUMNA INCLINADA</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1651,40 +1651,40 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>-58.508809</v>
+        <v>-58.51665</v>
       </c>
       <c r="N18" t="n">
-        <v>-34.589076</v>
+        <v>-34.596644</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>5479</t>
+          <t>5828</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>4/4/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CONCORDIA 812</t>
+          <t>VERA 121</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>804497942</t>
+          <t>806926459</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1723,961 +1723,9 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>-58.479563</v>
+        <v>-58.434686</v>
       </c>
       <c r="N19" t="n">
-        <v>-34.623886</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>5485</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>4/4/2025</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>FLORES, VENANCIO, GRAL. 2977</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>804497954</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>-58.471643</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-34.629262</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>5500</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>4/7/2025</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>LA PLATA AV. 1013</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>804568914</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Aplomar</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Aplomo</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>-58.426804</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-34.627283</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>3289</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>4/7/2025</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>TRES ARROYOS 251</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>804568949</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>-58.447225</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-34.601357</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>5728</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>4/7/2025</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>FRANCO 3340</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>804568964</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>-58.512525</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-34.585228</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>5521</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>4/8/2025</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>EL PEREGRINO 3115</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>804569000</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Aplomar Poste</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>Aplomo</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>Poste</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>-58.485232</v>
-      </c>
-      <c r="N24" t="n">
-        <v>-34.611573</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>5572</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>4/14/2025</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>SANABRIA 4289</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>804663652</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Poste inclinado</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>Aplomo</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>Poste</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>-58.516755</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-34.6002</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>5573</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>4/14/2025</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>LASTRA AV. 4379</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>804663677</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Columna inclinada</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>Aplomo</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>-58.525125</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-34.604668</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>5574</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>4/14/2025</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>GRIVEO 3909</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>804663683</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Poste Inclinado</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>Aplomo</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>Poste</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>-58.517126</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-34.592774</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>5621</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>4/22/2025</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>MORON 4106</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>804876042</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Desplazar columna por entrada de vehiculos.</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>-58.487352</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-34.627992</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>5642</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>4/22/2025</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>ALVAREZ THOMAS AV. 1212</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>804876050</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>-58.458816</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-34.578469</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>5664</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>4/28/2025</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>REMEDIOS 2675</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>805507228</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>-58.463339</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-34.6369</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>5668</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>4/28/2025</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>CURAPALIGUE 367</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>805507231</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>-58.452319</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-34.62917</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>5805</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>5/14/2025</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>GUTENBERG 4134</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>806926378</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Poste inclinado</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>Aplomo</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>Poste</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>-58.51665</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-34.596644</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>5828</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>5/19/2025</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>VERA 121</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>806926459</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>-58.434686</v>
-      </c>
-      <c r="N33" t="n">
         <v>-34.602057</v>
       </c>
     </row>

--- a/mapa_interactivo_AYKO.xlsx
+++ b/mapa_interactivo_AYKO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -984,7 +984,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3289</t>
+          <t>5728</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -994,17 +994,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>TRES ARROYOS 251</t>
+          <t>FRANCO 3340</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>804568949</t>
+          <t>804568964</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1043,26 +1043,26 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>-58.447225</v>
+        <v>-58.512525</v>
       </c>
       <c r="N9" t="n">
-        <v>-34.601357</v>
+        <v>-34.585228</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>5728</t>
+          <t>5521</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4/7/2025</t>
+          <t>4/8/2025</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>FRANCO 3340</t>
+          <t>EL PEREGRINO 3115</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1072,7 +1072,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>804568964</t>
+          <t>804569000</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1087,7 +1087,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar Poste</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1107,30 +1107,30 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>-58.512525</v>
+        <v>-58.485232</v>
       </c>
       <c r="N10" t="n">
-        <v>-34.585228</v>
+        <v>-34.611573</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>5521</t>
+          <t>5572</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>4/8/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>EL PEREGRINO 3115</t>
+          <t>SANABRIA 4289</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1140,7 +1140,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>804569000</t>
+          <t>804663652</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Aplomar Poste</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1179,16 +1179,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>-58.485232</v>
+        <v>-58.516755</v>
       </c>
       <c r="N11" t="n">
-        <v>-34.611573</v>
+        <v>-34.6002</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>5572</t>
+          <t>5573</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>SANABRIA 4289</t>
+          <t>LASTRA AV. 4379</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>804663652</t>
+          <t>804663677</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1243,20 +1243,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>-58.516755</v>
+        <v>-58.525125</v>
       </c>
       <c r="N12" t="n">
-        <v>-34.6002</v>
+        <v>-34.604668</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>5573</t>
+          <t>5574</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>LASTRA AV. 4379</t>
+          <t>GRIVEO 3909</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1276,7 +1276,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>804663677</t>
+          <t>804663683</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1291,7 +1291,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Poste Inclinado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1311,40 +1311,40 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>-58.525125</v>
+        <v>-58.517126</v>
       </c>
       <c r="N13" t="n">
-        <v>-34.604668</v>
+        <v>-34.592774</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>5574</t>
+          <t>5664</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/28/2025</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>GRIVEO 3909</t>
+          <t>REMEDIOS 2675</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>804663683</t>
+          <t>805507228</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Poste Inclinado</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1379,40 +1379,40 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>-58.517126</v>
+        <v>-58.463339</v>
       </c>
       <c r="N14" t="n">
-        <v>-34.592774</v>
+        <v>-34.6369</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>5642</t>
+          <t>5668</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>4/28/2025</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ALVAREZ THOMAS AV. 1212</t>
+          <t>CURAPALIGUE 367</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>804876050</t>
+          <t>805507231</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1451,36 +1451,36 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>-58.458816</v>
+        <v>-58.452319</v>
       </c>
       <c r="N15" t="n">
-        <v>-34.578469</v>
+        <v>-34.62917</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>5664</t>
+          <t>5805</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>4/28/2025</t>
+          <t>5/14/2025</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>REMEDIOS 2675</t>
+          <t>GUTENBERG 4134</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>805507228</t>
+          <t>806926378</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1505,7 +1505,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1515,218 +1515,14 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>-58.463339</v>
+        <v>-58.51665</v>
       </c>
       <c r="N16" t="n">
-        <v>-34.6369</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>5668</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>4/28/2025</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>CURAPALIGUE 367</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>805507231</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>-58.452319</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-34.62917</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>5805</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>5/14/2025</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>GUTENBERG 4134</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>806926378</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Poste inclinado</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>Aplomo</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>Poste</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>-58.51665</v>
-      </c>
-      <c r="N18" t="n">
         <v>-34.596644</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>5828</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>5/19/2025</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>VERA 121</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>806926459</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>-58.434686</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-34.602057</v>
       </c>
     </row>
   </sheetData>

--- a/mapa_interactivo_AYKO.xlsx
+++ b/mapa_interactivo_AYKO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,27 +508,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>4915</t>
+          <t>-10</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2/19/2025</t>
+          <t>1/15/2024</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BARCA CABO DE HORNOS 6753</t>
+          <t>DARWIN /ALT/ 651</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>106582 - VILLA CRESPO</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>803607875</t>
+          <t>777863458</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -541,14 +541,10 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Poste</t>
-        </is>
-      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -563,40 +559,40 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>-58.491041</v>
+        <v>-58.44467</v>
       </c>
       <c r="N2" t="n">
-        <v>-34.679704</v>
+        <v>-34.593784</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>5110</t>
+          <t>-31</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3/25/2025</t>
+          <t>2/21/2024</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CUENCA 158</t>
+          <t>CONDARCO /ALT/ 451</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>106570 - FLORES</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>804287943</t>
+          <t>780387959</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -611,60 +607,48 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>cambio poste de madera</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
-        <v>-58.474432</v>
+        <v>-58.468603</v>
       </c>
       <c r="N3" t="n">
-        <v>-34.629827</v>
+        <v>-34.626012</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>5138</t>
+          <t>-152</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4/1/2025</t>
+          <t>11/1/2024</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LOPEZ, CARLOS ANTONIO 3326</t>
+          <t>FERNANDEZ DE ENCISO /ALT/ 3610</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>106589 - VILLA DEVOTO</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>804468459</t>
+          <t>798984311</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -677,62 +661,46 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>COLUMNA INCLINADA</t>
-        </is>
-      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Aplomo</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
-        <v>-58.508582</v>
+        <v>-58.513363</v>
       </c>
       <c r="N4" t="n">
-        <v>-34.588936</v>
+        <v>-34.605473</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>5139</t>
+          <t>-160</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4/1/2025</t>
+          <t>11/1/2024</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>LOPEZ, CARLOS ANTONIO 3346</t>
+          <t>MORAN PEDRO /ALT/ 3100</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>106587 - AGRONOMIA</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>804468467</t>
+          <t>798984905</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -745,62 +713,46 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>COLUMNA INCLINADA</t>
-        </is>
-      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Aplomo</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
-        <v>-58.508809</v>
+        <v>-58.498724</v>
       </c>
       <c r="N5" t="n">
-        <v>-34.589076</v>
+        <v>-34.594329</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>5479</t>
+          <t>-176</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>4/4/2025</t>
+          <t>12/31/2023</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CONCORDIA 812</t>
+          <t>TARIJA /ALT/ 3345</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>106562 - BOEDO</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>804497942</t>
+          <t>799539678</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -815,60 +767,48 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>columna que está podrida en base</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
-        <v>-58.479563</v>
+        <v>-58.412389</v>
       </c>
       <c r="N6" t="n">
-        <v>-34.623886</v>
+        <v>-34.628625</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>5485</t>
+          <t>-184</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>4/4/2025</t>
+          <t>12/31/2023</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>FLORES, VENANCIO, GRAL. 2977</t>
+          <t>GARZON GRAL E ,AV. /ALT/ 5145</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>106572 - MATADEROS</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>804497954</t>
+          <t>799539766</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -881,62 +821,46 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
-        <v>-58.471643</v>
+        <v>-58.488261</v>
       </c>
       <c r="N7" t="n">
-        <v>-34.629262</v>
+        <v>-34.653436</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>5500</t>
+          <t>-192</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>4/7/2025</t>
+          <t>12/31/2023</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>LA PLATA AV. 1013</t>
+          <t>LLAVALLOL /ALT/ 3363</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>106588 - VILLA DEL PARQUE</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>804568914</t>
+          <t>799539931</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -949,62 +873,46 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Aplomar</t>
-        </is>
-      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Aplomo</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
-        <v>-58.426804</v>
+        <v>-58.499699</v>
       </c>
       <c r="N8" t="n">
-        <v>-34.627283</v>
+        <v>-34.600641</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>5728</t>
+          <t>-193</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4/7/2025</t>
+          <t>12/31/2023</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>FRANCO 3340</t>
+          <t>WASHINGTON /ALT/ 3251</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>106590 - COGHLAN</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>804568964</t>
+          <t>799539971</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1019,60 +927,48 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Washington 3251 cambiar columna de 114 transferir tendidos. dejar pasivos en norma</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
-        <v>-58.512525</v>
+        <v>-58.478272</v>
       </c>
       <c r="N9" t="n">
-        <v>-34.585228</v>
+        <v>-34.558899</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>5521</t>
+          <t>-212</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4/8/2025</t>
+          <t>11/7/2024</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>EL PEREGRINO 3115</t>
+          <t>FIGUEROA CNEL APOLINARIO /ALT/ 863</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>106569 - CABALLITO</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>804569000</t>
+          <t>799485362</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1085,62 +981,46 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Aplomar Poste</t>
-        </is>
-      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Aplomo</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>Poste</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
-        <v>-58.485232</v>
+        <v>-58.450579</v>
       </c>
       <c r="N10" t="n">
-        <v>-34.611573</v>
+        <v>-34.607673</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>5572</t>
+          <t>-254</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>1/7/2025</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>SANABRIA 4289</t>
+          <t>BELAUSTEGUI DR LUIS /ALT/ 1185</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>106569 - CABALLITO</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>804663652</t>
+          <t>802367713</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1153,11 +1033,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Poste inclinado</t>
-        </is>
-      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
           <t>1</t>
@@ -1165,50 +1041,50 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>-58.516755</v>
+        <v>-58.457158</v>
       </c>
       <c r="N11" t="n">
-        <v>-34.6002</v>
+        <v>-34.605839</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>5573</t>
+          <t>4915</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>2/19/2025</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>LASTRA AV. 4379</t>
+          <t>BARCA CABO DE HORNOS 6753</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>804663677</t>
+          <t>803607875</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1223,7 +1099,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1233,7 +1109,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1243,40 +1119,40 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>-58.525125</v>
+        <v>-58.491041</v>
       </c>
       <c r="N12" t="n">
-        <v>-34.604668</v>
+        <v>-34.679704</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>5574</t>
+          <t>803608154</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>2/24/2025</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>GRIVEO 3909</t>
+          <t>CUBAS JOSE /ALT/ 3372</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>106589 - VILLA DEVOTO</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>804663683</t>
+          <t>803608154</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1291,17 +1167,17 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Poste Inclinado</t>
+          <t>Colocar columna</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1311,40 +1187,40 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>-58.517126</v>
+        <v>-58.506318</v>
       </c>
       <c r="N13" t="n">
-        <v>-34.592774</v>
+        <v>-34.592417</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>5664</t>
+          <t>803608215</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>4/28/2025</t>
+          <t>2/24/2025</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>REMEDIOS 2675</t>
+          <t>DEL PINO VIRREY /ALT/ 2646</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>106581 - COLEGIALES</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>805507228</t>
+          <t>803608215</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1359,12 +1235,12 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna 114 quebrada en base dar prioridad.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1383,36 +1259,36 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>-58.463339</v>
+        <v>-58.45524</v>
       </c>
       <c r="N14" t="n">
-        <v>-34.6369</v>
+        <v>-34.567858</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>5668</t>
+          <t>803608331</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>4/28/2025</t>
+          <t>2/24/2025</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CURAPALIGUE 367</t>
+          <t>ROOSEVELT F D ,AV. /ALT/ 4875</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>106592 - VILLA URQUIZA</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>805507231</t>
+          <t>803608331</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1427,12 +1303,12 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t xml:space="preserve">Columna terminal168 con rienda a pique fuera de plomo  y base con cimentación rota </t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1451,77 +1327,3477 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>-58.452319</v>
+        <v>-58.484493</v>
       </c>
       <c r="N15" t="n">
-        <v>-34.62917</v>
+        <v>-34.572049</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>803608455</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2/24/2025</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>VALDENEGRO /ALT/ 4037</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>106593 - SAAVEDRA</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>803608455</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Cambiar poste podrido apoyado en tanque de agua. Es sobre parque junto a medianera.  Dar prioridad .</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Poste</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
+        <v>-58.493679</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-34.557149</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>803608463</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2/24/2025</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>COCHABAMBA /ALT/ 1790</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>106552 - CONSTITUCION</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>803608463</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>SIN RIEGO</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Nodo/Fuente Teco</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
+        <v>-58.391153</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-34.624022</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>-300</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>3/17/2025</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>SAN MARTIN ,AV. /ALT/ 6195</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>106587 - AGRONOMIA</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>804081102</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Aplomar</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
+        <v>-58.502505</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-34.59465</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>5110</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>3/25/2025</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>CUENCA 158</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>804287943</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
+        <v>-58.474432</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-34.629827</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>-310</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>3/27/2025</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>GONZALEZ JOAQUIN V /ALT/ 729</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>106573 - FLORESTA</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>804302855</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
+        <v>-58.482428</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-34.625289</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>-311</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>3/27/2025</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>GONZALEZ JOAQUIN V /ALT/ 789</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>106573 - FLORESTA</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>804302872</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
+        <v>-58.482612</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-34.624833</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>-313</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>3/29/2025</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>VILLARINO /ALT/ 1710</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>106561 - BARRACAS</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>804333525</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Cambio de poste terminal con rienda pique Por columna.</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
+        <v>-58.370595</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-34.652025</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>5138</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>4/1/2025</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>LOPEZ, CARLOS ANTONIO 3326</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>804468459</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>COLUMNA INCLINADA</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Aplomo</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
+        <v>-58.508582</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-34.588936</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>5139</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>4/1/2025</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>LOPEZ, CARLOS ANTONIO 3346</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>804468467</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>COLUMNA INCLINADA</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Aplomo</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
+        <v>-58.508809</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-34.589076</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>5479</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>4/4/2025</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>CONCORDIA 812</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>804497942</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
+        <v>-58.479563</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-34.623886</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>5485</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>4/4/2025</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>FLORES, VENANCIO, GRAL. 2977</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>804497954</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
+        <v>-58.471643</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-34.629262</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>5500</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>4/7/2025</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>LA PLATA AV. 1013</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>804568914</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Aplomar</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Aplomo</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
+        <v>-58.426804</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-34.627283</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>5728</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>4/7/2025</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>FRANCO 3340</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>804568964</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
+        <v>-58.512525</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-34.585228</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>5521</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>4/8/2025</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>EL PEREGRINO 3115</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>804569000</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Aplomar Poste</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Aplomo</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Poste</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
+        <v>-58.485232</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-34.611573</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>-319</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>4/8/2025</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>MAGALLANES /ALT/ 1239</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>106551 - LA BOCA</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>804569042</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Base corroida agujereada</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
+        <v>-58.368045</v>
+      </c>
+      <c r="N30" t="n">
+        <v>-34.640855</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>-326</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>4/14/2025</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>GARCIA DEL RIO /ALT/ 3354</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>106593 - SAAVEDRA</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>804634199</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Retirar poste de vereda. Reparar la vereda donde estaba colocado el poste.</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Desmonte</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Poste</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
+        <v>-58.478106</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-34.551523</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>-327</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>4/14/2025</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>ROOSEVELT F D ,AV. /ALT/ 5439</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>106592 - VILLA URQUIZA</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>804634203</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Colocar columna R200 y  dar aviso para el traspaso de nodos. (TECO y TLC)</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Nodo Teco</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
+        <v>-58.491074</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-34.575623</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>5572</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>4/14/2025</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>SANABRIA 4289</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>804663652</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Poste inclinado</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Aplomo</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>Poste</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
+        <v>-58.516755</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-34.6002</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>5573</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>4/14/2025</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>LASTRA AV. 4379</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>804663677</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Columna inclinada</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Aplomo</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
+        <v>-58.525125</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-34.604668</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>5574</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>4/14/2025</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>GRIVEO 3909</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>804663683</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Poste Inclinado</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Aplomo</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>Poste</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
+        <v>-58.517126</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-34.592774</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>-330</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>4/17/2025</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>ROCHA /ALT/ 1651</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>106561 - BARRACAS</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>804787341</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Reemplazar columna en mal estado.</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
+        <v>-58.373267</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-34.642303</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>-339</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>4/21/2025</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>GRIVEO /ALT/ 2435</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>106591 - VILLA PUEYRREDON</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>804838868</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aplomar columna 114  </t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Aplomo</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
+        <v>-58.498493</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-34.581262</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>-340</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>4/21/2025</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>SUPERI /ALT/ 1445</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>106581 - COLEGIALES</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>804838869</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Columna podrida en la base</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
+        <v>-58.460666</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-34.573823</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>-342</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>4/14/2025</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>WILLIAMS ALBERTO /ALT/ 5625</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>106593 - SAAVEDRA</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>804839148</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Cambiar columna de 114. - VIRARDI</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
+        <v>-58.502447</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-34.561008</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>-346</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>4/14/2025</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>ARGERICH /ALT/ 4710</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>106591 - VILLA PUEYRREDON</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>804839198</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Cambiar poste con rienda podrido en su base - VIRARDI</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Poste</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
+        <v>-58.503673</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-34.586925</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>-353</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>4/14/2025</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>CAAGUAZU /ALT/ 5703</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>106576 - LINIERS</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>804839589</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Cambiar columna de 114. Fuera de plomo empotrada en árbol colocar rienda. ( se pasa tareas a contratista tratista de limpieza tensado y elevación del tendido).  - VIRARDI</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
+        <v>-58.511462</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-34.640542</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>-354</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>4/14/2025</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>CONDARCO /ALT/ 5316</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>106591 - VILLA PUEYRREDON</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>804839626</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Aplomo de columna de PRFV - VIRARDI</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Aplomo</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
+        <v>-58.504455</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-34.579941</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>-355</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>4/14/2025</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>CUENCA /ALT/ 4480</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>106591 - VILLA PUEYRREDON</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>804839675</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Columna nueva fuera de plomo sostiene nodo de Telecentro.  Reclamo municipal.  - VIRARDI</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Aplomo</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Nodo/Fuente TLC</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
+        <v>-58.504568</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-34.590534</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>-356</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>4/14/2025</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>CUENCA /ALT/ 4845</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>106591 - VILLA PUEYRREDON</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>804839715</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Retiro de poste viejo en desuso liberado podrido en su base.  - VIRARDI</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Desmonte</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>Poste</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
+        <v>-58.507182</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-34.58749</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>-357</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>4/14/2025</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>MISTRAL GABRIELA /ALT/ 3376</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>106589 - VILLA DEVOTO</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>804839774</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Cambiar columna corroida en su base.  Ubicada en puerta de colegio.  - VIRARDI</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
+        <v>-58.507591</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-34.590945</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>-359</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>4/14/2025</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>CABEZON JOSE LEON /ALT/ 2714</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>106591 - VILLA PUEYRREDON</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>804839875</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Aplomo de columna de 114 - VIRARDI</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Aplomo</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
+        <v>-58.503195</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-34.581735</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>-362</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>4/14/2025</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>MOZART /ALT/ 562</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>106571 - PQUE. AVELLANEDA</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>804839947</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Aplomar columna de 114. Se encuentra frente al 575 lado plaza sin número.  - VIRARDI</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Aplomo</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
+        <v>-58.489948</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-34.643478</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>-364</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>4/14/2025</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>PAROISSIEN /ALT/ 4871</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>106593 - SAAVEDRA</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>804839991</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Aplomar columna de 114 - VIRARDI</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Aplomo</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
+        <v>-58.493164</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-34.55732</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>-365</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>4/14/2025</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>QUESADA /ALT/ 5290</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>106592 - VILLA URQUIZA</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>804839995</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Columna nueva de PVC fuera de plomo.  - VIRARDI</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
+        <v>-58.491934</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-34.569348</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>-366</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>4/14/2025</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>QUESADA /ALT/ 6088</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>106592 - VILLA URQUIZA</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>804840016</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Aplomar columna de 168 cambiar rienda.  - VIRARDI</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Aplomo</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
+        <v>-58.501418</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-34.574363</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>-367</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>4/14/2025</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>RUIZ HUIDOBRO ,AV. /ALT/ 4771</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>106593 - SAAVEDRA</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>804840024</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Aplomo de columna de 114 - VIRARDI</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Aplomo</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
+        <v>-58.494584</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-34.554981</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>-372</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>4/23/2025</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>CAMARGO /ALT/ 25</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>106582 - VILLA CRESPO</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>804903809</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Aplomar columna 114 con rienda a pique</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
+        <v>-58.436788</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-34.604014</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>-373</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>4/23/2025</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>GALLARDO ANGEL ,AV. /ALT/ 608</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>106569 - CABALLITO</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>804903810</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Aplomo</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
+        <v>-58.439461</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-34.605744</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>-375</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>4/23/2025</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>PAVON /ALT/ 3335</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>106562 - BOEDO</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>804903824</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Colocar columna nueva donde estaba la anterior cortada</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
+        <v>-58.412418</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-34.629288</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>-378</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>4/23/2025</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>MAGARINO CERVANTES A /ALT/ 5054</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>106574 - VELEZ SARSFIELD</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>804903791</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Desmontar poste</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Desmonte</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Poste</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
+        <v>-58.503618</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-34.629209</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>-381</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>4/25/2025</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>RIVADAVIA ,AV. /ALT/ 9477</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>106575 - VILLA LURO</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>805010120</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Podrida en la base</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
+        <v>-58.497691</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-34.637087</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>5664</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>4/28/2025</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>REMEDIOS 2675</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>805507228</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
+        <v>-58.463339</v>
+      </c>
+      <c r="N57" t="n">
+        <v>-34.6369</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>5668</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>4/28/2025</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>CURAPALIGUE 367</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>805507231</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
+        <v>-58.452319</v>
+      </c>
+      <c r="N58" t="n">
+        <v>-34.62917</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>-383</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>4/29/2025</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>VALDERRAMA /ALT/ 4187</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>106592 - VILLA URQUIZA</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>805507401</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aplomar columna 114 </t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Aplomo</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
+        <v>-58.481834</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-34.560796</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>-384</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>4/29/2025</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>LUGONES 1721</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>106586 - VILLA ORTUZAR</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>805507408</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Aplomar columna 168 - La columna esta frente a la altura 1721</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Aplomo</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
+        <v>-58.473936</v>
+      </c>
+      <c r="N60" t="n">
+        <v>-34.577346</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>-387</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>5/1/2025</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>FLORES GRAL VENANCIO /ALT/ 4139</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>106574 - VELEZ SARSFIELD</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>805579025</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Columna fuera de plomo - VIRARDI</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Aplomo</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
+        <v>-58.485221</v>
+      </c>
+      <c r="N61" t="n">
+        <v>-34.633425</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>-391</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>5/5/2025</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>IBERA /ALT/ 5074</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>106592 - VILLA URQUIZA</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>805676610</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cambiar columna 114 base corroida </t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
+        <v>-58.49045</v>
+      </c>
+      <c r="N62" t="n">
+        <v>-34.566894</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>-396</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>5/6/2025</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>MARTI JOSE /ALT/ 701</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>106570 - FLORES</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>805707284</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
+        <v>-58.468826</v>
+      </c>
+      <c r="N63" t="n">
+        <v>-34.639675</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>-399</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>5/7/2025</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Casco 115</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>106576 - LINIERS</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>805722774</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Reclamo municipal pendiente de New OT:707916611 cambiar columna de 168 con rienda.  - VIRARDI</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
+        <v>-58.525835</v>
+      </c>
+      <c r="N64" t="n">
+        <v>-34.637998</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>-400</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>5/7/2025</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>BYNON /ALT/ 6790</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>106576 - LINIERS</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>805722777</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Reclamo municipal pendiente de New OT:676904205. Cambiar columna de 114 corroida.  - VIRARDI</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
+        <v>-58.525119</v>
+      </c>
+      <c r="N65" t="n">
+        <v>-34.637178</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
           <t>5805</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B66" t="inlineStr">
         <is>
           <t>5/14/2025</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C66" t="inlineStr">
         <is>
           <t>GUTENBERG 4134</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D66" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>806926378</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
         <is>
           <t>Poste inclinado</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="J66" t="inlineStr">
         <is>
           <t>Aplomo</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
         <is>
           <t>Poste</t>
         </is>
       </c>
-      <c r="M16" t="n">
+      <c r="M66" t="n">
         <v>-58.51665</v>
       </c>
-      <c r="N16" t="n">
+      <c r="N66" t="n">
         <v>-34.596644</v>
       </c>
     </row>

--- a/mapa_interactivo_AYKO.xlsx
+++ b/mapa_interactivo_AYKO.xlsx
@@ -508,27 +508,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>-10</t>
+          <t>5805</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1/15/2024</t>
+          <t>5/14/2025</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DARWIN /ALT/ 651</t>
+          <t>GUTENBERG 4134</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>106582 - VILLA CRESPO</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>777863458</t>
+          <t>806926378</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -541,15 +541,19 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Poste inclinado</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -559,40 +563,40 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>-58.44467</v>
+        <v>-58.51665</v>
       </c>
       <c r="N2" t="n">
-        <v>-34.593784</v>
+        <v>-34.596644</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>-31</t>
+          <t>-399</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2/21/2024</t>
+          <t>5/7/2025</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CONDARCO /ALT/ 451</t>
+          <t>Casco 115</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>106570 - FLORES</t>
+          <t>106576 - LINIERS</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>780387959</t>
+          <t>805722774</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -607,48 +611,60 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>cambio poste de madera</t>
+          <t>Reclamo municipal pendiente de New OT:707916611 cambiar columna de 168 con rienda.  - VIRARDI</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
       <c r="M3" t="n">
-        <v>-58.468603</v>
+        <v>-58.525835</v>
       </c>
       <c r="N3" t="n">
-        <v>-34.626012</v>
+        <v>-34.637998</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>-152</t>
+          <t>-400</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>11/1/2024</t>
+          <t>5/7/2025</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>FERNANDEZ DE ENCISO /ALT/ 3610</t>
+          <t>BYNON /ALT/ 6790</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>106589 - VILLA DEVOTO</t>
+          <t>106576 - LINIERS</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>798984311</t>
+          <t>805722777</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -661,46 +677,62 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Reclamo municipal pendiente de New OT:676904205. Cambiar columna de 114 corroida.  - VIRARDI</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M4" t="n">
-        <v>-58.513363</v>
+        <v>-58.525119</v>
       </c>
       <c r="N4" t="n">
-        <v>-34.605473</v>
+        <v>-34.637178</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>-160</t>
+          <t>-396</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>11/1/2024</t>
+          <t>5/6/2025</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MORAN PEDRO /ALT/ 3100</t>
+          <t>MARTI JOSE /ALT/ 701</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>106587 - AGRONOMIA</t>
+          <t>106570 - FLORES</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>798984905</t>
+          <t>805707284</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -713,46 +745,62 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M5" t="n">
-        <v>-58.498724</v>
+        <v>-58.468826</v>
       </c>
       <c r="N5" t="n">
-        <v>-34.594329</v>
+        <v>-34.639675</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>-176</t>
+          <t>-391</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>12/31/2023</t>
+          <t>5/5/2025</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>TARIJA /ALT/ 3345</t>
+          <t>IBERA /ALT/ 5074</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>106562 - BOEDO</t>
+          <t>106592 - VILLA URQUIZA</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>799539678</t>
+          <t>805676610</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -767,48 +815,60 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>columna que está podrida en base</t>
+          <t xml:space="preserve">Cambiar columna 114 base corroida </t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M6" t="n">
-        <v>-58.412389</v>
+        <v>-58.49045</v>
       </c>
       <c r="N6" t="n">
-        <v>-34.628625</v>
+        <v>-34.566894</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>-184</t>
+          <t>-387</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>12/31/2023</t>
+          <t>5/1/2025</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>GARZON GRAL E ,AV. /ALT/ 5145</t>
+          <t>FLORES GRAL VENANCIO /ALT/ 4139</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>106572 - MATADEROS</t>
+          <t>106574 - VELEZ SARSFIELD</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>799539766</t>
+          <t>805579025</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -821,46 +881,62 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Columna fuera de plomo - VIRARDI</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Aplomo</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M7" t="n">
-        <v>-58.488261</v>
+        <v>-58.485221</v>
       </c>
       <c r="N7" t="n">
-        <v>-34.653436</v>
+        <v>-34.633425</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>-192</t>
+          <t>-383</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>12/31/2023</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>LLAVALLOL /ALT/ 3363</t>
+          <t>VALDERRAMA /ALT/ 4187</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>106588 - VILLA DEL PARQUE</t>
+          <t>106592 - VILLA URQUIZA</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>799539931</t>
+          <t>805507401</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -873,46 +949,62 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aplomar columna 114 </t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Aplomo</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M8" t="n">
-        <v>-58.499699</v>
+        <v>-58.481834</v>
       </c>
       <c r="N8" t="n">
-        <v>-34.600641</v>
+        <v>-34.560796</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>-193</t>
+          <t>-384</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>12/31/2023</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>WASHINGTON /ALT/ 3251</t>
+          <t>LUGONES 1721</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>106590 - COGHLAN</t>
+          <t>106586 - VILLA ORTUZAR</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>799539971</t>
+          <t>805507408</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -927,48 +1019,60 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Washington 3251 cambiar columna de 114 transferir tendidos. dejar pasivos en norma</t>
+          <t>Aplomar columna 168 - La columna esta frente a la altura 1721</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Aplomo</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M9" t="n">
-        <v>-58.478272</v>
+        <v>-58.473936</v>
       </c>
       <c r="N9" t="n">
-        <v>-34.558899</v>
+        <v>-34.577346</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>-212</t>
+          <t>5664</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>11/7/2024</t>
+          <t>4/28/2025</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>FIGUEROA CNEL APOLINARIO /ALT/ 863</t>
+          <t>REMEDIOS 2675</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>106569 - CABALLITO</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>799485362</t>
+          <t>805507228</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -981,46 +1085,62 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M10" t="n">
-        <v>-58.450579</v>
+        <v>-58.463339</v>
       </c>
       <c r="N10" t="n">
-        <v>-34.607673</v>
+        <v>-34.6369</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>-254</t>
+          <t>5668</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1/7/2025</t>
+          <t>4/28/2025</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BELAUSTEGUI DR LUIS /ALT/ 1185</t>
+          <t>CURAPALIGUE 367</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>106569 - CABALLITO</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>802367713</t>
+          <t>805507231</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1033,7 +1153,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr">
         <is>
           <t>1</t>
@@ -1046,7 +1170,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1055,36 +1179,36 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>-58.457158</v>
+        <v>-58.452319</v>
       </c>
       <c r="N11" t="n">
-        <v>-34.605839</v>
+        <v>-34.62917</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4915</t>
+          <t>-381</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2/19/2025</t>
+          <t>4/25/2025</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>BARCA CABO DE HORNOS 6753</t>
+          <t>RIVADAVIA ,AV. /ALT/ 9477</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>106575 - VILLA LURO</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>803607875</t>
+          <t>805010120</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1099,7 +1223,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Podrida en la base</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1119,40 +1243,40 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>-58.491041</v>
+        <v>-58.497691</v>
       </c>
       <c r="N12" t="n">
-        <v>-34.679704</v>
+        <v>-34.637087</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>803608154</t>
+          <t>-372</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2/24/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CUBAS JOSE /ALT/ 3372</t>
+          <t>CAMARGO /ALT/ 25</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>106589 - VILLA DEVOTO</t>
+          <t>106582 - VILLA CRESPO</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>803608154</t>
+          <t>804903809</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1167,12 +1291,12 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Colocar columna</t>
+          <t>Aplomar columna 114 con rienda a pique</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1191,36 +1315,36 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>-58.506318</v>
+        <v>-58.436788</v>
       </c>
       <c r="N13" t="n">
-        <v>-34.592417</v>
+        <v>-34.604014</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>803608215</t>
+          <t>-373</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2/24/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>DEL PINO VIRREY /ALT/ 2646</t>
+          <t>GALLARDO ANGEL ,AV. /ALT/ 608</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>106581 - COLEGIALES</t>
+          <t>106569 - CABALLITO</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>803608215</t>
+          <t>804903810</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1235,17 +1359,17 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Columna 114 quebrada en base dar prioridad.</t>
+          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1259,36 +1383,36 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>-58.45524</v>
+        <v>-58.439461</v>
       </c>
       <c r="N14" t="n">
-        <v>-34.567858</v>
+        <v>-34.605744</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>803608331</t>
+          <t>-375</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2/24/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ROOSEVELT F D ,AV. /ALT/ 4875</t>
+          <t>PAVON /ALT/ 3335</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>106592 - VILLA URQUIZA</t>
+          <t>106562 - BOEDO</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>803608331</t>
+          <t>804903824</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1303,12 +1427,12 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Columna terminal168 con rienda a pique fuera de plomo  y base con cimentación rota </t>
+          <t>Colocar columna nueva donde estaba la anterior cortada</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1327,36 +1451,36 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>-58.484493</v>
+        <v>-58.412418</v>
       </c>
       <c r="N15" t="n">
-        <v>-34.572049</v>
+        <v>-34.629288</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>803608455</t>
+          <t>-378</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2/24/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>VALDENEGRO /ALT/ 4037</t>
+          <t>MAGARINO CERVANTES A /ALT/ 5054</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>106574 - VELEZ SARSFIELD</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>803608455</t>
+          <t>804903791</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1371,17 +1495,17 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Cambiar poste podrido apoyado en tanque de agua. Es sobre parque junto a medianera.  Dar prioridad .</t>
+          <t>Desmontar poste</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1395,36 +1519,36 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>-58.493679</v>
+        <v>-58.503618</v>
       </c>
       <c r="N16" t="n">
-        <v>-34.557149</v>
+        <v>-34.629209</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>803608463</t>
+          <t>-339</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2/24/2025</t>
+          <t>4/21/2025</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>COCHABAMBA /ALT/ 1790</t>
+          <t>GRIVEO /ALT/ 2435</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>106552 - CONSTITUCION</t>
+          <t>106591 - VILLA PUEYRREDON</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>803608463</t>
+          <t>804838868</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1439,22 +1563,22 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>SIN RIEGO</t>
+          <t xml:space="preserve">Aplomar columna 114  </t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Nodo/Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1463,36 +1587,36 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>-58.391153</v>
+        <v>-58.498493</v>
       </c>
       <c r="N17" t="n">
-        <v>-34.624022</v>
+        <v>-34.581262</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>-300</t>
+          <t>-340</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3/17/2025</t>
+          <t>4/21/2025</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>SAN MARTIN ,AV. /ALT/ 6195</t>
+          <t>SUPERI /ALT/ 1445</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>106587 - AGRONOMIA</t>
+          <t>106581 - COLEGIALES</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>804081102</t>
+          <t>804838869</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1507,12 +1631,12 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Columna podrida en la base</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1527,40 +1651,40 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>-58.502505</v>
+        <v>-58.460666</v>
       </c>
       <c r="N18" t="n">
-        <v>-34.59465</v>
+        <v>-34.573823</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>5110</t>
+          <t>-330</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>3/25/2025</t>
+          <t>4/17/2025</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CUENCA 158</t>
+          <t>ROCHA /ALT/ 1651</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>106561 - BARRACAS</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>804287943</t>
+          <t>804787341</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1575,7 +1699,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Reemplazar columna en mal estado.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1599,36 +1723,36 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>-58.474432</v>
+        <v>-58.373267</v>
       </c>
       <c r="N19" t="n">
-        <v>-34.629827</v>
+        <v>-34.642303</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>-310</t>
+          <t>-326</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>GONZALEZ JOAQUIN V /ALT/ 729</t>
+          <t>GARCIA DEL RIO /ALT/ 3354</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>106573 - FLORESTA</t>
+          <t>106593 - SAAVEDRA</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>804302855</t>
+          <t>804634199</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1643,17 +1767,17 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Retirar poste de vereda. Reparar la vereda donde estaba colocado el poste.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1663,40 +1787,40 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>-58.482428</v>
+        <v>-58.478106</v>
       </c>
       <c r="N20" t="n">
-        <v>-34.625289</v>
+        <v>-34.551523</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>-311</t>
+          <t>-327</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>GONZALEZ JOAQUIN V /ALT/ 789</t>
+          <t>ROOSEVELT F D ,AV. /ALT/ 5439</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>106573 - FLORESTA</t>
+          <t>106592 - VILLA URQUIZA</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>804302872</t>
+          <t>804634203</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1711,12 +1835,12 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar columna R200 y  dar aviso para el traspaso de nodos. (TECO y TLC)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1726,45 +1850,45 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>-58.482612</v>
+        <v>-58.491074</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.624833</v>
+        <v>-34.575623</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>-313</t>
+          <t>5572</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>3/29/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>VILLARINO /ALT/ 1710</t>
+          <t>SANABRIA 4289</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>106561 - BARRACAS</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>804333525</t>
+          <t>804663652</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1779,17 +1903,17 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Cambio de poste terminal con rienda pique Por columna.</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1799,30 +1923,30 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-58.370595</v>
+        <v>-58.516755</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.652025</v>
+        <v>-34.6002</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>5138</t>
+          <t>5573</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>4/1/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>LOPEZ, CARLOS ANTONIO 3326</t>
+          <t>LASTRA AV. 4379</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1832,7 +1956,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>804468459</t>
+          <t>804663677</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1847,7 +1971,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>COLUMNA INCLINADA</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1871,26 +1995,26 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-58.508582</v>
+        <v>-58.525125</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.588936</v>
+        <v>-34.604668</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>5139</t>
+          <t>5574</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4/1/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>LOPEZ, CARLOS ANTONIO 3346</t>
+          <t>GRIVEO 3909</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1900,7 +2024,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>804468467</t>
+          <t>804663683</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1915,7 +2039,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>COLUMNA INCLINADA</t>
+          <t>Poste Inclinado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1935,40 +2059,40 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>-58.508809</v>
+        <v>-58.517126</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.589076</v>
+        <v>-34.592774</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>5479</t>
+          <t>-342</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>4/4/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CONCORDIA 812</t>
+          <t>WILLIAMS ALBERTO /ALT/ 5625</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>106593 - SAAVEDRA</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>804497942</t>
+          <t>804839148</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1983,12 +2107,12 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar columna de 114. - VIRARDI</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2007,36 +2131,36 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.479563</v>
+        <v>-58.502447</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.623886</v>
+        <v>-34.561008</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>5485</t>
+          <t>-346</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4/4/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>FLORES, VENANCIO, GRAL. 2977</t>
+          <t>ARGERICH /ALT/ 4710</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>106591 - VILLA PUEYRREDON</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>804497954</t>
+          <t>804839198</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2051,12 +2175,12 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar poste con rienda podrido en su base - VIRARDI</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2071,40 +2195,40 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.471643</v>
+        <v>-58.503673</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.629262</v>
+        <v>-34.586925</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>5500</t>
+          <t>-353</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4/7/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>LA PLATA AV. 1013</t>
+          <t>CAAGUAZU /ALT/ 5703</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>106576 - LINIERS</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>804568914</t>
+          <t>804839589</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2119,17 +2243,17 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Cambiar columna de 114. Fuera de plomo empotrada en árbol colocar rienda. ( se pasa tareas a contratista tratista de limpieza tensado y elevación del tendido).  - VIRARDI</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2143,36 +2267,36 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.426804</v>
+        <v>-58.511462</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.627283</v>
+        <v>-34.640542</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>5728</t>
+          <t>-354</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4/7/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>FRANCO 3340</t>
+          <t>CONDARCO /ALT/ 5316</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>106591 - VILLA PUEYRREDON</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>804568964</t>
+          <t>804839626</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2187,17 +2311,17 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomo de columna de PRFV - VIRARDI</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2211,36 +2335,36 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.512525</v>
+        <v>-58.504455</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.585228</v>
+        <v>-34.579941</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>5521</t>
+          <t>-355</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4/8/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>EL PEREGRINO 3115</t>
+          <t>CUENCA /ALT/ 4480</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>106591 - VILLA PUEYRREDON</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>804569000</t>
+          <t>804839675</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2255,12 +2379,12 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Aplomar Poste</t>
+          <t>Columna nueva fuera de plomo sostiene nodo de Telecentro.  Reclamo municipal.  - VIRARDI</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2270,45 +2394,45 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo/Fuente TLC</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.485232</v>
+        <v>-58.504568</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.611573</v>
+        <v>-34.590534</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>-319</t>
+          <t>-356</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>4/8/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>MAGALLANES /ALT/ 1239</t>
+          <t>CUENCA /ALT/ 4845</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>106551 - LA BOCA</t>
+          <t>106591 - VILLA PUEYRREDON</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>804569042</t>
+          <t>804839715</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2323,17 +2447,17 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Base corroida agujereada</t>
+          <t>Retiro de poste viejo en desuso liberado podrido en su base.  - VIRARDI</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2343,20 +2467,20 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.368045</v>
+        <v>-58.507182</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.640855</v>
+        <v>-34.58749</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>-326</t>
+          <t>-357</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2366,17 +2490,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>GARCIA DEL RIO /ALT/ 3354</t>
+          <t>MISTRAL GABRIELA /ALT/ 3376</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>106589 - VILLA DEVOTO</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>804634199</t>
+          <t>804839774</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2391,17 +2515,17 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Retirar poste de vereda. Reparar la vereda donde estaba colocado el poste.</t>
+          <t>Cambiar columna corroida en su base.  Ubicada en puerta de colegio.  - VIRARDI</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2411,20 +2535,20 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.478106</v>
+        <v>-58.507591</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.551523</v>
+        <v>-34.590945</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>-327</t>
+          <t>-359</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2434,17 +2558,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ROOSEVELT F D ,AV. /ALT/ 5439</t>
+          <t>CABEZON JOSE LEON /ALT/ 2714</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>106592 - VILLA URQUIZA</t>
+          <t>106591 - VILLA PUEYRREDON</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>804634203</t>
+          <t>804839875</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2459,22 +2583,22 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Colocar columna R200 y  dar aviso para el traspaso de nodos. (TECO y TLC)</t>
+          <t>Aplomo de columna de 114 - VIRARDI</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2483,16 +2607,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.491074</v>
+        <v>-58.503195</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.575623</v>
+        <v>-34.581735</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>5572</t>
+          <t>-362</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2502,17 +2626,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>SANABRIA 4289</t>
+          <t>MOZART /ALT/ 562</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>106571 - PQUE. AVELLANEDA</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>804663652</t>
+          <t>804839947</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2527,12 +2651,12 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Aplomar columna de 114. Se encuentra frente al 575 lado plaza sin número.  - VIRARDI</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2547,20 +2671,20 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.516755</v>
+        <v>-58.489948</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.6002</v>
+        <v>-34.643478</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>5573</t>
+          <t>-364</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2570,17 +2694,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>LASTRA AV. 4379</t>
+          <t>PAROISSIEN /ALT/ 4871</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>106593 - SAAVEDRA</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>804663677</t>
+          <t>804839991</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2595,12 +2719,12 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Aplomar columna de 114 - VIRARDI</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2619,16 +2743,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.525125</v>
+        <v>-58.493164</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.604668</v>
+        <v>-34.55732</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>5574</t>
+          <t>-365</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2638,17 +2762,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>GRIVEO 3909</t>
+          <t>QUESADA /ALT/ 5290</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>106592 - VILLA URQUIZA</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>804663683</t>
+          <t>804839995</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2663,17 +2787,17 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Poste Inclinado</t>
+          <t>Columna nueva de PVC fuera de plomo.  - VIRARDI</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2683,40 +2807,40 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.517126</v>
+        <v>-58.491934</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.592774</v>
+        <v>-34.569348</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>-330</t>
+          <t>-366</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>4/17/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>ROCHA /ALT/ 1651</t>
+          <t>QUESADA /ALT/ 6088</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>106561 - BARRACAS</t>
+          <t>106592 - VILLA URQUIZA</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>804787341</t>
+          <t>804840016</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2731,17 +2855,17 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Reemplazar columna en mal estado.</t>
+          <t>Aplomar columna de 168 cambiar rienda.  - VIRARDI</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2755,36 +2879,36 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.373267</v>
+        <v>-58.501418</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.642303</v>
+        <v>-34.574363</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>-339</t>
+          <t>-367</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>4/21/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>GRIVEO /ALT/ 2435</t>
+          <t>RUIZ HUIDOBRO ,AV. /ALT/ 4771</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>106591 - VILLA PUEYRREDON</t>
+          <t>106593 - SAAVEDRA</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>804838868</t>
+          <t>804840024</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2799,12 +2923,12 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 114  </t>
+          <t>Aplomo de columna de 114 - VIRARDI</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2823,36 +2947,36 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.498493</v>
+        <v>-58.494584</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.581262</v>
+        <v>-34.554981</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>-340</t>
+          <t>5521</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>4/21/2025</t>
+          <t>4/8/2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>SUPERI /ALT/ 1445</t>
+          <t>EL PEREGRINO 3115</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>106581 - COLEGIALES</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>804838869</t>
+          <t>804569000</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2867,7 +2991,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Columna podrida en la base</t>
+          <t>Aplomar Poste</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2877,7 +3001,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2887,40 +3011,40 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.460666</v>
+        <v>-58.485232</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.573823</v>
+        <v>-34.611573</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>-342</t>
+          <t>-319</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/8/2025</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>WILLIAMS ALBERTO /ALT/ 5625</t>
+          <t>MAGALLANES /ALT/ 1239</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>106551 - LA BOCA</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>804839148</t>
+          <t>804569042</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2935,12 +3059,12 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Cambiar columna de 114. - VIRARDI</t>
+          <t>Base corroida agujereada</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2959,36 +3083,36 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.502447</v>
+        <v>-58.368045</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.561008</v>
+        <v>-34.640855</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>-346</t>
+          <t>5500</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/7/2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>ARGERICH /ALT/ 4710</t>
+          <t>LA PLATA AV. 1013</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>106591 - VILLA PUEYRREDON</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>804839198</t>
+          <t>804568914</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3003,17 +3127,17 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Cambiar poste con rienda podrido en su base - VIRARDI</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3023,40 +3147,40 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.503673</v>
+        <v>-58.426804</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.586925</v>
+        <v>-34.627283</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>-353</t>
+          <t>5728</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/7/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CAAGUAZU /ALT/ 5703</t>
+          <t>FRANCO 3340</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>106576 - LINIERS</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>804839589</t>
+          <t>804568964</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3071,12 +3195,12 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Cambiar columna de 114. Fuera de plomo empotrada en árbol colocar rienda. ( se pasa tareas a contratista tratista de limpieza tensado y elevación del tendido).  - VIRARDI</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -3095,36 +3219,36 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.511462</v>
+        <v>-58.512525</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.640542</v>
+        <v>-34.585228</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>-354</t>
+          <t>5479</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/4/2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CONDARCO /ALT/ 5316</t>
+          <t>CONCORDIA 812</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>106591 - VILLA PUEYRREDON</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>804839626</t>
+          <t>804497942</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3139,17 +3263,17 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Aplomo de columna de PRFV - VIRARDI</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -3163,36 +3287,36 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.504455</v>
+        <v>-58.479563</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.579941</v>
+        <v>-34.623886</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>-355</t>
+          <t>5485</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/4/2025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CUENCA /ALT/ 4480</t>
+          <t>FLORES, VENANCIO, GRAL. 2977</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>106591 - VILLA PUEYRREDON</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>804839675</t>
+          <t>804497954</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3207,22 +3331,22 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Columna nueva fuera de plomo sostiene nodo de Telecentro.  Reclamo municipal.  - VIRARDI</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Nodo/Fuente TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -3231,36 +3355,36 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.504568</v>
+        <v>-58.471643</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.590534</v>
+        <v>-34.629262</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>-356</t>
+          <t>5138</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/1/2025</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CUENCA /ALT/ 4845</t>
+          <t>LOPEZ, CARLOS ANTONIO 3326</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>106591 - VILLA PUEYRREDON</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>804839715</t>
+          <t>804468459</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3275,17 +3399,17 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Retiro de poste viejo en desuso liberado podrido en su base.  - VIRARDI</t>
+          <t>COLUMNA INCLINADA</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3295,40 +3419,40 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.507182</v>
+        <v>-58.508582</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.58749</v>
+        <v>-34.588936</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>-357</t>
+          <t>5139</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/1/2025</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>MISTRAL GABRIELA /ALT/ 3376</t>
+          <t>LOPEZ, CARLOS ANTONIO 3346</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>106589 - VILLA DEVOTO</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>804839774</t>
+          <t>804468467</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3343,17 +3467,17 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Cambiar columna corroida en su base.  Ubicada en puerta de colegio.  - VIRARDI</t>
+          <t>COLUMNA INCLINADA</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -3367,36 +3491,36 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.507591</v>
+        <v>-58.508809</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.590945</v>
+        <v>-34.589076</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>-359</t>
+          <t>-313</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>3/29/2025</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>CABEZON JOSE LEON /ALT/ 2714</t>
+          <t>VILLARINO /ALT/ 1710</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>106591 - VILLA PUEYRREDON</t>
+          <t>106561 - BARRACAS</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>804839875</t>
+          <t>804333525</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3411,7 +3535,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Aplomo de columna de 114 - VIRARDI</t>
+          <t>Cambio de poste terminal con rienda pique Por columna.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3421,7 +3545,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3435,36 +3559,36 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.503195</v>
+        <v>-58.370595</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.581735</v>
+        <v>-34.652025</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>-362</t>
+          <t>-310</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>MOZART /ALT/ 562</t>
+          <t>GONZALEZ JOAQUIN V /ALT/ 729</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>106571 - PQUE. AVELLANEDA</t>
+          <t>106573 - FLORESTA</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>804839947</t>
+          <t>804302855</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3479,7 +3603,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Aplomar columna de 114. Se encuentra frente al 575 lado plaza sin número.  - VIRARDI</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3489,7 +3613,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3503,36 +3627,36 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.489948</v>
+        <v>-58.482428</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.643478</v>
+        <v>-34.625289</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>-364</t>
+          <t>-311</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>PAROISSIEN /ALT/ 4871</t>
+          <t>GONZALEZ JOAQUIN V /ALT/ 789</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>106573 - FLORESTA</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>804839991</t>
+          <t>804302872</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3547,7 +3671,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Aplomar columna de 114 - VIRARDI</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3557,7 +3681,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3567,40 +3691,40 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.493164</v>
+        <v>-58.482612</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.55732</v>
+        <v>-34.624833</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>-365</t>
+          <t>5110</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>3/25/2025</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>QUESADA /ALT/ 5290</t>
+          <t>CUENCA 158</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>106592 - VILLA URQUIZA</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>804839995</t>
+          <t>804287943</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3615,12 +3739,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Columna nueva de PVC fuera de plomo.  - VIRARDI</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -3639,36 +3763,36 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.491934</v>
+        <v>-58.474432</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.569348</v>
+        <v>-34.629827</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>-366</t>
+          <t>-300</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>3/17/2025</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>QUESADA /ALT/ 6088</t>
+          <t>SAN MARTIN ,AV. /ALT/ 6195</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>106592 - VILLA URQUIZA</t>
+          <t>106587 - AGRONOMIA</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>804840016</t>
+          <t>804081102</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3683,7 +3807,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aplomar columna de 168 cambiar rienda.  - VIRARDI</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3693,7 +3817,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3703,40 +3827,40 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.501418</v>
+        <v>-58.502505</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.574363</v>
+        <v>-34.59465</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>-367</t>
+          <t>803608154</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>2/24/2025</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>RUIZ HUIDOBRO ,AV. /ALT/ 4771</t>
+          <t>CUBAS JOSE /ALT/ 3372</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>106589 - VILLA DEVOTO</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>804840024</t>
+          <t>803608154</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3751,7 +3875,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aplomo de columna de 114 - VIRARDI</t>
+          <t>Colocar columna</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3761,7 +3885,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -3775,36 +3899,36 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>-58.494584</v>
+        <v>-58.506318</v>
       </c>
       <c r="N51" t="n">
-        <v>-34.554981</v>
+        <v>-34.592417</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>-372</t>
+          <t>803608215</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>2/24/2025</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>CAMARGO /ALT/ 25</t>
+          <t>DEL PINO VIRREY /ALT/ 2646</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>106582 - VILLA CRESPO</t>
+          <t>106581 - COLEGIALES</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>804903809</t>
+          <t>803608215</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3819,12 +3943,12 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Aplomar columna 114 con rienda a pique</t>
+          <t>Columna 114 quebrada en base dar prioridad.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -3843,36 +3967,36 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>-58.436788</v>
+        <v>-58.45524</v>
       </c>
       <c r="N52" t="n">
-        <v>-34.604014</v>
+        <v>-34.567858</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>-373</t>
+          <t>803608331</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>2/24/2025</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>GALLARDO ANGEL ,AV. /ALT/ 608</t>
+          <t>ROOSEVELT F D ,AV. /ALT/ 4875</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>106569 - CABALLITO</t>
+          <t>106592 - VILLA URQUIZA</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>804903810</t>
+          <t>803608331</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3887,17 +4011,17 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
+          <t xml:space="preserve">Columna terminal168 con rienda a pique fuera de plomo  y base con cimentación rota </t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3911,36 +4035,36 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>-58.439461</v>
+        <v>-58.484493</v>
       </c>
       <c r="N53" t="n">
-        <v>-34.605744</v>
+        <v>-34.572049</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>-375</t>
+          <t>803608455</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>2/24/2025</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>PAVON /ALT/ 3335</t>
+          <t>VALDENEGRO /ALT/ 4037</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>106562 - BOEDO</t>
+          <t>106593 - SAAVEDRA</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>804903824</t>
+          <t>803608455</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3955,12 +4079,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Colocar columna nueva donde estaba la anterior cortada</t>
+          <t>Cambiar poste podrido apoyado en tanque de agua. Es sobre parque junto a medianera.  Dar prioridad .</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -3975,40 +4099,40 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>-58.412418</v>
+        <v>-58.493679</v>
       </c>
       <c r="N54" t="n">
-        <v>-34.629288</v>
+        <v>-34.557149</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>-378</t>
+          <t>803608463</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>2/24/2025</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>MAGARINO CERVANTES A /ALT/ 5054</t>
+          <t>COCHABAMBA /ALT/ 1790</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>106574 - VELEZ SARSFIELD</t>
+          <t>106552 - CONSTITUCION</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>804903791</t>
+          <t>803608463</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4023,60 +4147,60 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Desmontar poste</t>
+          <t>SIN RIEGO</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo/Fuente Teco</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>-58.503618</v>
+        <v>-58.391153</v>
       </c>
       <c r="N55" t="n">
-        <v>-34.629209</v>
+        <v>-34.624022</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>-381</t>
+          <t>4915</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>4/25/2025</t>
+          <t>2/19/2025</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>RIVADAVIA ,AV. /ALT/ 9477</t>
+          <t>BARCA CABO DE HORNOS 6753</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>106575 - VILLA LURO</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>805010120</t>
+          <t>803607875</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -4091,7 +4215,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Podrida en la base</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4111,40 +4235,40 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>-58.497691</v>
+        <v>-58.491041</v>
       </c>
       <c r="N56" t="n">
-        <v>-34.637087</v>
+        <v>-34.679704</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>5664</t>
+          <t>-254</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>4/28/2025</t>
+          <t>1/7/2025</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>REMEDIOS 2675</t>
+          <t>BELAUSTEGUI DR LUIS /ALT/ 1185</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>106569 - CABALLITO</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>805507228</t>
+          <t>802367713</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -4157,11 +4281,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
           <t>1</t>
@@ -4174,7 +4294,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -4183,36 +4303,36 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>-58.463339</v>
+        <v>-58.457158</v>
       </c>
       <c r="N57" t="n">
-        <v>-34.6369</v>
+        <v>-34.605839</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>5668</t>
+          <t>-212</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>4/28/2025</t>
+          <t>11/7/2024</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>CURAPALIGUE 367</t>
+          <t>FIGUEROA CNEL APOLINARIO /ALT/ 863</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>106569 - CABALLITO</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>805507231</t>
+          <t>799485362</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -4225,62 +4345,46 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
-        <v>-58.452319</v>
+        <v>-58.450579</v>
       </c>
       <c r="N58" t="n">
-        <v>-34.62917</v>
+        <v>-34.607673</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>-383</t>
+          <t>-152</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>11/1/2024</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>VALDERRAMA /ALT/ 4187</t>
+          <t>FERNANDEZ DE ENCISO /ALT/ 3610</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>106592 - VILLA URQUIZA</t>
+          <t>106589 - VILLA DEVOTO</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>805507401</t>
+          <t>798984311</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -4293,62 +4397,46 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aplomar columna 114 </t>
-        </is>
-      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>Aplomo</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
-        <v>-58.481834</v>
+        <v>-58.513363</v>
       </c>
       <c r="N59" t="n">
-        <v>-34.560796</v>
+        <v>-34.605473</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>-384</t>
+          <t>-160</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>11/1/2024</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>LUGONES 1721</t>
+          <t>MORAN PEDRO /ALT/ 3100</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>106586 - VILLA ORTUZAR</t>
+          <t>106587 - AGRONOMIA</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>805507408</t>
+          <t>798984905</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -4361,62 +4449,46 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>Aplomar columna 168 - La columna esta frente a la altura 1721</t>
-        </is>
-      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>Aplomo</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
-        <v>-58.473936</v>
+        <v>-58.498724</v>
       </c>
       <c r="N60" t="n">
-        <v>-34.577346</v>
+        <v>-34.594329</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>-387</t>
+          <t>-31</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>5/1/2025</t>
+          <t>2/21/2024</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>FLORES GRAL VENANCIO /ALT/ 4139</t>
+          <t>CONDARCO /ALT/ 451</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>106574 - VELEZ SARSFIELD</t>
+          <t>106570 - FLORES</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>805579025</t>
+          <t>780387959</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -4431,60 +4503,48 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Columna fuera de plomo - VIRARDI</t>
+          <t>cambio poste de madera</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>Aplomo</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
-        <v>-58.485221</v>
+        <v>-58.468603</v>
       </c>
       <c r="N61" t="n">
-        <v>-34.633425</v>
+        <v>-34.626012</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>-391</t>
+          <t>-10</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>5/5/2025</t>
+          <t>1/15/2024</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>IBERA /ALT/ 5074</t>
+          <t>DARWIN /ALT/ 651</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>106592 - VILLA URQUIZA</t>
+          <t>106582 - VILLA CRESPO</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>805676610</t>
+          <t>777863458</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -4497,14 +4557,10 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cambiar columna 114 base corroida </t>
-        </is>
-      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -4523,36 +4579,36 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>-58.49045</v>
+        <v>-58.44467</v>
       </c>
       <c r="N62" t="n">
-        <v>-34.566894</v>
+        <v>-34.593784</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>-396</t>
+          <t>-176</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>5/6/2025</t>
+          <t>12/31/2023</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>MARTI JOSE /ALT/ 701</t>
+          <t>TARIJA /ALT/ 3345</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>106570 - FLORES</t>
+          <t>106562 - BOEDO</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>805707284</t>
+          <t>799539678</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -4567,60 +4623,48 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>columna que está podrida en base</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
-        <v>-58.468826</v>
+        <v>-58.412389</v>
       </c>
       <c r="N63" t="n">
-        <v>-34.639675</v>
+        <v>-34.628625</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>-399</t>
+          <t>-184</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>5/7/2025</t>
+          <t>12/31/2023</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Casco 115</t>
+          <t>GARZON GRAL E ,AV. /ALT/ 5145</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>106576 - LINIERS</t>
+          <t>106572 - MATADEROS</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>805722774</t>
+          <t>799539766</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -4633,62 +4677,46 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Reclamo municipal pendiente de New OT:707916611 cambiar columna de 168 con rienda.  - VIRARDI</t>
-        </is>
-      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>Terminal</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
-        <v>-58.525835</v>
+        <v>-58.488261</v>
       </c>
       <c r="N64" t="n">
-        <v>-34.637998</v>
+        <v>-34.653436</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>-400</t>
+          <t>-192</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>5/7/2025</t>
+          <t>12/31/2023</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>BYNON /ALT/ 6790</t>
+          <t>LLAVALLOL /ALT/ 3363</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>106576 - LINIERS</t>
+          <t>106588 - VILLA DEL PARQUE</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>805722777</t>
+          <t>799539931</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -4701,62 +4729,46 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>Reclamo municipal pendiente de New OT:676904205. Cambiar columna de 114 corroida.  - VIRARDI</t>
-        </is>
-      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
-        <v>-58.525119</v>
+        <v>-58.499699</v>
       </c>
       <c r="N65" t="n">
-        <v>-34.637178</v>
+        <v>-34.600641</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>5805</t>
+          <t>-193</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>5/14/2025</t>
+          <t>12/31/2023</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>GUTENBERG 4134</t>
+          <t>WASHINGTON /ALT/ 3251</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>106590 - COGHLAN</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>806926378</t>
+          <t>799539971</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -4771,34 +4783,22 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Washington 3251 cambiar columna de 114 transferir tendidos. dejar pasivos en norma</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>Aplomo</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>Poste</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
-        <v>-58.51665</v>
+        <v>-58.478272</v>
       </c>
       <c r="N66" t="n">
-        <v>-34.596644</v>
+        <v>-34.558899</v>
       </c>
     </row>
   </sheetData>

--- a/mapa_interactivo_AYKO.xlsx
+++ b/mapa_interactivo_AYKO.xlsx
@@ -508,27 +508,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>5805</t>
+          <t>-10</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5/14/2025</t>
+          <t>1/15/2024</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>GUTENBERG 4134</t>
+          <t>DARWIN /ALT/ 651</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>106582 - VILLA CRESPO</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>806926378</t>
+          <t>777863458</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -541,19 +541,15 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Poste inclinado</t>
-        </is>
-      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -563,40 +559,40 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>-58.51665</v>
+        <v>-58.44467</v>
       </c>
       <c r="N2" t="n">
-        <v>-34.596644</v>
+        <v>-34.593784</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>-399</t>
+          <t>-31</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>5/7/2025</t>
+          <t>2/21/2024</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Casco 115</t>
+          <t>CONDARCO /ALT/ 451</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>106576 - LINIERS</t>
+          <t>106570 - FLORES</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>805722774</t>
+          <t>780387959</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -611,60 +607,48 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Reclamo municipal pendiente de New OT:707916611 cambiar columna de 168 con rienda.  - VIRARDI</t>
+          <t>cambio poste de madera</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Terminal</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
-        <v>-58.525835</v>
+        <v>-58.468603</v>
       </c>
       <c r="N3" t="n">
-        <v>-34.637998</v>
+        <v>-34.626012</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>-400</t>
+          <t>-152</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>5/7/2025</t>
+          <t>11/1/2024</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BYNON /ALT/ 6790</t>
+          <t>FERNANDEZ DE ENCISO /ALT/ 3610</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>106576 - LINIERS</t>
+          <t>106589 - VILLA DEVOTO</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>805722777</t>
+          <t>798984311</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -677,62 +661,46 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Reclamo municipal pendiente de New OT:676904205. Cambiar columna de 114 corroida.  - VIRARDI</t>
-        </is>
-      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
-        <v>-58.525119</v>
+        <v>-58.513363</v>
       </c>
       <c r="N4" t="n">
-        <v>-34.637178</v>
+        <v>-34.605473</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>-396</t>
+          <t>-160</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>5/6/2025</t>
+          <t>11/1/2024</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MARTI JOSE /ALT/ 701</t>
+          <t>MORAN PEDRO /ALT/ 3100</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>106570 - FLORES</t>
+          <t>106587 - AGRONOMIA</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>805707284</t>
+          <t>798984905</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -745,62 +713,46 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
-        <v>-58.468826</v>
+        <v>-58.498724</v>
       </c>
       <c r="N5" t="n">
-        <v>-34.639675</v>
+        <v>-34.594329</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>-391</t>
+          <t>-176</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>5/5/2025</t>
+          <t>12/31/2023</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>IBERA /ALT/ 5074</t>
+          <t>TARIJA /ALT/ 3345</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>106592 - VILLA URQUIZA</t>
+          <t>106562 - BOEDO</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>805676610</t>
+          <t>799539678</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -815,60 +767,48 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna 114 base corroida </t>
+          <t>columna que está podrida en base</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
-        <v>-58.49045</v>
+        <v>-58.412389</v>
       </c>
       <c r="N6" t="n">
-        <v>-34.566894</v>
+        <v>-34.628625</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>-387</t>
+          <t>-184</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>5/1/2025</t>
+          <t>12/31/2023</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>FLORES GRAL VENANCIO /ALT/ 4139</t>
+          <t>GARZON GRAL E ,AV. /ALT/ 5145</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>106574 - VELEZ SARSFIELD</t>
+          <t>106572 - MATADEROS</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>805579025</t>
+          <t>799539766</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -881,62 +821,46 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Columna fuera de plomo - VIRARDI</t>
-        </is>
-      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Aplomo</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
-        <v>-58.485221</v>
+        <v>-58.488261</v>
       </c>
       <c r="N7" t="n">
-        <v>-34.633425</v>
+        <v>-34.653436</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>-383</t>
+          <t>-192</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>12/31/2023</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>VALDERRAMA /ALT/ 4187</t>
+          <t>LLAVALLOL /ALT/ 3363</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>106592 - VILLA URQUIZA</t>
+          <t>106588 - VILLA DEL PARQUE</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>805507401</t>
+          <t>799539931</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -949,62 +873,46 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aplomar columna 114 </t>
-        </is>
-      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Aplomo</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
-        <v>-58.481834</v>
+        <v>-58.499699</v>
       </c>
       <c r="N8" t="n">
-        <v>-34.560796</v>
+        <v>-34.600641</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>-384</t>
+          <t>-193</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>12/31/2023</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>LUGONES 1721</t>
+          <t>WASHINGTON /ALT/ 3251</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>106586 - VILLA ORTUZAR</t>
+          <t>106590 - COGHLAN</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>805507408</t>
+          <t>799539971</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1019,60 +927,48 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Aplomar columna 168 - La columna esta frente a la altura 1721</t>
+          <t>Washington 3251 cambiar columna de 114 transferir tendidos. dejar pasivos en norma</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Aplomo</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
-        <v>-58.473936</v>
+        <v>-58.478272</v>
       </c>
       <c r="N9" t="n">
-        <v>-34.577346</v>
+        <v>-34.558899</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>5664</t>
+          <t>-212</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4/28/2025</t>
+          <t>11/7/2024</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>REMEDIOS 2675</t>
+          <t>FIGUEROA CNEL APOLINARIO /ALT/ 863</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>106569 - CABALLITO</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>805507228</t>
+          <t>799485362</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1085,62 +981,46 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
-        <v>-58.463339</v>
+        <v>-58.450579</v>
       </c>
       <c r="N10" t="n">
-        <v>-34.6369</v>
+        <v>-34.607673</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>5668</t>
+          <t>-254</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>4/28/2025</t>
+          <t>1/7/2025</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CURAPALIGUE 367</t>
+          <t>BELAUSTEGUI DR LUIS /ALT/ 1185</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>106569 - CABALLITO</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>805507231</t>
+          <t>802367713</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1153,11 +1033,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
           <t>1</t>
@@ -1170,7 +1046,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1179,36 +1055,36 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>-58.452319</v>
+        <v>-58.457158</v>
       </c>
       <c r="N11" t="n">
-        <v>-34.62917</v>
+        <v>-34.605839</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>-381</t>
+          <t>4915</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>4/25/2025</t>
+          <t>2/19/2025</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>RIVADAVIA ,AV. /ALT/ 9477</t>
+          <t>BARCA CABO DE HORNOS 6753</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>106575 - VILLA LURO</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>805010120</t>
+          <t>803607875</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1223,7 +1099,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Podrida en la base</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1243,40 +1119,40 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>-58.497691</v>
+        <v>-58.491041</v>
       </c>
       <c r="N12" t="n">
-        <v>-34.637087</v>
+        <v>-34.679704</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>-372</t>
+          <t>803608154</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>2/24/2025</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CAMARGO /ALT/ 25</t>
+          <t>CUBAS JOSE /ALT/ 3372</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>106582 - VILLA CRESPO</t>
+          <t>106589 - VILLA DEVOTO</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>804903809</t>
+          <t>803608154</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1291,12 +1167,12 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Aplomar columna 114 con rienda a pique</t>
+          <t>Colocar columna</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1315,36 +1191,36 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>-58.436788</v>
+        <v>-58.506318</v>
       </c>
       <c r="N13" t="n">
-        <v>-34.604014</v>
+        <v>-34.592417</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>-373</t>
+          <t>803608215</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>2/24/2025</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>GALLARDO ANGEL ,AV. /ALT/ 608</t>
+          <t>DEL PINO VIRREY /ALT/ 2646</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>106569 - CABALLITO</t>
+          <t>106581 - COLEGIALES</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>804903810</t>
+          <t>803608215</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1359,17 +1235,17 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
+          <t>Columna 114 quebrada en base dar prioridad.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1383,36 +1259,36 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>-58.439461</v>
+        <v>-58.45524</v>
       </c>
       <c r="N14" t="n">
-        <v>-34.605744</v>
+        <v>-34.567858</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>-375</t>
+          <t>803608331</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>2/24/2025</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>PAVON /ALT/ 3335</t>
+          <t>ROOSEVELT F D ,AV. /ALT/ 4875</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>106562 - BOEDO</t>
+          <t>106592 - VILLA URQUIZA</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>804903824</t>
+          <t>803608331</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1427,12 +1303,12 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Colocar columna nueva donde estaba la anterior cortada</t>
+          <t xml:space="preserve">Columna terminal168 con rienda a pique fuera de plomo  y base con cimentación rota </t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1451,36 +1327,36 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>-58.412418</v>
+        <v>-58.484493</v>
       </c>
       <c r="N15" t="n">
-        <v>-34.629288</v>
+        <v>-34.572049</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>-378</t>
+          <t>803608455</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>2/24/2025</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>MAGARINO CERVANTES A /ALT/ 5054</t>
+          <t>VALDENEGRO /ALT/ 4037</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>106574 - VELEZ SARSFIELD</t>
+          <t>106593 - SAAVEDRA</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>804903791</t>
+          <t>803608455</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1495,17 +1371,17 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Desmontar poste</t>
+          <t>Cambiar poste podrido apoyado en tanque de agua. Es sobre parque junto a medianera.  Dar prioridad .</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1519,36 +1395,36 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>-58.503618</v>
+        <v>-58.493679</v>
       </c>
       <c r="N16" t="n">
-        <v>-34.629209</v>
+        <v>-34.557149</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>-339</t>
+          <t>803608463</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>4/21/2025</t>
+          <t>2/24/2025</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>GRIVEO /ALT/ 2435</t>
+          <t>COCHABAMBA /ALT/ 1790</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>106591 - VILLA PUEYRREDON</t>
+          <t>106552 - CONSTITUCION</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>804838868</t>
+          <t>803608463</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1563,22 +1439,22 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 114  </t>
+          <t>SIN RIEGO</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo/Fuente Teco</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1587,36 +1463,36 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>-58.498493</v>
+        <v>-58.391153</v>
       </c>
       <c r="N17" t="n">
-        <v>-34.581262</v>
+        <v>-34.624022</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>-340</t>
+          <t>-300</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>4/21/2025</t>
+          <t>3/17/2025</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>SUPERI /ALT/ 1445</t>
+          <t>SAN MARTIN ,AV. /ALT/ 6195</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>106581 - COLEGIALES</t>
+          <t>106587 - AGRONOMIA</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>804838869</t>
+          <t>804081102</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1631,12 +1507,12 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Columna podrida en la base</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1651,40 +1527,40 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>-58.460666</v>
+        <v>-58.502505</v>
       </c>
       <c r="N18" t="n">
-        <v>-34.573823</v>
+        <v>-34.59465</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>-330</t>
+          <t>5110</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>4/17/2025</t>
+          <t>3/25/2025</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ROCHA /ALT/ 1651</t>
+          <t>CUENCA 158</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>106561 - BARRACAS</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>804787341</t>
+          <t>804287943</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1699,7 +1575,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Reemplazar columna en mal estado.</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1723,36 +1599,36 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>-58.373267</v>
+        <v>-58.474432</v>
       </c>
       <c r="N19" t="n">
-        <v>-34.642303</v>
+        <v>-34.629827</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>-326</t>
+          <t>-310</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>GARCIA DEL RIO /ALT/ 3354</t>
+          <t>GONZALEZ JOAQUIN V /ALT/ 729</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>106573 - FLORESTA</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>804634199</t>
+          <t>804302855</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1767,17 +1643,17 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Retirar poste de vereda. Reparar la vereda donde estaba colocado el poste.</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1787,40 +1663,40 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>-58.478106</v>
+        <v>-58.482428</v>
       </c>
       <c r="N20" t="n">
-        <v>-34.551523</v>
+        <v>-34.625289</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>-327</t>
+          <t>-311</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ROOSEVELT F D ,AV. /ALT/ 5439</t>
+          <t>GONZALEZ JOAQUIN V /ALT/ 789</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>106592 - VILLA URQUIZA</t>
+          <t>106573 - FLORESTA</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>804634203</t>
+          <t>804302872</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1835,12 +1711,12 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Colocar columna R200 y  dar aviso para el traspaso de nodos. (TECO y TLC)</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1850,45 +1726,45 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>-58.491074</v>
+        <v>-58.482612</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.575623</v>
+        <v>-34.624833</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>5572</t>
+          <t>-313</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>3/29/2025</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>SANABRIA 4289</t>
+          <t>VILLARINO /ALT/ 1710</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>106561 - BARRACAS</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>804663652</t>
+          <t>804333525</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1903,17 +1779,17 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Cambio de poste terminal con rienda pique Por columna.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1923,30 +1799,30 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-58.516755</v>
+        <v>-58.370595</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.6002</v>
+        <v>-34.652025</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>5573</t>
+          <t>5138</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/1/2025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>LASTRA AV. 4379</t>
+          <t>LOPEZ, CARLOS ANTONIO 3326</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1956,7 +1832,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>804663677</t>
+          <t>804468459</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1971,7 +1847,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>COLUMNA INCLINADA</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1995,26 +1871,26 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-58.525125</v>
+        <v>-58.508582</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.604668</v>
+        <v>-34.588936</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>5574</t>
+          <t>5139</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/1/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>GRIVEO 3909</t>
+          <t>LOPEZ, CARLOS ANTONIO 3346</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2024,7 +1900,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>804663683</t>
+          <t>804468467</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2039,7 +1915,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Poste Inclinado</t>
+          <t>COLUMNA INCLINADA</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2059,40 +1935,40 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>-58.517126</v>
+        <v>-58.508809</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.592774</v>
+        <v>-34.589076</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>-342</t>
+          <t>5479</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/4/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>WILLIAMS ALBERTO /ALT/ 5625</t>
+          <t>CONCORDIA 812</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>804839148</t>
+          <t>804497942</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2107,12 +1983,12 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Cambiar columna de 114. - VIRARDI</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2131,36 +2007,36 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.502447</v>
+        <v>-58.479563</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.561008</v>
+        <v>-34.623886</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>-346</t>
+          <t>5485</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/4/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ARGERICH /ALT/ 4710</t>
+          <t>FLORES, VENANCIO, GRAL. 2977</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>106591 - VILLA PUEYRREDON</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>804839198</t>
+          <t>804497954</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2175,12 +2051,12 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Cambiar poste con rienda podrido en su base - VIRARDI</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2195,40 +2071,40 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.503673</v>
+        <v>-58.471643</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.586925</v>
+        <v>-34.629262</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>-353</t>
+          <t>5500</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/7/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CAAGUAZU /ALT/ 5703</t>
+          <t>LA PLATA AV. 1013</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>106576 - LINIERS</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>804839589</t>
+          <t>804568914</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2243,17 +2119,17 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Cambiar columna de 114. Fuera de plomo empotrada en árbol colocar rienda. ( se pasa tareas a contratista tratista de limpieza tensado y elevación del tendido).  - VIRARDI</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2267,36 +2143,36 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.511462</v>
+        <v>-58.426804</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.640542</v>
+        <v>-34.627283</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>-354</t>
+          <t>5728</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/7/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CONDARCO /ALT/ 5316</t>
+          <t>FRANCO 3340</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>106591 - VILLA PUEYRREDON</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>804839626</t>
+          <t>804568964</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2311,17 +2187,17 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Aplomo de columna de PRFV - VIRARDI</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2335,36 +2211,36 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.504455</v>
+        <v>-58.512525</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.579941</v>
+        <v>-34.585228</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>-355</t>
+          <t>5521</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/8/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CUENCA /ALT/ 4480</t>
+          <t>EL PEREGRINO 3115</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>106591 - VILLA PUEYRREDON</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>804839675</t>
+          <t>804569000</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2379,12 +2255,12 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Columna nueva fuera de plomo sostiene nodo de Telecentro.  Reclamo municipal.  - VIRARDI</t>
+          <t>Aplomar Poste</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2394,45 +2270,45 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Nodo/Fuente TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.504568</v>
+        <v>-58.485232</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.590534</v>
+        <v>-34.611573</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>-356</t>
+          <t>-319</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/8/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CUENCA /ALT/ 4845</t>
+          <t>MAGALLANES /ALT/ 1239</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>106591 - VILLA PUEYRREDON</t>
+          <t>106551 - LA BOCA</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>804839715</t>
+          <t>804569042</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2447,17 +2323,17 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Retiro de poste viejo en desuso liberado podrido en su base.  - VIRARDI</t>
+          <t>Base corroida agujereada</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2467,20 +2343,20 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.507182</v>
+        <v>-58.368045</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.58749</v>
+        <v>-34.640855</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>-357</t>
+          <t>-326</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2490,17 +2366,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>MISTRAL GABRIELA /ALT/ 3376</t>
+          <t>GARCIA DEL RIO /ALT/ 3354</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>106589 - VILLA DEVOTO</t>
+          <t>106593 - SAAVEDRA</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>804839774</t>
+          <t>804634199</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2515,17 +2391,17 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Cambiar columna corroida en su base.  Ubicada en puerta de colegio.  - VIRARDI</t>
+          <t>Retirar poste de vereda. Reparar la vereda donde estaba colocado el poste.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2535,20 +2411,20 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.507591</v>
+        <v>-58.478106</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.590945</v>
+        <v>-34.551523</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>-359</t>
+          <t>-327</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2558,17 +2434,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CABEZON JOSE LEON /ALT/ 2714</t>
+          <t>ROOSEVELT F D ,AV. /ALT/ 5439</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>106591 - VILLA PUEYRREDON</t>
+          <t>106592 - VILLA URQUIZA</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>804839875</t>
+          <t>804634203</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2583,22 +2459,22 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Aplomo de columna de 114 - VIRARDI</t>
+          <t>Colocar columna R200 y  dar aviso para el traspaso de nodos. (TECO y TLC)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2607,16 +2483,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.503195</v>
+        <v>-58.491074</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.581735</v>
+        <v>-34.575623</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>-362</t>
+          <t>5572</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2626,17 +2502,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>MOZART /ALT/ 562</t>
+          <t>SANABRIA 4289</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>106571 - PQUE. AVELLANEDA</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>804839947</t>
+          <t>804663652</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2651,12 +2527,12 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Aplomar columna de 114. Se encuentra frente al 575 lado plaza sin número.  - VIRARDI</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2671,20 +2547,20 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.489948</v>
+        <v>-58.516755</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.643478</v>
+        <v>-34.6002</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>-364</t>
+          <t>5573</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2694,17 +2570,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>PAROISSIEN /ALT/ 4871</t>
+          <t>LASTRA AV. 4379</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>804839991</t>
+          <t>804663677</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2719,12 +2595,12 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Aplomar columna de 114 - VIRARDI</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2743,16 +2619,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.493164</v>
+        <v>-58.525125</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.55732</v>
+        <v>-34.604668</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>-365</t>
+          <t>5574</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2762,17 +2638,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>QUESADA /ALT/ 5290</t>
+          <t>GRIVEO 3909</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>106592 - VILLA URQUIZA</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>804839995</t>
+          <t>804663683</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2787,17 +2663,17 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Columna nueva de PVC fuera de plomo.  - VIRARDI</t>
+          <t>Poste Inclinado</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2807,40 +2683,40 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.491934</v>
+        <v>-58.517126</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.569348</v>
+        <v>-34.592774</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>-366</t>
+          <t>-330</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/17/2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>QUESADA /ALT/ 6088</t>
+          <t>ROCHA /ALT/ 1651</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>106592 - VILLA URQUIZA</t>
+          <t>106561 - BARRACAS</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>804840016</t>
+          <t>804787341</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2855,17 +2731,17 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aplomar columna de 168 cambiar rienda.  - VIRARDI</t>
+          <t>Reemplazar columna en mal estado.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2879,36 +2755,36 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.501418</v>
+        <v>-58.373267</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.574363</v>
+        <v>-34.642303</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>-367</t>
+          <t>-339</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/21/2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>RUIZ HUIDOBRO ,AV. /ALT/ 4771</t>
+          <t>GRIVEO /ALT/ 2435</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>106591 - VILLA PUEYRREDON</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>804840024</t>
+          <t>804838868</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2923,12 +2799,12 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Aplomo de columna de 114 - VIRARDI</t>
+          <t xml:space="preserve">Aplomar columna 114  </t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2947,36 +2823,36 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.494584</v>
+        <v>-58.498493</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.554981</v>
+        <v>-34.581262</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>5521</t>
+          <t>-340</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>4/8/2025</t>
+          <t>4/21/2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>EL PEREGRINO 3115</t>
+          <t>SUPERI /ALT/ 1445</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>106581 - COLEGIALES</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>804569000</t>
+          <t>804838869</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2991,7 +2867,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Aplomar Poste</t>
+          <t>Columna podrida en la base</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3001,7 +2877,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -3011,40 +2887,40 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.485232</v>
+        <v>-58.460666</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.611573</v>
+        <v>-34.573823</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>-319</t>
+          <t>-342</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>4/8/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>MAGALLANES /ALT/ 1239</t>
+          <t>WILLIAMS ALBERTO /ALT/ 5625</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>106551 - LA BOCA</t>
+          <t>106593 - SAAVEDRA</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>804569042</t>
+          <t>804839148</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3059,12 +2935,12 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Base corroida agujereada</t>
+          <t>Cambiar columna de 114. - VIRARDI</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -3083,36 +2959,36 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.368045</v>
+        <v>-58.502447</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.640855</v>
+        <v>-34.561008</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>5500</t>
+          <t>-346</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>4/7/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>LA PLATA AV. 1013</t>
+          <t>ARGERICH /ALT/ 4710</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>106591 - VILLA PUEYRREDON</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>804568914</t>
+          <t>804839198</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3127,17 +3003,17 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Cambiar poste con rienda podrido en su base - VIRARDI</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3147,40 +3023,40 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.426804</v>
+        <v>-58.503673</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.627283</v>
+        <v>-34.586925</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>5728</t>
+          <t>-353</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>4/7/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>FRANCO 3340</t>
+          <t>CAAGUAZU /ALT/ 5703</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>106576 - LINIERS</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>804568964</t>
+          <t>804839589</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3195,12 +3071,12 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar columna de 114. Fuera de plomo empotrada en árbol colocar rienda. ( se pasa tareas a contratista tratista de limpieza tensado y elevación del tendido).  - VIRARDI</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -3219,36 +3095,36 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.512525</v>
+        <v>-58.511462</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.585228</v>
+        <v>-34.640542</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>5479</t>
+          <t>-354</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>4/4/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CONCORDIA 812</t>
+          <t>CONDARCO /ALT/ 5316</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>106591 - VILLA PUEYRREDON</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>804497942</t>
+          <t>804839626</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3263,17 +3139,17 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomo de columna de PRFV - VIRARDI</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -3287,36 +3163,36 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.479563</v>
+        <v>-58.504455</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.623886</v>
+        <v>-34.579941</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>5485</t>
+          <t>-355</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>4/4/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>FLORES, VENANCIO, GRAL. 2977</t>
+          <t>CUENCA /ALT/ 4480</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>106591 - VILLA PUEYRREDON</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>804497954</t>
+          <t>804839675</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3331,22 +3207,22 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna nueva fuera de plomo sostiene nodo de Telecentro.  Reclamo municipal.  - VIRARDI</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo/Fuente TLC</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -3355,36 +3231,36 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.471643</v>
+        <v>-58.504568</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.629262</v>
+        <v>-34.590534</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>5138</t>
+          <t>-356</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>4/1/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>LOPEZ, CARLOS ANTONIO 3326</t>
+          <t>CUENCA /ALT/ 4845</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>106591 - VILLA PUEYRREDON</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>804468459</t>
+          <t>804839715</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3399,17 +3275,17 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>COLUMNA INCLINADA</t>
+          <t>Retiro de poste viejo en desuso liberado podrido en su base.  - VIRARDI</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3419,40 +3295,40 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.508582</v>
+        <v>-58.507182</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.588936</v>
+        <v>-34.58749</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>5139</t>
+          <t>-357</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>4/1/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>LOPEZ, CARLOS ANTONIO 3346</t>
+          <t>MISTRAL GABRIELA /ALT/ 3376</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>106589 - VILLA DEVOTO</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>804468467</t>
+          <t>804839774</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3467,17 +3343,17 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>COLUMNA INCLINADA</t>
+          <t>Cambiar columna corroida en su base.  Ubicada en puerta de colegio.  - VIRARDI</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -3491,36 +3367,36 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.508809</v>
+        <v>-58.507591</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.589076</v>
+        <v>-34.590945</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>-313</t>
+          <t>-359</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>3/29/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>VILLARINO /ALT/ 1710</t>
+          <t>CABEZON JOSE LEON /ALT/ 2714</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>106561 - BARRACAS</t>
+          <t>106591 - VILLA PUEYRREDON</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>804333525</t>
+          <t>804839875</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3535,7 +3411,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Cambio de poste terminal con rienda pique Por columna.</t>
+          <t>Aplomo de columna de 114 - VIRARDI</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3545,7 +3421,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3559,36 +3435,36 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.370595</v>
+        <v>-58.503195</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.652025</v>
+        <v>-34.581735</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>-310</t>
+          <t>-362</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>GONZALEZ JOAQUIN V /ALT/ 729</t>
+          <t>MOZART /ALT/ 562</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>106573 - FLORESTA</t>
+          <t>106571 - PQUE. AVELLANEDA</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>804302855</t>
+          <t>804839947</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3603,7 +3479,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar columna de 114. Se encuentra frente al 575 lado plaza sin número.  - VIRARDI</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3613,7 +3489,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3627,36 +3503,36 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.482428</v>
+        <v>-58.489948</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.625289</v>
+        <v>-34.643478</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>-311</t>
+          <t>-364</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>GONZALEZ JOAQUIN V /ALT/ 789</t>
+          <t>PAROISSIEN /ALT/ 4871</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>106573 - FLORESTA</t>
+          <t>106593 - SAAVEDRA</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>804302872</t>
+          <t>804839991</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3671,7 +3547,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar columna de 114 - VIRARDI</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3681,7 +3557,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3691,40 +3567,40 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.482612</v>
+        <v>-58.493164</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.624833</v>
+        <v>-34.55732</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>5110</t>
+          <t>-365</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>3/25/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CUENCA 158</t>
+          <t>QUESADA /ALT/ 5290</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>106592 - VILLA URQUIZA</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>804287943</t>
+          <t>804839995</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3739,12 +3615,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna nueva de PVC fuera de plomo.  - VIRARDI</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -3763,36 +3639,36 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.474432</v>
+        <v>-58.491934</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.629827</v>
+        <v>-34.569348</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>-300</t>
+          <t>-366</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>3/17/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>SAN MARTIN ,AV. /ALT/ 6195</t>
+          <t>QUESADA /ALT/ 6088</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>106587 - AGRONOMIA</t>
+          <t>106592 - VILLA URQUIZA</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>804081102</t>
+          <t>804840016</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3807,7 +3683,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Aplomar columna de 168 cambiar rienda.  - VIRARDI</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3817,7 +3693,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3827,40 +3703,40 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.502505</v>
+        <v>-58.501418</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.59465</v>
+        <v>-34.574363</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>803608154</t>
+          <t>-367</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2/24/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>CUBAS JOSE /ALT/ 3372</t>
+          <t>RUIZ HUIDOBRO ,AV. /ALT/ 4771</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>106589 - VILLA DEVOTO</t>
+          <t>106593 - SAAVEDRA</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>803608154</t>
+          <t>804840024</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3875,7 +3751,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Colocar columna</t>
+          <t>Aplomo de columna de 114 - VIRARDI</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3885,7 +3761,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -3899,36 +3775,36 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>-58.506318</v>
+        <v>-58.494584</v>
       </c>
       <c r="N51" t="n">
-        <v>-34.592417</v>
+        <v>-34.554981</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>803608215</t>
+          <t>-372</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2/24/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>DEL PINO VIRREY /ALT/ 2646</t>
+          <t>CAMARGO /ALT/ 25</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>106581 - COLEGIALES</t>
+          <t>106582 - VILLA CRESPO</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>803608215</t>
+          <t>804903809</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3943,12 +3819,12 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Columna 114 quebrada en base dar prioridad.</t>
+          <t>Aplomar columna 114 con rienda a pique</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -3967,36 +3843,36 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>-58.45524</v>
+        <v>-58.436788</v>
       </c>
       <c r="N52" t="n">
-        <v>-34.567858</v>
+        <v>-34.604014</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>803608331</t>
+          <t>-373</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2/24/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>ROOSEVELT F D ,AV. /ALT/ 4875</t>
+          <t>GALLARDO ANGEL ,AV. /ALT/ 608</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>106592 - VILLA URQUIZA</t>
+          <t>106569 - CABALLITO</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>803608331</t>
+          <t>804903810</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -4011,17 +3887,17 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Columna terminal168 con rienda a pique fuera de plomo  y base con cimentación rota </t>
+          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -4035,36 +3911,36 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>-58.484493</v>
+        <v>-58.439461</v>
       </c>
       <c r="N53" t="n">
-        <v>-34.572049</v>
+        <v>-34.605744</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>803608455</t>
+          <t>-375</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2/24/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>VALDENEGRO /ALT/ 4037</t>
+          <t>PAVON /ALT/ 3335</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>106562 - BOEDO</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>803608455</t>
+          <t>804903824</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4079,12 +3955,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Cambiar poste podrido apoyado en tanque de agua. Es sobre parque junto a medianera.  Dar prioridad .</t>
+          <t>Colocar columna nueva donde estaba la anterior cortada</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -4099,40 +3975,40 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>-58.493679</v>
+        <v>-58.412418</v>
       </c>
       <c r="N54" t="n">
-        <v>-34.557149</v>
+        <v>-34.629288</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>803608463</t>
+          <t>-378</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2/24/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>COCHABAMBA /ALT/ 1790</t>
+          <t>MAGARINO CERVANTES A /ALT/ 5054</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>106552 - CONSTITUCION</t>
+          <t>106574 - VELEZ SARSFIELD</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>803608463</t>
+          <t>804903791</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4147,60 +4023,60 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>SIN RIEGO</t>
+          <t>Desmontar poste</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Nodo/Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>-58.391153</v>
+        <v>-58.503618</v>
       </c>
       <c r="N55" t="n">
-        <v>-34.624022</v>
+        <v>-34.629209</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>4915</t>
+          <t>-381</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2/19/2025</t>
+          <t>4/25/2025</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>BARCA CABO DE HORNOS 6753</t>
+          <t>RIVADAVIA ,AV. /ALT/ 9477</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>106575 - VILLA LURO</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>803607875</t>
+          <t>805010120</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -4215,7 +4091,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Podrida en la base</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4235,40 +4111,40 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>-58.491041</v>
+        <v>-58.497691</v>
       </c>
       <c r="N56" t="n">
-        <v>-34.679704</v>
+        <v>-34.637087</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>-254</t>
+          <t>5664</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1/7/2025</t>
+          <t>4/28/2025</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>BELAUSTEGUI DR LUIS /ALT/ 1185</t>
+          <t>REMEDIOS 2675</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>106569 - CABALLITO</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>802367713</t>
+          <t>805507228</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -4281,7 +4157,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr"/>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
       <c r="I57" t="inlineStr">
         <is>
           <t>1</t>
@@ -4294,7 +4174,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -4303,36 +4183,36 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>-58.457158</v>
+        <v>-58.463339</v>
       </c>
       <c r="N57" t="n">
-        <v>-34.605839</v>
+        <v>-34.6369</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>-212</t>
+          <t>5668</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>11/7/2024</t>
+          <t>4/28/2025</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>FIGUEROA CNEL APOLINARIO /ALT/ 863</t>
+          <t>CURAPALIGUE 367</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>106569 - CABALLITO</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>799485362</t>
+          <t>805507231</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -4345,46 +4225,62 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr"/>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M58" t="n">
-        <v>-58.450579</v>
+        <v>-58.452319</v>
       </c>
       <c r="N58" t="n">
-        <v>-34.607673</v>
+        <v>-34.62917</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>-152</t>
+          <t>-383</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>11/1/2024</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>FERNANDEZ DE ENCISO /ALT/ 3610</t>
+          <t>VALDERRAMA /ALT/ 4187</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>106589 - VILLA DEVOTO</t>
+          <t>106592 - VILLA URQUIZA</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>798984311</t>
+          <t>805507401</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -4397,46 +4293,62 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr"/>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aplomar columna 114 </t>
+        </is>
+      </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Aplomo</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M59" t="n">
-        <v>-58.513363</v>
+        <v>-58.481834</v>
       </c>
       <c r="N59" t="n">
-        <v>-34.605473</v>
+        <v>-34.560796</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>-160</t>
+          <t>-384</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>11/1/2024</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>MORAN PEDRO /ALT/ 3100</t>
+          <t>LUGONES 1721</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>106587 - AGRONOMIA</t>
+          <t>106586 - VILLA ORTUZAR</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>798984905</t>
+          <t>805507408</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -4449,46 +4361,62 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr"/>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Aplomar columna 168 - La columna esta frente a la altura 1721</t>
+        </is>
+      </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Aplomo</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M60" t="n">
-        <v>-58.498724</v>
+        <v>-58.473936</v>
       </c>
       <c r="N60" t="n">
-        <v>-34.594329</v>
+        <v>-34.577346</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>-31</t>
+          <t>-387</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2/21/2024</t>
+          <t>5/1/2025</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>CONDARCO /ALT/ 451</t>
+          <t>FLORES GRAL VENANCIO /ALT/ 4139</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>106570 - FLORES</t>
+          <t>106574 - VELEZ SARSFIELD</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>780387959</t>
+          <t>805579025</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -4503,48 +4431,60 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>cambio poste de madera</t>
+          <t>Columna fuera de plomo - VIRARDI</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Aplomo</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M61" t="n">
-        <v>-58.468603</v>
+        <v>-58.485221</v>
       </c>
       <c r="N61" t="n">
-        <v>-34.626012</v>
+        <v>-34.633425</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>-10</t>
+          <t>-391</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1/15/2024</t>
+          <t>5/5/2025</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>DARWIN /ALT/ 651</t>
+          <t>IBERA /ALT/ 5074</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>106582 - VILLA CRESPO</t>
+          <t>106592 - VILLA URQUIZA</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>777863458</t>
+          <t>805676610</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -4557,10 +4497,14 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr"/>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cambiar columna 114 base corroida </t>
+        </is>
+      </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -4579,36 +4523,36 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>-58.44467</v>
+        <v>-58.49045</v>
       </c>
       <c r="N62" t="n">
-        <v>-34.593784</v>
+        <v>-34.566894</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>-176</t>
+          <t>-396</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>12/31/2023</t>
+          <t>5/6/2025</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>TARIJA /ALT/ 3345</t>
+          <t>MARTI JOSE /ALT/ 701</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>106562 - BOEDO</t>
+          <t>106570 - FLORES</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>799539678</t>
+          <t>805707284</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -4623,48 +4567,60 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>columna que está podrida en base</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M63" t="n">
-        <v>-58.412389</v>
+        <v>-58.468826</v>
       </c>
       <c r="N63" t="n">
-        <v>-34.628625</v>
+        <v>-34.639675</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>-184</t>
+          <t>-399</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>12/31/2023</t>
+          <t>5/7/2025</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>GARZON GRAL E ,AV. /ALT/ 5145</t>
+          <t>Casco 115</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>106572 - MATADEROS</t>
+          <t>106576 - LINIERS</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>799539766</t>
+          <t>805722774</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -4677,46 +4633,62 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr"/>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Reclamo municipal pendiente de New OT:707916611 cambiar columna de 168 con rienda.  - VIRARDI</t>
+        </is>
+      </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
       <c r="M64" t="n">
-        <v>-58.488261</v>
+        <v>-58.525835</v>
       </c>
       <c r="N64" t="n">
-        <v>-34.653436</v>
+        <v>-34.637998</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>-192</t>
+          <t>-400</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>12/31/2023</t>
+          <t>5/7/2025</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>LLAVALLOL /ALT/ 3363</t>
+          <t>BYNON /ALT/ 6790</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>106588 - VILLA DEL PARQUE</t>
+          <t>106576 - LINIERS</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>799539931</t>
+          <t>805722777</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -4729,46 +4701,62 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr"/>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Reclamo municipal pendiente de New OT:676904205. Cambiar columna de 114 corroida.  - VIRARDI</t>
+        </is>
+      </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M65" t="n">
-        <v>-58.499699</v>
+        <v>-58.525119</v>
       </c>
       <c r="N65" t="n">
-        <v>-34.600641</v>
+        <v>-34.637178</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>-193</t>
+          <t>5805</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>12/31/2023</t>
+          <t>5/14/2025</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>WASHINGTON /ALT/ 3251</t>
+          <t>GUTENBERG 4134</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>106590 - COGHLAN</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>799539971</t>
+          <t>806926378</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -4783,22 +4771,34 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Washington 3251 cambiar columna de 114 transferir tendidos. dejar pasivos en norma</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Aplomo</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>Poste</t>
+        </is>
+      </c>
       <c r="M66" t="n">
-        <v>-58.478272</v>
+        <v>-58.51665</v>
       </c>
       <c r="N66" t="n">
-        <v>-34.558899</v>
+        <v>-34.596644</v>
       </c>
     </row>
   </sheetData>

--- a/mapa_interactivo_AYKO.xlsx
+++ b/mapa_interactivo_AYKO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N66"/>
+  <dimension ref="A1:N63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1064,27 +1064,27 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4915</t>
+          <t>803608154</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2/19/2025</t>
+          <t>2/24/2025</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>BARCA CABO DE HORNOS 6753</t>
+          <t>CUBAS JOSE /ALT/ 3372</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>106589 - VILLA DEVOTO</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>803607875</t>
+          <t>803608154</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1099,12 +1099,12 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Colocar columna</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1119,20 +1119,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>-58.491041</v>
+        <v>-58.506318</v>
       </c>
       <c r="N12" t="n">
-        <v>-34.679704</v>
+        <v>-34.592417</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>803608154</t>
+          <t>803608215</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1142,17 +1142,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CUBAS JOSE /ALT/ 3372</t>
+          <t>DEL PINO VIRREY /ALT/ 2646</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>106589 - VILLA DEVOTO</t>
+          <t>106581 - COLEGIALES</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>803608154</t>
+          <t>803608215</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Colocar columna</t>
+          <t>Columna 114 quebrada en base dar prioridad.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1191,16 +1191,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>-58.506318</v>
+        <v>-58.45524</v>
       </c>
       <c r="N13" t="n">
-        <v>-34.592417</v>
+        <v>-34.567858</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>803608215</t>
+          <t>803608331</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1210,17 +1210,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>DEL PINO VIRREY /ALT/ 2646</t>
+          <t>ROOSEVELT F D ,AV. /ALT/ 4875</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>106581 - COLEGIALES</t>
+          <t>106592 - VILLA URQUIZA</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>803608215</t>
+          <t>803608331</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Columna 114 quebrada en base dar prioridad.</t>
+          <t xml:space="preserve">Columna terminal168 con rienda a pique fuera de plomo  y base con cimentación rota </t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1259,16 +1259,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>-58.45524</v>
+        <v>-58.484493</v>
       </c>
       <c r="N14" t="n">
-        <v>-34.567858</v>
+        <v>-34.572049</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>803608331</t>
+          <t>803608455</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1278,17 +1278,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ROOSEVELT F D ,AV. /ALT/ 4875</t>
+          <t>VALDENEGRO /ALT/ 4037</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>106592 - VILLA URQUIZA</t>
+          <t>106593 - SAAVEDRA</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>803608331</t>
+          <t>803608455</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Columna terminal168 con rienda a pique fuera de plomo  y base con cimentación rota </t>
+          <t>Cambiar poste podrido apoyado en tanque de agua. Es sobre parque junto a medianera.  Dar prioridad .</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1323,20 +1323,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>-58.484493</v>
+        <v>-58.493679</v>
       </c>
       <c r="N15" t="n">
-        <v>-34.572049</v>
+        <v>-34.557149</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>803608455</t>
+          <t>803608463</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1346,17 +1346,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>VALDENEGRO /ALT/ 4037</t>
+          <t>COCHABAMBA /ALT/ 1790</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>106552 - CONSTITUCION</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>803608455</t>
+          <t>803608463</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Cambiar poste podrido apoyado en tanque de agua. Es sobre parque junto a medianera.  Dar prioridad .</t>
+          <t>SIN RIEGO</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1386,45 +1386,45 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo/Fuente Teco</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>-58.493679</v>
+        <v>-58.391153</v>
       </c>
       <c r="N16" t="n">
-        <v>-34.557149</v>
+        <v>-34.624022</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>803608463</t>
+          <t>-300</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2/24/2025</t>
+          <t>3/17/2025</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>COCHABAMBA /ALT/ 1790</t>
+          <t>SAN MARTIN ,AV. /ALT/ 6195</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>106552 - CONSTITUCION</t>
+          <t>106587 - AGRONOMIA</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>803608463</t>
+          <t>804081102</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>SIN RIEGO</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1454,45 +1454,45 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Nodo/Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>-58.391153</v>
+        <v>-58.502505</v>
       </c>
       <c r="N17" t="n">
-        <v>-34.624022</v>
+        <v>-34.59465</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>-300</t>
+          <t>5110</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3/17/2025</t>
+          <t>3/25/2025</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>SAN MARTIN ,AV. /ALT/ 6195</t>
+          <t>CUENCA 158</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>106587 - AGRONOMIA</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>804081102</t>
+          <t>804287943</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1507,12 +1507,12 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1527,40 +1527,40 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>-58.502505</v>
+        <v>-58.474432</v>
       </c>
       <c r="N18" t="n">
-        <v>-34.59465</v>
+        <v>-34.629827</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>5110</t>
+          <t>-310</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>3/25/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CUENCA 158</t>
+          <t>GONZALEZ JOAQUIN V /ALT/ 729</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>106573 - FLORESTA</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>804287943</t>
+          <t>804302855</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1580,7 +1580,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1599,16 +1599,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>-58.474432</v>
+        <v>-58.482428</v>
       </c>
       <c r="N19" t="n">
-        <v>-34.629827</v>
+        <v>-34.625289</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>-310</t>
+          <t>-311</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1618,7 +1618,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>GONZALEZ JOAQUIN V /ALT/ 729</t>
+          <t>GONZALEZ JOAQUIN V /ALT/ 789</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1628,7 +1628,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>804302855</t>
+          <t>804302872</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1663,40 +1663,40 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>-58.482428</v>
+        <v>-58.482612</v>
       </c>
       <c r="N20" t="n">
-        <v>-34.625289</v>
+        <v>-34.624833</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>-311</t>
+          <t>-313</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>3/29/2025</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>GONZALEZ JOAQUIN V /ALT/ 789</t>
+          <t>VILLARINO /ALT/ 1710</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>106573 - FLORESTA</t>
+          <t>106561 - BARRACAS</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>804302872</t>
+          <t>804333525</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1711,7 +1711,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambio de poste terminal con rienda pique Por columna.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1731,40 +1731,40 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>-58.482612</v>
+        <v>-58.370595</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.624833</v>
+        <v>-34.652025</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>-313</t>
+          <t>5138</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>3/29/2025</t>
+          <t>4/1/2025</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>VILLARINO /ALT/ 1710</t>
+          <t>LOPEZ, CARLOS ANTONIO 3326</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>106561 - BARRACAS</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>804333525</t>
+          <t>804468459</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1779,17 +1779,17 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Cambio de poste terminal con rienda pique Por columna.</t>
+          <t>COLUMNA INCLINADA</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1803,16 +1803,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-58.370595</v>
+        <v>-58.508582</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.652025</v>
+        <v>-34.588936</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>5138</t>
+          <t>5139</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1822,7 +1822,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>LOPEZ, CARLOS ANTONIO 3326</t>
+          <t>LOPEZ, CARLOS ANTONIO 3346</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1832,7 +1832,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>804468459</t>
+          <t>804468467</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1871,36 +1871,36 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-58.508582</v>
+        <v>-58.508809</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.588936</v>
+        <v>-34.589076</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>5139</t>
+          <t>5479</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4/1/2025</t>
+          <t>4/4/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>LOPEZ, CARLOS ANTONIO 3346</t>
+          <t>CONCORDIA 812</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>804468467</t>
+          <t>804497942</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1915,7 +1915,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>COLUMNA INCLINADA</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1925,7 +1925,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1939,16 +1939,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>-58.508809</v>
+        <v>-58.479563</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.589076</v>
+        <v>-34.623886</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>5479</t>
+          <t>5485</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1958,7 +1958,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CONCORDIA 812</t>
+          <t>FLORES, VENANCIO, GRAL. 2977</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>804497942</t>
+          <t>804497954</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2007,26 +2007,26 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.479563</v>
+        <v>-58.471643</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.623886</v>
+        <v>-34.629262</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>5485</t>
+          <t>5500</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4/4/2025</t>
+          <t>4/7/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>FLORES, VENANCIO, GRAL. 2977</t>
+          <t>LA PLATA AV. 1013</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2036,7 +2036,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>804497954</t>
+          <t>804568914</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2051,7 +2051,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2061,7 +2061,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2075,16 +2075,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.471643</v>
+        <v>-58.426804</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.629262</v>
+        <v>-34.627283</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>5500</t>
+          <t>5728</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2094,17 +2094,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>LA PLATA AV. 1013</t>
+          <t>FRANCO 3340</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>804568914</t>
+          <t>804568964</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2119,7 +2119,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2129,7 +2129,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2143,26 +2143,26 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.426804</v>
+        <v>-58.512525</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.627283</v>
+        <v>-34.585228</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>5728</t>
+          <t>5521</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4/7/2025</t>
+          <t>4/8/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>FRANCO 3340</t>
+          <t>EL PEREGRINO 3115</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2172,7 +2172,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>804568964</t>
+          <t>804569000</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2187,7 +2187,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar Poste</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2197,7 +2197,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2207,20 +2207,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.512525</v>
+        <v>-58.485232</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.585228</v>
+        <v>-34.611573</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>5521</t>
+          <t>-319</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2230,17 +2230,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>EL PEREGRINO 3115</t>
+          <t>MAGALLANES /ALT/ 1239</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>106551 - LA BOCA</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>804569000</t>
+          <t>804569042</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2255,7 +2255,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Aplomar Poste</t>
+          <t>Base corroida agujereada</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2265,7 +2265,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2275,40 +2275,40 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.485232</v>
+        <v>-58.368045</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.611573</v>
+        <v>-34.640855</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>-319</t>
+          <t>-326</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>4/8/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>MAGALLANES /ALT/ 1239</t>
+          <t>GARCIA DEL RIO /ALT/ 3354</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>106551 - LA BOCA</t>
+          <t>106593 - SAAVEDRA</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>804569042</t>
+          <t>804634199</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Base corroida agujereada</t>
+          <t>Retirar poste de vereda. Reparar la vereda donde estaba colocado el poste.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2333,7 +2333,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2343,20 +2343,20 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.368045</v>
+        <v>-58.478106</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.640855</v>
+        <v>-34.551523</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>-326</t>
+          <t>-327</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2366,17 +2366,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>GARCIA DEL RIO /ALT/ 3354</t>
+          <t>ROOSEVELT F D ,AV. /ALT/ 5439</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>106592 - VILLA URQUIZA</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>804634199</t>
+          <t>804634203</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2391,7 +2391,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Retirar poste de vereda. Reparar la vereda donde estaba colocado el poste.</t>
+          <t>Colocar columna R200 y  dar aviso para el traspaso de nodos. (TECO y TLC)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2401,30 +2401,30 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.478106</v>
+        <v>-58.491074</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.551523</v>
+        <v>-34.575623</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>-327</t>
+          <t>5572</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2434,17 +2434,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ROOSEVELT F D ,AV. /ALT/ 5439</t>
+          <t>SANABRIA 4289</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>106592 - VILLA URQUIZA</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>804634203</t>
+          <t>804663652</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2459,7 +2459,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Colocar columna R200 y  dar aviso para el traspaso de nodos. (TECO y TLC)</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2469,30 +2469,30 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.491074</v>
+        <v>-58.516755</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.575623</v>
+        <v>-34.6002</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>5572</t>
+          <t>5573</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2502,7 +2502,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>SANABRIA 4289</t>
+          <t>LASTRA AV. 4379</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2512,7 +2512,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>804663652</t>
+          <t>804663677</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2527,7 +2527,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2547,20 +2547,20 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.516755</v>
+        <v>-58.525125</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.6002</v>
+        <v>-34.604668</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>5573</t>
+          <t>5574</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2570,7 +2570,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>LASTRA AV. 4379</t>
+          <t>GRIVEO 3909</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2580,7 +2580,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>804663677</t>
+          <t>804663683</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2595,7 +2595,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Poste Inclinado</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2615,40 +2615,40 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.525125</v>
+        <v>-58.517126</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.604668</v>
+        <v>-34.592774</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>5574</t>
+          <t>-330</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/17/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>GRIVEO 3909</t>
+          <t>ROCHA /ALT/ 1651</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>106561 - BARRACAS</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>804663683</t>
+          <t>804787341</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2663,7 +2663,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Poste Inclinado</t>
+          <t>Reemplazar columna en mal estado.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2673,7 +2673,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2683,40 +2683,40 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.517126</v>
+        <v>-58.373267</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.592774</v>
+        <v>-34.642303</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>-330</t>
+          <t>-339</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>4/17/2025</t>
+          <t>4/21/2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>ROCHA /ALT/ 1651</t>
+          <t>GRIVEO /ALT/ 2435</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>106561 - BARRACAS</t>
+          <t>106591 - VILLA PUEYRREDON</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>804787341</t>
+          <t>804838868</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2731,7 +2731,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Reemplazar columna en mal estado.</t>
+          <t xml:space="preserve">Aplomar columna 114  </t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2741,7 +2741,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2755,16 +2755,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.373267</v>
+        <v>-58.498493</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.642303</v>
+        <v>-34.581262</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>-339</t>
+          <t>-340</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2774,17 +2774,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>GRIVEO /ALT/ 2435</t>
+          <t>SUPERI /ALT/ 1445</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>106591 - VILLA PUEYRREDON</t>
+          <t>106581 - COLEGIALES</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>804838868</t>
+          <t>804838869</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2799,7 +2799,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 114  </t>
+          <t>Columna podrida en la base</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2823,36 +2823,36 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.498493</v>
+        <v>-58.460666</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.581262</v>
+        <v>-34.573823</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>-340</t>
+          <t>-342</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>4/21/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>SUPERI /ALT/ 1445</t>
+          <t>WILLIAMS ALBERTO /ALT/ 5625</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>106581 - COLEGIALES</t>
+          <t>106593 - SAAVEDRA</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>804838869</t>
+          <t>804839148</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2867,12 +2867,12 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Columna podrida en la base</t>
+          <t>Cambiar columna de 114. - VIRARDI</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2891,16 +2891,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.460666</v>
+        <v>-58.502447</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.573823</v>
+        <v>-34.561008</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>-342</t>
+          <t>-346</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2910,17 +2910,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>WILLIAMS ALBERTO /ALT/ 5625</t>
+          <t>ARGERICH /ALT/ 4710</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>106591 - VILLA PUEYRREDON</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>804839148</t>
+          <t>804839198</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2935,7 +2935,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Cambiar columna de 114. - VIRARDI</t>
+          <t>Cambiar poste con rienda podrido en su base - VIRARDI</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2955,20 +2955,20 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.502447</v>
+        <v>-58.503673</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.561008</v>
+        <v>-34.586925</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>-346</t>
+          <t>-353</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2978,17 +2978,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>ARGERICH /ALT/ 4710</t>
+          <t>CAAGUAZU /ALT/ 5703</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>106591 - VILLA PUEYRREDON</t>
+          <t>106576 - LINIERS</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>804839198</t>
+          <t>804839589</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3003,7 +3003,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Cambiar poste con rienda podrido en su base - VIRARDI</t>
+          <t>Cambiar columna de 114. Fuera de plomo empotrada en árbol colocar rienda. ( se pasa tareas a contratista tratista de limpieza tensado y elevación del tendido).  - VIRARDI</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3023,20 +3023,20 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.503673</v>
+        <v>-58.511462</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.586925</v>
+        <v>-34.640542</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>-353</t>
+          <t>-354</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3046,17 +3046,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CAAGUAZU /ALT/ 5703</t>
+          <t>CONDARCO /ALT/ 5316</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>106576 - LINIERS</t>
+          <t>106591 - VILLA PUEYRREDON</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>804839589</t>
+          <t>804839626</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3071,7 +3071,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Cambiar columna de 114. Fuera de plomo empotrada en árbol colocar rienda. ( se pasa tareas a contratista tratista de limpieza tensado y elevación del tendido).  - VIRARDI</t>
+          <t>Aplomo de columna de PRFV - VIRARDI</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3081,7 +3081,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3095,16 +3095,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.511462</v>
+        <v>-58.504455</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.640542</v>
+        <v>-34.579941</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>-354</t>
+          <t>-355</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3114,7 +3114,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CONDARCO /ALT/ 5316</t>
+          <t>CUENCA /ALT/ 4480</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -3124,7 +3124,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>804839626</t>
+          <t>804839675</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3139,7 +3139,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Aplomo de columna de PRFV - VIRARDI</t>
+          <t>Columna nueva fuera de plomo sostiene nodo de Telecentro.  Reclamo municipal.  - VIRARDI</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3154,7 +3154,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo/Fuente TLC</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3163,16 +3163,16 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.504455</v>
+        <v>-58.504568</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.579941</v>
+        <v>-34.590534</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>-355</t>
+          <t>-356</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3182,7 +3182,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CUENCA /ALT/ 4480</t>
+          <t>CUENCA /ALT/ 4845</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -3192,7 +3192,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>804839675</t>
+          <t>804839715</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3207,7 +3207,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Columna nueva fuera de plomo sostiene nodo de Telecentro.  Reclamo municipal.  - VIRARDI</t>
+          <t>Retiro de poste viejo en desuso liberado podrido en su base.  - VIRARDI</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3217,30 +3217,30 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Nodo/Fuente TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.504568</v>
+        <v>-58.507182</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.590534</v>
+        <v>-34.58749</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>-356</t>
+          <t>-357</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3250,17 +3250,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CUENCA /ALT/ 4845</t>
+          <t>MISTRAL GABRIELA /ALT/ 3376</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>106591 - VILLA PUEYRREDON</t>
+          <t>106589 - VILLA DEVOTO</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>804839715</t>
+          <t>804839774</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3275,7 +3275,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Retiro de poste viejo en desuso liberado podrido en su base.  - VIRARDI</t>
+          <t>Cambiar columna corroida en su base.  Ubicada en puerta de colegio.  - VIRARDI</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3285,7 +3285,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3295,20 +3295,20 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.507182</v>
+        <v>-58.507591</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.58749</v>
+        <v>-34.590945</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>-357</t>
+          <t>-359</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3318,17 +3318,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>MISTRAL GABRIELA /ALT/ 3376</t>
+          <t>CABEZON JOSE LEON /ALT/ 2714</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>106589 - VILLA DEVOTO</t>
+          <t>106591 - VILLA PUEYRREDON</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>804839774</t>
+          <t>804839875</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3343,7 +3343,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Cambiar columna corroida en su base.  Ubicada en puerta de colegio.  - VIRARDI</t>
+          <t>Aplomo de columna de 114 - VIRARDI</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3353,7 +3353,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -3367,16 +3367,16 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.507591</v>
+        <v>-58.503195</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.590945</v>
+        <v>-34.581735</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>-359</t>
+          <t>-362</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3386,17 +3386,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>CABEZON JOSE LEON /ALT/ 2714</t>
+          <t>MOZART /ALT/ 562</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>106591 - VILLA PUEYRREDON</t>
+          <t>106571 - PQUE. AVELLANEDA</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>804839875</t>
+          <t>804839947</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3411,7 +3411,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Aplomo de columna de 114 - VIRARDI</t>
+          <t>Aplomar columna de 114. Se encuentra frente al 575 lado plaza sin número.  - VIRARDI</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3435,16 +3435,16 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.503195</v>
+        <v>-58.489948</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.581735</v>
+        <v>-34.643478</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>-362</t>
+          <t>-364</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3454,17 +3454,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>MOZART /ALT/ 562</t>
+          <t>PAROISSIEN /ALT/ 4871</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>106571 - PQUE. AVELLANEDA</t>
+          <t>106593 - SAAVEDRA</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>804839947</t>
+          <t>804839991</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3479,7 +3479,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Aplomar columna de 114. Se encuentra frente al 575 lado plaza sin número.  - VIRARDI</t>
+          <t>Aplomar columna de 114 - VIRARDI</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3503,16 +3503,16 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.489948</v>
+        <v>-58.493164</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.643478</v>
+        <v>-34.55732</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>-364</t>
+          <t>-365</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3522,17 +3522,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>PAROISSIEN /ALT/ 4871</t>
+          <t>QUESADA /ALT/ 5290</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>106592 - VILLA URQUIZA</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>804839991</t>
+          <t>804839995</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3547,7 +3547,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Aplomar columna de 114 - VIRARDI</t>
+          <t>Columna nueva de PVC fuera de plomo.  - VIRARDI</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3557,7 +3557,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3571,16 +3571,16 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.493164</v>
+        <v>-58.491934</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.55732</v>
+        <v>-34.569348</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>-365</t>
+          <t>-366</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3590,7 +3590,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>QUESADA /ALT/ 5290</t>
+          <t>QUESADA /ALT/ 6088</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -3600,7 +3600,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>804839995</t>
+          <t>804840016</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3615,7 +3615,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Columna nueva de PVC fuera de plomo.  - VIRARDI</t>
+          <t>Aplomar columna de 168 cambiar rienda.  - VIRARDI</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3639,16 +3639,16 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.491934</v>
+        <v>-58.501418</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.569348</v>
+        <v>-34.574363</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>-366</t>
+          <t>-367</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3658,17 +3658,17 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>QUESADA /ALT/ 6088</t>
+          <t>RUIZ HUIDOBRO ,AV. /ALT/ 4771</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>106592 - VILLA URQUIZA</t>
+          <t>106593 - SAAVEDRA</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>804840016</t>
+          <t>804840024</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3683,7 +3683,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aplomar columna de 168 cambiar rienda.  - VIRARDI</t>
+          <t>Aplomo de columna de 114 - VIRARDI</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3707,36 +3707,36 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.501418</v>
+        <v>-58.494584</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.574363</v>
+        <v>-34.554981</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>-367</t>
+          <t>-372</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>RUIZ HUIDOBRO ,AV. /ALT/ 4771</t>
+          <t>CAMARGO /ALT/ 25</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>106582 - VILLA CRESPO</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>804840024</t>
+          <t>804903809</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3751,17 +3751,17 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aplomo de columna de 114 - VIRARDI</t>
+          <t>Aplomar columna 114 con rienda a pique</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -3775,16 +3775,16 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>-58.494584</v>
+        <v>-58.436788</v>
       </c>
       <c r="N51" t="n">
-        <v>-34.554981</v>
+        <v>-34.604014</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>-372</t>
+          <t>-373</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3794,17 +3794,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>CAMARGO /ALT/ 25</t>
+          <t>GALLARDO ANGEL ,AV. /ALT/ 608</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>106582 - VILLA CRESPO</t>
+          <t>106569 - CABALLITO</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>804903809</t>
+          <t>804903810</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3819,7 +3819,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Aplomar columna 114 con rienda a pique</t>
+          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3829,7 +3829,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3843,16 +3843,16 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>-58.436788</v>
+        <v>-58.439461</v>
       </c>
       <c r="N52" t="n">
-        <v>-34.604014</v>
+        <v>-34.605744</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>-373</t>
+          <t>-375</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3862,17 +3862,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>GALLARDO ANGEL ,AV. /ALT/ 608</t>
+          <t>PAVON /ALT/ 3335</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>106569 - CABALLITO</t>
+          <t>106562 - BOEDO</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>804903810</t>
+          <t>804903824</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3887,7 +3887,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
+          <t>Colocar columna nueva donde estaba la anterior cortada</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3897,7 +3897,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3911,16 +3911,16 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>-58.439461</v>
+        <v>-58.412418</v>
       </c>
       <c r="N53" t="n">
-        <v>-34.605744</v>
+        <v>-34.629288</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>-375</t>
+          <t>-378</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3930,17 +3930,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>PAVON /ALT/ 3335</t>
+          <t>MAGARINO CERVANTES A /ALT/ 5054</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>106562 - BOEDO</t>
+          <t>106574 - VELEZ SARSFIELD</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>804903824</t>
+          <t>804903791</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3955,7 +3955,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Colocar columna nueva donde estaba la anterior cortada</t>
+          <t>Desmontar poste</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -3965,7 +3965,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -3975,40 +3975,40 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>-58.412418</v>
+        <v>-58.503618</v>
       </c>
       <c r="N54" t="n">
-        <v>-34.629288</v>
+        <v>-34.629209</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>-378</t>
+          <t>-381</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>4/25/2025</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>MAGARINO CERVANTES A /ALT/ 5054</t>
+          <t>RIVADAVIA ,AV. /ALT/ 9477</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>106574 - VELEZ SARSFIELD</t>
+          <t>106575 - VILLA LURO</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>804903791</t>
+          <t>805010120</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4023,7 +4023,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Desmontar poste</t>
+          <t>Podrida en la base</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4033,7 +4033,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -4043,40 +4043,40 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>-58.503618</v>
+        <v>-58.497691</v>
       </c>
       <c r="N55" t="n">
-        <v>-34.629209</v>
+        <v>-34.637087</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>-381</t>
+          <t>5668</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>4/25/2025</t>
+          <t>4/28/2025</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>RIVADAVIA ,AV. /ALT/ 9477</t>
+          <t>CURAPALIGUE 367</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>106575 - VILLA LURO</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>805010120</t>
+          <t>805507231</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -4091,7 +4091,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Podrida en la base</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4115,36 +4115,36 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>-58.497691</v>
+        <v>-58.452319</v>
       </c>
       <c r="N56" t="n">
-        <v>-34.637087</v>
+        <v>-34.62917</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>5664</t>
+          <t>-383</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>4/28/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>REMEDIOS 2675</t>
+          <t>VALDERRAMA /ALT/ 4187</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>106592 - VILLA URQUIZA</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>805507228</t>
+          <t>805507401</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -4159,7 +4159,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t xml:space="preserve">Aplomar columna 114 </t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -4169,7 +4169,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -4183,36 +4183,36 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>-58.463339</v>
+        <v>-58.481834</v>
       </c>
       <c r="N57" t="n">
-        <v>-34.6369</v>
+        <v>-34.560796</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>5668</t>
+          <t>-384</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>4/28/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>CURAPALIGUE 367</t>
+          <t>LUGONES 1721</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>106586 - VILLA ORTUZAR</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>805507231</t>
+          <t>805507408</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -4227,7 +4227,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar columna 168 - La columna esta frente a la altura 1721</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4237,7 +4237,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -4251,36 +4251,36 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>-58.452319</v>
+        <v>-58.473936</v>
       </c>
       <c r="N58" t="n">
-        <v>-34.62917</v>
+        <v>-34.577346</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>-383</t>
+          <t>-387</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>5/1/2025</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>VALDERRAMA /ALT/ 4187</t>
+          <t>FLORES GRAL VENANCIO /ALT/ 4139</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>106592 - VILLA URQUIZA</t>
+          <t>106574 - VELEZ SARSFIELD</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>805507401</t>
+          <t>805579025</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -4295,7 +4295,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 114 </t>
+          <t>Columna fuera de plomo - VIRARDI</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4319,36 +4319,36 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>-58.481834</v>
+        <v>-58.485221</v>
       </c>
       <c r="N59" t="n">
-        <v>-34.560796</v>
+        <v>-34.633425</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>-384</t>
+          <t>-391</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>5/5/2025</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>LUGONES 1721</t>
+          <t>IBERA /ALT/ 5074</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>106586 - VILLA ORTUZAR</t>
+          <t>106592 - VILLA URQUIZA</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>805507408</t>
+          <t>805676610</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -4363,7 +4363,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Aplomar columna 168 - La columna esta frente a la altura 1721</t>
+          <t xml:space="preserve">Cambiar columna 114 base corroida </t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4373,7 +4373,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -4387,36 +4387,36 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>-58.473936</v>
+        <v>-58.49045</v>
       </c>
       <c r="N60" t="n">
-        <v>-34.577346</v>
+        <v>-34.566894</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>-387</t>
+          <t>-399</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>5/1/2025</t>
+          <t>5/7/2025</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>FLORES GRAL VENANCIO /ALT/ 4139</t>
+          <t>Casco 115</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>106574 - VELEZ SARSFIELD</t>
+          <t>106576 - LINIERS</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>805579025</t>
+          <t>805722774</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -4431,7 +4431,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Columna fuera de plomo - VIRARDI</t>
+          <t>Reclamo municipal pendiente de New OT:707916611 cambiar columna de 168 con rienda.  - VIRARDI</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -4451,40 +4451,40 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>-58.485221</v>
+        <v>-58.525835</v>
       </c>
       <c r="N61" t="n">
-        <v>-34.633425</v>
+        <v>-34.637998</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>-391</t>
+          <t>-400</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>5/5/2025</t>
+          <t>5/7/2025</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>IBERA /ALT/ 5074</t>
+          <t>BYNON /ALT/ 6790</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>106592 - VILLA URQUIZA</t>
+          <t>106576 - LINIERS</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>805676610</t>
+          <t>805722777</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -4499,7 +4499,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna 114 base corroida </t>
+          <t>Reclamo municipal pendiente de New OT:676904205. Cambiar columna de 114 corroida.  - VIRARDI</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -4523,36 +4523,36 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>-58.49045</v>
+        <v>-58.525119</v>
       </c>
       <c r="N62" t="n">
-        <v>-34.566894</v>
+        <v>-34.637178</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>-396</t>
+          <t>5805</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>5/6/2025</t>
+          <t>5/14/2025</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>MARTI JOSE /ALT/ 701</t>
+          <t>GUTENBERG 4134</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>106570 - FLORES</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>805707284</t>
+          <t>806926378</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -4567,7 +4567,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -4577,7 +4577,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -4587,217 +4587,13 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>-58.468826</v>
+        <v>-58.51665</v>
       </c>
       <c r="N63" t="n">
-        <v>-34.639675</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>-399</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>5/7/2025</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>Casco 115</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>106576 - LINIERS</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>805722774</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Reclamo municipal pendiente de New OT:707916611 cambiar columna de 168 con rienda.  - VIRARDI</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>Terminal</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>-58.525835</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-34.637998</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>-400</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>5/7/2025</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>BYNON /ALT/ 6790</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>106576 - LINIERS</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>805722777</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>Reclamo municipal pendiente de New OT:676904205. Cambiar columna de 114 corroida.  - VIRARDI</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>-58.525119</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-34.637178</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>5805</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>5/14/2025</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>GUTENBERG 4134</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>806926378</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>Poste inclinado</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>Aplomo</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>Poste</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>-58.51665</v>
-      </c>
-      <c r="N66" t="n">
         <v>-34.596644</v>
       </c>
     </row>

--- a/mapa_interactivo_AYKO.xlsx
+++ b/mapa_interactivo_AYKO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N63"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4597,6 +4597,74 @@
         <v>-34.596644</v>
       </c>
     </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>6178</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>6/18/2025</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>LA PAMPA 5368</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>807658629</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Poste inclinado</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Aplomo</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Poste</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
+        <v>-58.482752</v>
+      </c>
+      <c r="N64" t="n">
+        <v>-34.581371</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapa_interactivo_AYKO.xlsx
+++ b/mapa_interactivo_AYKO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N64"/>
+  <dimension ref="A1:N62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1472,27 +1472,27 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>5110</t>
+          <t>-310</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3/25/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CUENCA 158</t>
+          <t>GONZALEZ JOAQUIN V /ALT/ 729</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>106573 - FLORESTA</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>804287943</t>
+          <t>804302855</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1512,7 +1512,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1531,16 +1531,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>-58.474432</v>
+        <v>-58.482428</v>
       </c>
       <c r="N18" t="n">
-        <v>-34.629827</v>
+        <v>-34.625289</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>-310</t>
+          <t>-311</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1550,7 +1550,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>GONZALEZ JOAQUIN V /ALT/ 729</t>
+          <t>GONZALEZ JOAQUIN V /ALT/ 789</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1560,7 +1560,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>804302855</t>
+          <t>804302872</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1595,40 +1595,40 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>-58.482428</v>
+        <v>-58.482612</v>
       </c>
       <c r="N19" t="n">
-        <v>-34.625289</v>
+        <v>-34.624833</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>-311</t>
+          <t>-313</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>3/29/2025</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>GONZALEZ JOAQUIN V /ALT/ 789</t>
+          <t>VILLARINO /ALT/ 1710</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>106573 - FLORESTA</t>
+          <t>106561 - BARRACAS</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>804302872</t>
+          <t>804333525</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1643,7 +1643,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambio de poste terminal con rienda pique Por columna.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1663,40 +1663,40 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>-58.482612</v>
+        <v>-58.370595</v>
       </c>
       <c r="N20" t="n">
-        <v>-34.624833</v>
+        <v>-34.652025</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>-313</t>
+          <t>5138</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>3/29/2025</t>
+          <t>4/1/2025</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>VILLARINO /ALT/ 1710</t>
+          <t>LOPEZ, CARLOS ANTONIO 3326</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>106561 - BARRACAS</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>804333525</t>
+          <t>804468459</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1711,17 +1711,17 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Cambio de poste terminal con rienda pique Por columna.</t>
+          <t>COLUMNA INCLINADA</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1735,16 +1735,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>-58.370595</v>
+        <v>-58.508582</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.652025</v>
+        <v>-34.588936</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>5138</t>
+          <t>5139</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1754,7 +1754,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>LOPEZ, CARLOS ANTONIO 3326</t>
+          <t>LOPEZ, CARLOS ANTONIO 3346</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1764,7 +1764,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>804468459</t>
+          <t>804468467</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1803,36 +1803,36 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-58.508582</v>
+        <v>-58.508809</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.588936</v>
+        <v>-34.589076</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>5139</t>
+          <t>5500</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>4/1/2025</t>
+          <t>4/7/2025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>LOPEZ, CARLOS ANTONIO 3346</t>
+          <t>LA PLATA AV. 1013</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>804468467</t>
+          <t>804568914</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1847,7 +1847,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>COLUMNA INCLINADA</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1871,36 +1871,36 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-58.508809</v>
+        <v>-58.426804</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.589076</v>
+        <v>-34.627283</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>5479</t>
+          <t>5728</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4/4/2025</t>
+          <t>4/7/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CONCORDIA 812</t>
+          <t>FRANCO 3340</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>804497942</t>
+          <t>804568964</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1939,36 +1939,36 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>-58.479563</v>
+        <v>-58.512525</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.623886</v>
+        <v>-34.585228</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>5485</t>
+          <t>5521</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>4/4/2025</t>
+          <t>4/8/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>FLORES, VENANCIO, GRAL. 2977</t>
+          <t>EL PEREGRINO 3115</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>804497954</t>
+          <t>804569000</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar Poste</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2003,40 +2003,40 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.471643</v>
+        <v>-58.485232</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.629262</v>
+        <v>-34.611573</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>5500</t>
+          <t>-319</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4/7/2025</t>
+          <t>4/8/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>LA PLATA AV. 1013</t>
+          <t>MAGALLANES /ALT/ 1239</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>106551 - LA BOCA</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>804568914</t>
+          <t>804569042</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2051,7 +2051,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Base corroida agujereada</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2061,7 +2061,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2075,36 +2075,36 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.426804</v>
+        <v>-58.368045</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.627283</v>
+        <v>-34.640855</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>5728</t>
+          <t>-326</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4/7/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>FRANCO 3340</t>
+          <t>GARCIA DEL RIO /ALT/ 3354</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>106593 - SAAVEDRA</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>804568964</t>
+          <t>804634199</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2119,7 +2119,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Retirar poste de vereda. Reparar la vereda donde estaba colocado el poste.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2129,7 +2129,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2139,40 +2139,40 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.512525</v>
+        <v>-58.478106</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.585228</v>
+        <v>-34.551523</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>5521</t>
+          <t>-327</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4/8/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>EL PEREGRINO 3115</t>
+          <t>ROOSEVELT F D ,AV. /ALT/ 5439</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>106592 - VILLA URQUIZA</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>804569000</t>
+          <t>804634203</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2187,7 +2187,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Aplomar Poste</t>
+          <t>Colocar columna R200 y  dar aviso para el traspaso de nodos. (TECO y TLC)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2197,50 +2197,50 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.485232</v>
+        <v>-58.491074</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.611573</v>
+        <v>-34.575623</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>-319</t>
+          <t>5572</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4/8/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>MAGALLANES /ALT/ 1239</t>
+          <t>SANABRIA 4289</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>106551 - LA BOCA</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>804569042</t>
+          <t>804663652</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2255,7 +2255,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Base corroida agujereada</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2265,7 +2265,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2275,20 +2275,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.368045</v>
+        <v>-58.516755</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.640855</v>
+        <v>-34.6002</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>-326</t>
+          <t>5573</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2298,17 +2298,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>GARCIA DEL RIO /ALT/ 3354</t>
+          <t>LASTRA AV. 4379</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>804634199</t>
+          <t>804663677</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Retirar poste de vereda. Reparar la vereda donde estaba colocado el poste.</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2333,7 +2333,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2343,20 +2343,20 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.478106</v>
+        <v>-58.525125</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.551523</v>
+        <v>-34.604668</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>-327</t>
+          <t>5574</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2366,17 +2366,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>ROOSEVELT F D ,AV. /ALT/ 5439</t>
+          <t>GRIVEO 3909</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>106592 - VILLA URQUIZA</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>804634203</t>
+          <t>804663683</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2391,7 +2391,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Colocar columna R200 y  dar aviso para el traspaso de nodos. (TECO y TLC)</t>
+          <t>Poste Inclinado</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2401,50 +2401,50 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.491074</v>
+        <v>-58.517126</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.575623</v>
+        <v>-34.592774</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>5572</t>
+          <t>-330</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/17/2025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>SANABRIA 4289</t>
+          <t>ROCHA /ALT/ 1651</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>106561 - BARRACAS</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>804663652</t>
+          <t>804787341</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2459,7 +2459,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Reemplazar columna en mal estado.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2469,7 +2469,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2479,40 +2479,40 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.516755</v>
+        <v>-58.373267</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.6002</v>
+        <v>-34.642303</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>5573</t>
+          <t>-339</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/21/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>LASTRA AV. 4379</t>
+          <t>GRIVEO /ALT/ 2435</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>106591 - VILLA PUEYRREDON</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>804663677</t>
+          <t>804838868</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2527,7 +2527,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t xml:space="preserve">Aplomar columna 114  </t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2551,36 +2551,36 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.525125</v>
+        <v>-58.498493</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.604668</v>
+        <v>-34.581262</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>5574</t>
+          <t>-340</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/21/2025</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>GRIVEO 3909</t>
+          <t>SUPERI /ALT/ 1445</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>106581 - COLEGIALES</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>804663683</t>
+          <t>804838869</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2595,7 +2595,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Poste Inclinado</t>
+          <t>Columna podrida en la base</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2605,7 +2605,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2615,40 +2615,40 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.517126</v>
+        <v>-58.460666</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.592774</v>
+        <v>-34.573823</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>-330</t>
+          <t>-342</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>4/17/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>ROCHA /ALT/ 1651</t>
+          <t>WILLIAMS ALBERTO /ALT/ 5625</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>106561 - BARRACAS</t>
+          <t>106593 - SAAVEDRA</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>804787341</t>
+          <t>804839148</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2663,12 +2663,12 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Reemplazar columna en mal estado.</t>
+          <t>Cambiar columna de 114. - VIRARDI</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2687,26 +2687,26 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.373267</v>
+        <v>-58.502447</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.642303</v>
+        <v>-34.561008</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>-339</t>
+          <t>-346</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>4/21/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>GRIVEO /ALT/ 2435</t>
+          <t>ARGERICH /ALT/ 4710</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2716,7 +2716,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>804838868</t>
+          <t>804839198</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2731,17 +2731,17 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 114  </t>
+          <t>Cambiar poste con rienda podrido en su base - VIRARDI</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2751,40 +2751,40 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.498493</v>
+        <v>-58.503673</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.581262</v>
+        <v>-34.586925</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>-340</t>
+          <t>-353</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>4/21/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>SUPERI /ALT/ 1445</t>
+          <t>CAAGUAZU /ALT/ 5703</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>106581 - COLEGIALES</t>
+          <t>106576 - LINIERS</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>804838869</t>
+          <t>804839589</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2799,12 +2799,12 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Columna podrida en la base</t>
+          <t>Cambiar columna de 114. Fuera de plomo empotrada en árbol colocar rienda. ( se pasa tareas a contratista tratista de limpieza tensado y elevación del tendido).  - VIRARDI</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2823,16 +2823,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.460666</v>
+        <v>-58.511462</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.573823</v>
+        <v>-34.640542</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>-342</t>
+          <t>-354</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2842,17 +2842,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>WILLIAMS ALBERTO /ALT/ 5625</t>
+          <t>CONDARCO /ALT/ 5316</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>106591 - VILLA PUEYRREDON</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>804839148</t>
+          <t>804839626</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Cambiar columna de 114. - VIRARDI</t>
+          <t>Aplomo de columna de PRFV - VIRARDI</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2877,7 +2877,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2891,16 +2891,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.502447</v>
+        <v>-58.504455</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.561008</v>
+        <v>-34.579941</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>-346</t>
+          <t>-355</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2910,7 +2910,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>ARGERICH /ALT/ 4710</t>
+          <t>CUENCA /ALT/ 4480</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>804839198</t>
+          <t>804839675</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2935,7 +2935,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Cambiar poste con rienda podrido en su base - VIRARDI</t>
+          <t>Columna nueva fuera de plomo sostiene nodo de Telecentro.  Reclamo municipal.  - VIRARDI</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2945,30 +2945,30 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo/Fuente TLC</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.503673</v>
+        <v>-58.504568</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.586925</v>
+        <v>-34.590534</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>-353</t>
+          <t>-356</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2978,17 +2978,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CAAGUAZU /ALT/ 5703</t>
+          <t>CUENCA /ALT/ 4845</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>106576 - LINIERS</t>
+          <t>106591 - VILLA PUEYRREDON</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>804839589</t>
+          <t>804839715</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3003,7 +3003,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Cambiar columna de 114. Fuera de plomo empotrada en árbol colocar rienda. ( se pasa tareas a contratista tratista de limpieza tensado y elevación del tendido).  - VIRARDI</t>
+          <t>Retiro de poste viejo en desuso liberado podrido en su base.  - VIRARDI</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3013,7 +3013,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3023,20 +3023,20 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.511462</v>
+        <v>-58.507182</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.640542</v>
+        <v>-34.58749</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>-354</t>
+          <t>-357</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3046,17 +3046,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CONDARCO /ALT/ 5316</t>
+          <t>MISTRAL GABRIELA /ALT/ 3376</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>106591 - VILLA PUEYRREDON</t>
+          <t>106589 - VILLA DEVOTO</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>804839626</t>
+          <t>804839774</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3071,7 +3071,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Aplomo de columna de PRFV - VIRARDI</t>
+          <t>Cambiar columna corroida en su base.  Ubicada en puerta de colegio.  - VIRARDI</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3081,7 +3081,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3095,16 +3095,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.504455</v>
+        <v>-58.507591</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.579941</v>
+        <v>-34.590945</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>-355</t>
+          <t>-359</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3114,7 +3114,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CUENCA /ALT/ 4480</t>
+          <t>CABEZON JOSE LEON /ALT/ 2714</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -3124,7 +3124,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>804839675</t>
+          <t>804839875</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3139,7 +3139,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Columna nueva fuera de plomo sostiene nodo de Telecentro.  Reclamo municipal.  - VIRARDI</t>
+          <t>Aplomo de columna de 114 - VIRARDI</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3154,7 +3154,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Nodo/Fuente TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3163,16 +3163,16 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.504568</v>
+        <v>-58.503195</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.590534</v>
+        <v>-34.581735</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>-356</t>
+          <t>-362</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3182,17 +3182,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CUENCA /ALT/ 4845</t>
+          <t>MOZART /ALT/ 562</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>106591 - VILLA PUEYRREDON</t>
+          <t>106571 - PQUE. AVELLANEDA</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>804839715</t>
+          <t>804839947</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3207,7 +3207,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Retiro de poste viejo en desuso liberado podrido en su base.  - VIRARDI</t>
+          <t>Aplomar columna de 114. Se encuentra frente al 575 lado plaza sin número.  - VIRARDI</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3217,7 +3217,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3227,20 +3227,20 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.507182</v>
+        <v>-58.489948</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.58749</v>
+        <v>-34.643478</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>-357</t>
+          <t>-364</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3250,17 +3250,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>MISTRAL GABRIELA /ALT/ 3376</t>
+          <t>PAROISSIEN /ALT/ 4871</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>106589 - VILLA DEVOTO</t>
+          <t>106593 - SAAVEDRA</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>804839774</t>
+          <t>804839991</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3275,7 +3275,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Cambiar columna corroida en su base.  Ubicada en puerta de colegio.  - VIRARDI</t>
+          <t>Aplomar columna de 114 - VIRARDI</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3285,7 +3285,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3299,16 +3299,16 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.507591</v>
+        <v>-58.493164</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.590945</v>
+        <v>-34.55732</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>-359</t>
+          <t>-365</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3318,17 +3318,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CABEZON JOSE LEON /ALT/ 2714</t>
+          <t>QUESADA /ALT/ 5290</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>106591 - VILLA PUEYRREDON</t>
+          <t>106592 - VILLA URQUIZA</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>804839875</t>
+          <t>804839995</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3343,7 +3343,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Aplomo de columna de 114 - VIRARDI</t>
+          <t>Columna nueva de PVC fuera de plomo.  - VIRARDI</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3353,7 +3353,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -3367,16 +3367,16 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.503195</v>
+        <v>-58.491934</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.581735</v>
+        <v>-34.569348</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>-362</t>
+          <t>-366</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3386,17 +3386,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>MOZART /ALT/ 562</t>
+          <t>QUESADA /ALT/ 6088</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>106571 - PQUE. AVELLANEDA</t>
+          <t>106592 - VILLA URQUIZA</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>804839947</t>
+          <t>804840016</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3411,7 +3411,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Aplomar columna de 114. Se encuentra frente al 575 lado plaza sin número.  - VIRARDI</t>
+          <t>Aplomar columna de 168 cambiar rienda.  - VIRARDI</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3435,16 +3435,16 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.489948</v>
+        <v>-58.501418</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.643478</v>
+        <v>-34.574363</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>-364</t>
+          <t>-367</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3454,7 +3454,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>PAROISSIEN /ALT/ 4871</t>
+          <t>RUIZ HUIDOBRO ,AV. /ALT/ 4771</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -3464,7 +3464,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>804839991</t>
+          <t>804840024</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3479,7 +3479,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Aplomar columna de 114 - VIRARDI</t>
+          <t>Aplomo de columna de 114 - VIRARDI</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3503,36 +3503,36 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.493164</v>
+        <v>-58.494584</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.55732</v>
+        <v>-34.554981</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>-365</t>
+          <t>-372</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>QUESADA /ALT/ 5290</t>
+          <t>CAMARGO /ALT/ 25</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>106592 - VILLA URQUIZA</t>
+          <t>106582 - VILLA CRESPO</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>804839995</t>
+          <t>804903809</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3547,12 +3547,12 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Columna nueva de PVC fuera de plomo.  - VIRARDI</t>
+          <t>Aplomar columna 114 con rienda a pique</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -3571,36 +3571,36 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.491934</v>
+        <v>-58.436788</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.569348</v>
+        <v>-34.604014</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>-366</t>
+          <t>-373</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>QUESADA /ALT/ 6088</t>
+          <t>GALLARDO ANGEL ,AV. /ALT/ 608</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>106592 - VILLA URQUIZA</t>
+          <t>106569 - CABALLITO</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>804840016</t>
+          <t>804903810</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3615,12 +3615,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aplomar columna de 168 cambiar rienda.  - VIRARDI</t>
+          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -3639,36 +3639,36 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.501418</v>
+        <v>-58.439461</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.574363</v>
+        <v>-34.605744</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>-367</t>
+          <t>-375</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>RUIZ HUIDOBRO ,AV. /ALT/ 4771</t>
+          <t>PAVON /ALT/ 3335</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>106562 - BOEDO</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>804840024</t>
+          <t>804903824</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3683,17 +3683,17 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aplomo de columna de 114 - VIRARDI</t>
+          <t>Colocar columna nueva donde estaba la anterior cortada</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3707,16 +3707,16 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.494584</v>
+        <v>-58.412418</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.554981</v>
+        <v>-34.629288</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>-372</t>
+          <t>-378</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3726,17 +3726,17 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>CAMARGO /ALT/ 25</t>
+          <t>MAGARINO CERVANTES A /ALT/ 5054</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>106582 - VILLA CRESPO</t>
+          <t>106574 - VELEZ SARSFIELD</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>804903809</t>
+          <t>804903791</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3751,7 +3751,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aplomar columna 114 con rienda a pique</t>
+          <t>Desmontar poste</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3761,7 +3761,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -3771,40 +3771,40 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>-58.436788</v>
+        <v>-58.503618</v>
       </c>
       <c r="N51" t="n">
-        <v>-34.604014</v>
+        <v>-34.629209</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>-373</t>
+          <t>-381</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>4/25/2025</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>GALLARDO ANGEL ,AV. /ALT/ 608</t>
+          <t>RIVADAVIA ,AV. /ALT/ 9477</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>106569 - CABALLITO</t>
+          <t>106575 - VILLA LURO</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>804903810</t>
+          <t>805010120</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3819,7 +3819,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
+          <t>Podrida en la base</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3829,7 +3829,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3843,36 +3843,36 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>-58.439461</v>
+        <v>-58.497691</v>
       </c>
       <c r="N52" t="n">
-        <v>-34.605744</v>
+        <v>-34.637087</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>-375</t>
+          <t>-383</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>PAVON /ALT/ 3335</t>
+          <t>VALDERRAMA /ALT/ 4187</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>106562 - BOEDO</t>
+          <t>106592 - VILLA URQUIZA</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>804903824</t>
+          <t>805507401</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3887,7 +3887,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Colocar columna nueva donde estaba la anterior cortada</t>
+          <t xml:space="preserve">Aplomar columna 114 </t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3897,7 +3897,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3911,36 +3911,36 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>-58.412418</v>
+        <v>-58.481834</v>
       </c>
       <c r="N53" t="n">
-        <v>-34.629288</v>
+        <v>-34.560796</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>-378</t>
+          <t>-384</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>MAGARINO CERVANTES A /ALT/ 5054</t>
+          <t>LUGONES 1721</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>106574 - VELEZ SARSFIELD</t>
+          <t>106586 - VILLA ORTUZAR</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>804903791</t>
+          <t>805507408</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3955,7 +3955,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Desmontar poste</t>
+          <t>Aplomar columna 168 - La columna esta frente a la altura 1721</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -3965,7 +3965,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -3975,40 +3975,40 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>-58.503618</v>
+        <v>-58.473936</v>
       </c>
       <c r="N54" t="n">
-        <v>-34.629209</v>
+        <v>-34.577346</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>-381</t>
+          <t>-387</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>4/25/2025</t>
+          <t>5/1/2025</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>RIVADAVIA ,AV. /ALT/ 9477</t>
+          <t>FLORES GRAL VENANCIO /ALT/ 4139</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>106575 - VILLA LURO</t>
+          <t>106574 - VELEZ SARSFIELD</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>805010120</t>
+          <t>805579025</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4023,7 +4023,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Podrida en la base</t>
+          <t>Columna fuera de plomo - VIRARDI</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4033,7 +4033,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -4047,36 +4047,36 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>-58.497691</v>
+        <v>-58.485221</v>
       </c>
       <c r="N55" t="n">
-        <v>-34.637087</v>
+        <v>-34.633425</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>5668</t>
+          <t>-391</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>4/28/2025</t>
+          <t>5/5/2025</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>CURAPALIGUE 367</t>
+          <t>IBERA /ALT/ 5074</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>106592 - VILLA URQUIZA</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>805507231</t>
+          <t>805676610</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -4091,7 +4091,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t xml:space="preserve">Cambiar columna 114 base corroida </t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4115,36 +4115,36 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>-58.452319</v>
+        <v>-58.49045</v>
       </c>
       <c r="N56" t="n">
-        <v>-34.62917</v>
+        <v>-34.566894</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>-383</t>
+          <t>-399</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>5/7/2025</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>VALDERRAMA /ALT/ 4187</t>
+          <t>Casco 115</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>106592 - VILLA URQUIZA</t>
+          <t>106576 - LINIERS</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>805507401</t>
+          <t>805722774</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -4159,7 +4159,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 114 </t>
+          <t>Reclamo municipal pendiente de New OT:707916611 cambiar columna de 168 con rienda.  - VIRARDI</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -4169,7 +4169,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -4179,40 +4179,40 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>-58.481834</v>
+        <v>-58.525835</v>
       </c>
       <c r="N57" t="n">
-        <v>-34.560796</v>
+        <v>-34.637998</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>-384</t>
+          <t>-400</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>5/7/2025</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>LUGONES 1721</t>
+          <t>BYNON /ALT/ 6790</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>106586 - VILLA ORTUZAR</t>
+          <t>106576 - LINIERS</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>805507408</t>
+          <t>805722777</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -4227,7 +4227,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Aplomar columna 168 - La columna esta frente a la altura 1721</t>
+          <t>Reclamo municipal pendiente de New OT:676904205. Cambiar columna de 114 corroida.  - VIRARDI</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4237,7 +4237,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -4251,36 +4251,36 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>-58.473936</v>
+        <v>-58.525119</v>
       </c>
       <c r="N58" t="n">
-        <v>-34.577346</v>
+        <v>-34.637178</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>-387</t>
+          <t>5805</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>5/1/2025</t>
+          <t>5/14/2025</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>FLORES GRAL VENANCIO /ALT/ 4139</t>
+          <t>GUTENBERG 4134</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>106574 - VELEZ SARSFIELD</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>805579025</t>
+          <t>806926378</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -4295,7 +4295,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Columna fuera de plomo - VIRARDI</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4315,42 +4315,38 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>-58.485221</v>
+        <v>-58.51665</v>
       </c>
       <c r="N59" t="n">
-        <v>-34.633425</v>
+        <v>-34.596644</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>-391</t>
+          <t>6223</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>5/5/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>IBERA /ALT/ 5074</t>
+          <t>ECHEANDIA 4200</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>106592 - VILLA URQUIZA</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>805676610</t>
-        </is>
-      </c>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
           <t>AYKO</t>
@@ -4363,7 +4359,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna 114 base corroida </t>
+          <t>Columna inclinada con base  corroida</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4383,42 +4379,38 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>-58.49045</v>
+        <v>-58.472311</v>
       </c>
       <c r="N60" t="n">
-        <v>-34.566894</v>
+        <v>-34.654867</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>-399</t>
+          <t>6197</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>5/7/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Casco 115</t>
+          <t>RIVADAVIA AV. 5600</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>106576 - LINIERS</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>805722774</t>
-        </is>
-      </c>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">
         <is>
           <t>AYKO</t>
@@ -4431,7 +4423,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Reclamo municipal pendiente de New OT:707916611 cambiar columna de 168 con rienda.  - VIRARDI</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -4451,42 +4443,38 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>-58.525835</v>
+        <v>-58.444181</v>
       </c>
       <c r="N61" t="n">
-        <v>-34.637998</v>
+        <v>-34.621883</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>-400</t>
+          <t>6239</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>5/7/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>BYNON /ALT/ 6790</t>
+          <t>PALPA 2964</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>106576 - LINIERS</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>805722777</t>
-        </is>
-      </c>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr">
         <is>
           <t>AYKO</t>
@@ -4499,7 +4487,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Reclamo municipal pendiente de New OT:676904205. Cambiar columna de 114 corroida.  - VIRARDI</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -4523,146 +4511,10 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>-58.525119</v>
+        <v>-58.450113</v>
       </c>
       <c r="N62" t="n">
-        <v>-34.637178</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>5805</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>5/14/2025</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>GUTENBERG 4134</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>806926378</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Poste inclinado</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>Aplomo</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>Poste</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>-58.51665</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-34.596644</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>6178</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>6/18/2025</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>LA PAMPA 5368</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>807658629</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Poste inclinado</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>Aplomo</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>Poste</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>-58.482752</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-34.581371</v>
+        <v>-34.574534</v>
       </c>
     </row>
   </sheetData>

--- a/mapa_interactivo_AYKO.xlsx
+++ b/mapa_interactivo_AYKO.xlsx
@@ -4346,7 +4346,11 @@
           <t>9</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>807762996</t>
+        </is>
+      </c>
       <c r="F60" t="inlineStr">
         <is>
           <t>AYKO</t>
@@ -4410,7 +4414,11 @@
           <t>6</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>807763040</t>
+        </is>
+      </c>
       <c r="F61" t="inlineStr">
         <is>
           <t>AYKO</t>
@@ -4423,7 +4431,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Aplomar esta es esquina con emilio mitre aprox al 10</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -4474,7 +4482,11 @@
           <t>13</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>807763098</t>
+        </is>
+      </c>
       <c r="F62" t="inlineStr">
         <is>
           <t>AYKO</t>

--- a/mapa_interactivo_AYKO.xlsx
+++ b/mapa_interactivo_AYKO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N62"/>
+  <dimension ref="A1:N63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4529,6 +4529,74 @@
         <v>-34.574534</v>
       </c>
     </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>6221</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>6/26/2025</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>FERNANDEZ 1549</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>807789699</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Poste inclinado</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Aplomo</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>Poste</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
+        <v>-58.471717</v>
+      </c>
+      <c r="N63" t="n">
+        <v>-34.649961</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapa_interactivo_AYKO.xlsx
+++ b/mapa_interactivo_AYKO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N63"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4597,6 +4597,74 @@
         <v>-34.649961</v>
       </c>
     </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>6248</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>6/27/2025</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>AVELLANEDA AV. 2395</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>807817952</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Poste podrido</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Poste</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
+        <v>-58.4643</v>
+      </c>
+      <c r="N64" t="n">
+        <v>-34.623993</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapa_interactivo_AYKO.xlsx
+++ b/mapa_interactivo_AYKO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N64"/>
+  <dimension ref="A1:N61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1608,27 +1608,27 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>-313</t>
+          <t>5138</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>3/29/2025</t>
+          <t>4/1/2025</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>VILLARINO /ALT/ 1710</t>
+          <t>LOPEZ, CARLOS ANTONIO 3326</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>106561 - BARRACAS</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>804333525</t>
+          <t>804468459</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1643,17 +1643,17 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Cambio de poste terminal con rienda pique Por columna.</t>
+          <t>COLUMNA INCLINADA</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1667,16 +1667,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>-58.370595</v>
+        <v>-58.508582</v>
       </c>
       <c r="N20" t="n">
-        <v>-34.652025</v>
+        <v>-34.588936</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>5138</t>
+          <t>5139</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1686,7 +1686,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>LOPEZ, CARLOS ANTONIO 3326</t>
+          <t>LOPEZ, CARLOS ANTONIO 3346</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1696,7 +1696,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>804468459</t>
+          <t>804468467</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1735,36 +1735,36 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>-58.508582</v>
+        <v>-58.508809</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.588936</v>
+        <v>-34.589076</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>5139</t>
+          <t>5500</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>4/1/2025</t>
+          <t>4/7/2025</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>LOPEZ, CARLOS ANTONIO 3346</t>
+          <t>LA PLATA AV. 1013</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>804468467</t>
+          <t>804568914</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>COLUMNA INCLINADA</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1803,16 +1803,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-58.508809</v>
+        <v>-58.426804</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.589076</v>
+        <v>-34.627283</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>5500</t>
+          <t>5728</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1822,17 +1822,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>LA PLATA AV. 1013</t>
+          <t>FRANCO 3340</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>804568914</t>
+          <t>804568964</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1847,7 +1847,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1857,7 +1857,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1871,26 +1871,26 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-58.426804</v>
+        <v>-58.512525</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.627283</v>
+        <v>-34.585228</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>5728</t>
+          <t>5521</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4/7/2025</t>
+          <t>4/8/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>FRANCO 3340</t>
+          <t>EL PEREGRINO 3115</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1900,7 +1900,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>804568964</t>
+          <t>804569000</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1915,7 +1915,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar Poste</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1925,7 +1925,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1935,40 +1935,40 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>-58.512525</v>
+        <v>-58.485232</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.585228</v>
+        <v>-34.611573</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>5521</t>
+          <t>-326</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>4/8/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>EL PEREGRINO 3115</t>
+          <t>GARCIA DEL RIO /ALT/ 3354</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>106593 - SAAVEDRA</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>804569000</t>
+          <t>804634199</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Aplomar Poste</t>
+          <t>Retirar poste de vereda. Reparar la vereda donde estaba colocado el poste.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2007,36 +2007,36 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.485232</v>
+        <v>-58.478106</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.611573</v>
+        <v>-34.551523</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>-319</t>
+          <t>-327</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4/8/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>MAGALLANES /ALT/ 1239</t>
+          <t>ROOSEVELT F D ,AV. /ALT/ 5439</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>106551 - LA BOCA</t>
+          <t>106592 - VILLA URQUIZA</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>804569042</t>
+          <t>804634203</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2051,7 +2051,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Base corroida agujereada</t>
+          <t>Colocar columna R200 y  dar aviso para el traspaso de nodos. (TECO y TLC)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2066,7 +2066,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2075,16 +2075,16 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.368045</v>
+        <v>-58.491074</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.640855</v>
+        <v>-34.575623</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>-326</t>
+          <t>5572</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2094,17 +2094,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>GARCIA DEL RIO /ALT/ 3354</t>
+          <t>SANABRIA 4289</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>804634199</t>
+          <t>804663652</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2119,7 +2119,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Retirar poste de vereda. Reparar la vereda donde estaba colocado el poste.</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2129,7 +2129,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2143,16 +2143,16 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.478106</v>
+        <v>-58.516755</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.551523</v>
+        <v>-34.6002</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>-327</t>
+          <t>5573</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2162,17 +2162,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ROOSEVELT F D ,AV. /ALT/ 5439</t>
+          <t>LASTRA AV. 4379</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>106592 - VILLA URQUIZA</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>804634203</t>
+          <t>804663677</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2187,7 +2187,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Colocar columna R200 y  dar aviso para el traspaso de nodos. (TECO y TLC)</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2197,12 +2197,12 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2211,16 +2211,16 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.491074</v>
+        <v>-58.525125</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.575623</v>
+        <v>-34.604668</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>5572</t>
+          <t>5574</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2230,7 +2230,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>SANABRIA 4289</t>
+          <t>GRIVEO 3909</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2240,7 +2240,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>804663652</t>
+          <t>804663683</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2255,7 +2255,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Poste Inclinado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2279,36 +2279,36 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.516755</v>
+        <v>-58.517126</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.6002</v>
+        <v>-34.592774</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>5573</t>
+          <t>-339</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/21/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>LASTRA AV. 4379</t>
+          <t>GRIVEO /ALT/ 2435</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>106591 - VILLA PUEYRREDON</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>804663677</t>
+          <t>804838868</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t xml:space="preserve">Aplomar columna 114  </t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2347,36 +2347,36 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.525125</v>
+        <v>-58.498493</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.604668</v>
+        <v>-34.581262</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>5574</t>
+          <t>-340</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/21/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>GRIVEO 3909</t>
+          <t>SUPERI /ALT/ 1445</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>106581 - COLEGIALES</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>804663683</t>
+          <t>804838869</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2391,7 +2391,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Poste Inclinado</t>
+          <t>Columna podrida en la base</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2401,7 +2401,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2411,40 +2411,40 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.517126</v>
+        <v>-58.460666</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.592774</v>
+        <v>-34.573823</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>-330</t>
+          <t>-342</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>4/17/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ROCHA /ALT/ 1651</t>
+          <t>WILLIAMS ALBERTO /ALT/ 5625</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>106561 - BARRACAS</t>
+          <t>106593 - SAAVEDRA</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>804787341</t>
+          <t>804839148</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2459,12 +2459,12 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Reemplazar columna en mal estado.</t>
+          <t>Cambiar columna de 114. - VIRARDI</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2483,26 +2483,26 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.373267</v>
+        <v>-58.502447</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.642303</v>
+        <v>-34.561008</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>-339</t>
+          <t>-346</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>4/21/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>GRIVEO /ALT/ 2435</t>
+          <t>ARGERICH /ALT/ 4710</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2512,7 +2512,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>804838868</t>
+          <t>804839198</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2527,17 +2527,17 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 114  </t>
+          <t>Cambiar poste con rienda podrido en su base - VIRARDI</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2547,40 +2547,40 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.498493</v>
+        <v>-58.503673</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.581262</v>
+        <v>-34.586925</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>-340</t>
+          <t>-353</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>4/21/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>SUPERI /ALT/ 1445</t>
+          <t>CAAGUAZU /ALT/ 5703</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>106581 - COLEGIALES</t>
+          <t>106576 - LINIERS</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>804838869</t>
+          <t>804839589</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2595,12 +2595,12 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Columna podrida en la base</t>
+          <t>Cambiar columna de 114. Fuera de plomo empotrada en árbol colocar rienda. ( se pasa tareas a contratista tratista de limpieza tensado y elevación del tendido).  - VIRARDI</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2619,16 +2619,16 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.460666</v>
+        <v>-58.511462</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.573823</v>
+        <v>-34.640542</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>-342</t>
+          <t>-354</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2638,17 +2638,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>WILLIAMS ALBERTO /ALT/ 5625</t>
+          <t>CONDARCO /ALT/ 5316</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>106591 - VILLA PUEYRREDON</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>804839148</t>
+          <t>804839626</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2663,7 +2663,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Cambiar columna de 114. - VIRARDI</t>
+          <t>Aplomo de columna de PRFV - VIRARDI</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2673,7 +2673,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2687,16 +2687,16 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.502447</v>
+        <v>-58.504455</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.561008</v>
+        <v>-34.579941</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>-346</t>
+          <t>-355</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2706,7 +2706,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>ARGERICH /ALT/ 4710</t>
+          <t>CUENCA /ALT/ 4480</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2716,7 +2716,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>804839198</t>
+          <t>804839675</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2731,7 +2731,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Cambiar poste con rienda podrido en su base - VIRARDI</t>
+          <t>Columna nueva fuera de plomo sostiene nodo de Telecentro.  Reclamo municipal.  - VIRARDI</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2741,30 +2741,30 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo/Fuente TLC</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.503673</v>
+        <v>-58.504568</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.586925</v>
+        <v>-34.590534</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>-353</t>
+          <t>-356</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2774,17 +2774,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CAAGUAZU /ALT/ 5703</t>
+          <t>CUENCA /ALT/ 4845</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>106576 - LINIERS</t>
+          <t>106591 - VILLA PUEYRREDON</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>804839589</t>
+          <t>804839715</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2799,7 +2799,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Cambiar columna de 114. Fuera de plomo empotrada en árbol colocar rienda. ( se pasa tareas a contratista tratista de limpieza tensado y elevación del tendido).  - VIRARDI</t>
+          <t>Retiro de poste viejo en desuso liberado podrido en su base.  - VIRARDI</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2819,20 +2819,20 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.511462</v>
+        <v>-58.507182</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.640542</v>
+        <v>-34.58749</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>-354</t>
+          <t>-357</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2842,17 +2842,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CONDARCO /ALT/ 5316</t>
+          <t>MISTRAL GABRIELA /ALT/ 3376</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>106591 - VILLA PUEYRREDON</t>
+          <t>106589 - VILLA DEVOTO</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>804839626</t>
+          <t>804839774</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Aplomo de columna de PRFV - VIRARDI</t>
+          <t>Cambiar columna corroida en su base.  Ubicada en puerta de colegio.  - VIRARDI</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2877,7 +2877,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2891,16 +2891,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.504455</v>
+        <v>-58.507591</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.579941</v>
+        <v>-34.590945</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>-355</t>
+          <t>-359</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2910,7 +2910,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CUENCA /ALT/ 4480</t>
+          <t>CABEZON JOSE LEON /ALT/ 2714</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>804839675</t>
+          <t>804839875</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2935,7 +2935,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Columna nueva fuera de plomo sostiene nodo de Telecentro.  Reclamo municipal.  - VIRARDI</t>
+          <t>Aplomo de columna de 114 - VIRARDI</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2950,7 +2950,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Nodo/Fuente TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -2959,16 +2959,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.504568</v>
+        <v>-58.503195</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.590534</v>
+        <v>-34.581735</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>-356</t>
+          <t>-362</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2978,17 +2978,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CUENCA /ALT/ 4845</t>
+          <t>MOZART /ALT/ 562</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>106591 - VILLA PUEYRREDON</t>
+          <t>106571 - PQUE. AVELLANEDA</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>804839715</t>
+          <t>804839947</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3003,7 +3003,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Retiro de poste viejo en desuso liberado podrido en su base.  - VIRARDI</t>
+          <t>Aplomar columna de 114. Se encuentra frente al 575 lado plaza sin número.  - VIRARDI</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3013,7 +3013,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3023,20 +3023,20 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.507182</v>
+        <v>-58.489948</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.58749</v>
+        <v>-34.643478</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>-357</t>
+          <t>-364</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3046,17 +3046,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>MISTRAL GABRIELA /ALT/ 3376</t>
+          <t>PAROISSIEN /ALT/ 4871</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>106589 - VILLA DEVOTO</t>
+          <t>106593 - SAAVEDRA</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>804839774</t>
+          <t>804839991</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3071,7 +3071,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Cambiar columna corroida en su base.  Ubicada en puerta de colegio.  - VIRARDI</t>
+          <t>Aplomar columna de 114 - VIRARDI</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3081,7 +3081,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3095,16 +3095,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.507591</v>
+        <v>-58.493164</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.590945</v>
+        <v>-34.55732</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>-359</t>
+          <t>-365</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3114,17 +3114,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CABEZON JOSE LEON /ALT/ 2714</t>
+          <t>QUESADA /ALT/ 5290</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>106591 - VILLA PUEYRREDON</t>
+          <t>106592 - VILLA URQUIZA</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>804839875</t>
+          <t>804839995</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3139,7 +3139,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Aplomo de columna de 114 - VIRARDI</t>
+          <t>Columna nueva de PVC fuera de plomo.  - VIRARDI</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3149,7 +3149,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -3163,16 +3163,16 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.503195</v>
+        <v>-58.491934</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.581735</v>
+        <v>-34.569348</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>-362</t>
+          <t>-366</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3182,17 +3182,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>MOZART /ALT/ 562</t>
+          <t>QUESADA /ALT/ 6088</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>106571 - PQUE. AVELLANEDA</t>
+          <t>106592 - VILLA URQUIZA</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>804839947</t>
+          <t>804840016</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3207,7 +3207,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aplomar columna de 114. Se encuentra frente al 575 lado plaza sin número.  - VIRARDI</t>
+          <t>Aplomar columna de 168 cambiar rienda.  - VIRARDI</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3231,16 +3231,16 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.489948</v>
+        <v>-58.501418</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.643478</v>
+        <v>-34.574363</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>-364</t>
+          <t>-367</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3250,7 +3250,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>PAROISSIEN /ALT/ 4871</t>
+          <t>RUIZ HUIDOBRO ,AV. /ALT/ 4771</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -3260,7 +3260,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>804839991</t>
+          <t>804840024</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3275,7 +3275,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Aplomar columna de 114 - VIRARDI</t>
+          <t>Aplomo de columna de 114 - VIRARDI</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3299,36 +3299,36 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.493164</v>
+        <v>-58.494584</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.55732</v>
+        <v>-34.554981</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>-365</t>
+          <t>-372</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>QUESADA /ALT/ 5290</t>
+          <t>CAMARGO /ALT/ 25</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>106592 - VILLA URQUIZA</t>
+          <t>106582 - VILLA CRESPO</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>804839995</t>
+          <t>804903809</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3343,12 +3343,12 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Columna nueva de PVC fuera de plomo.  - VIRARDI</t>
+          <t>Aplomar columna 114 con rienda a pique</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -3367,36 +3367,36 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.491934</v>
+        <v>-58.436788</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.569348</v>
+        <v>-34.604014</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>-366</t>
+          <t>-373</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>QUESADA /ALT/ 6088</t>
+          <t>GALLARDO ANGEL ,AV. /ALT/ 608</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>106592 - VILLA URQUIZA</t>
+          <t>106569 - CABALLITO</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>804840016</t>
+          <t>804903810</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3411,12 +3411,12 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Aplomar columna de 168 cambiar rienda.  - VIRARDI</t>
+          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -3435,36 +3435,36 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.501418</v>
+        <v>-58.439461</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.574363</v>
+        <v>-34.605744</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>-367</t>
+          <t>-375</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>RUIZ HUIDOBRO ,AV. /ALT/ 4771</t>
+          <t>PAVON /ALT/ 3335</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>106562 - BOEDO</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>804840024</t>
+          <t>804903824</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3479,17 +3479,17 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Aplomo de columna de 114 - VIRARDI</t>
+          <t>Colocar columna nueva donde estaba la anterior cortada</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3503,16 +3503,16 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.494584</v>
+        <v>-58.412418</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.554981</v>
+        <v>-34.629288</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>-372</t>
+          <t>-378</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3522,17 +3522,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>CAMARGO /ALT/ 25</t>
+          <t>MAGARINO CERVANTES A /ALT/ 5054</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>106582 - VILLA CRESPO</t>
+          <t>106574 - VELEZ SARSFIELD</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>804903809</t>
+          <t>804903791</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3547,7 +3547,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Aplomar columna 114 con rienda a pique</t>
+          <t>Desmontar poste</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3557,7 +3557,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3567,40 +3567,40 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.436788</v>
+        <v>-58.503618</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.604014</v>
+        <v>-34.629209</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>-373</t>
+          <t>-381</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>4/25/2025</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>GALLARDO ANGEL ,AV. /ALT/ 608</t>
+          <t>RIVADAVIA ,AV. /ALT/ 9477</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>106569 - CABALLITO</t>
+          <t>106575 - VILLA LURO</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>804903810</t>
+          <t>805010120</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3615,7 +3615,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
+          <t>Podrida en la base</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3639,36 +3639,36 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.439461</v>
+        <v>-58.497691</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.605744</v>
+        <v>-34.637087</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>-375</t>
+          <t>-383</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>PAVON /ALT/ 3335</t>
+          <t>VALDERRAMA /ALT/ 4187</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>106562 - BOEDO</t>
+          <t>106592 - VILLA URQUIZA</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>804903824</t>
+          <t>805507401</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3683,7 +3683,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Colocar columna nueva donde estaba la anterior cortada</t>
+          <t xml:space="preserve">Aplomar columna 114 </t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3693,7 +3693,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3707,36 +3707,36 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.412418</v>
+        <v>-58.481834</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.629288</v>
+        <v>-34.560796</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>-378</t>
+          <t>-384</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>MAGARINO CERVANTES A /ALT/ 5054</t>
+          <t>LUGONES 1721</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>106574 - VELEZ SARSFIELD</t>
+          <t>106586 - VILLA ORTUZAR</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>804903791</t>
+          <t>805507408</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3751,7 +3751,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Desmontar poste</t>
+          <t>Aplomar columna 168 - La columna esta frente a la altura 1721</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3761,7 +3761,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -3771,40 +3771,40 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>-58.503618</v>
+        <v>-58.473936</v>
       </c>
       <c r="N51" t="n">
-        <v>-34.629209</v>
+        <v>-34.577346</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>-381</t>
+          <t>-387</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>4/25/2025</t>
+          <t>5/1/2025</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>RIVADAVIA ,AV. /ALT/ 9477</t>
+          <t>FLORES GRAL VENANCIO /ALT/ 4139</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>106575 - VILLA LURO</t>
+          <t>106574 - VELEZ SARSFIELD</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>805010120</t>
+          <t>805579025</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3819,7 +3819,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Podrida en la base</t>
+          <t>Columna fuera de plomo - VIRARDI</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3829,7 +3829,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3843,26 +3843,26 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>-58.497691</v>
+        <v>-58.485221</v>
       </c>
       <c r="N52" t="n">
-        <v>-34.637087</v>
+        <v>-34.633425</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>-383</t>
+          <t>-391</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>5/5/2025</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>VALDERRAMA /ALT/ 4187</t>
+          <t>IBERA /ALT/ 5074</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -3872,7 +3872,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>805507401</t>
+          <t>805676610</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3887,7 +3887,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 114 </t>
+          <t xml:space="preserve">Cambiar columna 114 base corroida </t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3897,7 +3897,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3911,36 +3911,36 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>-58.481834</v>
+        <v>-58.49045</v>
       </c>
       <c r="N53" t="n">
-        <v>-34.560796</v>
+        <v>-34.566894</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>-384</t>
+          <t>-399</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>5/7/2025</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>LUGONES 1721</t>
+          <t>Casco 115</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>106586 - VILLA ORTUZAR</t>
+          <t>106576 - LINIERS</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>805507408</t>
+          <t>805722774</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3955,7 +3955,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Aplomar columna 168 - La columna esta frente a la altura 1721</t>
+          <t>Reclamo municipal pendiente de New OT:707916611 cambiar columna de 168 con rienda.  - VIRARDI</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -3965,7 +3965,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -3975,40 +3975,40 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>-58.473936</v>
+        <v>-58.525835</v>
       </c>
       <c r="N54" t="n">
-        <v>-34.577346</v>
+        <v>-34.637998</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>-387</t>
+          <t>-400</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>5/1/2025</t>
+          <t>5/7/2025</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>FLORES GRAL VENANCIO /ALT/ 4139</t>
+          <t>BYNON /ALT/ 6790</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>106574 - VELEZ SARSFIELD</t>
+          <t>106576 - LINIERS</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>805579025</t>
+          <t>805722777</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4023,7 +4023,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Columna fuera de plomo - VIRARDI</t>
+          <t>Reclamo municipal pendiente de New OT:676904205. Cambiar columna de 114 corroida.  - VIRARDI</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4033,7 +4033,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -4047,36 +4047,36 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>-58.485221</v>
+        <v>-58.525119</v>
       </c>
       <c r="N55" t="n">
-        <v>-34.633425</v>
+        <v>-34.637178</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>-391</t>
+          <t>5805</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>5/5/2025</t>
+          <t>5/14/2025</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>IBERA /ALT/ 5074</t>
+          <t>GUTENBERG 4134</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>106592 - VILLA URQUIZA</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>805676610</t>
+          <t>806926378</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -4091,7 +4091,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna 114 base corroida </t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4101,7 +4101,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -4111,40 +4111,40 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>-58.49045</v>
+        <v>-58.51665</v>
       </c>
       <c r="N56" t="n">
-        <v>-34.566894</v>
+        <v>-34.596644</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>-399</t>
+          <t>6223</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>5/7/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Casco 115</t>
+          <t>ECHEANDIA 4200</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>106576 - LINIERS</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>805722774</t>
+          <t>807762996</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -4159,7 +4159,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Reclamo municipal pendiente de New OT:707916611 cambiar columna de 168 con rienda.  - VIRARDI</t>
+          <t>Columna inclinada con base  corroida</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -4183,36 +4183,36 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>-58.525835</v>
+        <v>-58.472311</v>
       </c>
       <c r="N57" t="n">
-        <v>-34.637998</v>
+        <v>-34.654867</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>-400</t>
+          <t>6197</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>5/7/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>BYNON /ALT/ 6790</t>
+          <t>RIVADAVIA AV. 5600</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>106576 - LINIERS</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>805722777</t>
+          <t>807763040</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -4227,7 +4227,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Reclamo municipal pendiente de New OT:676904205. Cambiar columna de 114 corroida.  - VIRARDI</t>
+          <t>Aplomar esta es esquina con emilio mitre aprox al 10</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4251,36 +4251,36 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>-58.525119</v>
+        <v>-58.444181</v>
       </c>
       <c r="N58" t="n">
-        <v>-34.637178</v>
+        <v>-34.621883</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>5805</t>
+          <t>6239</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>5/14/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>GUTENBERG 4134</t>
+          <t>PALPA 2964</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>806926378</t>
+          <t>807763098</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -4295,7 +4295,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4305,7 +4305,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -4315,30 +4315,30 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>-58.51665</v>
+        <v>-58.450113</v>
       </c>
       <c r="N59" t="n">
-        <v>-34.596644</v>
+        <v>-34.574534</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>6223</t>
+          <t>6221</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/26/2025</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>ECHEANDIA 4200</t>
+          <t>FERNANDEZ 1549</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -4348,7 +4348,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>807762996</t>
+          <t>807789699</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -4363,7 +4363,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Columna inclinada con base  corroida</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4373,7 +4373,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -4383,40 +4383,40 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>-58.472311</v>
+        <v>-58.471717</v>
       </c>
       <c r="N60" t="n">
-        <v>-34.654867</v>
+        <v>-34.649961</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>6197</t>
+          <t>6248</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/27/2025</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 5600</t>
+          <t>AVELLANEDA AV. 2395</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>807763040</t>
+          <t>807817952</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -4431,7 +4431,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Aplomar esta es esquina con emilio mitre aprox al 10</t>
+          <t>Poste podrido</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -4451,217 +4451,13 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>-58.444181</v>
+        <v>-58.4643</v>
       </c>
       <c r="N61" t="n">
-        <v>-34.621883</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>6239</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>6/24/2025</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>PALPA 2964</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>807763098</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>-58.450113</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-34.574534</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>6221</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>6/26/2025</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>FERNANDEZ 1549</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>807789699</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Poste inclinado</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>Aplomo</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>Poste</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>-58.471717</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-34.649961</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>6248</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>6/27/2025</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>AVELLANEDA AV. 2395</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>807817952</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Poste podrido</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>Poste</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>-58.4643</v>
-      </c>
-      <c r="N64" t="n">
         <v>-34.623993</v>
       </c>
     </row>

--- a/mapa_interactivo_AYKO.xlsx
+++ b/mapa_interactivo_AYKO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N61"/>
+  <dimension ref="A1:N144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,27 +508,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>-10</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1/15/2024</t>
+          <t>1/5/2024</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DARWIN /ALT/ 651</t>
+          <t>FIGUEROA ALCORTA PTE ,AV. /ALT/ 5600</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>106582 - VILLA CRESPO</t>
+          <t>106594 - PALERMO</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>777863458</t>
+          <t>777580740</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -541,58 +541,50 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Es F. ALCORTA 5600 (pasando Av de los ombues 100mts aprox.) Para cambiar es un poste con muchas rajaduras, en Figueroa Alcorta esq. Av de los Ombues</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
-        <v>-58.44467</v>
+        <v>-58.425911</v>
       </c>
       <c r="N2" t="n">
-        <v>-34.593784</v>
+        <v>-34.56033</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>-31</t>
+          <t>-9</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2/21/2024</t>
+          <t>1/13/2024</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CONDARCO /ALT/ 451</t>
+          <t>SANTA FE ,AV. /ALT/ 5154</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>106570 - FLORES</t>
+          <t>106594 - PALERMO</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>780387959</t>
+          <t>777843837</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -607,7 +599,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>cambio poste de madera</t>
+          <t>cambio de columna la misma NO presenta riesgo de caída</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -619,36 +611,36 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
-        <v>-58.468603</v>
+        <v>-58.432658</v>
       </c>
       <c r="N3" t="n">
-        <v>-34.626012</v>
+        <v>-34.576446</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>-152</t>
+          <t>-10</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>11/1/2024</t>
+          <t>1/15/2024</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>FERNANDEZ DE ENCISO /ALT/ 3610</t>
+          <t>DARWIN /ALT/ 651</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>106589 - VILLA DEVOTO</t>
+          <t>106582 - VILLA CRESPO</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>798984311</t>
+          <t>777863458</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -667,40 +659,52 @@
           <t>0</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M4" t="n">
-        <v>-58.513363</v>
+        <v>-58.44467</v>
       </c>
       <c r="N4" t="n">
-        <v>-34.605473</v>
+        <v>-34.593784</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>-160</t>
+          <t>-15</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>11/1/2024</t>
+          <t>1/25/2024</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MORAN PEDRO /ALT/ 3100</t>
+          <t>GUATEMALA /ALT/ 5933</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>106587 - AGRONOMIA</t>
+          <t>106594 - PALERMO</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>798984905</t>
+          <t>778787388</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -713,7 +717,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">columna de 114mm de nuestra propiedad que esta quebrada en su base para remplazar ubicada en GUATEMALA 5933 </t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>0</t>
@@ -723,36 +731,36 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
-        <v>-58.498724</v>
+        <v>-58.435356</v>
       </c>
       <c r="N5" t="n">
-        <v>-34.594329</v>
+        <v>-34.577571</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>-176</t>
+          <t>-30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>12/31/2023</t>
+          <t>2/21/2024</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>TARIJA /ALT/ 3345</t>
+          <t>VEGA CNEL NICETO /ALT/ 4984</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>106562 - BOEDO</t>
+          <t>106594 - PALERMO</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>799539678</t>
+          <t>780352873</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -767,7 +775,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>columna que está podrida en base</t>
+          <t>Recambio de columna</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -779,36 +787,36 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
-        <v>-58.412389</v>
+        <v>-58.433253</v>
       </c>
       <c r="N6" t="n">
-        <v>-34.628625</v>
+        <v>-34.591026</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>-184</t>
+          <t>-31</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>12/31/2023</t>
+          <t>2/21/2024</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>GARZON GRAL E ,AV. /ALT/ 5145</t>
+          <t>CONDARCO /ALT/ 451</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>106572 - MATADEROS</t>
+          <t>106570 - FLORES</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>799539766</t>
+          <t>780387959</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -821,7 +829,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>cambio poste de madera</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr">
         <is>
           <t>0</t>
@@ -831,36 +843,36 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
-        <v>-58.488261</v>
+        <v>-58.468603</v>
       </c>
       <c r="N7" t="n">
-        <v>-34.653436</v>
+        <v>-34.626012</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>-192</t>
+          <t>-34</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>12/31/2023</t>
+          <t>2/26/2024</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>LLAVALLOL /ALT/ 3363</t>
+          <t>DORREGO ,AV. /ALT/ 2622</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>106588 - VILLA DEL PARQUE</t>
+          <t>106594 - PALERMO</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>799539931</t>
+          <t>780713073</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -873,46 +885,50 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Recambio de columna</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
-        <v>-58.499699</v>
+        <v>-58.434217</v>
       </c>
       <c r="N8" t="n">
-        <v>-34.600641</v>
+        <v>-34.574247</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>-193</t>
+          <t>-51</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>12/31/2023</t>
+          <t>4/5/2024</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>WASHINGTON /ALT/ 3251</t>
+          <t>CHARCAS /ALT/ 4176</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>106590 - COGHLAN</t>
+          <t>106594 - PALERMO</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>799539971</t>
+          <t>782773317</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -927,7 +943,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Washington 3251 cambiar columna de 114 transferir tendidos. dejar pasivos en norma</t>
+          <t xml:space="preserve">columna de 114mm de nuestra propiedad que esta quebrada y en mal estado, para remplazar ubicada en CHARCAS 4176 </t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -939,36 +955,36 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
-        <v>-58.478272</v>
+        <v>-58.421741</v>
       </c>
       <c r="N9" t="n">
-        <v>-34.558899</v>
+        <v>-34.584789</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>-212</t>
+          <t>-56</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>11/7/2024</t>
+          <t>4/13/2024</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>FIGUEROA CNEL APOLINARIO /ALT/ 863</t>
+          <t>LA PAMPA /ALT/ 2119</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>106569 - CABALLITO</t>
+          <t>106595 - BELGRANO</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>799485362</t>
+          <t>783370812</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -981,7 +997,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>La pampa 2119 cambiar columna 114 y efectuar transferencias base corroida</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr">
         <is>
           <t>0</t>
@@ -991,36 +1011,36 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
-        <v>-58.450579</v>
+        <v>-58.451674</v>
       </c>
       <c r="N10" t="n">
-        <v>-34.607673</v>
+        <v>-34.563292</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>-254</t>
+          <t>-84</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1/7/2025</t>
+          <t>5/3/2024</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BELAUSTEGUI DR LUIS /ALT/ 1185</t>
+          <t>ORTIZ DE OCAMPO ,AV. /ALT/ 2635</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>106569 - CABALLITO</t>
+          <t>106594 - PALERMO</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>802367713</t>
+          <t>784804129</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1033,58 +1053,50 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Direccion correcta 2635/9</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>Nodo Teco</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
-        <v>-58.457158</v>
+        <v>-58.404652</v>
       </c>
       <c r="N11" t="n">
-        <v>-34.605839</v>
+        <v>-34.58263</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>803608154</t>
+          <t>-103</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2/24/2025</t>
+          <t>6/12/2024</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CUBAS JOSE /ALT/ 3372</t>
+          <t>SALGUERO JERONIMO /ALT/ 2533</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>106589 - VILLA DEVOTO</t>
+          <t>106594 - PALERMO</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>803608154</t>
+          <t>788206681</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1099,7 +1111,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Colocar columna</t>
+          <t>Altura correcta 2549</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1107,52 +1119,40 @@
           <t>0</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
-        <v>-58.506318</v>
+        <v>-58.409971</v>
       </c>
       <c r="N12" t="n">
-        <v>-34.592417</v>
+        <v>-34.58175</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>803608215</t>
+          <t>-118</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2/24/2025</t>
+          <t>8/15/2024</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>DEL PINO VIRREY /ALT/ 2646</t>
+          <t>SUCRE MRCAL A J DE /ALT/ 1437</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>106581 - COLEGIALES</t>
+          <t>106595 - BELGRANO</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>803608215</t>
+          <t>793333193</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Columna 114 quebrada en base dar prioridad.</t>
+          <t>Retirar columna vieja, nodo ya traspasado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1182,7 +1182,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1191,36 +1191,36 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>-58.45524</v>
+        <v>-58.445523</v>
       </c>
       <c r="N13" t="n">
-        <v>-34.567858</v>
+        <v>-34.558237</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>803608331</t>
+          <t>-143</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2/24/2025</t>
+          <t>10/7/2024</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ROOSEVELT F D ,AV. /ALT/ 4875</t>
+          <t>CIUDAD DE LA PAZ /ALT/ 2261</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>106592 - VILLA URQUIZA</t>
+          <t>106595 - BELGRANO</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>803608331</t>
+          <t>797752816</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1233,62 +1233,46 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Columna terminal168 con rienda a pique fuera de plomo  y base con cimentación rota </t>
-        </is>
-      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
-        <v>-58.484493</v>
+        <v>-58.458864</v>
       </c>
       <c r="N14" t="n">
-        <v>-34.572049</v>
+        <v>-34.561167</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>803608455</t>
+          <t>-146</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2/24/2025</t>
+          <t>10/8/2024</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>VALDENEGRO /ALT/ 4037</t>
+          <t>BLANCO ENCALADA /ALT/ 2396</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>106595 - BELGRANO</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>803608455</t>
+          <t>797822177</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1301,62 +1285,46 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Cambiar poste podrido apoyado en tanque de agua. Es sobre parque junto a medianera.  Dar prioridad .</t>
-        </is>
-      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>Poste</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
-        <v>-58.493679</v>
+        <v>-58.458717</v>
       </c>
       <c r="N15" t="n">
-        <v>-34.557149</v>
+        <v>-34.559047</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>803608463</t>
+          <t>-148</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2/24/2025</t>
+          <t>10/21/2024</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>COCHABAMBA /ALT/ 1790</t>
+          <t>CARRANZA ANGEL J /ALT/ 2252</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>106552 - CONSTITUCION</t>
+          <t>106594 - PALERMO</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>803608463</t>
+          <t>798311488</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1369,62 +1337,46 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>SIN RIEGO</t>
-        </is>
-      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>Nodo/Fuente Teco</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
-        <v>-58.391153</v>
+        <v>-58.433532</v>
       </c>
       <c r="N16" t="n">
-        <v>-34.624022</v>
+        <v>-34.578254</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>-300</t>
+          <t>-152</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>3/17/2025</t>
+          <t>11/1/2024</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>SAN MARTIN ,AV. /ALT/ 6195</t>
+          <t>FERNANDEZ DE ENCISO /ALT/ 3610</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>106587 - AGRONOMIA</t>
+          <t>106589 - VILLA DEVOTO</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>804081102</t>
+          <t>798984311</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1437,62 +1389,46 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Aplomar</t>
-        </is>
-      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>Terminal</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
-        <v>-58.502505</v>
+        <v>-58.513363</v>
       </c>
       <c r="N17" t="n">
-        <v>-34.59465</v>
+        <v>-34.605473</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>-310</t>
+          <t>-160</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>11/1/2024</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>GONZALEZ JOAQUIN V /ALT/ 729</t>
+          <t>MORAN PEDRO /ALT/ 3100</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>106573 - FLORESTA</t>
+          <t>106587 - AGRONOMIA</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>804302855</t>
+          <t>798984905</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1505,62 +1441,46 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
-        <v>-58.482428</v>
+        <v>-58.498724</v>
       </c>
       <c r="N18" t="n">
-        <v>-34.625289</v>
+        <v>-34.594329</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>-311</t>
+          <t>-176</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>12/31/2023</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>GONZALEZ JOAQUIN V /ALT/ 789</t>
+          <t>TARIJA /ALT/ 3345</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>106573 - FLORESTA</t>
+          <t>106562 - BOEDO</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>804302872</t>
+          <t>799539678</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1575,7 +1495,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>columna que está podrida en base</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1583,52 +1503,40 @@
           <t>0</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>Terminal</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
-        <v>-58.482612</v>
+        <v>-58.412389</v>
       </c>
       <c r="N19" t="n">
-        <v>-34.624833</v>
+        <v>-34.628625</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>5138</t>
+          <t>-184</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>4/1/2025</t>
+          <t>12/31/2023</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>LOPEZ, CARLOS ANTONIO 3326</t>
+          <t>GARZON GRAL E ,AV. /ALT/ 5145</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>106572 - MATADEROS</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>804468459</t>
+          <t>799539766</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1641,62 +1549,46 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>COLUMNA INCLINADA</t>
-        </is>
-      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>Aplomo</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
-        <v>-58.508582</v>
+        <v>-58.488261</v>
       </c>
       <c r="N20" t="n">
-        <v>-34.588936</v>
+        <v>-34.653436</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>5139</t>
+          <t>-192</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>4/1/2025</t>
+          <t>12/31/2023</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>LOPEZ, CARLOS ANTONIO 3346</t>
+          <t>LLAVALLOL /ALT/ 3363</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>106588 - VILLA DEL PARQUE</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>804468467</t>
+          <t>799539931</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1709,62 +1601,46 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>COLUMNA INCLINADA</t>
-        </is>
-      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Aplomo</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>-58.508809</v>
+        <v>-58.499699</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.589076</v>
+        <v>-34.600641</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>5500</t>
+          <t>-193</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>4/7/2025</t>
+          <t>12/31/2023</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>LA PLATA AV. 1013</t>
+          <t>WASHINGTON /ALT/ 3251</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>106590 - COGHLAN</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>804568914</t>
+          <t>799539971</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1779,60 +1655,48 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Washington 3251 cambiar columna de 114 transferir tendidos. dejar pasivos en norma</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>Aplomo</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
-        <v>-58.426804</v>
+        <v>-58.478272</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.627283</v>
+        <v>-34.558899</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>5728</t>
+          <t>-201</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>4/7/2025</t>
+          <t>12/31/2023</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>FRANCO 3340</t>
+          <t>MIGUELETES /ALT/ 1007</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>106594 - PALERMO</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>804568964</t>
+          <t>799540497</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1847,60 +1711,48 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>reemplazo de columnas en mal estado Migueletes 1007 reemplazar columna 114 y colocar rienda a pique</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>-58.512525</v>
+        <v>-58.436377</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.585228</v>
+        <v>-34.565075</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>5521</t>
+          <t>-202</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4/8/2025</t>
+          <t>12/31/2023</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>EL PEREGRINO 3115</t>
+          <t>MIGUELETES /ALT/ 1030</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>106594 - PALERMO</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>804569000</t>
+          <t>799540503</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1915,60 +1767,48 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Aplomar Poste</t>
+          <t>Recambio de columna - alt correcta 1010</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>Aplomo</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>Poste</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
-        <v>-58.485232</v>
+        <v>-58.436601</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.611573</v>
+        <v>-34.565035</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>-326</t>
+          <t>-203</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>12/31/2023</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>GARCIA DEL RIO /ALT/ 3354</t>
+          <t>NEWBERY JORGE /ALT/ 2644</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>106594 - PALERMO</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>804634199</t>
+          <t>799540511</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1983,60 +1823,48 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Retirar poste de vereda. Reparar la vereda donde estaba colocado el poste.</t>
+          <t>Recambio de columna</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>Desmonte</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>Poste</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
-        <v>-58.478106</v>
+        <v>-58.442706</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.551523</v>
+        <v>-34.574158</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>-327</t>
+          <t>-210</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>12/31/2023</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ROOSEVELT F D ,AV. /ALT/ 5439</t>
+          <t>GANDARA /ALT/ 2797</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>106592 - VILLA URQUIZA</t>
+          <t>106597 - PARQUE CHAS</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>804634203</t>
+          <t>799540574</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2051,60 +1879,48 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Colocar columna R200 y  dar aviso para el traspaso de nodos. (TECO y TLC)</t>
+          <t>CAMBIAR COLUMNA 114 CON 5 TRANSICIONES MAS RIENDA A PIQUE</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>Nodo Teco</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
-        <v>-58.491074</v>
+        <v>-58.480672</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.575623</v>
+        <v>-34.583085</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>5572</t>
+          <t>-212</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>11/7/2024</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>SANABRIA 4289</t>
+          <t>FIGUEROA CNEL APOLINARIO /ALT/ 863</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>106569 - CABALLITO</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>804663652</t>
+          <t>799485362</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2117,62 +1933,46 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Poste inclinado</t>
-        </is>
-      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>Aplomo</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>Poste</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
-        <v>-58.516755</v>
+        <v>-58.450579</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.6002</v>
+        <v>-34.607673</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>5573</t>
+          <t>-213</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>11/7/2024</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>LASTRA AV. 4379</t>
+          <t>SCALABRINI ORTIZ R ,AV. /ALT/ 2452</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>106594 - PALERMO</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>804663677</t>
+          <t>799451003</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2185,62 +1985,46 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Columna inclinada</t>
-        </is>
-      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>Aplomo</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
-        <v>-58.525125</v>
+        <v>-58.416896</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.604668</v>
+        <v>-34.585625</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>5574</t>
+          <t>-214</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>11/7/2024</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>GRIVEO 3909</t>
+          <t>SCALABRINI ORTIZ R ,AV. /ALT/ 2394</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>106594 - PALERMO</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>804663683</t>
+          <t>799450985</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2253,62 +2037,46 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Poste Inclinado</t>
-        </is>
-      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>Aplomo</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>Poste</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
-        <v>-58.517126</v>
+        <v>-58.417746</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.592774</v>
+        <v>-34.586158</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>-339</t>
+          <t>-216</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>4/21/2025</t>
+          <t>5/2/2024</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>GRIVEO /ALT/ 2435</t>
+          <t>ORTIZ DE OCAMPO ,AV. /ALT/ 2635</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>106591 - VILLA PUEYRREDON</t>
+          <t>106594 - PALERMO</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>804838868</t>
+          <t>784655947</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2323,60 +2091,48 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 114  </t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>Aplomo</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
-        <v>-58.498493</v>
+        <v>-58.404652</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.581262</v>
+        <v>-34.58263</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>-340</t>
+          <t>-219</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>4/21/2025</t>
+          <t>10/31/2024</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>SUPERI /ALT/ 1445</t>
+          <t>LA PAMPA /ALT/ 2836</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>106581 - COLEGIALES</t>
+          <t>106595 - BELGRANO</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>804838869</t>
+          <t>798953875</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2391,60 +2147,48 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Columna podrida en la base</t>
+          <t>Colocar Columna entre 2836/2838 ver con inspector la viabilidad</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
-        <v>-58.460666</v>
+        <v>-58.458282</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.573823</v>
+        <v>-34.56718</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>-342</t>
+          <t>-226</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>11/20/2024</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>WILLIAMS ALBERTO /ALT/ 5625</t>
+          <t>CUBA /ALT/ 2308</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>106595 - BELGRANO</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>804839148</t>
+          <t>800502281</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2459,7 +2203,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Cambiar columna de 114. - VIRARDI</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2467,52 +2211,40 @@
           <t>0</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
-        <v>-58.502447</v>
+        <v>-58.456674</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.561008</v>
+        <v>-34.558757</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>-346</t>
+          <t>-228</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>11/22/2024</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>ARGERICH /ALT/ 4710</t>
+          <t>ALVAREZ JULIAN /ALT/ 1272</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>106591 - VILLA PUEYRREDON</t>
+          <t>106594 - PALERMO</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>804839198</t>
+          <t>800645527</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2527,7 +2259,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Cambiar poste con rienda podrido en su base - VIRARDI</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2535,52 +2267,40 @@
           <t>0</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>Poste</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
-        <v>-58.503673</v>
+        <v>-58.426725</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.586925</v>
+        <v>-34.5945</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>-353</t>
+          <t>-254</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>1/7/2025</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CAAGUAZU /ALT/ 5703</t>
+          <t>BELAUSTEGUI DR LUIS /ALT/ 1185</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>106576 - LINIERS</t>
+          <t>106569 - CABALLITO</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>804839589</t>
+          <t>802367713</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2593,14 +2313,10 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Cambiar columna de 114. Fuera de plomo empotrada en árbol colocar rienda. ( se pasa tareas a contratista tratista de limpieza tensado y elevación del tendido).  - VIRARDI</t>
-        </is>
-      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2610,7 +2326,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -2619,36 +2335,36 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.511462</v>
+        <v>-58.457158</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.640542</v>
+        <v>-34.605839</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>-354</t>
+          <t>-263</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>1/22/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CONDARCO /ALT/ 5316</t>
+          <t>Fraga 93</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>106591 - VILLA PUEYRREDON</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>804839626</t>
+          <t>802848838</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2663,17 +2379,17 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aplomo de columna de PRFV - VIRARDI</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2683,40 +2399,40 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.504455</v>
+        <v>-58.446721</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.579941</v>
+        <v>-34.587175</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>-355</t>
+          <t>803608154</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>2/24/2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CUENCA /ALT/ 4480</t>
+          <t>CUBAS JOSE /ALT/ 3372</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>106591 - VILLA PUEYRREDON</t>
+          <t>106589 - VILLA DEVOTO</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>804839675</t>
+          <t>803608154</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2731,7 +2447,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Columna nueva fuera de plomo sostiene nodo de Telecentro.  Reclamo municipal.  - VIRARDI</t>
+          <t>Colocar columna</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2741,12 +2457,12 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Nodo/Fuente TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -2755,36 +2471,36 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.504568</v>
+        <v>-58.506318</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.590534</v>
+        <v>-34.592417</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>-356</t>
+          <t>803608215</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>2/24/2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CUENCA /ALT/ 4845</t>
+          <t>DEL PINO VIRREY /ALT/ 2646</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>106591 - VILLA PUEYRREDON</t>
+          <t>106581 - COLEGIALES</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>804839715</t>
+          <t>803608215</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2799,7 +2515,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Retiro de poste viejo en desuso liberado podrido en su base.  - VIRARDI</t>
+          <t>Columna 114 quebrada en base dar prioridad.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2809,7 +2525,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2819,40 +2535,40 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.507182</v>
+        <v>-58.45524</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.58749</v>
+        <v>-34.567858</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>-357</t>
+          <t>803608331</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>2/24/2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>MISTRAL GABRIELA /ALT/ 3376</t>
+          <t>ROOSEVELT F D ,AV. /ALT/ 4875</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>106589 - VILLA DEVOTO</t>
+          <t>106592 - VILLA URQUIZA</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>804839774</t>
+          <t>803608331</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2867,7 +2583,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Cambiar columna corroida en su base.  Ubicada en puerta de colegio.  - VIRARDI</t>
+          <t xml:space="preserve">Columna terminal168 con rienda a pique fuera de plomo  y base con cimentación rota </t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2891,36 +2607,36 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.507591</v>
+        <v>-58.484493</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.590945</v>
+        <v>-34.572049</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>-359</t>
+          <t>803608455</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>2/24/2025</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CABEZON JOSE LEON /ALT/ 2714</t>
+          <t>VALDENEGRO /ALT/ 4037</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>106591 - VILLA PUEYRREDON</t>
+          <t>106593 - SAAVEDRA</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>804839875</t>
+          <t>803608455</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2935,7 +2651,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Aplomo de columna de 114 - VIRARDI</t>
+          <t>Cambiar poste podrido apoyado en tanque de agua. Es sobre parque junto a medianera.  Dar prioridad .</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2945,7 +2661,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2955,40 +2671,40 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.503195</v>
+        <v>-58.493679</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.581735</v>
+        <v>-34.557149</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>-362</t>
+          <t>803608463</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>2/24/2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>MOZART /ALT/ 562</t>
+          <t>COCHABAMBA /ALT/ 1790</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>106571 - PQUE. AVELLANEDA</t>
+          <t>106552 - CONSTITUCION</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>804839947</t>
+          <t>803608463</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3003,7 +2719,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Aplomar columna de 114. Se encuentra frente al 575 lado plaza sin número.  - VIRARDI</t>
+          <t>SIN RIEGO</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3013,12 +2729,12 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo/Fuente Teco</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -3027,36 +2743,36 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.489948</v>
+        <v>-58.391153</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.643478</v>
+        <v>-34.624022</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>-364</t>
+          <t>-281</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>2/26/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>PAROISSIEN /ALT/ 4871</t>
+          <t>SOLER /ALT/ 4517</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>106594 - PALERMO</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>804839991</t>
+          <t>803651203</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3071,7 +2787,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Aplomar columna de 114 - VIRARDI</t>
+          <t>columna de 114 con nodo y redes nuestra.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3081,12 +2797,12 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo/Fuente Teco</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -3095,36 +2811,36 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.493164</v>
+        <v>-58.423405</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.55732</v>
+        <v>-34.588075</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>-365</t>
+          <t>-284</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>2/26/2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>QUESADA /ALT/ 5290</t>
+          <t>ARCOS /ALT/ 1715</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>106592 - VILLA URQUIZA</t>
+          <t>106595 - BELGRANO</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>804839995</t>
+          <t>803651216</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3139,7 +2855,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Columna nueva de PVC fuera de plomo.  - VIRARDI</t>
+          <t>114 mm picada</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3163,36 +2879,36 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.491934</v>
+        <v>-58.450714</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.569348</v>
+        <v>-34.563958</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>-366</t>
+          <t>-300</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>3/17/2025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>QUESADA /ALT/ 6088</t>
+          <t>SAN MARTIN ,AV. /ALT/ 6195</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>106592 - VILLA URQUIZA</t>
+          <t>106587 - AGRONOMIA</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>804840016</t>
+          <t>804081102</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3207,7 +2923,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aplomar columna de 168 cambiar rienda.  - VIRARDI</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3217,7 +2933,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3227,40 +2943,40 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.501418</v>
+        <v>-58.502505</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.574363</v>
+        <v>-34.59465</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>-367</t>
+          <t>-307</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>3/25/2025</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>RUIZ HUIDOBRO ,AV. /ALT/ 4771</t>
+          <t>BERUTI ANTONIO /ALT/ 4645</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>106594 - PALERMO</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>804840024</t>
+          <t>804288212</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3275,17 +2991,17 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Aplomo de columna de 114 - VIRARDI</t>
+          <t>Picada traspasar red y retirar columna</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3295,40 +3011,40 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.494584</v>
+        <v>-58.42486</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.554981</v>
+        <v>-34.577318</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>-372</t>
+          <t>-310</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CAMARGO /ALT/ 25</t>
+          <t>GONZALEZ JOAQUIN V /ALT/ 729</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>106582 - VILLA CRESPO</t>
+          <t>106573 - FLORESTA</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>804903809</t>
+          <t>804302855</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3343,12 +3059,12 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Aplomar columna 114 con rienda a pique</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -3367,36 +3083,36 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.436788</v>
+        <v>-58.482428</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.604014</v>
+        <v>-34.625289</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>-373</t>
+          <t>-311</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>GALLARDO ANGEL ,AV. /ALT/ 608</t>
+          <t>GONZALEZ JOAQUIN V /ALT/ 789</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>106569 - CABALLITO</t>
+          <t>106573 - FLORESTA</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>804903810</t>
+          <t>804302872</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3411,17 +3127,17 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3431,40 +3147,40 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.439461</v>
+        <v>-58.482612</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.605744</v>
+        <v>-34.624833</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>-375</t>
+          <t>-314</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>3/29/2025</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>PAVON /ALT/ 3335</t>
+          <t>MOLDES /ALT/ 1983</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>106562 - BOEDO</t>
+          <t>106595 - BELGRANO</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>804903824</t>
+          <t>804333528</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3479,7 +3195,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Colocar columna nueva donde estaba la anterior cortada</t>
+          <t>Columna propia con ampli de red propio picada en base.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3503,36 +3219,36 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.412418</v>
+        <v>-58.458417</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.629288</v>
+        <v>-34.56481</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>-378</t>
+          <t>5138</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>4/1/2025</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>MAGARINO CERVANTES A /ALT/ 5054</t>
+          <t>LOPEZ, CARLOS ANTONIO 3326</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>106574 - VELEZ SARSFIELD</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>804903791</t>
+          <t>804468459</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3547,7 +3263,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Desmontar poste</t>
+          <t>COLUMNA INCLINADA</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3557,7 +3273,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3567,40 +3283,40 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.503618</v>
+        <v>-58.508582</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.629209</v>
+        <v>-34.588936</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>-381</t>
+          <t>5139</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>4/25/2025</t>
+          <t>4/1/2025</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>RIVADAVIA ,AV. /ALT/ 9477</t>
+          <t>LOPEZ, CARLOS ANTONIO 3346</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>106575 - VILLA LURO</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>805010120</t>
+          <t>804468467</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3615,7 +3331,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Podrida en la base</t>
+          <t>COLUMNA INCLINADA</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3625,7 +3341,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3639,36 +3355,36 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.497691</v>
+        <v>-58.508809</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.637087</v>
+        <v>-34.589076</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>-383</t>
+          <t>-316</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>4/3/2025</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>VALDERRAMA /ALT/ 4187</t>
+          <t>ALBERTI /ALT/ 621</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>106592 - VILLA URQUIZA</t>
+          <t>106558 - BALVANERA</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>805507401</t>
+          <t>804468365</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3683,7 +3399,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 114 </t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3693,7 +3409,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3707,36 +3423,36 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.481834</v>
+        <v>-58.401202</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.560796</v>
+        <v>-34.61683</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>-384</t>
+          <t>5500</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>4/7/2025</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>LUGONES 1721</t>
+          <t>LA PLATA AV. 1013</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>106586 - VILLA ORTUZAR</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>805507408</t>
+          <t>804568914</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3751,7 +3467,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aplomar columna 168 - La columna esta frente a la altura 1721</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3775,36 +3491,36 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>-58.473936</v>
+        <v>-58.426804</v>
       </c>
       <c r="N51" t="n">
-        <v>-34.577346</v>
+        <v>-34.627283</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>-387</t>
+          <t>5728</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>5/1/2025</t>
+          <t>4/7/2025</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>FLORES GRAL VENANCIO /ALT/ 4139</t>
+          <t>FRANCO 3340</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>106574 - VELEZ SARSFIELD</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>805579025</t>
+          <t>804568964</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3819,7 +3535,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Columna fuera de plomo - VIRARDI</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3829,7 +3545,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3843,36 +3559,36 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>-58.485221</v>
+        <v>-58.512525</v>
       </c>
       <c r="N52" t="n">
-        <v>-34.633425</v>
+        <v>-34.585228</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>-391</t>
+          <t>5521</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>5/5/2025</t>
+          <t>4/8/2025</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>IBERA /ALT/ 5074</t>
+          <t>EL PEREGRINO 3115</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>106592 - VILLA URQUIZA</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>805676610</t>
+          <t>804569000</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3887,7 +3603,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna 114 base corroida </t>
+          <t>Aplomar Poste</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3897,7 +3613,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3907,40 +3623,40 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>-58.49045</v>
+        <v>-58.485232</v>
       </c>
       <c r="N53" t="n">
-        <v>-34.566894</v>
+        <v>-34.611573</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>-399</t>
+          <t>-325</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>5/7/2025</t>
+          <t>4/8/2025</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Casco 115</t>
+          <t>RINCON /ALT/ 1091</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>106576 - LINIERS</t>
+          <t>106556 - SAN CRISTOBAL</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>805722774</t>
+          <t>804569066</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3955,7 +3671,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Reclamo municipal pendiente de New OT:707916611 cambiar columna de 168 con rienda.  - VIRARDI</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -3975,40 +3691,40 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>-58.525835</v>
+        <v>-58.39573</v>
       </c>
       <c r="N54" t="n">
-        <v>-34.637998</v>
+        <v>-34.621541</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>-400</t>
+          <t>-326</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>5/7/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>BYNON /ALT/ 6790</t>
+          <t>GARCIA DEL RIO /ALT/ 3354</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>106576 - LINIERS</t>
+          <t>106593 - SAAVEDRA</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>805722777</t>
+          <t>804634199</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4023,7 +3739,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Reclamo municipal pendiente de New OT:676904205. Cambiar columna de 114 corroida.  - VIRARDI</t>
+          <t>Retirar poste de vereda. Reparar la vereda donde estaba colocado el poste.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4033,7 +3749,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -4043,40 +3759,40 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>-58.525119</v>
+        <v>-58.478106</v>
       </c>
       <c r="N55" t="n">
-        <v>-34.637178</v>
+        <v>-34.551523</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>5805</t>
+          <t>-327</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>5/14/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>GUTENBERG 4134</t>
+          <t>ROOSEVELT F D ,AV. /ALT/ 5439</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>106592 - VILLA URQUIZA</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>806926378</t>
+          <t>804634203</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -4091,7 +3807,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Colocar columna R200 y  dar aviso para el traspaso de nodos. (TECO y TLC)</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4101,50 +3817,50 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>-58.51665</v>
+        <v>-58.491074</v>
       </c>
       <c r="N56" t="n">
-        <v>-34.596644</v>
+        <v>-34.575623</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>6223</t>
+          <t>5572</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>ECHEANDIA 4200</t>
+          <t>SANABRIA 4289</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>807762996</t>
+          <t>804663652</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -4159,7 +3875,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Columna inclinada con base  corroida</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -4169,7 +3885,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -4179,40 +3895,40 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>-58.472311</v>
+        <v>-58.516755</v>
       </c>
       <c r="N57" t="n">
-        <v>-34.654867</v>
+        <v>-34.6002</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>6197</t>
+          <t>5573</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 5600</t>
+          <t>LASTRA AV. 4379</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>807763040</t>
+          <t>804663677</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -4227,7 +3943,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Aplomar esta es esquina con emilio mitre aprox al 10</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4237,7 +3953,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -4251,36 +3967,36 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>-58.444181</v>
+        <v>-58.525125</v>
       </c>
       <c r="N58" t="n">
-        <v>-34.621883</v>
+        <v>-34.604668</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>6239</t>
+          <t>5574</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>PALPA 2964</t>
+          <t>GRIVEO 3909</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>807763098</t>
+          <t>804663683</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -4295,7 +4011,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Poste Inclinado</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4305,7 +4021,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -4315,40 +4031,40 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>-58.450113</v>
+        <v>-58.517126</v>
       </c>
       <c r="N59" t="n">
-        <v>-34.574534</v>
+        <v>-34.592774</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>6221</t>
+          <t>-334</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>6/26/2025</t>
+          <t>4/21/2025</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>FERNANDEZ 1549</t>
+          <t>BUCARELLI /ALT/ 1534</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>106597 - PARQUE CHAS</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>807789699</t>
+          <t>804838853</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -4363,7 +4079,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t xml:space="preserve">Cambiar Columna dañada torcida y fuera de plomo </t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4373,7 +4089,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -4383,82 +4099,5722 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>-58.471717</v>
+        <v>-58.481261</v>
       </c>
       <c r="N60" t="n">
-        <v>-34.649961</v>
+        <v>-34.584281</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
+          <t>-335</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>4/21/2025</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>BUCARELLI /ALT/ 1412</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>106597 - PARQUE CHAS</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>804838855</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aplomar columna 114 </t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
+        <v>-58.479593</v>
+      </c>
+      <c r="N61" t="n">
+        <v>-34.584943</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>-336</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>4/21/2025</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>BAUNESS /ALT/ 1419</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>106597 - PARQUE CHAS</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>804838856</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>"Aplomar columna 114 con rienda a pique o colocar terminal"</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
+        <v>-58.479168</v>
+      </c>
+      <c r="N62" t="n">
+        <v>-34.584482</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>-337</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>4/21/2025</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>PARAGUAY /ALT/ 4259</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>106594 - PALERMO</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>804838858</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
+        <v>-58.421822</v>
+      </c>
+      <c r="N63" t="n">
+        <v>-34.58645</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>-338</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>4/21/2025</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>PARAGUAY /ALT/ 4283</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>106594 - PALERMO</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>804838861</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
+        <v>-58.421964</v>
+      </c>
+      <c r="N64" t="n">
+        <v>-34.586342</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>-339</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>4/21/2025</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>GRIVEO /ALT/ 2435</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>106591 - VILLA PUEYRREDON</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>804838868</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aplomar columna 114  </t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Aplomo</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
+        <v>-58.498493</v>
+      </c>
+      <c r="N65" t="n">
+        <v>-34.581262</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>-340</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>4/21/2025</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>SUPERI /ALT/ 1445</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>106581 - COLEGIALES</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>804838869</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Columna podrida en la base</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
+        <v>-58.460666</v>
+      </c>
+      <c r="N66" t="n">
+        <v>-34.573823</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>-341</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>4/21/2025</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>3 DE FEBRERO /ALT/ 4835</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>106596 - NUNEZ</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>804838980</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>"Retirar poste teco cobre en desuso entrada Edificio reclamo municipal "</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Desmonte</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>Poste</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
+        <v>-58.469157</v>
+      </c>
+      <c r="N67" t="n">
+        <v>-34.536783</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>-342</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>4/14/2025</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>WILLIAMS ALBERTO /ALT/ 5625</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>106593 - SAAVEDRA</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>804839148</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Cambiar columna de 114. - VIRARDI</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
+        <v>-58.502447</v>
+      </c>
+      <c r="N68" t="n">
+        <v>-34.561008</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>-343</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>4/14/2025</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>ANDONAEGUI /ALT/ 1608</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>106597 - PARQUE CHAS</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>804839150</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Aplomar columna de 114 - VIRARDI</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Aplomo</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
+        <v>-58.48278</v>
+      </c>
+      <c r="N69" t="n">
+        <v>-34.584137</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>-344</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>4/14/2025</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>ANDONAEGUI /ALT/ 1690</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>106597 - PARQUE CHAS</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>804839162</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Aplomar columna de 114. - VIRARDI</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Aplomo</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
+        <v>-58.483947</v>
+      </c>
+      <c r="N70" t="n">
+        <v>-34.583207</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>-345</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>4/14/2025</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>ANDONAEGUI /ALT/ 1774</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>106597 - PARQUE CHAS</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>804839181</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Aplomo/cambio de columna de 168 colocar columna y rienda en norma.  - VIRARDI</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Aplomo</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
+        <v>-58.484513</v>
+      </c>
+      <c r="N71" t="n">
+        <v>-34.582786</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>-346</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>4/14/2025</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>ARGERICH /ALT/ 4710</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>106591 - VILLA PUEYRREDON</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>804839198</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Cambiar poste con rienda podrido en su base - VIRARDI</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>Poste</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
+        <v>-58.503673</v>
+      </c>
+      <c r="N72" t="n">
+        <v>-34.586925</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>-347</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>4/14/2025</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>AVALOS /ALT/ 1610</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>106597 - PARQUE CHAS</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>804839214</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Cambiar columna de 168 - VIRARDI</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>Nodo/Fuente TLC</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
+        <v>-58.480099</v>
+      </c>
+      <c r="N73" t="n">
+        <v>-34.582085</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>-349</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>4/14/2025</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>BAUNESS /ALT/ 1616</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>106597 - PARQUE CHAS</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>804839290</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Columna en polígono fuera de plomo con ancla fuera de norma - VIRARDI</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
+        <v>-58.48139</v>
+      </c>
+      <c r="N74" t="n">
+        <v>-34.583277</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>-350</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>4/14/2025</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>BUCARELLI /ALT/ 1305</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>106597 - PARQUE CHAS</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>804839440</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Columna corroida en su base realizar cambio.  - VIRARDI</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
+        <v>-58.479078</v>
+      </c>
+      <c r="N75" t="n">
+        <v>-34.586298</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>-351</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>4/14/2025</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>BUCARELLI /ALT/ 1430</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>106597 - PARQUE CHAS</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>804839511</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Aplomar columna normalizar.  - VIRARDI</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Aplomo</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
+        <v>-58.479712</v>
+      </c>
+      <c r="N76" t="n">
+        <v>-34.584855</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>-352</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>4/14/2025</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>BUCARELLI /ALT/ 935</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>106597 - PARQUE CHAS</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>804839565</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Aplomar columna de 114. - VIRARDI</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Aplomo</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
+        <v>-58.475389</v>
+      </c>
+      <c r="N77" t="n">
+        <v>-34.590317</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>-353</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>4/14/2025</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>CAAGUAZU /ALT/ 5703</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>106576 - LINIERS</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>804839589</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Cambiar columna de 114. Fuera de plomo empotrada en árbol colocar rienda. ( se pasa tareas a contratista tratista de limpieza tensado y elevación del tendido).  - VIRARDI</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
+        <v>-58.511462</v>
+      </c>
+      <c r="N78" t="n">
+        <v>-34.640542</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>-354</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>4/14/2025</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>CONDARCO /ALT/ 5316</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>106591 - VILLA PUEYRREDON</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>804839626</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Aplomo de columna de PRFV - VIRARDI</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Aplomo</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
+        <v>-58.504455</v>
+      </c>
+      <c r="N79" t="n">
+        <v>-34.579941</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>-355</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>4/14/2025</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>CUENCA /ALT/ 4480</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>106591 - VILLA PUEYRREDON</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>804839675</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Columna nueva fuera de plomo sostiene nodo de Telecentro.  Reclamo municipal.  - VIRARDI</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Aplomo</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>Nodo/Fuente TLC</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
+        <v>-58.504568</v>
+      </c>
+      <c r="N80" t="n">
+        <v>-34.590534</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>-356</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>4/14/2025</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>CUENCA /ALT/ 4845</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>106591 - VILLA PUEYRREDON</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>804839715</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Retiro de poste viejo en desuso liberado podrido en su base.  - VIRARDI</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Desmonte</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>Poste</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
+        <v>-58.507182</v>
+      </c>
+      <c r="N81" t="n">
+        <v>-34.58749</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>-357</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>4/14/2025</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>MISTRAL GABRIELA /ALT/ 3376</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>106589 - VILLA DEVOTO</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>804839774</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Cambiar columna corroida en su base.  Ubicada en puerta de colegio.  - VIRARDI</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
+        <v>-58.507591</v>
+      </c>
+      <c r="N82" t="n">
+        <v>-34.590945</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>-358</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>4/14/2025</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>GINEBRA /ALT/ 3887</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>106597 - PARQUE CHAS</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>804839803</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Aplomo de columna de 114 - VIRARDI</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>Aplomo</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
+        <v>-58.475735</v>
+      </c>
+      <c r="N83" t="n">
+        <v>-34.580487</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>-359</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>4/14/2025</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>CABEZON JOSE LEON /ALT/ 2714</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>106591 - VILLA PUEYRREDON</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>804839875</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Aplomo de columna de 114 - VIRARDI</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Aplomo</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
+        <v>-58.503195</v>
+      </c>
+      <c r="N84" t="n">
+        <v>-34.581735</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>-361</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>4/14/2025</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>LONDRES /ALT/ 4008</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>106597 - PARQUE CHAS</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>804839936</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Aplomo de columna de 114. - VIRARDI</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>Aplomo</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
+        <v>-58.478362</v>
+      </c>
+      <c r="N85" t="n">
+        <v>-34.581404</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>-362</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>4/14/2025</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>MOZART /ALT/ 562</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>106571 - PQUE. AVELLANEDA</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>804839947</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Aplomar columna de 114. Se encuentra frente al 575 lado plaza sin número.  - VIRARDI</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Aplomo</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
+        <v>-58.489948</v>
+      </c>
+      <c r="N86" t="n">
+        <v>-34.643478</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>-363</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>4/14/2025</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>OSLO /ALT/ 1255</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>106597 - PARQUE CHAS</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>804839962</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Cambiar columna de 168 podrida en su base.  - VIRARDI</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
+        <v>-58.481767</v>
+      </c>
+      <c r="N87" t="n">
+        <v>-34.589507</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>-364</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>4/14/2025</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>PAROISSIEN /ALT/ 4871</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>106593 - SAAVEDRA</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>804839991</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Aplomar columna de 114 - VIRARDI</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>Aplomo</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
+        <v>-58.493164</v>
+      </c>
+      <c r="N88" t="n">
+        <v>-34.55732</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>-365</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>4/14/2025</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>QUESADA /ALT/ 5290</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>106592 - VILLA URQUIZA</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>804839995</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Columna nueva de PVC fuera de plomo.  - VIRARDI</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
+        <v>-58.491934</v>
+      </c>
+      <c r="N89" t="n">
+        <v>-34.569348</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>-366</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>4/14/2025</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>QUESADA /ALT/ 6088</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>106592 - VILLA URQUIZA</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>804840016</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Aplomar columna de 168 cambiar rienda.  - VIRARDI</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Aplomo</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
+        <v>-58.501418</v>
+      </c>
+      <c r="N90" t="n">
+        <v>-34.574363</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>-367</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>4/14/2025</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>RUIZ HUIDOBRO ,AV. /ALT/ 4771</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>106593 - SAAVEDRA</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>804840024</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Aplomo de columna de 114 - VIRARDI</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>Aplomo</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
+        <v>-58.494584</v>
+      </c>
+      <c r="N91" t="n">
+        <v>-34.554981</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>-368</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>4/22/2025</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>ARIAS /ALT/ 1620</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>106596 - NUNEZ</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>804876039</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aplomar columna 168 con rienda </t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>Aplomo</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
+        <v>-58.465608</v>
+      </c>
+      <c r="N92" t="n">
+        <v>-34.538489</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>-372</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>4/23/2025</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>CAMARGO /ALT/ 25</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>106582 - VILLA CRESPO</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>804903809</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Aplomar columna 114 con rienda a pique</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
+        <v>-58.436788</v>
+      </c>
+      <c r="N93" t="n">
+        <v>-34.604014</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>-373</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>4/23/2025</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>GALLARDO ANGEL ,AV. /ALT/ 608</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>106569 - CABALLITO</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>804903810</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>Aplomo</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
+        <v>-58.439461</v>
+      </c>
+      <c r="N94" t="n">
+        <v>-34.605744</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>-375</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>4/23/2025</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>PAVON /ALT/ 3335</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>106562 - BOEDO</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>804903824</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Colocar columna nueva donde estaba la anterior cortada</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
+        <v>-58.412418</v>
+      </c>
+      <c r="N95" t="n">
+        <v>-34.629288</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>-376</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>4/23/2025</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Valentin Gomez 3803</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>106568 - ALMAGRO</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>804903787</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
+        <v>-58.418424</v>
+      </c>
+      <c r="N96" t="n">
+        <v>-34.604463</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>-377</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>4/23/2025</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>HUMAHUACA /ALT/ 3918</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>106568 - ALMAGRO</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>804903788</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>picada</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
+        <v>-58.419694</v>
+      </c>
+      <c r="N97" t="n">
+        <v>-34.602062</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>-378</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>4/23/2025</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>MAGARINO CERVANTES A /ALT/ 5054</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>106574 - VELEZ SARSFIELD</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>804903791</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Desmontar poste</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>Desmonte</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>Poste</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
+        <v>-58.503618</v>
+      </c>
+      <c r="N98" t="n">
+        <v>-34.629209</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>-381</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>4/25/2025</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>RIVADAVIA ,AV. /ALT/ 9477</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>106575 - VILLA LURO</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>805010120</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Podrida en la base</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
+        <v>-58.497691</v>
+      </c>
+      <c r="N99" t="n">
+        <v>-34.637087</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>-383</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>4/29/2025</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>VALDERRAMA /ALT/ 4187</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>106592 - VILLA URQUIZA</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>805507401</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aplomar columna 114 </t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>Aplomo</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
+        <v>-58.481834</v>
+      </c>
+      <c r="N100" t="n">
+        <v>-34.560796</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>-384</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>4/29/2025</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>LUGONES 1721</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>106586 - VILLA ORTUZAR</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>805507408</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Aplomar columna 168 - La columna esta frente a la altura 1721</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>Aplomo</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
+        <v>-58.473936</v>
+      </c>
+      <c r="N101" t="n">
+        <v>-34.577346</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>-385</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>4/29/2025</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>MOLDES /ALT/ 1913</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>106595 - BELGRANO</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>805507415</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Aplomar columna 114</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>Aplomo</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
+        <v>-58.45789</v>
+      </c>
+      <c r="N102" t="n">
+        <v>-34.565423</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>-386</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>4/29/2025</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>MOLDES /ALT/ 1943</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>106595 - BELGRANO</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>805507419</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Dos columnas fuera de plomo - aplomar o cambiar la que no tiene nodo de TLC</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>Aplomo</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>Nodo TLC</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
+        <v>-58.458217</v>
+      </c>
+      <c r="N103" t="n">
+        <v>-34.565043</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>-387</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>5/1/2025</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>FLORES GRAL VENANCIO /ALT/ 4139</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>106574 - VELEZ SARSFIELD</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>805579025</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Columna fuera de plomo - VIRARDI</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>Aplomo</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
+        <v>-58.485221</v>
+      </c>
+      <c r="N104" t="n">
+        <v>-34.633425</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>-391</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>5/5/2025</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>IBERA /ALT/ 5074</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>106592 - VILLA URQUIZA</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>805676610</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cambiar columna 114 base corroida </t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
+        <v>-58.49045</v>
+      </c>
+      <c r="N105" t="n">
+        <v>-34.566894</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>-392</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>5/5/2025</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>GARCIA TEODORO /ALT/ 1775</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>106594 - PALERMO</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>805676615</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cambiar columna 114 base corroida </t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
+        <v>-58.440367</v>
+      </c>
+      <c r="N106" t="n">
+        <v>-34.563551</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>-393</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>5/5/2025</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>3 DE FEBRERO /ALT/ 1272</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>106594 - PALERMO</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>805676618</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cambiar columna 114 base corroida </t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
+        <v>-58.445186</v>
+      </c>
+      <c r="N107" t="n">
+        <v>-34.567417</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>-395</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>5/7/2025</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>POSADAS 1567</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>106560 - RECOLETA</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>805707278</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
+        <v>-58.387847</v>
+      </c>
+      <c r="N108" t="n">
+        <v>-34.587043</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>-399</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>5/7/2025</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Casco 115</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>106576 - LINIERS</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>805722774</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Reclamo municipal pendiente de New OT:707916611 cambiar columna de 168 con rienda.  - VIRARDI</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
+        <v>-58.525835</v>
+      </c>
+      <c r="N109" t="n">
+        <v>-34.637998</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>-400</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>5/7/2025</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>BYNON /ALT/ 6790</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>106576 - LINIERS</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>805722777</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Reclamo municipal pendiente de New OT:676904205. Cambiar columna de 114 corroida.  - VIRARDI</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
+        <v>-58.525119</v>
+      </c>
+      <c r="N110" t="n">
+        <v>-34.637178</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>-403</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>5/7/2025</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>SUCRE MRCAL A J DE /ALT/ 3515</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>106595 - BELGRANO</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>805722878</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Retirar poste teco cobre tirado y reparar vereda </t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>Desmonte</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>Poste</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
+        <v>-58.466241</v>
+      </c>
+      <c r="N111" t="n">
+        <v>-34.57047</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>-404</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>5/8/2025</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Amenabar 3048</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>805791896</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Aplomar columna 114</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>Aplomo</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
+        <v>-58.46579</v>
+      </c>
+      <c r="N112" t="n">
+        <v>-34.555012</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>-405</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>5/8/2025</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Arcos 1855</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>805791908</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Cambiar columna 114 picada en base, posee nodo propio.&lt;br&gt;</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
+        <v>-58.451835</v>
+      </c>
+      <c r="N113" t="n">
+        <v>-34.562646</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>-406</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>5/8/2025</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Olof palme 4144</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>805791925</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Tensar 2 riendas a pique columna 168</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>Tensor</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
+        <v>-58.488252</v>
+      </c>
+      <c r="N114" t="n">
+        <v>-34.553391</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>-407</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>5/8/2025</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Cabildo 4148</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>805791933</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>Aplomo</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
+        <v>-58.470837</v>
+      </c>
+      <c r="N115" t="n">
+        <v>-34.545751</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>-408</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>5/8/2025</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Larralde 2847</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>805791941</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Aplomar columna 114</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>Aplomo</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>Nodo/Fuente Teco</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
+        <v>-58.472267</v>
+      </c>
+      <c r="N116" t="n">
+        <v>-34.551163</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>5805</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>5/14/2025</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>GUTENBERG 4134</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>806926378</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Poste inclinado</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>Aplomo</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>Poste</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>-58.51665</v>
+      </c>
+      <c r="N117" t="n">
+        <v>-34.596644</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>-418</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>5/26/2025</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Porcel de Peralta 415</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>806926542</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>aplomar cementar y colocar rienda</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>Aplomo</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>-58.520671</v>
+      </c>
+      <c r="N118" t="n">
+        <v>-34.632922</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>-417</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>5/26/2025</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Porcel de Peralta 535</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>806926548</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>aplomo de columna 114</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>-58.52231</v>
+      </c>
+      <c r="N119" t="n">
+        <v>-34.632171</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>-421</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>5/26/2025</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>BESARES 1699</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>806926565</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Cambiar columna 114 picada en base tener en cuenta que hay acometidas subterraneas que bajan por la columna para entrar en Libertador 8008 tanto de HFC como FTTH colocar medias cañas y colocar cerca para que quedan precintadas a la columna</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>-58.464144</v>
+      </c>
+      <c r="N120" t="n">
+        <v>-34.541832</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>-422</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>5/26/2025</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Franklin Roosevelt 4901</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>806926575</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Aplomar columna 114</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>-58.485102</v>
+      </c>
+      <c r="N121" t="n">
+        <v>-34.572327</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>-424</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>5/26/2025</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Jose Enrique Rodo 4487</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>806926590</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Retirar columna de 168 fuera de plomo y traspasar tendido con rienda a columna nueva</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>-58.487917</v>
+      </c>
+      <c r="N122" t="n">
+        <v>-34.64481</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>-425</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>5/26/2025</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Av. Eva Peron 7437</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>806926621</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Aplomar o cambiar columna de 114</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>-58.501029</v>
+      </c>
+      <c r="N123" t="n">
+        <v>-34.673558</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>-426</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>5/26/2025</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Av. Eva Peron 7471</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>806926647</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Aplomar columna de 168 con rienda</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>Aplomo</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>-58.501565</v>
+      </c>
+      <c r="N124" t="n">
+        <v>-34.673845</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>-430</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>5/26/2025</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Araoz 606</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>806926712</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>columna base corroida sin riesgo de caída a la fecha. 14/05/2025</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>-58.434761</v>
+      </c>
+      <c r="N125" t="n">
+        <v>-34.598381</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>-432</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>5/26/2025</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>ALVAREZ JULIAN 618</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>806926759</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Columna con base corroida sin riesgo de caida al 14/05/2025</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>-58.433867</v>
+      </c>
+      <c r="N126" t="n">
+        <v>-34.599149</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>-433</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>5/26/2025</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Moldes 2720</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>806926767</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poste - Pasan 5 lingas y la línea de cobre </t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>Poste</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>-58.464177</v>
+      </c>
+      <c r="N127" t="n">
+        <v>-34.558239</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>-434</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>5/26/2025</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Billinghurst 1478</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>806926806</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Columna base corroida con Nap y ganancias de ambas compañias, </t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>-58.412302</v>
+      </c>
+      <c r="N128" t="n">
+        <v>-34.59301</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>-436</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>5/26/2025</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Nueva York 3982</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>806926812</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Realizar aplomo de columna y tensar cruce Reclamo municipal </t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>-58.511375</v>
+      </c>
+      <c r="N129" t="n">
+        <v>-34.600017</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>-448</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>5/28/2025</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Tronador 3826</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>806975699</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Columna de retención (columna más ancha</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>-58.485056</v>
+      </c>
+      <c r="N130" t="n">
+        <v>-34.555059</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>-450</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>5/29/2025</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Moldes 2325</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>807044059</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Corroida en base para cambiar contiene CDO/NAP propio </t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>-58.461167</v>
+      </c>
+      <c r="N131" t="n">
+        <v>-34.561613</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>-470</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>6/5/2025</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Av. Escalada 2831</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>807208264</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>-58.470815</v>
+      </c>
+      <c r="N132" t="n">
+        <v>-34.664201</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>-480</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>6/17/2025</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Arias 4384</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>807537909</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Inclinada</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>-58.49147</v>
+      </c>
+      <c r="N133" t="n">
+        <v>-34.55031</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>-482</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>6/18/2025</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Av. Coronel Diaz 2596</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>807605730</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>-58.405761</v>
+      </c>
+      <c r="N134" t="n">
+        <v>-34.582476</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>-486</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>6/23/2025</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Del Libertador 4596</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>807762871</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>-58.432241</v>
+      </c>
+      <c r="N135" t="n">
+        <v>-34.56642</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>-487</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>6/23/2025</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Gorriti 3735</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>807762979</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>NAP FTTH Columna MAL ESTADO ROTA EN BASE</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>-58.417348</v>
+      </c>
+      <c r="N136" t="n">
+        <v>-34.595467</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>6223</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>6/24/2025</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>ECHEANDIA 4200</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>807762996</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Columna inclinada con base  corroida</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>-58.472311</v>
+      </c>
+      <c r="N137" t="n">
+        <v>-34.654867</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>6197</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>6/24/2025</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>RIVADAVIA AV. 5600</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>807763040</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Aplomar esta es esquina con emilio mitre aprox al 10</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>-58.444181</v>
+      </c>
+      <c r="N138" t="n">
+        <v>-34.621883</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>6239</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>6/24/2025</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>PALPA 2964</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>807763098</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>-58.450113</v>
+      </c>
+      <c r="N139" t="n">
+        <v>-34.574534</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>-488</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>6/24/2025</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Blanco Encalada 4896</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>807763099</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Pendiente traspaso rxo y retiro de columna podrida</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>Poste</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>-58.484729</v>
+      </c>
+      <c r="N140" t="n">
+        <v>-34.574614</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>6221</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>6/26/2025</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>FERNANDEZ 1549</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>807789699</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Poste inclinado</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>Aplomo</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>Poste</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>-58.471717</v>
+      </c>
+      <c r="N141" t="n">
+        <v>-34.649961</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>-491</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>6/26/2025</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>3 de Febrero 2171</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>807789702</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Columna 114 propia picada en base con NAP</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>-58.452636</v>
+      </c>
+      <c r="N142" t="n">
+        <v>-34.558607</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
           <t>6248</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B143" t="inlineStr">
         <is>
           <t>6/27/2025</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C143" t="inlineStr">
         <is>
           <t>AVELLANEDA AV. 2395</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="D143" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="E143" t="inlineStr">
         <is>
           <t>807817952</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
         <is>
           <t>Poste podrido</t>
         </is>
       </c>
-      <c r="I61" t="inlineStr">
+      <c r="I143" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J61" t="inlineStr">
+      <c r="J143" t="inlineStr">
         <is>
           <t>Cambio</t>
         </is>
       </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L143" t="inlineStr">
         <is>
           <t>Poste</t>
         </is>
       </c>
-      <c r="M61" t="n">
+      <c r="M143" t="n">
         <v>-58.4643</v>
       </c>
-      <c r="N61" t="n">
+      <c r="N143" t="n">
         <v>-34.623993</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>6289</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>6/30/2025</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>ALBARIÑO 536</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>807851594</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>-58.505173</v>
+      </c>
+      <c r="N144" t="n">
+        <v>-34.643529</v>
       </c>
     </row>
   </sheetData>

--- a/mapa_interactivo_AYKO.xlsx
+++ b/mapa_interactivo_AYKO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N144"/>
+  <dimension ref="A1:N138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -551,9 +551,21 @@
           <t>0</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Poste</t>
+        </is>
+      </c>
       <c r="M2" t="n">
         <v>-58.425911</v>
       </c>
@@ -607,9 +619,21 @@
           <t>0</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M3" t="n">
         <v>-58.432658</v>
       </c>
@@ -727,9 +751,21 @@
           <t>0</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>-58.435356</v>
       </c>
@@ -783,9 +819,21 @@
           <t>0</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>-58.433253</v>
       </c>
@@ -831,7 +879,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>cambio poste de madera</t>
+          <t>el reclamo es por el poste de madera aparentemente exCV ver con inspector si se desmonta y se sostiene con la otra columna o se cambia</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -839,9 +887,21 @@
           <t>0</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Poste</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>-58.468603</v>
       </c>
@@ -895,9 +955,21 @@
           <t>1</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>-58.434217</v>
       </c>
@@ -908,27 +980,27 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>-51</t>
+          <t>-56</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4/5/2024</t>
+          <t>4/13/2024</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CHARCAS /ALT/ 4176</t>
+          <t>LA PAMPA /ALT/ 2119</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>106595 - BELGRANO</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>782773317</t>
+          <t>783370812</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -943,7 +1015,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t xml:space="preserve">columna de 114mm de nuestra propiedad que esta quebrada y en mal estado, para remplazar ubicada en CHARCAS 4176 </t>
+          <t>La pampa 2119 cambiar columna 114 y efectuar transferencias base corroida</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -951,40 +1023,52 @@
           <t>0</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M9" t="n">
-        <v>-58.421741</v>
+        <v>-58.451674</v>
       </c>
       <c r="N9" t="n">
-        <v>-34.584789</v>
+        <v>-34.563292</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>-56</t>
+          <t>-103</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4/13/2024</t>
+          <t>6/12/2024</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>LA PAMPA /ALT/ 2119</t>
+          <t>SALGUERO JERONIMO /ALT/ 2533</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>106595 - BELGRANO</t>
+          <t>106594 - PALERMO</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>783370812</t>
+          <t>788206681</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -999,7 +1083,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>La pampa 2119 cambiar columna 114 y efectuar transferencias base corroida</t>
+          <t>Altura correcta 2549</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1007,40 +1091,52 @@
           <t>0</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M10" t="n">
-        <v>-58.451674</v>
+        <v>-58.409971</v>
       </c>
       <c r="N10" t="n">
-        <v>-34.563292</v>
+        <v>-34.58175</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>-84</t>
+          <t>-118</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>5/3/2024</t>
+          <t>8/15/2024</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ORTIZ DE OCAMPO ,AV. /ALT/ 2635</t>
+          <t>SUCRE MRCAL A J DE /ALT/ 1437</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>106595 - BELGRANO</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>784804129</t>
+          <t>793333193</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1055,7 +1151,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Direccion correcta 2635/9</t>
+          <t>Retirar columna vieja, nodo ya traspasado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1063,40 +1159,52 @@
           <t>0</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Nodo Teco</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M11" t="n">
-        <v>-58.404652</v>
+        <v>-58.445523</v>
       </c>
       <c r="N11" t="n">
-        <v>-34.58263</v>
+        <v>-34.558237</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>-103</t>
+          <t>-143</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>6/12/2024</t>
+          <t>10/7/2024</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>SALGUERO JERONIMO /ALT/ 2533</t>
+          <t>CIUDAD DE LA PAZ /ALT/ 2261</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>106595 - BELGRANO</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>788206681</t>
+          <t>797752816</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1109,50 +1217,58 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Altura correcta 2549</t>
-        </is>
-      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Nodo TLC</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M12" t="n">
-        <v>-58.409971</v>
+        <v>-58.458864</v>
       </c>
       <c r="N12" t="n">
-        <v>-34.58175</v>
+        <v>-34.561167</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>-118</t>
+          <t>-152</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>8/15/2024</t>
+          <t>11/1/2024</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>SUCRE MRCAL A J DE /ALT/ 1437</t>
+          <t>FERNANDEZ DE ENCISO /ALT/ 3610</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>106595 - BELGRANO</t>
+          <t>106589 - VILLA DEVOTO</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>793333193</t>
+          <t>798984311</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1167,7 +1283,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Retirar columna vieja, nodo ya traspasado</t>
+          <t>El poste esta pegado al arbol ver la foto adjunta</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1182,45 +1298,45 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>-58.445523</v>
+        <v>-58.513363</v>
       </c>
       <c r="N13" t="n">
-        <v>-34.558237</v>
+        <v>-34.605473</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>-143</t>
+          <t>-160</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>10/7/2024</t>
+          <t>11/1/2024</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CIUDAD DE LA PAZ /ALT/ 2261</t>
+          <t>MORAN PEDRO /ALT/ 3100</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>106595 - BELGRANO</t>
+          <t>106587 - AGRONOMIA</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>797752816</t>
+          <t>798984905</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1239,40 +1355,52 @@
           <t>0</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Poste</t>
+        </is>
+      </c>
       <c r="M14" t="n">
-        <v>-58.458864</v>
+        <v>-58.498724</v>
       </c>
       <c r="N14" t="n">
-        <v>-34.561167</v>
+        <v>-34.594329</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>-146</t>
+          <t>-184</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>10/8/2024</t>
+          <t>12/31/2023</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>BLANCO ENCALADA /ALT/ 2396</t>
+          <t>GARZON GRAL E ,AV. /ALT/ 5145</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>106595 - BELGRANO</t>
+          <t>106572 - MATADEROS</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>797822177</t>
+          <t>799539766</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1291,40 +1419,52 @@
           <t>0</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M15" t="n">
-        <v>-58.458717</v>
+        <v>-58.488261</v>
       </c>
       <c r="N15" t="n">
-        <v>-34.559047</v>
+        <v>-34.653436</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>-148</t>
+          <t>-192</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>10/21/2024</t>
+          <t>12/31/2023</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CARRANZA ANGEL J /ALT/ 2252</t>
+          <t>LLAVALLOL /ALT/ 3363</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>106588 - VILLA DEL PARQUE</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>798311488</t>
+          <t>799539931</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1343,40 +1483,52 @@
           <t>0</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Poste</t>
+        </is>
+      </c>
       <c r="M16" t="n">
-        <v>-58.433532</v>
+        <v>-58.499699</v>
       </c>
       <c r="N16" t="n">
-        <v>-34.578254</v>
+        <v>-34.600641</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>-152</t>
+          <t>-193</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>11/1/2024</t>
+          <t>12/31/2023</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>FERNANDEZ DE ENCISO /ALT/ 3610</t>
+          <t>WASHINGTON /ALT/ 3251</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>106589 - VILLA DEVOTO</t>
+          <t>106590 - COGHLAN</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>798984311</t>
+          <t>799539971</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1389,46 +1541,62 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Washington 3251 cambiar columna de 114 transferir tendidos. dejar pasivos en norma</t>
+        </is>
+      </c>
       <c r="I17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M17" t="n">
-        <v>-58.513363</v>
+        <v>-58.478272</v>
       </c>
       <c r="N17" t="n">
-        <v>-34.605473</v>
+        <v>-34.558899</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>-160</t>
+          <t>-201</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>11/1/2024</t>
+          <t>12/31/2023</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>MORAN PEDRO /ALT/ 3100</t>
+          <t>MIGUELETES /ALT/ 1007</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>106587 - AGRONOMIA</t>
+          <t>106594 - PALERMO</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>798984905</t>
+          <t>799540497</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1441,26 +1609,42 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>reemplazo de columnas en mal estado Migueletes 1007 reemplazar columna 114 y colocar rienda a pique</t>
+        </is>
+      </c>
       <c r="I18" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
       <c r="M18" t="n">
-        <v>-58.498724</v>
+        <v>-58.436377</v>
       </c>
       <c r="N18" t="n">
-        <v>-34.594329</v>
+        <v>-34.565075</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>-176</t>
+          <t>-202</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1470,17 +1654,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>TARIJA /ALT/ 3345</t>
+          <t>MIGUELETES /ALT/ 1030</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>106562 - BOEDO</t>
+          <t>106594 - PALERMO</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>799539678</t>
+          <t>799540503</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1495,7 +1679,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>columna que está podrida en base</t>
+          <t>Recambio de columna - alt correcta 1010</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1503,20 +1687,32 @@
           <t>0</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
       <c r="M19" t="n">
-        <v>-58.412389</v>
+        <v>-58.436601</v>
       </c>
       <c r="N19" t="n">
-        <v>-34.628625</v>
+        <v>-34.565035</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>-184</t>
+          <t>-203</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1526,17 +1722,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>GARZON GRAL E ,AV. /ALT/ 5145</t>
+          <t>NEWBERY JORGE /ALT/ 2644</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>106572 - MATADEROS</t>
+          <t>106594 - PALERMO</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>799539766</t>
+          <t>799540511</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1549,26 +1745,42 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Recambio de columna</t>
+        </is>
+      </c>
       <c r="I20" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M20" t="n">
-        <v>-58.488261</v>
+        <v>-58.442706</v>
       </c>
       <c r="N20" t="n">
-        <v>-34.653436</v>
+        <v>-34.574158</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>-192</t>
+          <t>-210</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1578,17 +1790,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>LLAVALLOL /ALT/ 3363</t>
+          <t>GANDARA /ALT/ 2797</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>106588 - VILLA DEL PARQUE</t>
+          <t>106597 - PARQUE CHAS</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>799539931</t>
+          <t>799540574</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1601,46 +1813,62 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>CAMBIAR COLUMNA 114 CON 5 TRANSICIONES MAS RIENDA A PIQUE</t>
+        </is>
+      </c>
       <c r="I21" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
       <c r="M21" t="n">
-        <v>-58.499699</v>
+        <v>-58.480672</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.600641</v>
+        <v>-34.583085</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>-193</t>
+          <t>-213</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>12/31/2023</t>
+          <t>11/7/2024</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>WASHINGTON /ALT/ 3251</t>
+          <t>SCALABRINI ORTIZ R ,AV. /ALT/ 2452</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>106590 - COGHLAN</t>
+          <t>106594 - PALERMO</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>799539971</t>
+          <t>799451003</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1653,40 +1881,48 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Washington 3251 cambiar columna de 114 transferir tendidos. dejar pasivos en norma</t>
-        </is>
-      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M22" t="n">
-        <v>-58.478272</v>
+        <v>-58.416896</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.558899</v>
+        <v>-34.585625</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>-201</t>
+          <t>-214</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>12/31/2023</t>
+          <t>11/7/2024</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>MIGUELETES /ALT/ 1007</t>
+          <t>SCALABRINI ORTIZ R ,AV. /ALT/ 2394</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1696,7 +1932,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>799540497</t>
+          <t>799450985</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1709,40 +1945,48 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>reemplazo de columnas en mal estado Migueletes 1007 reemplazar columna 114 y colocar rienda a pique</t>
-        </is>
-      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M23" t="n">
-        <v>-58.436377</v>
+        <v>-58.417746</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.565075</v>
+        <v>-34.586158</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>-202</t>
+          <t>-216</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>12/31/2023</t>
+          <t>5/2/2024</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>MIGUELETES /ALT/ 1030</t>
+          <t>ORTIZ DE OCAMPO ,AV. /ALT/ 2635</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1752,7 +1996,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>799540503</t>
+          <t>784655947</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1767,7 +2011,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Recambio de columna - alt correcta 1010</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1775,40 +2019,52 @@
           <t>0</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M24" t="n">
-        <v>-58.436601</v>
+        <v>-58.404652</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.565035</v>
+        <v>-34.58263</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>-203</t>
+          <t>-219</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>12/31/2023</t>
+          <t>10/31/2024</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>NEWBERY JORGE /ALT/ 2644</t>
+          <t>LA PAMPA /ALT/ 2836</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>106595 - BELGRANO</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>799540511</t>
+          <t>798953875</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1823,7 +2079,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Recambio de columna</t>
+          <t>Colocar Columna entre 2836/2838 ver con inspector la viabilidad</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1831,40 +2087,52 @@
           <t>0</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M25" t="n">
-        <v>-58.442706</v>
+        <v>-58.458282</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.574158</v>
+        <v>-34.56718</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>-210</t>
+          <t>-226</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>12/31/2023</t>
+          <t>11/20/2024</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>GANDARA /ALT/ 2797</t>
+          <t>CUBA /ALT/ 2308</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>106595 - BELGRANO</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>799540574</t>
+          <t>800502281</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1879,7 +2147,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>CAMBIAR COLUMNA 114 CON 5 TRANSICIONES MAS RIENDA A PIQUE</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1887,40 +2155,52 @@
           <t>0</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M26" t="n">
-        <v>-58.480672</v>
+        <v>-58.456674</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.583085</v>
+        <v>-34.558757</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>-212</t>
+          <t>-228</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>11/7/2024</t>
+          <t>11/22/2024</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>FIGUEROA CNEL APOLINARIO /ALT/ 863</t>
+          <t>ALVAREZ JULIAN /ALT/ 1272</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>106569 - CABALLITO</t>
+          <t>106594 - PALERMO</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>799485362</t>
+          <t>800645527</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1933,46 +2213,62 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Cambiar</t>
+        </is>
+      </c>
       <c r="I27" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M27" t="n">
-        <v>-58.450579</v>
+        <v>-58.426725</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.607673</v>
+        <v>-34.5945</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>-213</t>
+          <t>-254</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>11/7/2024</t>
+          <t>1/7/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>SCALABRINI ORTIZ R ,AV. /ALT/ 2452</t>
+          <t>BELAUSTEGUI DR LUIS /ALT/ 1185</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>106569 - CABALLITO</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>799451003</t>
+          <t>802367713</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1988,43 +2284,55 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Nodo Teco</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M28" t="n">
-        <v>-58.416896</v>
+        <v>-58.457158</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.585625</v>
+        <v>-34.605839</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>-214</t>
+          <t>-263</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>11/7/2024</t>
+          <t>1/22/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>SCALABRINI ORTIZ R ,AV. /ALT/ 2394</t>
+          <t>Fraga 93</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>799450985</t>
+          <t>802848838</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2037,46 +2345,62 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
       <c r="M29" t="n">
-        <v>-58.417746</v>
+        <v>-58.446721</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.586158</v>
+        <v>-34.587175</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>-216</t>
+          <t>803608154</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>5/2/2024</t>
+          <t>2/24/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>ORTIZ DE OCAMPO ,AV. /ALT/ 2635</t>
+          <t>CUBAS JOSE /ALT/ 3372</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>106589 - VILLA DEVOTO</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>784655947</t>
+          <t>803608154</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2091,7 +2415,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Colocar columna</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2099,40 +2423,52 @@
           <t>0</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M30" t="n">
-        <v>-58.404652</v>
+        <v>-58.506318</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.58263</v>
+        <v>-34.592417</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>-219</t>
+          <t>803608215</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>10/31/2024</t>
+          <t>2/24/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>LA PAMPA /ALT/ 2836</t>
+          <t>DEL PINO VIRREY /ALT/ 2646</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>106595 - BELGRANO</t>
+          <t>106581 - COLEGIALES</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>798953875</t>
+          <t>803608215</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2147,7 +2483,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Colocar Columna entre 2836/2838 ver con inspector la viabilidad</t>
+          <t>Columna 114 quebrada en base dar prioridad.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2155,40 +2491,52 @@
           <t>0</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M31" t="n">
-        <v>-58.458282</v>
+        <v>-58.45524</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.56718</v>
+        <v>-34.567858</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>-226</t>
+          <t>803608331</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>11/20/2024</t>
+          <t>2/24/2025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CUBA /ALT/ 2308</t>
+          <t>ROOSEVELT F D ,AV. /ALT/ 4875</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>106595 - BELGRANO</t>
+          <t>106592 - VILLA URQUIZA</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>800502281</t>
+          <t>803608331</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2203,7 +2551,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t xml:space="preserve">Columna terminal168 con rienda a pique fuera de plomo  y base con cimentación rota </t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2211,40 +2559,52 @@
           <t>0</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M32" t="n">
-        <v>-58.456674</v>
+        <v>-58.484493</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.558757</v>
+        <v>-34.572049</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>-228</t>
+          <t>803608455</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>11/22/2024</t>
+          <t>2/24/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>ALVAREZ JULIAN /ALT/ 1272</t>
+          <t>VALDENEGRO /ALT/ 4037</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>106593 - SAAVEDRA</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>800645527</t>
+          <t>803608455</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2259,7 +2619,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Cambiar poste podrido apoyado en tanque de agua. Es sobre parque junto a medianera.  Dar prioridad .</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2267,40 +2627,52 @@
           <t>0</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>Poste</t>
+        </is>
+      </c>
       <c r="M33" t="n">
-        <v>-58.426725</v>
+        <v>-58.493679</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.5945</v>
+        <v>-34.557149</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>-254</t>
+          <t>803608463</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1/7/2025</t>
+          <t>2/24/2025</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>BELAUSTEGUI DR LUIS /ALT/ 1185</t>
+          <t>COCHABAMBA /ALT/ 1790</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>106569 - CABALLITO</t>
+          <t>106552 - CONSTITUCION</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>802367713</t>
+          <t>803608463</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2313,10 +2685,14 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>SIN RIEGO</t>
+        </is>
+      </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2326,7 +2702,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Nodo/Fuente Teco</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -2335,36 +2711,36 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.457158</v>
+        <v>-58.391153</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.605839</v>
+        <v>-34.624022</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>-263</t>
+          <t>-281</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1/22/2025</t>
+          <t>2/26/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Fraga 93</t>
+          <t>SOLER /ALT/ 4517</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>106594 - PALERMO</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>802848838</t>
+          <t>803651203</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2379,12 +2755,12 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>columna de 114 con nodo y redes nuestra.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2394,45 +2770,45 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo/Fuente Teco</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.446721</v>
+        <v>-58.423405</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.587175</v>
+        <v>-34.588075</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>803608154</t>
+          <t>-284</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2/24/2025</t>
+          <t>2/26/2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CUBAS JOSE /ALT/ 3372</t>
+          <t>ARCOS /ALT/ 1715</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>106589 - VILLA DEVOTO</t>
+          <t>106595 - BELGRANO</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>803608154</t>
+          <t>803651216</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2447,7 +2823,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Colocar columna</t>
+          <t>114 mm picada</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2471,36 +2847,36 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.506318</v>
+        <v>-58.450714</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.592417</v>
+        <v>-34.563958</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>803608215</t>
+          <t>-300</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2/24/2025</t>
+          <t>3/17/2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>DEL PINO VIRREY /ALT/ 2646</t>
+          <t>SAN MARTIN ,AV. /ALT/ 6195</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>106581 - COLEGIALES</t>
+          <t>106587 - AGRONOMIA</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>803608215</t>
+          <t>804081102</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2515,7 +2891,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Columna 114 quebrada en base dar prioridad.</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2535,40 +2911,40 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.45524</v>
+        <v>-58.502505</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.567858</v>
+        <v>-34.59465</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>803608331</t>
+          <t>-307</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2/24/2025</t>
+          <t>3/25/2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>ROOSEVELT F D ,AV. /ALT/ 4875</t>
+          <t>BERUTI ANTONIO /ALT/ 4645</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>106592 - VILLA URQUIZA</t>
+          <t>106594 - PALERMO</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>803608331</t>
+          <t>804288212</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2583,12 +2959,12 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Columna terminal168 con rienda a pique fuera de plomo  y base con cimentación rota </t>
+          <t>Picada traspasar red y retirar columna</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2603,40 +2979,40 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.484493</v>
+        <v>-58.42486</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.572049</v>
+        <v>-34.577318</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>803608455</t>
+          <t>-310</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2/24/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>VALDENEGRO /ALT/ 4037</t>
+          <t>GONZALEZ JOAQUIN V /ALT/ 729</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>106573 - FLORESTA</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>803608455</t>
+          <t>804302855</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2651,7 +3027,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Cambiar poste podrido apoyado en tanque de agua. Es sobre parque junto a medianera.  Dar prioridad .</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2671,40 +3047,40 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.493679</v>
+        <v>-58.482428</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.557149</v>
+        <v>-34.625289</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>803608463</t>
+          <t>-311</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2/24/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>COCHABAMBA /ALT/ 1790</t>
+          <t>GONZALEZ JOAQUIN V /ALT/ 789</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>106552 - CONSTITUCION</t>
+          <t>106573 - FLORESTA</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>803608463</t>
+          <t>804302872</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2719,7 +3095,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>SIN RIEGO</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2734,45 +3110,45 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Nodo/Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.391153</v>
+        <v>-58.482612</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.624022</v>
+        <v>-34.624833</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>-281</t>
+          <t>-314</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2/26/2025</t>
+          <t>3/29/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>SOLER /ALT/ 4517</t>
+          <t>MOLDES /ALT/ 1983</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>106595 - BELGRANO</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>803651203</t>
+          <t>804333528</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2787,12 +3163,12 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>columna de 114 con nodo y redes nuestra.</t>
+          <t>Columna propia con ampli de red propio picada en base.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2802,7 +3178,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Nodo/Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -2811,36 +3187,36 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.423405</v>
+        <v>-58.458417</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.588075</v>
+        <v>-34.56481</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>-284</t>
+          <t>5138</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2/26/2025</t>
+          <t>4/1/2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>ARCOS /ALT/ 1715</t>
+          <t>LOPEZ, CARLOS ANTONIO 3326</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>106595 - BELGRANO</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>803651216</t>
+          <t>804468459</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2855,17 +3231,17 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>114 mm picada</t>
+          <t>COLUMNA INCLINADA</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -2879,36 +3255,36 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.450714</v>
+        <v>-58.508582</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.563958</v>
+        <v>-34.588936</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>-300</t>
+          <t>5139</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>3/17/2025</t>
+          <t>4/1/2025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>SAN MARTIN ,AV. /ALT/ 6195</t>
+          <t>LOPEZ, CARLOS ANTONIO 3346</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>106587 - AGRONOMIA</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>804081102</t>
+          <t>804468467</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2923,17 +3299,17 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>COLUMNA INCLINADA</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -2943,40 +3319,40 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.502505</v>
+        <v>-58.508809</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.59465</v>
+        <v>-34.589076</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>-307</t>
+          <t>-316</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>3/25/2025</t>
+          <t>4/3/2025</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>BERUTI ANTONIO /ALT/ 4645</t>
+          <t>ALBERTI /ALT/ 621</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>106558 - BALVANERA</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>804288212</t>
+          <t>804468365</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2991,7 +3367,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Picada traspasar red y retirar columna</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3011,40 +3387,40 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.42486</v>
+        <v>-58.401202</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.577318</v>
+        <v>-34.61683</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>-310</t>
+          <t>5500</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>4/7/2025</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>GONZALEZ JOAQUIN V /ALT/ 729</t>
+          <t>LA PLATA AV. 1013</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>106573 - FLORESTA</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>804302855</t>
+          <t>804568914</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3059,17 +3435,17 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -3083,36 +3459,36 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.482428</v>
+        <v>-58.426804</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.625289</v>
+        <v>-34.627283</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>-311</t>
+          <t>5728</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>4/7/2025</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>GONZALEZ JOAQUIN V /ALT/ 789</t>
+          <t>FRANCO 3340</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>106573 - FLORESTA</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>804302872</t>
+          <t>804568964</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3132,7 +3508,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -3147,40 +3523,40 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.482612</v>
+        <v>-58.512525</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.624833</v>
+        <v>-34.585228</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>-314</t>
+          <t>5521</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>3/29/2025</t>
+          <t>4/8/2025</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>MOLDES /ALT/ 1983</t>
+          <t>EL PEREGRINO 3115</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>106595 - BELGRANO</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>804333528</t>
+          <t>804569000</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3195,7 +3571,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Columna propia con ampli de red propio picada en base.</t>
+          <t>Aplomar Poste</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3205,7 +3581,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3215,40 +3591,40 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.458417</v>
+        <v>-58.485232</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.56481</v>
+        <v>-34.611573</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>5138</t>
+          <t>-325</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>4/1/2025</t>
+          <t>4/8/2025</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>LOPEZ, CARLOS ANTONIO 3326</t>
+          <t>RINCON /ALT/ 1091</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>106556 - SAN CRISTOBAL</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>804468459</t>
+          <t>804569066</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3263,7 +3639,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>COLUMNA INCLINADA</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3273,7 +3649,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3287,36 +3663,36 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.508582</v>
+        <v>-58.39573</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.588936</v>
+        <v>-34.621541</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>5139</t>
+          <t>-326</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>4/1/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>LOPEZ, CARLOS ANTONIO 3346</t>
+          <t>GARCIA DEL RIO /ALT/ 3354</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>106593 - SAAVEDRA</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>804468467</t>
+          <t>804634199</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3331,7 +3707,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>COLUMNA INCLINADA</t>
+          <t>Retirar poste de vereda. Reparar la vereda donde estaba colocado el poste.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3341,7 +3717,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3351,40 +3727,40 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.508809</v>
+        <v>-58.478106</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.589076</v>
+        <v>-34.551523</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>-316</t>
+          <t>-327</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>4/3/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>ALBERTI /ALT/ 621</t>
+          <t>ROOSEVELT F D ,AV. /ALT/ 5439</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>106558 - BALVANERA</t>
+          <t>106592 - VILLA URQUIZA</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>804468365</t>
+          <t>804634203</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3399,7 +3775,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar columna R200 y  dar aviso para el traspaso de nodos. (TECO y TLC)</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3414,7 +3790,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -3423,36 +3799,36 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.401202</v>
+        <v>-58.491074</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.61683</v>
+        <v>-34.575623</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>5500</t>
+          <t>5572</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>4/7/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>LA PLATA AV. 1013</t>
+          <t>SANABRIA 4289</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>804568914</t>
+          <t>804663652</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3467,7 +3843,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3487,30 +3863,30 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>-58.426804</v>
+        <v>-58.516755</v>
       </c>
       <c r="N51" t="n">
-        <v>-34.627283</v>
+        <v>-34.6002</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>5728</t>
+          <t>5573</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>4/7/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>FRANCO 3340</t>
+          <t>LASTRA AV. 4379</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -3520,7 +3896,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>804568964</t>
+          <t>804663677</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3535,7 +3911,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3545,7 +3921,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3559,26 +3935,26 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>-58.512525</v>
+        <v>-58.525125</v>
       </c>
       <c r="N52" t="n">
-        <v>-34.585228</v>
+        <v>-34.604668</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>5521</t>
+          <t>5574</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>4/8/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>EL PEREGRINO 3115</t>
+          <t>GRIVEO 3909</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -3588,7 +3964,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>804569000</t>
+          <t>804663683</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3603,7 +3979,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Aplomar Poste</t>
+          <t>Poste Inclinado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3627,36 +4003,36 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>-58.485232</v>
+        <v>-58.517126</v>
       </c>
       <c r="N53" t="n">
-        <v>-34.611573</v>
+        <v>-34.592774</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>-325</t>
+          <t>-334</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>4/8/2025</t>
+          <t>4/21/2025</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>RINCON /ALT/ 1091</t>
+          <t>BUCARELLI /ALT/ 1534</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>106556 - SAN CRISTOBAL</t>
+          <t>106597 - PARQUE CHAS</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>804569066</t>
+          <t>804838853</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3671,7 +4047,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t xml:space="preserve">Cambiar Columna dañada torcida y fuera de plomo </t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -3695,36 +4071,36 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>-58.39573</v>
+        <v>-58.481261</v>
       </c>
       <c r="N54" t="n">
-        <v>-34.621541</v>
+        <v>-34.584281</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>-326</t>
+          <t>-335</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/21/2025</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>GARCIA DEL RIO /ALT/ 3354</t>
+          <t>BUCARELLI /ALT/ 1412</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>106597 - PARQUE CHAS</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>804634199</t>
+          <t>804838855</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3739,7 +4115,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Retirar poste de vereda. Reparar la vereda donde estaba colocado el poste.</t>
+          <t xml:space="preserve">Aplomar columna 114 </t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3749,7 +4125,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -3759,40 +4135,40 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>-58.478106</v>
+        <v>-58.479593</v>
       </c>
       <c r="N55" t="n">
-        <v>-34.551523</v>
+        <v>-34.584943</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>-327</t>
+          <t>-336</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/21/2025</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>ROOSEVELT F D ,AV. /ALT/ 5439</t>
+          <t>BAUNESS /ALT/ 1419</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>106592 - VILLA URQUIZA</t>
+          <t>106597 - PARQUE CHAS</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>804634203</t>
+          <t>804838856</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3807,7 +4183,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Colocar columna R200 y  dar aviso para el traspaso de nodos. (TECO y TLC)</t>
+          <t>"Aplomar columna 114 con rienda a pique o colocar terminal"</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3822,7 +4198,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -3831,36 +4207,36 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>-58.491074</v>
+        <v>-58.479168</v>
       </c>
       <c r="N56" t="n">
-        <v>-34.575623</v>
+        <v>-34.584482</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>5572</t>
+          <t>-337</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/21/2025</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>SANABRIA 4289</t>
+          <t>PARAGUAY /ALT/ 4259</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>106594 - PALERMO</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>804663652</t>
+          <t>804838858</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -3875,7 +4251,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -3885,7 +4261,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -3895,40 +4271,40 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>-58.516755</v>
+        <v>-58.421822</v>
       </c>
       <c r="N57" t="n">
-        <v>-34.6002</v>
+        <v>-34.58645</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>5573</t>
+          <t>-338</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/21/2025</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>LASTRA AV. 4379</t>
+          <t>PARAGUAY /ALT/ 4283</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>106594 - PALERMO</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>804663677</t>
+          <t>804838861</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3943,7 +4319,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3953,7 +4329,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -3967,36 +4343,36 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>-58.525125</v>
+        <v>-58.421964</v>
       </c>
       <c r="N58" t="n">
-        <v>-34.604668</v>
+        <v>-34.586342</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>5574</t>
+          <t>-339</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/21/2025</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>GRIVEO 3909</t>
+          <t>GRIVEO /ALT/ 2435</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>106591 - VILLA PUEYRREDON</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>804663683</t>
+          <t>804838868</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -4011,7 +4387,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Poste Inclinado</t>
+          <t xml:space="preserve">Aplomar columna 114  </t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4031,20 +4407,20 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>-58.517126</v>
+        <v>-58.498493</v>
       </c>
       <c r="N59" t="n">
-        <v>-34.592774</v>
+        <v>-34.581262</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>-334</t>
+          <t>-340</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -4054,17 +4430,17 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>BUCARELLI /ALT/ 1534</t>
+          <t>SUPERI /ALT/ 1445</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>106581 - COLEGIALES</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>804838853</t>
+          <t>804838869</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -4079,7 +4455,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar Columna dañada torcida y fuera de plomo </t>
+          <t>Columna podrida en la base</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4103,16 +4479,16 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>-58.481261</v>
+        <v>-58.460666</v>
       </c>
       <c r="N60" t="n">
-        <v>-34.584281</v>
+        <v>-34.573823</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>-335</t>
+          <t>-341</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -4122,17 +4498,17 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>BUCARELLI /ALT/ 1412</t>
+          <t>3 DE FEBRERO /ALT/ 4835</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>106596 - NUNEZ</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>804838855</t>
+          <t>804838980</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -4147,7 +4523,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 114 </t>
+          <t>"Retirar poste teco cobre en desuso entrada Edificio reclamo municipal "</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -4157,7 +4533,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -4167,40 +4543,40 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>-58.479593</v>
+        <v>-58.469157</v>
       </c>
       <c r="N61" t="n">
-        <v>-34.584943</v>
+        <v>-34.536783</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>-336</t>
+          <t>-342</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>4/21/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>BAUNESS /ALT/ 1419</t>
+          <t>WILLIAMS ALBERTO /ALT/ 5625</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>106593 - SAAVEDRA</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>804838856</t>
+          <t>804839148</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -4215,12 +4591,12 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>"Aplomar columna 114 con rienda a pique o colocar terminal"</t>
+          <t>Cambiar columna de 114. - VIRARDI</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -4239,36 +4615,36 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>-58.479168</v>
+        <v>-58.502447</v>
       </c>
       <c r="N62" t="n">
-        <v>-34.584482</v>
+        <v>-34.561008</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>-337</t>
+          <t>-343</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>4/21/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>PARAGUAY /ALT/ 4259</t>
+          <t>ANDONAEGUI /ALT/ 1608</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>106597 - PARQUE CHAS</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>804838858</t>
+          <t>804839150</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -4283,17 +4659,17 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar columna de 114 - VIRARDI</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -4307,36 +4683,36 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>-58.421822</v>
+        <v>-58.48278</v>
       </c>
       <c r="N63" t="n">
-        <v>-34.58645</v>
+        <v>-34.584137</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>-338</t>
+          <t>-344</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>4/21/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>PARAGUAY /ALT/ 4283</t>
+          <t>ANDONAEGUI /ALT/ 1690</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>106597 - PARQUE CHAS</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>804838861</t>
+          <t>804839162</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -4351,17 +4727,17 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar columna de 114. - VIRARDI</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -4375,36 +4751,36 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>-58.421964</v>
+        <v>-58.483947</v>
       </c>
       <c r="N64" t="n">
-        <v>-34.586342</v>
+        <v>-34.583207</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>-339</t>
+          <t>-345</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>4/21/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>GRIVEO /ALT/ 2435</t>
+          <t>ANDONAEGUI /ALT/ 1774</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>106591 - VILLA PUEYRREDON</t>
+          <t>106597 - PARQUE CHAS</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>804838868</t>
+          <t>804839181</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -4419,12 +4795,12 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 114  </t>
+          <t>Aplomo/cambio de columna de 168 colocar columna y rienda en norma.  - VIRARDI</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -4443,36 +4819,36 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>-58.498493</v>
+        <v>-58.484513</v>
       </c>
       <c r="N65" t="n">
-        <v>-34.581262</v>
+        <v>-34.582786</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>-340</t>
+          <t>-346</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>4/21/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>SUPERI /ALT/ 1445</t>
+          <t>ARGERICH /ALT/ 4710</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>106581 - COLEGIALES</t>
+          <t>106591 - VILLA PUEYRREDON</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>804838869</t>
+          <t>804839198</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -4487,12 +4863,12 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Columna podrida en la base</t>
+          <t>Cambiar poste con rienda podrido en su base - VIRARDI</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -4507,40 +4883,40 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>-58.460666</v>
+        <v>-58.503673</v>
       </c>
       <c r="N66" t="n">
-        <v>-34.573823</v>
+        <v>-34.586925</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>-341</t>
+          <t>-347</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>4/21/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>3 DE FEBRERO /ALT/ 4835</t>
+          <t>AVALOS /ALT/ 1610</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>106596 - NUNEZ</t>
+          <t>106597 - PARQUE CHAS</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>804838980</t>
+          <t>804839214</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -4555,40 +4931,40 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>"Retirar poste teco cobre en desuso entrada Edificio reclamo municipal "</t>
+          <t>Cambiar columna de 168 - VIRARDI</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo/Fuente TLC</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>-58.469157</v>
+        <v>-58.480099</v>
       </c>
       <c r="N67" t="n">
-        <v>-34.536783</v>
+        <v>-34.582085</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>-342</t>
+          <t>-349</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -4598,17 +4974,17 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>WILLIAMS ALBERTO /ALT/ 5625</t>
+          <t>BAUNESS /ALT/ 1616</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>106597 - PARQUE CHAS</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>804839148</t>
+          <t>804839290</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -4623,7 +4999,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Cambiar columna de 114. - VIRARDI</t>
+          <t>Columna en polígono fuera de plomo con ancla fuera de norma - VIRARDI</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -4647,16 +5023,16 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>-58.502447</v>
+        <v>-58.48139</v>
       </c>
       <c r="N68" t="n">
-        <v>-34.561008</v>
+        <v>-34.583277</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>-343</t>
+          <t>-350</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -4666,7 +5042,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>ANDONAEGUI /ALT/ 1608</t>
+          <t>BUCARELLI /ALT/ 1305</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -4676,7 +5052,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>804839150</t>
+          <t>804839440</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -4691,7 +5067,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aplomar columna de 114 - VIRARDI</t>
+          <t>Columna corroida en su base realizar cambio.  - VIRARDI</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -4701,7 +5077,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -4715,16 +5091,16 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>-58.48278</v>
+        <v>-58.479078</v>
       </c>
       <c r="N69" t="n">
-        <v>-34.584137</v>
+        <v>-34.586298</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>-344</t>
+          <t>-351</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -4734,7 +5110,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>ANDONAEGUI /ALT/ 1690</t>
+          <t>BUCARELLI /ALT/ 1430</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -4744,7 +5120,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>804839162</t>
+          <t>804839511</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -4759,7 +5135,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Aplomar columna de 114. - VIRARDI</t>
+          <t>Aplomar columna normalizar.  - VIRARDI</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -4783,16 +5159,16 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>-58.483947</v>
+        <v>-58.479712</v>
       </c>
       <c r="N70" t="n">
-        <v>-34.583207</v>
+        <v>-34.584855</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>-345</t>
+          <t>-352</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -4802,7 +5178,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>ANDONAEGUI /ALT/ 1774</t>
+          <t>BUCARELLI /ALT/ 935</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -4812,7 +5188,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>804839181</t>
+          <t>804839565</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -4827,7 +5203,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Aplomo/cambio de columna de 168 colocar columna y rienda en norma.  - VIRARDI</t>
+          <t>Aplomar columna de 114. - VIRARDI</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -4851,16 +5227,16 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>-58.484513</v>
+        <v>-58.475389</v>
       </c>
       <c r="N71" t="n">
-        <v>-34.582786</v>
+        <v>-34.590317</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>-346</t>
+          <t>-353</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -4870,17 +5246,17 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>ARGERICH /ALT/ 4710</t>
+          <t>CAAGUAZU /ALT/ 5703</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>106591 - VILLA PUEYRREDON</t>
+          <t>106576 - LINIERS</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>804839198</t>
+          <t>804839589</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4895,7 +5271,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Cambiar poste con rienda podrido en su base - VIRARDI</t>
+          <t>Cambiar columna de 114. Fuera de plomo empotrada en árbol colocar rienda. ( se pasa tareas a contratista tratista de limpieza tensado y elevación del tendido).  - VIRARDI</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -4915,20 +5291,20 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>-58.503673</v>
+        <v>-58.511462</v>
       </c>
       <c r="N72" t="n">
-        <v>-34.586925</v>
+        <v>-34.640542</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>-347</t>
+          <t>-354</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -4938,17 +5314,17 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>AVALOS /ALT/ 1610</t>
+          <t>CONDARCO /ALT/ 5316</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>106591 - VILLA PUEYRREDON</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>804839214</t>
+          <t>804839626</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -4963,7 +5339,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Cambiar columna de 168 - VIRARDI</t>
+          <t>Aplomo de columna de PRFV - VIRARDI</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -4973,12 +5349,12 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Nodo/Fuente TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -4987,16 +5363,16 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>-58.480099</v>
+        <v>-58.504455</v>
       </c>
       <c r="N73" t="n">
-        <v>-34.582085</v>
+        <v>-34.579941</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>-349</t>
+          <t>-355</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -5006,17 +5382,17 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>BAUNESS /ALT/ 1616</t>
+          <t>CUENCA /ALT/ 4480</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>106591 - VILLA PUEYRREDON</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>804839290</t>
+          <t>804839675</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -5031,7 +5407,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Columna en polígono fuera de plomo con ancla fuera de norma - VIRARDI</t>
+          <t>Columna nueva fuera de plomo sostiene nodo de Telecentro.  Reclamo municipal.  - VIRARDI</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -5041,12 +5417,12 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo/Fuente TLC</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -5055,16 +5431,16 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>-58.48139</v>
+        <v>-58.504568</v>
       </c>
       <c r="N74" t="n">
-        <v>-34.583277</v>
+        <v>-34.590534</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>-350</t>
+          <t>-356</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -5074,17 +5450,17 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>BUCARELLI /ALT/ 1305</t>
+          <t>CUENCA /ALT/ 4845</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>106591 - VILLA PUEYRREDON</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>804839440</t>
+          <t>804839715</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -5099,7 +5475,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Columna corroida en su base realizar cambio.  - VIRARDI</t>
+          <t>Retiro de poste viejo en desuso liberado podrido en su base.  - VIRARDI</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -5109,7 +5485,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -5119,20 +5495,20 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>-58.479078</v>
+        <v>-58.507182</v>
       </c>
       <c r="N75" t="n">
-        <v>-34.586298</v>
+        <v>-34.58749</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>-351</t>
+          <t>-357</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -5142,17 +5518,17 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>BUCARELLI /ALT/ 1430</t>
+          <t>MISTRAL GABRIELA /ALT/ 3376</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>106589 - VILLA DEVOTO</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>804839511</t>
+          <t>804839774</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -5167,7 +5543,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aplomar columna normalizar.  - VIRARDI</t>
+          <t>Cambiar columna corroida en su base.  Ubicada en puerta de colegio.  - VIRARDI</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -5177,7 +5553,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -5191,16 +5567,16 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>-58.479712</v>
+        <v>-58.507591</v>
       </c>
       <c r="N76" t="n">
-        <v>-34.584855</v>
+        <v>-34.590945</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>-352</t>
+          <t>-358</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -5210,7 +5586,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>BUCARELLI /ALT/ 935</t>
+          <t>GINEBRA /ALT/ 3887</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -5220,7 +5596,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>804839565</t>
+          <t>804839803</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -5235,7 +5611,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aplomar columna de 114. - VIRARDI</t>
+          <t>Aplomo de columna de 114 - VIRARDI</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -5259,16 +5635,16 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>-58.475389</v>
+        <v>-58.475735</v>
       </c>
       <c r="N77" t="n">
-        <v>-34.590317</v>
+        <v>-34.580487</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>-353</t>
+          <t>-359</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -5278,17 +5654,17 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>CAAGUAZU /ALT/ 5703</t>
+          <t>CABEZON JOSE LEON /ALT/ 2714</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>106576 - LINIERS</t>
+          <t>106591 - VILLA PUEYRREDON</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>804839589</t>
+          <t>804839875</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -5303,7 +5679,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Cambiar columna de 114. Fuera de plomo empotrada en árbol colocar rienda. ( se pasa tareas a contratista tratista de limpieza tensado y elevación del tendido).  - VIRARDI</t>
+          <t>Aplomo de columna de 114 - VIRARDI</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -5313,7 +5689,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -5327,16 +5703,16 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>-58.511462</v>
+        <v>-58.503195</v>
       </c>
       <c r="N78" t="n">
-        <v>-34.640542</v>
+        <v>-34.581735</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>-354</t>
+          <t>-361</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -5346,17 +5722,17 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>CONDARCO /ALT/ 5316</t>
+          <t>LONDRES /ALT/ 4008</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>106591 - VILLA PUEYRREDON</t>
+          <t>106597 - PARQUE CHAS</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>804839626</t>
+          <t>804839936</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -5371,7 +5747,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Aplomo de columna de PRFV - VIRARDI</t>
+          <t>Aplomo de columna de 114. - VIRARDI</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -5395,16 +5771,16 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>-58.504455</v>
+        <v>-58.478362</v>
       </c>
       <c r="N79" t="n">
-        <v>-34.579941</v>
+        <v>-34.581404</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>-355</t>
+          <t>-362</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -5414,17 +5790,17 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>CUENCA /ALT/ 4480</t>
+          <t>MOZART /ALT/ 562</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>106591 - VILLA PUEYRREDON</t>
+          <t>106571 - PQUE. AVELLANEDA</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>804839675</t>
+          <t>804839947</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -5439,7 +5815,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Columna nueva fuera de plomo sostiene nodo de Telecentro.  Reclamo municipal.  - VIRARDI</t>
+          <t>Aplomar columna de 114. Se encuentra frente al 575 lado plaza sin número.  - VIRARDI</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -5454,7 +5830,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Nodo/Fuente TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -5463,16 +5839,16 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>-58.504568</v>
+        <v>-58.489948</v>
       </c>
       <c r="N80" t="n">
-        <v>-34.590534</v>
+        <v>-34.643478</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>-356</t>
+          <t>-363</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -5482,17 +5858,17 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>CUENCA /ALT/ 4845</t>
+          <t>OSLO /ALT/ 1255</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>106591 - VILLA PUEYRREDON</t>
+          <t>106597 - PARQUE CHAS</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>804839715</t>
+          <t>804839962</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -5507,7 +5883,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Retiro de poste viejo en desuso liberado podrido en su base.  - VIRARDI</t>
+          <t>Cambiar columna de 168 podrida en su base.  - VIRARDI</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -5517,7 +5893,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -5527,20 +5903,20 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>-58.507182</v>
+        <v>-58.481767</v>
       </c>
       <c r="N81" t="n">
-        <v>-34.58749</v>
+        <v>-34.589507</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>-357</t>
+          <t>-364</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -5550,17 +5926,17 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>MISTRAL GABRIELA /ALT/ 3376</t>
+          <t>PAROISSIEN /ALT/ 4871</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>106589 - VILLA DEVOTO</t>
+          <t>106593 - SAAVEDRA</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>804839774</t>
+          <t>804839991</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -5575,7 +5951,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Cambiar columna corroida en su base.  Ubicada en puerta de colegio.  - VIRARDI</t>
+          <t>Aplomar columna de 114 - VIRARDI</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -5585,7 +5961,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -5599,16 +5975,16 @@
         </is>
       </c>
       <c r="M82" t="n">
-        <v>-58.507591</v>
+        <v>-58.493164</v>
       </c>
       <c r="N82" t="n">
-        <v>-34.590945</v>
+        <v>-34.55732</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>-358</t>
+          <t>-365</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -5618,17 +5994,17 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>GINEBRA /ALT/ 3887</t>
+          <t>QUESADA /ALT/ 5290</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>106592 - VILLA URQUIZA</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>804839803</t>
+          <t>804839995</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -5643,7 +6019,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Aplomo de columna de 114 - VIRARDI</t>
+          <t>Columna nueva de PVC fuera de plomo.  - VIRARDI</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -5653,7 +6029,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -5667,16 +6043,16 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>-58.475735</v>
+        <v>-58.491934</v>
       </c>
       <c r="N83" t="n">
-        <v>-34.580487</v>
+        <v>-34.569348</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>-359</t>
+          <t>-366</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -5686,17 +6062,17 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>CABEZON JOSE LEON /ALT/ 2714</t>
+          <t>QUESADA /ALT/ 6088</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>106591 - VILLA PUEYRREDON</t>
+          <t>106592 - VILLA URQUIZA</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>804839875</t>
+          <t>804840016</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -5711,7 +6087,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Aplomo de columna de 114 - VIRARDI</t>
+          <t>Aplomar columna de 168 cambiar rienda.  - VIRARDI</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -5735,16 +6111,16 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>-58.503195</v>
+        <v>-58.501418</v>
       </c>
       <c r="N84" t="n">
-        <v>-34.581735</v>
+        <v>-34.574363</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>-361</t>
+          <t>-367</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -5754,17 +6130,17 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>LONDRES /ALT/ 4008</t>
+          <t>RUIZ HUIDOBRO ,AV. /ALT/ 4771</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>106593 - SAAVEDRA</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>804839936</t>
+          <t>804840024</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -5779,7 +6155,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Aplomo de columna de 114. - VIRARDI</t>
+          <t>Aplomo de columna de 114 - VIRARDI</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -5803,36 +6179,36 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>-58.478362</v>
+        <v>-58.494584</v>
       </c>
       <c r="N85" t="n">
-        <v>-34.581404</v>
+        <v>-34.554981</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>-362</t>
+          <t>-368</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>MOZART /ALT/ 562</t>
+          <t>ARIAS /ALT/ 1620</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>106571 - PQUE. AVELLANEDA</t>
+          <t>106596 - NUNEZ</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>804839947</t>
+          <t>804876039</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -5847,12 +6223,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Aplomar columna de 114. Se encuentra frente al 575 lado plaza sin número.  - VIRARDI</t>
+          <t xml:space="preserve">Aplomar columna 168 con rienda </t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -5867,40 +6243,40 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>-58.489948</v>
+        <v>-58.465608</v>
       </c>
       <c r="N86" t="n">
-        <v>-34.643478</v>
+        <v>-34.538489</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>-363</t>
+          <t>-372</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>OSLO /ALT/ 1255</t>
+          <t>CAMARGO /ALT/ 25</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>106582 - VILLA CRESPO</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>804839962</t>
+          <t>804903809</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -5915,12 +6291,12 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Cambiar columna de 168 podrida en su base.  - VIRARDI</t>
+          <t>Aplomar columna 114 con rienda a pique</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -5939,36 +6315,36 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>-58.481767</v>
+        <v>-58.436788</v>
       </c>
       <c r="N87" t="n">
-        <v>-34.589507</v>
+        <v>-34.604014</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>-364</t>
+          <t>-373</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>PAROISSIEN /ALT/ 4871</t>
+          <t>GALLARDO ANGEL ,AV. /ALT/ 608</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>106569 - CABALLITO</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>804839991</t>
+          <t>804903810</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -5983,12 +6359,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Aplomar columna de 114 - VIRARDI</t>
+          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -6007,36 +6383,36 @@
         </is>
       </c>
       <c r="M88" t="n">
-        <v>-58.493164</v>
+        <v>-58.439461</v>
       </c>
       <c r="N88" t="n">
-        <v>-34.55732</v>
+        <v>-34.605744</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>-365</t>
+          <t>-375</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>QUESADA /ALT/ 5290</t>
+          <t>PAVON /ALT/ 3335</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>106592 - VILLA URQUIZA</t>
+          <t>106562 - BOEDO</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>804839995</t>
+          <t>804903824</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -6051,12 +6427,12 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Columna nueva de PVC fuera de plomo.  - VIRARDI</t>
+          <t>Colocar columna nueva donde estaba la anterior cortada</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -6075,36 +6451,36 @@
         </is>
       </c>
       <c r="M89" t="n">
-        <v>-58.491934</v>
+        <v>-58.412418</v>
       </c>
       <c r="N89" t="n">
-        <v>-34.569348</v>
+        <v>-34.629288</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>-366</t>
+          <t>-376</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>QUESADA /ALT/ 6088</t>
+          <t xml:space="preserve"> Valentin Gomez 3803</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>106592 - VILLA URQUIZA</t>
+          <t>106568 - ALMAGRO</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>804840016</t>
+          <t>804903787</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -6119,17 +6495,17 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Aplomar columna de 168 cambiar rienda.  - VIRARDI</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -6143,36 +6519,36 @@
         </is>
       </c>
       <c r="M90" t="n">
-        <v>-58.501418</v>
+        <v>-58.418424</v>
       </c>
       <c r="N90" t="n">
-        <v>-34.574363</v>
+        <v>-34.604463</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>-367</t>
+          <t>-377</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>RUIZ HUIDOBRO ,AV. /ALT/ 4771</t>
+          <t>HUMAHUACA /ALT/ 3918</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>106568 - ALMAGRO</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>804840024</t>
+          <t>804903788</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -6187,17 +6563,17 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Aplomo de columna de 114 - VIRARDI</t>
+          <t>picada</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -6211,36 +6587,36 @@
         </is>
       </c>
       <c r="M91" t="n">
-        <v>-58.494584</v>
+        <v>-58.419694</v>
       </c>
       <c r="N91" t="n">
-        <v>-34.554981</v>
+        <v>-34.602062</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>-368</t>
+          <t>-378</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>ARIAS /ALT/ 1620</t>
+          <t>MAGARINO CERVANTES A /ALT/ 5054</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>106596 - NUNEZ</t>
+          <t>106574 - VELEZ SARSFIELD</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>804876039</t>
+          <t>804903791</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -6255,7 +6631,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 168 con rienda </t>
+          <t>Desmontar poste</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -6265,7 +6641,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -6275,40 +6651,40 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M92" t="n">
-        <v>-58.465608</v>
+        <v>-58.503618</v>
       </c>
       <c r="N92" t="n">
-        <v>-34.538489</v>
+        <v>-34.629209</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>-372</t>
+          <t>-381</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>4/25/2025</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>CAMARGO /ALT/ 25</t>
+          <t>RIVADAVIA ,AV. /ALT/ 9477</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>106582 - VILLA CRESPO</t>
+          <t>106575 - VILLA LURO</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>804903809</t>
+          <t>805010120</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -6323,7 +6699,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Aplomar columna 114 con rienda a pique</t>
+          <t>Podrida en la base</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -6347,36 +6723,36 @@
         </is>
       </c>
       <c r="M93" t="n">
-        <v>-58.436788</v>
+        <v>-58.497691</v>
       </c>
       <c r="N93" t="n">
-        <v>-34.604014</v>
+        <v>-34.637087</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>-373</t>
+          <t>-383</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>GALLARDO ANGEL ,AV. /ALT/ 608</t>
+          <t>VALDERRAMA /ALT/ 4187</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>106569 - CABALLITO</t>
+          <t>106592 - VILLA URQUIZA</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>804903810</t>
+          <t>805507401</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -6391,7 +6767,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
+          <t xml:space="preserve">Aplomar columna 114 </t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -6415,36 +6791,36 @@
         </is>
       </c>
       <c r="M94" t="n">
-        <v>-58.439461</v>
+        <v>-58.481834</v>
       </c>
       <c r="N94" t="n">
-        <v>-34.605744</v>
+        <v>-34.560796</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>-375</t>
+          <t>-384</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>PAVON /ALT/ 3335</t>
+          <t>LUGONES 1721</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>106562 - BOEDO</t>
+          <t>106586 - VILLA ORTUZAR</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>804903824</t>
+          <t>805507408</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -6459,7 +6835,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Colocar columna nueva donde estaba la anterior cortada</t>
+          <t>Aplomar columna 168 - La columna esta frente a la altura 1721</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -6469,7 +6845,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -6483,36 +6859,36 @@
         </is>
       </c>
       <c r="M95" t="n">
-        <v>-58.412418</v>
+        <v>-58.473936</v>
       </c>
       <c r="N95" t="n">
-        <v>-34.629288</v>
+        <v>-34.577346</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>-376</t>
+          <t>-385</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Valentin Gomez 3803</t>
+          <t>MOLDES /ALT/ 1913</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>106568 - ALMAGRO</t>
+          <t>106595 - BELGRANO</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>804903787</t>
+          <t>805507415</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -6527,7 +6903,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar columna 114</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -6537,7 +6913,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -6551,36 +6927,36 @@
         </is>
       </c>
       <c r="M96" t="n">
-        <v>-58.418424</v>
+        <v>-58.45789</v>
       </c>
       <c r="N96" t="n">
-        <v>-34.604463</v>
+        <v>-34.565423</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>-377</t>
+          <t>-386</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>HUMAHUACA /ALT/ 3918</t>
+          <t>MOLDES /ALT/ 1943</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>106568 - ALMAGRO</t>
+          <t>106595 - BELGRANO</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>804903788</t>
+          <t>805507419</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -6595,7 +6971,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>picada</t>
+          <t>Dos columnas fuera de plomo - aplomar o cambiar la que no tiene nodo de TLC</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -6605,12 +6981,12 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
@@ -6619,26 +6995,26 @@
         </is>
       </c>
       <c r="M97" t="n">
-        <v>-58.419694</v>
+        <v>-58.458217</v>
       </c>
       <c r="N97" t="n">
-        <v>-34.602062</v>
+        <v>-34.565043</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>-378</t>
+          <t>-387</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>5/1/2025</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>MAGARINO CERVANTES A /ALT/ 5054</t>
+          <t>FLORES GRAL VENANCIO /ALT/ 4139</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -6648,7 +7024,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>804903791</t>
+          <t>805579025</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -6663,7 +7039,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Desmontar poste</t>
+          <t>Columna fuera de plomo - VIRARDI</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -6673,7 +7049,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -6683,40 +7059,40 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M98" t="n">
-        <v>-58.503618</v>
+        <v>-58.485221</v>
       </c>
       <c r="N98" t="n">
-        <v>-34.629209</v>
+        <v>-34.633425</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>-381</t>
+          <t>-391</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>4/25/2025</t>
+          <t>5/5/2025</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>RIVADAVIA ,AV. /ALT/ 9477</t>
+          <t>IBERA /ALT/ 5074</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>106575 - VILLA LURO</t>
+          <t>106592 - VILLA URQUIZA</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>805010120</t>
+          <t>805676610</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -6731,7 +7107,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Podrida en la base</t>
+          <t xml:space="preserve">Cambiar columna 114 base corroida </t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -6755,36 +7131,36 @@
         </is>
       </c>
       <c r="M99" t="n">
-        <v>-58.497691</v>
+        <v>-58.49045</v>
       </c>
       <c r="N99" t="n">
-        <v>-34.637087</v>
+        <v>-34.566894</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>-383</t>
+          <t>-392</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>5/5/2025</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>VALDERRAMA /ALT/ 4187</t>
+          <t>GARCIA TEODORO /ALT/ 1775</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>106592 - VILLA URQUIZA</t>
+          <t>106594 - PALERMO</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>805507401</t>
+          <t>805676615</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -6799,7 +7175,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 114 </t>
+          <t xml:space="preserve">Cambiar columna 114 base corroida </t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -6809,7 +7185,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -6823,36 +7199,36 @@
         </is>
       </c>
       <c r="M100" t="n">
-        <v>-58.481834</v>
+        <v>-58.440367</v>
       </c>
       <c r="N100" t="n">
-        <v>-34.560796</v>
+        <v>-34.563551</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>-384</t>
+          <t>-393</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>5/5/2025</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>LUGONES 1721</t>
+          <t>3 DE FEBRERO /ALT/ 1272</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>106586 - VILLA ORTUZAR</t>
+          <t>106594 - PALERMO</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>805507408</t>
+          <t>805676618</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -6867,7 +7243,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Aplomar columna 168 - La columna esta frente a la altura 1721</t>
+          <t xml:space="preserve">Cambiar columna 114 base corroida </t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -6877,7 +7253,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -6891,36 +7267,36 @@
         </is>
       </c>
       <c r="M101" t="n">
-        <v>-58.473936</v>
+        <v>-58.445186</v>
       </c>
       <c r="N101" t="n">
-        <v>-34.577346</v>
+        <v>-34.567417</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>-385</t>
+          <t>-395</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>5/7/2025</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>MOLDES /ALT/ 1913</t>
+          <t>POSADAS 1567</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>106595 - BELGRANO</t>
+          <t>106560 - RECOLETA</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>805507415</t>
+          <t>805707278</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -6935,7 +7311,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Aplomar columna 114</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -6945,7 +7321,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -6959,36 +7335,36 @@
         </is>
       </c>
       <c r="M102" t="n">
-        <v>-58.45789</v>
+        <v>-58.387847</v>
       </c>
       <c r="N102" t="n">
-        <v>-34.565423</v>
+        <v>-34.587043</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>-386</t>
+          <t>-399</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>5/7/2025</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>MOLDES /ALT/ 1943</t>
+          <t>Casco 115</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>106595 - BELGRANO</t>
+          <t>106576 - LINIERS</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>805507419</t>
+          <t>805722774</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -7003,7 +7379,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Dos columnas fuera de plomo - aplomar o cambiar la que no tiene nodo de TLC</t>
+          <t>Reclamo municipal pendiente de New OT:707916611 cambiar columna de 168 con rienda.  - VIRARDI</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -7013,50 +7389,50 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M103" t="n">
-        <v>-58.458217</v>
+        <v>-58.525835</v>
       </c>
       <c r="N103" t="n">
-        <v>-34.565043</v>
+        <v>-34.637998</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>-387</t>
+          <t>-400</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>5/1/2025</t>
+          <t>5/7/2025</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>FLORES GRAL VENANCIO /ALT/ 4139</t>
+          <t>BYNON /ALT/ 6790</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>106574 - VELEZ SARSFIELD</t>
+          <t>106576 - LINIERS</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>805579025</t>
+          <t>805722777</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -7071,7 +7447,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Columna fuera de plomo - VIRARDI</t>
+          <t>Reclamo municipal pendiente de New OT:676904205. Cambiar columna de 114 corroida.  - VIRARDI</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -7081,7 +7457,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -7095,36 +7471,36 @@
         </is>
       </c>
       <c r="M104" t="n">
-        <v>-58.485221</v>
+        <v>-58.525119</v>
       </c>
       <c r="N104" t="n">
-        <v>-34.633425</v>
+        <v>-34.637178</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>-391</t>
+          <t>-403</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>5/5/2025</t>
+          <t>5/7/2025</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>IBERA /ALT/ 5074</t>
+          <t>SUCRE MRCAL A J DE /ALT/ 3515</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>106592 - VILLA URQUIZA</t>
+          <t>106595 - BELGRANO</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>805676610</t>
+          <t>805722878</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -7139,7 +7515,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna 114 base corroida </t>
+          <t xml:space="preserve">Retirar poste teco cobre tirado y reparar vereda </t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -7149,7 +7525,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -7159,40 +7535,40 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M105" t="n">
-        <v>-58.49045</v>
+        <v>-58.466241</v>
       </c>
       <c r="N105" t="n">
-        <v>-34.566894</v>
+        <v>-34.57047</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>-392</t>
+          <t>-404</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>5/5/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>GARCIA TEODORO /ALT/ 1775</t>
+          <t>Amenabar 3048</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>805676615</t>
+          <t>805791896</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -7207,7 +7583,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna 114 base corroida </t>
+          <t>Aplomar columna 114</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -7217,7 +7593,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -7231,36 +7607,36 @@
         </is>
       </c>
       <c r="M106" t="n">
-        <v>-58.440367</v>
+        <v>-58.46579</v>
       </c>
       <c r="N106" t="n">
-        <v>-34.563551</v>
+        <v>-34.555012</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>-393</t>
+          <t>-405</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>5/5/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>3 DE FEBRERO /ALT/ 1272</t>
+          <t>Arcos 1855</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>805676618</t>
+          <t>805791908</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -7275,7 +7651,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna 114 base corroida </t>
+          <t>Cambiar columna 114 picada en base, posee nodo propio.&lt;br&gt;</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -7299,36 +7675,36 @@
         </is>
       </c>
       <c r="M107" t="n">
-        <v>-58.445186</v>
+        <v>-58.451835</v>
       </c>
       <c r="N107" t="n">
-        <v>-34.567417</v>
+        <v>-34.562646</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>-395</t>
+          <t>-406</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>5/7/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>POSADAS 1567</t>
+          <t>Olof palme 4144</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>106560 - RECOLETA</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>805707278</t>
+          <t>805791925</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -7343,7 +7719,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Tensar 2 riendas a pique columna 168</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -7353,7 +7729,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -7363,40 +7739,40 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M108" t="n">
-        <v>-58.387847</v>
+        <v>-58.488252</v>
       </c>
       <c r="N108" t="n">
-        <v>-34.587043</v>
+        <v>-34.553391</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>-399</t>
+          <t>-407</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>5/7/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Casco 115</t>
+          <t>Cabildo 4148</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>106576 - LINIERS</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>805722774</t>
+          <t>805791933</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -7411,7 +7787,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Reclamo municipal pendiente de New OT:707916611 cambiar columna de 168 con rienda.  - VIRARDI</t>
+          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -7421,7 +7797,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -7435,36 +7811,36 @@
         </is>
       </c>
       <c r="M109" t="n">
-        <v>-58.525835</v>
+        <v>-58.470837</v>
       </c>
       <c r="N109" t="n">
-        <v>-34.637998</v>
+        <v>-34.545751</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>-400</t>
+          <t>-408</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>5/7/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>BYNON /ALT/ 6790</t>
+          <t>Larralde 2847</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>106576 - LINIERS</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>805722777</t>
+          <t>805791941</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -7479,7 +7855,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Reclamo municipal pendiente de New OT:676904205. Cambiar columna de 114 corroida.  - VIRARDI</t>
+          <t>Aplomar columna 114</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -7489,12 +7865,12 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo/Fuente Teco</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
@@ -7503,36 +7879,36 @@
         </is>
       </c>
       <c r="M110" t="n">
-        <v>-58.525119</v>
+        <v>-58.472267</v>
       </c>
       <c r="N110" t="n">
-        <v>-34.637178</v>
+        <v>-34.551163</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>-403</t>
+          <t>5805</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>5/7/2025</t>
+          <t>5/14/2025</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>SUCRE MRCAL A J DE /ALT/ 3515</t>
+          <t>GUTENBERG 4134</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>106595 - BELGRANO</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>805722878</t>
+          <t>806926378</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -7547,7 +7923,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t xml:space="preserve">Retirar poste teco cobre tirado y reparar vereda </t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -7557,7 +7933,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -7571,36 +7947,36 @@
         </is>
       </c>
       <c r="M111" t="n">
-        <v>-58.466241</v>
+        <v>-58.51665</v>
       </c>
       <c r="N111" t="n">
-        <v>-34.57047</v>
+        <v>-34.596644</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>-404</t>
+          <t>-418</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Amenabar 3048</t>
+          <t>Porcel de Peralta 415</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>805791896</t>
+          <t>806926542</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -7615,7 +7991,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Aplomar columna 114</t>
+          <t>aplomar cementar y colocar rienda</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -7639,36 +8015,36 @@
         </is>
       </c>
       <c r="M112" t="n">
-        <v>-58.46579</v>
+        <v>-58.520671</v>
       </c>
       <c r="N112" t="n">
-        <v>-34.555012</v>
+        <v>-34.632922</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>-405</t>
+          <t>-417</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Arcos 1855</t>
+          <t>Porcel de Peralta 535</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>805791908</t>
+          <t>806926548</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -7683,7 +8059,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Cambiar columna 114 picada en base, posee nodo propio.&lt;br&gt;</t>
+          <t>aplomo de columna 114</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -7707,36 +8083,36 @@
         </is>
       </c>
       <c r="M113" t="n">
-        <v>-58.451835</v>
+        <v>-58.52231</v>
       </c>
       <c r="N113" t="n">
-        <v>-34.562646</v>
+        <v>-34.632171</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>-406</t>
+          <t>-421</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Olof palme 4144</t>
+          <t>BESARES 1699</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>805791925</t>
+          <t>806926565</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -7751,7 +8127,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Tensar 2 riendas a pique columna 168</t>
+          <t>Cambiar columna 114 picada en base tener en cuenta que hay acometidas subterraneas que bajan por la columna para entrar en Libertador 8008 tanto de HFC como FTTH colocar medias cañas y colocar cerca para que quedan precintadas a la columna</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -7761,7 +8137,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -7771,40 +8147,40 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M114" t="n">
-        <v>-58.488252</v>
+        <v>-58.464144</v>
       </c>
       <c r="N114" t="n">
-        <v>-34.553391</v>
+        <v>-34.541832</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>-407</t>
+          <t>-422</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Cabildo 4148</t>
+          <t>Franklin Roosevelt 4901</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>805791933</t>
+          <t>806926575</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -7819,7 +8195,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
+          <t>Aplomar columna 114</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -7829,7 +8205,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -7839,40 +8215,40 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M115" t="n">
-        <v>-58.470837</v>
+        <v>-58.485102</v>
       </c>
       <c r="N115" t="n">
-        <v>-34.545751</v>
+        <v>-34.572327</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>-408</t>
+          <t>-424</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Larralde 2847</t>
+          <t>Jose Enrique Rodo 4487</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>805791941</t>
+          <t>806926590</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -7887,7 +8263,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Aplomar columna 114</t>
+          <t>Retirar columna de 168 fuera de plomo y traspasar tendido con rienda a columna nueva</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -7897,12 +8273,12 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>Nodo/Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
@@ -7911,36 +8287,36 @@
         </is>
       </c>
       <c r="M116" t="n">
-        <v>-58.472267</v>
+        <v>-58.487917</v>
       </c>
       <c r="N116" t="n">
-        <v>-34.551163</v>
+        <v>-34.64481</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>5805</t>
+          <t>-425</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>5/14/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>GUTENBERG 4134</t>
+          <t>Av. Eva Peron 7437</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>806926378</t>
+          <t>806926621</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -7955,7 +8331,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Aplomar o cambiar columna de 114</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -7965,7 +8341,7 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -7975,20 +8351,20 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M117" t="n">
-        <v>-58.51665</v>
+        <v>-58.501029</v>
       </c>
       <c r="N117" t="n">
-        <v>-34.596644</v>
+        <v>-34.673558</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>-418</t>
+          <t>-426</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -7998,17 +8374,17 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Porcel de Peralta 415</t>
+          <t>Av. Eva Peron 7471</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>806926542</t>
+          <t>806926647</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -8023,7 +8399,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>aplomar cementar y colocar rienda</t>
+          <t>Aplomar columna de 168 con rienda</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -8043,20 +8419,20 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M118" t="n">
-        <v>-58.520671</v>
+        <v>-58.501565</v>
       </c>
       <c r="N118" t="n">
-        <v>-34.632922</v>
+        <v>-34.673845</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>-417</t>
+          <t>-430</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -8066,7 +8442,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Porcel de Peralta 535</t>
+          <t>Araoz 606</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -8076,7 +8452,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>806926548</t>
+          <t>806926712</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -8091,7 +8467,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>aplomo de columna 114</t>
+          <t>columna base corroida sin riesgo de caída a la fecha. 14/05/2025</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -8115,16 +8491,16 @@
         </is>
       </c>
       <c r="M119" t="n">
-        <v>-58.52231</v>
+        <v>-58.434761</v>
       </c>
       <c r="N119" t="n">
-        <v>-34.632171</v>
+        <v>-34.598381</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>-421</t>
+          <t>-432</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -8134,17 +8510,17 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>BESARES 1699</t>
+          <t>ALVAREZ JULIAN 618</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>806926565</t>
+          <t>806926759</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -8159,7 +8535,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Cambiar columna 114 picada en base tener en cuenta que hay acometidas subterraneas que bajan por la columna para entrar en Libertador 8008 tanto de HFC como FTTH colocar medias cañas y colocar cerca para que quedan precintadas a la columna</t>
+          <t>Columna con base corroida sin riesgo de caida al 14/05/2025</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -8183,16 +8559,16 @@
         </is>
       </c>
       <c r="M120" t="n">
-        <v>-58.464144</v>
+        <v>-58.433867</v>
       </c>
       <c r="N120" t="n">
-        <v>-34.541832</v>
+        <v>-34.599149</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>-422</t>
+          <t>-433</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -8202,7 +8578,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Franklin Roosevelt 4901</t>
+          <t>Moldes 2720</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -8212,7 +8588,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>806926575</t>
+          <t>806926767</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -8227,7 +8603,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Aplomar columna 114</t>
+          <t xml:space="preserve">Poste - Pasan 5 lingas y la línea de cobre </t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -8247,20 +8623,20 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M121" t="n">
-        <v>-58.485102</v>
+        <v>-58.464177</v>
       </c>
       <c r="N121" t="n">
-        <v>-34.572327</v>
+        <v>-34.558239</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>-424</t>
+          <t>-434</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -8270,17 +8646,17 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Jose Enrique Rodo 4487</t>
+          <t>Billinghurst 1478</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>806926590</t>
+          <t>806926806</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -8295,7 +8671,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Retirar columna de 168 fuera de plomo y traspasar tendido con rienda a columna nueva</t>
+          <t xml:space="preserve">Columna base corroida con Nap y ganancias de ambas compañias, </t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -8319,16 +8695,16 @@
         </is>
       </c>
       <c r="M122" t="n">
-        <v>-58.487917</v>
+        <v>-58.412302</v>
       </c>
       <c r="N122" t="n">
-        <v>-34.64481</v>
+        <v>-34.59301</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>-425</t>
+          <t>-436</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -8338,17 +8714,17 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Av. Eva Peron 7437</t>
+          <t>Nueva York 3982</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>806926621</t>
+          <t>806926812</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -8363,7 +8739,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Aplomar o cambiar columna de 114</t>
+          <t xml:space="preserve">Realizar aplomo de columna y tensar cruce Reclamo municipal </t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -8383,40 +8759,40 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M123" t="n">
-        <v>-58.501029</v>
+        <v>-58.511375</v>
       </c>
       <c r="N123" t="n">
-        <v>-34.673558</v>
+        <v>-34.600017</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>-426</t>
+          <t>-448</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/28/2025</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Av. Eva Peron 7471</t>
+          <t>Tronador 3826</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>806926647</t>
+          <t>806975699</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -8431,17 +8807,17 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Aplomar columna de 168 con rienda</t>
+          <t>Columna de retención (columna más ancha</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -8451,40 +8827,40 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M124" t="n">
-        <v>-58.501565</v>
+        <v>-58.485056</v>
       </c>
       <c r="N124" t="n">
-        <v>-34.673845</v>
+        <v>-34.555059</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>-430</t>
+          <t>-450</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Araoz 606</t>
+          <t>Moldes 2325</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>806926712</t>
+          <t>807044059</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -8499,7 +8875,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>columna base corroida sin riesgo de caída a la fecha. 14/05/2025</t>
+          <t xml:space="preserve">Corroida en base para cambiar contiene CDO/NAP propio </t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -8523,36 +8899,36 @@
         </is>
       </c>
       <c r="M125" t="n">
-        <v>-58.434761</v>
+        <v>-58.461167</v>
       </c>
       <c r="N125" t="n">
-        <v>-34.598381</v>
+        <v>-34.561613</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>-432</t>
+          <t>-470</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>ALVAREZ JULIAN 618</t>
+          <t>Av. Escalada 2831</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>806926759</t>
+          <t>807208264</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -8567,7 +8943,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Columna con base corroida sin riesgo de caida al 14/05/2025</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -8591,36 +8967,36 @@
         </is>
       </c>
       <c r="M126" t="n">
-        <v>-58.433867</v>
+        <v>-58.470815</v>
       </c>
       <c r="N126" t="n">
-        <v>-34.599149</v>
+        <v>-34.664201</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>-433</t>
+          <t>-480</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>6/17/2025</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Moldes 2720</t>
+          <t>Arias 4384</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>806926767</t>
+          <t>807537909</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -8635,7 +9011,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poste - Pasan 5 lingas y la línea de cobre </t>
+          <t>Inclinada</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -8655,40 +9031,40 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M127" t="n">
-        <v>-58.464177</v>
+        <v>-58.49147</v>
       </c>
       <c r="N127" t="n">
-        <v>-34.558239</v>
+        <v>-34.55031</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>-434</t>
+          <t>-482</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>6/18/2025</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Billinghurst 1478</t>
+          <t>Av. Coronel Diaz 2596</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>806926806</t>
+          <t>807605730</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -8701,11 +9077,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Columna base corroida con Nap y ganancias de ambas compañias, </t>
-        </is>
-      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr">
         <is>
           <t>1</t>
@@ -8727,36 +9099,36 @@
         </is>
       </c>
       <c r="M128" t="n">
-        <v>-58.412302</v>
+        <v>-58.405761</v>
       </c>
       <c r="N128" t="n">
-        <v>-34.59301</v>
+        <v>-34.582476</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>-436</t>
+          <t>-486</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>6/23/2025</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Nueva York 3982</t>
+          <t>Del Libertador 4596</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>806926812</t>
+          <t>807762871</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -8771,7 +9143,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t xml:space="preserve">Realizar aplomo de columna y tensar cruce Reclamo municipal </t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -8791,40 +9163,40 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M129" t="n">
-        <v>-58.511375</v>
+        <v>-58.432241</v>
       </c>
       <c r="N129" t="n">
-        <v>-34.600017</v>
+        <v>-34.56642</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>-448</t>
+          <t>-487</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>5/28/2025</t>
+          <t>6/23/2025</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Tronador 3826</t>
+          <t>Gorriti 3735</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>806975699</t>
+          <t>807762979</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -8839,12 +9211,12 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Columna de retención (columna más ancha</t>
+          <t>NAP FTTH Columna MAL ESTADO ROTA EN BASE</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -8863,36 +9235,36 @@
         </is>
       </c>
       <c r="M130" t="n">
-        <v>-58.485056</v>
+        <v>-58.417348</v>
       </c>
       <c r="N130" t="n">
-        <v>-34.555059</v>
+        <v>-34.595467</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>-450</t>
+          <t>6223</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Moldes 2325</t>
+          <t>ECHEANDIA 4200</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>807044059</t>
+          <t>807762996</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -8907,7 +9279,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t xml:space="preserve">Corroida en base para cambiar contiene CDO/NAP propio </t>
+          <t>Columna inclinada con base  corroida</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -8927,40 +9299,40 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M131" t="n">
-        <v>-58.461167</v>
+        <v>-58.472311</v>
       </c>
       <c r="N131" t="n">
-        <v>-34.561613</v>
+        <v>-34.654867</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>-470</t>
+          <t>6197</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Av. Escalada 2831</t>
+          <t>RIVADAVIA AV. 5600</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>807208264</t>
+          <t>807763040</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -8975,7 +9347,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar esta es esquina con emilio mitre aprox al 10</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -8999,36 +9371,36 @@
         </is>
       </c>
       <c r="M132" t="n">
-        <v>-58.470815</v>
+        <v>-58.444181</v>
       </c>
       <c r="N132" t="n">
-        <v>-34.664201</v>
+        <v>-34.621883</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>-480</t>
+          <t>6239</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>6/17/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Arias 4384</t>
+          <t>PALPA 2964</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>807537909</t>
+          <t>807763098</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -9043,7 +9415,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Inclinada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -9067,36 +9439,36 @@
         </is>
       </c>
       <c r="M133" t="n">
-        <v>-58.49147</v>
+        <v>-58.450113</v>
       </c>
       <c r="N133" t="n">
-        <v>-34.55031</v>
+        <v>-34.574534</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>-482</t>
+          <t>-488</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>6/18/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Av. Coronel Diaz 2596</t>
+          <t>Blanco Encalada 4896</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>807605730</t>
+          <t>807763099</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -9109,7 +9481,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr"/>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Pendiente traspaso rxo y retiro de columna podrida</t>
+        </is>
+      </c>
       <c r="I134" t="inlineStr">
         <is>
           <t>1</t>
@@ -9127,40 +9503,40 @@
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M134" t="n">
-        <v>-58.405761</v>
+        <v>-58.484729</v>
       </c>
       <c r="N134" t="n">
-        <v>-34.582476</v>
+        <v>-34.574614</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>-486</t>
+          <t>6221</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>6/23/2025</t>
+          <t>6/26/2025</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Del Libertador 4596</t>
+          <t>FERNANDEZ 1549</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>807762871</t>
+          <t>807789699</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -9175,7 +9551,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -9185,7 +9561,7 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
@@ -9195,40 +9571,40 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M135" t="n">
-        <v>-58.432241</v>
+        <v>-58.471717</v>
       </c>
       <c r="N135" t="n">
-        <v>-34.56642</v>
+        <v>-34.649961</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>-487</t>
+          <t>-491</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>6/23/2025</t>
+          <t>6/26/2025</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Gorriti 3735</t>
+          <t>3 de Febrero 2171</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>807762979</t>
+          <t>807789702</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -9243,7 +9619,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>NAP FTTH Columna MAL ESTADO ROTA EN BASE</t>
+          <t>Columna 114 propia picada en base con NAP</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -9267,36 +9643,36 @@
         </is>
       </c>
       <c r="M136" t="n">
-        <v>-58.417348</v>
+        <v>-58.452636</v>
       </c>
       <c r="N136" t="n">
-        <v>-34.595467</v>
+        <v>-34.558607</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>6223</t>
+          <t>6248</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/27/2025</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>ECHEANDIA 4200</t>
+          <t>AVELLANEDA AV. 2395</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>807762996</t>
+          <t>807817952</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -9311,7 +9687,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Columna inclinada con base  corroida</t>
+          <t>Poste podrido</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -9331,40 +9707,40 @@
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M137" t="n">
-        <v>-58.472311</v>
+        <v>-58.4643</v>
       </c>
       <c r="N137" t="n">
-        <v>-34.654867</v>
+        <v>-34.623993</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>6197</t>
+          <t>6289</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/30/2025</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 5600</t>
+          <t>ALBARIÑO 536</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>807763040</t>
+          <t>807851594</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -9379,7 +9755,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Aplomar esta es esquina con emilio mitre aprox al 10</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -9403,417 +9779,9 @@
         </is>
       </c>
       <c r="M138" t="n">
-        <v>-58.444181</v>
+        <v>-58.505173</v>
       </c>
       <c r="N138" t="n">
-        <v>-34.621883</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>6239</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>6/24/2025</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>PALPA 2964</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>807763098</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G139" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I139" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J139" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>-58.450113</v>
-      </c>
-      <c r="N139" t="n">
-        <v>-34.574534</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>-488</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>6/24/2025</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>Blanco Encalada 4896</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>807763099</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G140" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>Pendiente traspaso rxo y retiro de columna podrida</t>
-        </is>
-      </c>
-      <c r="I140" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J140" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>Poste</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>-58.484729</v>
-      </c>
-      <c r="N140" t="n">
-        <v>-34.574614</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>6221</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>6/26/2025</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>FERNANDEZ 1549</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>807789699</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G141" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>Poste inclinado</t>
-        </is>
-      </c>
-      <c r="I141" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J141" t="inlineStr">
-        <is>
-          <t>Aplomo</t>
-        </is>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>Poste</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>-58.471717</v>
-      </c>
-      <c r="N141" t="n">
-        <v>-34.649961</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>-491</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>6/26/2025</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>3 de Febrero 2171</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>807789702</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G142" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>Columna 114 propia picada en base con NAP</t>
-        </is>
-      </c>
-      <c r="I142" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J142" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>-58.452636</v>
-      </c>
-      <c r="N142" t="n">
-        <v>-34.558607</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>6248</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>6/27/2025</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>AVELLANEDA AV. 2395</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>807817952</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G143" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>Poste podrido</t>
-        </is>
-      </c>
-      <c r="I143" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J143" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>Poste</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>-58.4643</v>
-      </c>
-      <c r="N143" t="n">
-        <v>-34.623993</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>6289</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>6/30/2025</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>ALBARIÑO 536</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>807851594</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G144" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I144" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J144" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>-58.505173</v>
-      </c>
-      <c r="N144" t="n">
         <v>-34.643529</v>
       </c>
     </row>

--- a/mapa_interactivo_AYKO.xlsx
+++ b/mapa_interactivo_AYKO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N138"/>
+  <dimension ref="A1:N132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -844,27 +844,27 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>-31</t>
+          <t>-34</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2/21/2024</t>
+          <t>2/26/2024</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CONDARCO /ALT/ 451</t>
+          <t>DORREGO ,AV. /ALT/ 2622</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>106570 - FLORES</t>
+          <t>106594 - PALERMO</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>780387959</t>
+          <t>780713073</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -879,12 +879,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>el reclamo es por el poste de madera aparentemente exCV ver con inspector si se desmonta y se sostiene con la otra columna o se cambia</t>
+          <t>Recambio de columna</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -899,40 +899,40 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>-58.468603</v>
+        <v>-58.434217</v>
       </c>
       <c r="N7" t="n">
-        <v>-34.626012</v>
+        <v>-34.574247</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>-34</t>
+          <t>-56</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2/26/2024</t>
+          <t>4/13/2024</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DORREGO ,AV. /ALT/ 2622</t>
+          <t>LA PAMPA /ALT/ 2119</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>106595 - BELGRANO</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>780713073</t>
+          <t>783370812</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -947,12 +947,12 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Recambio de columna</t>
+          <t>La pampa 2119 cambiar columna 114 y efectuar transferencias base corroida</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -971,36 +971,36 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>-58.434217</v>
+        <v>-58.451674</v>
       </c>
       <c r="N8" t="n">
-        <v>-34.574247</v>
+        <v>-34.563292</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>-56</t>
+          <t>-103</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4/13/2024</t>
+          <t>6/12/2024</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>LA PAMPA /ALT/ 2119</t>
+          <t>SALGUERO JERONIMO /ALT/ 2533</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>106595 - BELGRANO</t>
+          <t>106594 - PALERMO</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>783370812</t>
+          <t>788206681</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1015,7 +1015,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>La pampa 2119 cambiar columna 114 y efectuar transferencias base corroida</t>
+          <t>Altura correcta 2549</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1039,36 +1039,36 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>-58.451674</v>
+        <v>-58.409971</v>
       </c>
       <c r="N9" t="n">
-        <v>-34.563292</v>
+        <v>-34.58175</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>-103</t>
+          <t>-118</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>6/12/2024</t>
+          <t>8/15/2024</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>SALGUERO JERONIMO /ALT/ 2533</t>
+          <t>SUCRE MRCAL A J DE /ALT/ 1437</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>106595 - BELGRANO</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>788206681</t>
+          <t>793333193</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Altura correcta 2549</t>
+          <t>Retirar columna vieja, nodo ya traspasado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1098,7 +1098,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1107,26 +1107,26 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>-58.409971</v>
+        <v>-58.445523</v>
       </c>
       <c r="N10" t="n">
-        <v>-34.58175</v>
+        <v>-34.558237</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>-118</t>
+          <t>-143</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>8/15/2024</t>
+          <t>10/7/2024</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>SUCRE MRCAL A J DE /ALT/ 1437</t>
+          <t>CIUDAD DE LA PAZ /ALT/ 2261</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1136,7 +1136,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>793333193</t>
+          <t>797752816</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1149,11 +1149,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Retirar columna vieja, nodo ya traspasado</t>
-        </is>
-      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
           <t>0</t>
@@ -1166,7 +1162,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1175,36 +1171,36 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>-58.445523</v>
+        <v>-58.458864</v>
       </c>
       <c r="N11" t="n">
-        <v>-34.558237</v>
+        <v>-34.561167</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>-143</t>
+          <t>-152</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>10/7/2024</t>
+          <t>11/1/2024</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CIUDAD DE LA PAZ /ALT/ 2261</t>
+          <t>FERNANDEZ DE ENCISO /ALT/ 3610</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>106595 - BELGRANO</t>
+          <t>106589 - VILLA DEVOTO</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>797752816</t>
+          <t>798984311</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1217,7 +1213,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>El poste esta pegado al arbol ver la foto adjunta</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr">
         <is>
           <t>0</t>
@@ -1230,25 +1230,25 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>-58.458864</v>
+        <v>-58.513363</v>
       </c>
       <c r="N12" t="n">
-        <v>-34.561167</v>
+        <v>-34.605473</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>-152</t>
+          <t>-160</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1258,17 +1258,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>FERNANDEZ DE ENCISO /ALT/ 3610</t>
+          <t>MORAN PEDRO /ALT/ 3100</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>106589 - VILLA DEVOTO</t>
+          <t>106587 - AGRONOMIA</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>798984311</t>
+          <t>798984905</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1281,11 +1281,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>El poste esta pegado al arbol ver la foto adjunta</t>
-        </is>
-      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
           <t>0</t>
@@ -1307,36 +1303,36 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>-58.513363</v>
+        <v>-58.498724</v>
       </c>
       <c r="N13" t="n">
-        <v>-34.605473</v>
+        <v>-34.594329</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>-160</t>
+          <t>-193</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>11/1/2024</t>
+          <t>12/31/2023</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>MORAN PEDRO /ALT/ 3100</t>
+          <t>WASHINGTON /ALT/ 3251</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>106587 - AGRONOMIA</t>
+          <t>106590 - COGHLAN</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>798984905</t>
+          <t>799539971</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1349,7 +1345,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Washington 3251 cambiar columna de 114 transferir tendidos. dejar pasivos en norma</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr">
         <is>
           <t>0</t>
@@ -1367,20 +1367,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>-58.498724</v>
+        <v>-58.478272</v>
       </c>
       <c r="N14" t="n">
-        <v>-34.594329</v>
+        <v>-34.558899</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>-184</t>
+          <t>-201</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1390,17 +1390,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>GARZON GRAL E ,AV. /ALT/ 5145</t>
+          <t>MIGUELETES /ALT/ 1007</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>106572 - MATADEROS</t>
+          <t>106594 - PALERMO</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>799539766</t>
+          <t>799540497</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1413,7 +1413,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>reemplazo de columnas en mal estado Migueletes 1007 reemplazar columna 114 y colocar rienda a pique</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr">
         <is>
           <t>0</t>
@@ -1431,20 +1435,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>-58.488261</v>
+        <v>-58.436377</v>
       </c>
       <c r="N15" t="n">
-        <v>-34.653436</v>
+        <v>-34.565075</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>-192</t>
+          <t>-202</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1454,17 +1458,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>LLAVALLOL /ALT/ 3363</t>
+          <t>MIGUELETES /ALT/ 1030</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>106588 - VILLA DEL PARQUE</t>
+          <t>106594 - PALERMO</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>799539931</t>
+          <t>799540503</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1477,7 +1481,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Recambio de columna - alt correcta 1010</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr">
         <is>
           <t>0</t>
@@ -1495,20 +1503,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>-58.499699</v>
+        <v>-58.436601</v>
       </c>
       <c r="N16" t="n">
-        <v>-34.600641</v>
+        <v>-34.565035</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>-193</t>
+          <t>-203</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1518,17 +1526,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>WASHINGTON /ALT/ 3251</t>
+          <t>NEWBERY JORGE /ALT/ 2644</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>106590 - COGHLAN</t>
+          <t>106594 - PALERMO</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>799539971</t>
+          <t>799540511</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1543,7 +1551,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Washington 3251 cambiar columna de 114 transferir tendidos. dejar pasivos en norma</t>
+          <t>Recambio de columna</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1567,16 +1575,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>-58.478272</v>
+        <v>-58.442706</v>
       </c>
       <c r="N17" t="n">
-        <v>-34.558899</v>
+        <v>-34.574158</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>-201</t>
+          <t>-210</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1586,17 +1594,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>MIGUELETES /ALT/ 1007</t>
+          <t>GANDARA /ALT/ 2797</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>106597 - PARQUE CHAS</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>799540497</t>
+          <t>799540574</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1611,7 +1619,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>reemplazo de columnas en mal estado Migueletes 1007 reemplazar columna 114 y colocar rienda a pique</t>
+          <t>CAMBIAR COLUMNA 114 CON 5 TRANSICIONES MAS RIENDA A PIQUE</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1635,26 +1643,26 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>-58.436377</v>
+        <v>-58.480672</v>
       </c>
       <c r="N18" t="n">
-        <v>-34.565075</v>
+        <v>-34.583085</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>-202</t>
+          <t>-213</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>12/31/2023</t>
+          <t>11/7/2024</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>MIGUELETES /ALT/ 1030</t>
+          <t>SCALABRINI ORTIZ R ,AV. /ALT/ 2452</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1664,7 +1672,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>799540503</t>
+          <t>799451003</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1677,11 +1685,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Recambio de columna - alt correcta 1010</t>
-        </is>
-      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
           <t>0</t>
@@ -1699,30 +1703,30 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>-58.436601</v>
+        <v>-58.416896</v>
       </c>
       <c r="N19" t="n">
-        <v>-34.565035</v>
+        <v>-34.585625</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>-203</t>
+          <t>-214</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>12/31/2023</t>
+          <t>11/7/2024</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>NEWBERY JORGE /ALT/ 2644</t>
+          <t>SCALABRINI ORTIZ R ,AV. /ALT/ 2394</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1732,7 +1736,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>799540511</t>
+          <t>799450985</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1745,11 +1749,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Recambio de columna</t>
-        </is>
-      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
           <t>0</t>
@@ -1771,36 +1771,36 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>-58.442706</v>
+        <v>-58.417746</v>
       </c>
       <c r="N20" t="n">
-        <v>-34.574158</v>
+        <v>-34.586158</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>-210</t>
+          <t>-216</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>12/31/2023</t>
+          <t>5/2/2024</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>GANDARA /ALT/ 2797</t>
+          <t>ORTIZ DE OCAMPO ,AV. /ALT/ 2635</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>106594 - PALERMO</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>799540574</t>
+          <t>784655947</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1815,7 +1815,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>CAMBIAR COLUMNA 114 CON 5 TRANSICIONES MAS RIENDA A PIQUE</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1835,40 +1835,40 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>-58.480672</v>
+        <v>-58.404652</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.583085</v>
+        <v>-34.58263</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>-213</t>
+          <t>-219</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>11/7/2024</t>
+          <t>10/31/2024</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>SCALABRINI ORTIZ R ,AV. /ALT/ 2452</t>
+          <t>LA PAMPA /ALT/ 2836</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>106595 - BELGRANO</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>799451003</t>
+          <t>798953875</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1881,7 +1881,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Colocar Columna entre 2836/2838 ver con inspector la viabilidad</t>
+        </is>
+      </c>
       <c r="I22" t="inlineStr">
         <is>
           <t>0</t>
@@ -1903,36 +1907,36 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-58.416896</v>
+        <v>-58.458282</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.585625</v>
+        <v>-34.56718</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>-214</t>
+          <t>-226</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>11/7/2024</t>
+          <t>11/20/2024</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>SCALABRINI ORTIZ R ,AV. /ALT/ 2394</t>
+          <t>CUBA /ALT/ 2308</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>106595 - BELGRANO</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>799450985</t>
+          <t>800502281</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1945,7 +1949,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Cambiar</t>
+        </is>
+      </c>
       <c r="I23" t="inlineStr">
         <is>
           <t>0</t>
@@ -1967,26 +1975,26 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-58.417746</v>
+        <v>-58.456674</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.586158</v>
+        <v>-34.558757</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>-216</t>
+          <t>-228</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>5/2/2024</t>
+          <t>11/22/2024</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>ORTIZ DE OCAMPO ,AV. /ALT/ 2635</t>
+          <t>ALVAREZ JULIAN /ALT/ 1272</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1996,7 +2004,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>784655947</t>
+          <t>800645527</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2035,36 +2043,36 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>-58.404652</v>
+        <v>-58.426725</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.58263</v>
+        <v>-34.5945</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>-219</t>
+          <t>-254</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>10/31/2024</t>
+          <t>1/7/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>LA PAMPA /ALT/ 2836</t>
+          <t>BELAUSTEGUI DR LUIS /ALT/ 1185</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>106595 - BELGRANO</t>
+          <t>106569 - CABALLITO</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>798953875</t>
+          <t>802367713</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2077,14 +2085,10 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Colocar Columna entre 2836/2838 ver con inspector la viabilidad</t>
-        </is>
-      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2094,7 +2098,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2103,36 +2107,36 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.458282</v>
+        <v>-58.457158</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.56718</v>
+        <v>-34.605839</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>-226</t>
+          <t>-263</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>11/20/2024</t>
+          <t>1/22/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CUBA /ALT/ 2308</t>
+          <t>Fraga 93</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>106595 - BELGRANO</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>800502281</t>
+          <t>802848838</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2147,12 +2151,12 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2167,40 +2171,40 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.456674</v>
+        <v>-58.446721</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.558757</v>
+        <v>-34.587175</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>-228</t>
+          <t>803608154</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>11/22/2024</t>
+          <t>2/24/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ALVAREZ JULIAN /ALT/ 1272</t>
+          <t>CUBAS JOSE /ALT/ 3372</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>106589 - VILLA DEVOTO</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>800645527</t>
+          <t>803608154</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2215,7 +2219,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Colocar columna</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2239,36 +2243,36 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.426725</v>
+        <v>-58.506318</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.5945</v>
+        <v>-34.592417</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>-254</t>
+          <t>803608215</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1/7/2025</t>
+          <t>2/24/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>BELAUSTEGUI DR LUIS /ALT/ 1185</t>
+          <t>DEL PINO VIRREY /ALT/ 2646</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>106569 - CABALLITO</t>
+          <t>106581 - COLEGIALES</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>802367713</t>
+          <t>803608215</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2281,10 +2285,14 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Columna 114 quebrada en base dar prioridad.</t>
+        </is>
+      </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2294,7 +2302,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2303,36 +2311,36 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.457158</v>
+        <v>-58.45524</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.605839</v>
+        <v>-34.567858</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>-263</t>
+          <t>803608331</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1/22/2025</t>
+          <t>2/24/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Fraga 93</t>
+          <t>ROOSEVELT F D ,AV. /ALT/ 4875</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>106592 - VILLA URQUIZA</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>802848838</t>
+          <t>803608331</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2347,12 +2355,12 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t xml:space="preserve">Columna terminal168 con rienda a pique fuera de plomo  y base con cimentación rota </t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2367,20 +2375,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.446721</v>
+        <v>-58.484493</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.587175</v>
+        <v>-34.572049</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>803608154</t>
+          <t>803608455</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2390,17 +2398,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CUBAS JOSE /ALT/ 3372</t>
+          <t>VALDENEGRO /ALT/ 4037</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>106589 - VILLA DEVOTO</t>
+          <t>106593 - SAAVEDRA</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>803608154</t>
+          <t>803608455</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2415,7 +2423,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Colocar columna</t>
+          <t>Cambiar poste podrido apoyado en tanque de agua. Es sobre parque junto a medianera.  Dar prioridad .</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2435,20 +2443,20 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.506318</v>
+        <v>-58.493679</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.592417</v>
+        <v>-34.557149</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>803608215</t>
+          <t>803608463</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2458,17 +2466,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>DEL PINO VIRREY /ALT/ 2646</t>
+          <t>COCHABAMBA /ALT/ 1790</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>106581 - COLEGIALES</t>
+          <t>106552 - CONSTITUCION</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>803608215</t>
+          <t>803608463</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2483,7 +2491,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Columna 114 quebrada en base dar prioridad.</t>
+          <t>SIN RIEGO</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2498,7 +2506,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo/Fuente Teco</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2507,36 +2515,36 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.45524</v>
+        <v>-58.391153</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.567858</v>
+        <v>-34.624022</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>803608331</t>
+          <t>-281</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2/24/2025</t>
+          <t>2/26/2025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ROOSEVELT F D ,AV. /ALT/ 4875</t>
+          <t>SOLER /ALT/ 4517</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>106592 - VILLA URQUIZA</t>
+          <t>106594 - PALERMO</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>803608331</t>
+          <t>803651203</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2551,7 +2559,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Columna terminal168 con rienda a pique fuera de plomo  y base con cimentación rota </t>
+          <t>columna de 114 con nodo y redes nuestra.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2566,7 +2574,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo/Fuente Teco</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2575,36 +2583,36 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.484493</v>
+        <v>-58.423405</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.572049</v>
+        <v>-34.588075</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>803608455</t>
+          <t>-284</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2/24/2025</t>
+          <t>2/26/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>VALDENEGRO /ALT/ 4037</t>
+          <t>ARCOS /ALT/ 1715</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>106595 - BELGRANO</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>803608455</t>
+          <t>803651216</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2619,7 +2627,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Cambiar poste podrido apoyado en tanque de agua. Es sobre parque junto a medianera.  Dar prioridad .</t>
+          <t>114 mm picada</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2639,40 +2647,40 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.493679</v>
+        <v>-58.450714</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.557149</v>
+        <v>-34.563958</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>803608463</t>
+          <t>-300</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2/24/2025</t>
+          <t>3/17/2025</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>COCHABAMBA /ALT/ 1790</t>
+          <t>SAN MARTIN ,AV. /ALT/ 6195</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>106552 - CONSTITUCION</t>
+          <t>106587 - AGRONOMIA</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>803608463</t>
+          <t>804081102</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2687,7 +2695,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>SIN RIEGO</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2702,35 +2710,35 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Nodo/Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.391153</v>
+        <v>-58.502505</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.624022</v>
+        <v>-34.59465</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>-281</t>
+          <t>-307</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2/26/2025</t>
+          <t>3/25/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>SOLER /ALT/ 4517</t>
+          <t>BERUTI ANTONIO /ALT/ 4645</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2740,7 +2748,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>803651203</t>
+          <t>804288212</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2755,12 +2763,12 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>columna de 114 con nodo y redes nuestra.</t>
+          <t>Picada traspasar red y retirar columna</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2770,45 +2778,45 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Nodo/Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.423405</v>
+        <v>-58.42486</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.588075</v>
+        <v>-34.577318</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>-284</t>
+          <t>-310</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2/26/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>ARCOS /ALT/ 1715</t>
+          <t>GONZALEZ JOAQUIN V /ALT/ 729</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>106595 - BELGRANO</t>
+          <t>106573 - FLORESTA</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>803651216</t>
+          <t>804302855</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2823,7 +2831,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>114 mm picada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2847,36 +2855,36 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.450714</v>
+        <v>-58.482428</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.563958</v>
+        <v>-34.625289</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>-300</t>
+          <t>-311</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>3/17/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>SAN MARTIN ,AV. /ALT/ 6195</t>
+          <t>GONZALEZ JOAQUIN V /ALT/ 789</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>106587 - AGRONOMIA</t>
+          <t>106573 - FLORESTA</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>804081102</t>
+          <t>804302872</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2891,7 +2899,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2915,36 +2923,36 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.502505</v>
+        <v>-58.482612</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.59465</v>
+        <v>-34.624833</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>-307</t>
+          <t>-314</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>3/25/2025</t>
+          <t>3/29/2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>BERUTI ANTONIO /ALT/ 4645</t>
+          <t>MOLDES /ALT/ 1983</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>106595 - BELGRANO</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>804288212</t>
+          <t>804333528</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2959,7 +2967,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Picada traspasar red y retirar columna</t>
+          <t>Columna propia con ampli de red propio picada en base.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2979,40 +2987,40 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.42486</v>
+        <v>-58.458417</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.577318</v>
+        <v>-34.56481</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>-310</t>
+          <t>5138</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>4/1/2025</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>GONZALEZ JOAQUIN V /ALT/ 729</t>
+          <t>LOPEZ, CARLOS ANTONIO 3326</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>106573 - FLORESTA</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>804302855</t>
+          <t>804468459</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3027,17 +3035,17 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>COLUMNA INCLINADA</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3051,36 +3059,36 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.482428</v>
+        <v>-58.508582</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.625289</v>
+        <v>-34.588936</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>-311</t>
+          <t>5139</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>4/1/2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>GONZALEZ JOAQUIN V /ALT/ 789</t>
+          <t>LOPEZ, CARLOS ANTONIO 3346</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>106573 - FLORESTA</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>804302872</t>
+          <t>804468467</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3095,17 +3103,17 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>COLUMNA INCLINADA</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3115,40 +3123,40 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.482612</v>
+        <v>-58.508809</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.624833</v>
+        <v>-34.589076</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>-314</t>
+          <t>-316</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>3/29/2025</t>
+          <t>4/3/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>MOLDES /ALT/ 1983</t>
+          <t>ALBERTI /ALT/ 621</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>106595 - BELGRANO</t>
+          <t>106558 - BALVANERA</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>804333528</t>
+          <t>804468365</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3163,7 +3171,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Columna propia con ampli de red propio picada en base.</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3187,36 +3195,36 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.458417</v>
+        <v>-58.401202</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.56481</v>
+        <v>-34.61683</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>5138</t>
+          <t>5500</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>4/1/2025</t>
+          <t>4/7/2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>LOPEZ, CARLOS ANTONIO 3326</t>
+          <t>LA PLATA AV. 1013</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>804468459</t>
+          <t>804568914</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3231,7 +3239,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>COLUMNA INCLINADA</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3255,26 +3263,26 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.508582</v>
+        <v>-58.426804</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.588936</v>
+        <v>-34.627283</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>5139</t>
+          <t>5728</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>4/1/2025</t>
+          <t>4/7/2025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>LOPEZ, CARLOS ANTONIO 3346</t>
+          <t>FRANCO 3340</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -3284,7 +3292,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>804468467</t>
+          <t>804568964</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3299,7 +3307,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>COLUMNA INCLINADA</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3309,7 +3317,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3323,36 +3331,36 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.508809</v>
+        <v>-58.512525</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.589076</v>
+        <v>-34.585228</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>-316</t>
+          <t>-325</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>4/3/2025</t>
+          <t>4/8/2025</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>ALBERTI /ALT/ 621</t>
+          <t>RINCON /ALT/ 1091</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>106558 - BALVANERA</t>
+          <t>106556 - SAN CRISTOBAL</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>804468365</t>
+          <t>804569066</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3391,36 +3399,36 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.401202</v>
+        <v>-58.39573</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.61683</v>
+        <v>-34.621541</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>5500</t>
+          <t>-326</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>4/7/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>LA PLATA AV. 1013</t>
+          <t>GARCIA DEL RIO /ALT/ 3354</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>106593 - SAAVEDRA</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>804568914</t>
+          <t>804634199</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3435,7 +3443,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Retirar poste de vereda. Reparar la vereda donde estaba colocado el poste.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3445,7 +3453,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -3455,40 +3463,40 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.426804</v>
+        <v>-58.478106</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.627283</v>
+        <v>-34.551523</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>5728</t>
+          <t>-327</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>4/7/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>FRANCO 3340</t>
+          <t>ROOSEVELT F D ,AV. /ALT/ 5439</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>106592 - VILLA URQUIZA</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>804568964</t>
+          <t>804634203</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3503,7 +3511,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar columna R200 y  dar aviso para el traspaso de nodos. (TECO y TLC)</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3518,7 +3526,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -3527,26 +3535,26 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.512525</v>
+        <v>-58.491074</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.585228</v>
+        <v>-34.575623</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>5521</t>
+          <t>5572</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>4/8/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>EL PEREGRINO 3115</t>
+          <t>SANABRIA 4289</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -3556,7 +3564,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>804569000</t>
+          <t>804663652</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3571,7 +3579,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Aplomar Poste</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3595,36 +3603,36 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.485232</v>
+        <v>-58.516755</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.611573</v>
+        <v>-34.6002</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>-325</t>
+          <t>5573</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>4/8/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>RINCON /ALT/ 1091</t>
+          <t>LASTRA AV. 4379</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>106556 - SAN CRISTOBAL</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>804569066</t>
+          <t>804663677</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3639,7 +3647,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3649,7 +3657,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3663,16 +3671,16 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.39573</v>
+        <v>-58.525125</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.621541</v>
+        <v>-34.604668</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>-326</t>
+          <t>5574</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3682,17 +3690,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>GARCIA DEL RIO /ALT/ 3354</t>
+          <t>GRIVEO 3909</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>804634199</t>
+          <t>804663683</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3707,7 +3715,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Retirar poste de vereda. Reparar la vereda donde estaba colocado el poste.</t>
+          <t>Poste Inclinado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3717,7 +3725,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3731,36 +3739,36 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.478106</v>
+        <v>-58.517126</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.551523</v>
+        <v>-34.592774</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>-327</t>
+          <t>-334</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/21/2025</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>ROOSEVELT F D ,AV. /ALT/ 5439</t>
+          <t>BUCARELLI /ALT/ 1534</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>106592 - VILLA URQUIZA</t>
+          <t>106597 - PARQUE CHAS</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>804634203</t>
+          <t>804838853</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3775,7 +3783,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Colocar columna R200 y  dar aviso para el traspaso de nodos. (TECO y TLC)</t>
+          <t xml:space="preserve">Cambiar Columna dañada torcida y fuera de plomo </t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3790,7 +3798,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -3799,36 +3807,36 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.491074</v>
+        <v>-58.481261</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.575623</v>
+        <v>-34.584281</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>5572</t>
+          <t>-335</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/21/2025</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>SANABRIA 4289</t>
+          <t>BUCARELLI /ALT/ 1412</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>106597 - PARQUE CHAS</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>804663652</t>
+          <t>804838855</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3843,7 +3851,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t xml:space="preserve">Aplomar columna 114 </t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3853,7 +3861,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -3863,40 +3871,40 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>-58.516755</v>
+        <v>-58.479593</v>
       </c>
       <c r="N51" t="n">
-        <v>-34.6002</v>
+        <v>-34.584943</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>5573</t>
+          <t>-336</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/21/2025</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>LASTRA AV. 4379</t>
+          <t>BAUNESS /ALT/ 1419</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>106597 - PARQUE CHAS</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>804663677</t>
+          <t>804838856</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3911,7 +3919,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>"Aplomar columna 114 con rienda a pique o colocar terminal"</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3921,7 +3929,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3935,36 +3943,36 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>-58.525125</v>
+        <v>-58.479168</v>
       </c>
       <c r="N52" t="n">
-        <v>-34.604668</v>
+        <v>-34.584482</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>5574</t>
+          <t>-337</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/21/2025</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>GRIVEO 3909</t>
+          <t>PARAGUAY /ALT/ 4259</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>106594 - PALERMO</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>804663683</t>
+          <t>804838858</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3979,7 +3987,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Poste Inclinado</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3989,7 +3997,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3999,20 +4007,20 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>-58.517126</v>
+        <v>-58.421822</v>
       </c>
       <c r="N53" t="n">
-        <v>-34.592774</v>
+        <v>-34.58645</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>-334</t>
+          <t>-338</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -4022,17 +4030,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>BUCARELLI /ALT/ 1534</t>
+          <t>PARAGUAY /ALT/ 4283</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>106594 - PALERMO</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>804838853</t>
+          <t>804838861</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4047,7 +4055,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar Columna dañada torcida y fuera de plomo </t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4071,16 +4079,16 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>-58.481261</v>
+        <v>-58.421964</v>
       </c>
       <c r="N54" t="n">
-        <v>-34.584281</v>
+        <v>-34.586342</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>-335</t>
+          <t>-339</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -4090,17 +4098,17 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>BUCARELLI /ALT/ 1412</t>
+          <t>GRIVEO /ALT/ 2435</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>106591 - VILLA PUEYRREDON</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>804838855</t>
+          <t>804838868</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4115,7 +4123,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 114 </t>
+          <t xml:space="preserve">Aplomar columna 114  </t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4125,7 +4133,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -4139,16 +4147,16 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>-58.479593</v>
+        <v>-58.498493</v>
       </c>
       <c r="N55" t="n">
-        <v>-34.584943</v>
+        <v>-34.581262</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>-336</t>
+          <t>-340</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -4158,17 +4166,17 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>BAUNESS /ALT/ 1419</t>
+          <t>SUPERI /ALT/ 1445</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>106581 - COLEGIALES</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>804838856</t>
+          <t>804838869</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -4183,7 +4191,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>"Aplomar columna 114 con rienda a pique o colocar terminal"</t>
+          <t>Columna podrida en la base</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4207,16 +4215,16 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>-58.479168</v>
+        <v>-58.460666</v>
       </c>
       <c r="N56" t="n">
-        <v>-34.584482</v>
+        <v>-34.573823</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>-337</t>
+          <t>-341</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -4226,17 +4234,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>PARAGUAY /ALT/ 4259</t>
+          <t>3 DE FEBRERO /ALT/ 4835</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>106596 - NUNEZ</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>804838858</t>
+          <t>804838980</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -4251,7 +4259,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>"Retirar poste teco cobre en desuso entrada Edificio reclamo municipal "</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -4261,7 +4269,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -4271,40 +4279,40 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>-58.421822</v>
+        <v>-58.469157</v>
       </c>
       <c r="N57" t="n">
-        <v>-34.58645</v>
+        <v>-34.536783</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>-338</t>
+          <t>-342</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>4/21/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>PARAGUAY /ALT/ 4283</t>
+          <t>WILLIAMS ALBERTO /ALT/ 5625</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>106593 - SAAVEDRA</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>804838861</t>
+          <t>804839148</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -4319,12 +4327,12 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar columna de 114. - VIRARDI</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -4343,36 +4351,36 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>-58.421964</v>
+        <v>-58.502447</v>
       </c>
       <c r="N58" t="n">
-        <v>-34.586342</v>
+        <v>-34.561008</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>-339</t>
+          <t>-343</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>4/21/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>GRIVEO /ALT/ 2435</t>
+          <t>ANDONAEGUI /ALT/ 1608</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>106591 - VILLA PUEYRREDON</t>
+          <t>106597 - PARQUE CHAS</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>804838868</t>
+          <t>804839150</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -4387,12 +4395,12 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 114  </t>
+          <t>Aplomar columna de 114 - VIRARDI</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -4411,36 +4419,36 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>-58.498493</v>
+        <v>-58.48278</v>
       </c>
       <c r="N59" t="n">
-        <v>-34.581262</v>
+        <v>-34.584137</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>-340</t>
+          <t>-344</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>4/21/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>SUPERI /ALT/ 1445</t>
+          <t>ANDONAEGUI /ALT/ 1690</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>106581 - COLEGIALES</t>
+          <t>106597 - PARQUE CHAS</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>804838869</t>
+          <t>804839162</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -4455,17 +4463,17 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Columna podrida en la base</t>
+          <t>Aplomar columna de 114. - VIRARDI</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -4479,36 +4487,36 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>-58.460666</v>
+        <v>-58.483947</v>
       </c>
       <c r="N60" t="n">
-        <v>-34.573823</v>
+        <v>-34.583207</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>-341</t>
+          <t>-345</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>4/21/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>3 DE FEBRERO /ALT/ 4835</t>
+          <t>ANDONAEGUI /ALT/ 1774</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>106596 - NUNEZ</t>
+          <t>106597 - PARQUE CHAS</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>804838980</t>
+          <t>804839181</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -4523,17 +4531,17 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>"Retirar poste teco cobre en desuso entrada Edificio reclamo municipal "</t>
+          <t>Aplomo/cambio de columna de 168 colocar columna y rienda en norma.  - VIRARDI</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -4543,20 +4551,20 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>-58.469157</v>
+        <v>-58.484513</v>
       </c>
       <c r="N61" t="n">
-        <v>-34.536783</v>
+        <v>-34.582786</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>-342</t>
+          <t>-346</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -4566,17 +4574,17 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>WILLIAMS ALBERTO /ALT/ 5625</t>
+          <t>ARGERICH /ALT/ 4710</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>106591 - VILLA PUEYRREDON</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>804839148</t>
+          <t>804839198</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -4591,7 +4599,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Cambiar columna de 114. - VIRARDI</t>
+          <t>Cambiar poste con rienda podrido en su base - VIRARDI</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -4611,20 +4619,20 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>-58.502447</v>
+        <v>-58.503673</v>
       </c>
       <c r="N62" t="n">
-        <v>-34.561008</v>
+        <v>-34.586925</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>-343</t>
+          <t>-347</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -4634,7 +4642,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>ANDONAEGUI /ALT/ 1608</t>
+          <t>AVALOS /ALT/ 1610</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -4644,7 +4652,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>804839150</t>
+          <t>804839214</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -4659,7 +4667,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aplomar columna de 114 - VIRARDI</t>
+          <t>Cambiar columna de 168 - VIRARDI</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -4669,12 +4677,12 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo/Fuente TLC</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -4683,16 +4691,16 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>-58.48278</v>
+        <v>-58.480099</v>
       </c>
       <c r="N63" t="n">
-        <v>-34.584137</v>
+        <v>-34.582085</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>-344</t>
+          <t>-349</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -4702,7 +4710,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>ANDONAEGUI /ALT/ 1690</t>
+          <t>BAUNESS /ALT/ 1616</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -4712,7 +4720,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>804839162</t>
+          <t>804839290</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -4727,7 +4735,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Aplomar columna de 114. - VIRARDI</t>
+          <t>Columna en polígono fuera de plomo con ancla fuera de norma - VIRARDI</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -4737,7 +4745,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -4751,16 +4759,16 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>-58.483947</v>
+        <v>-58.48139</v>
       </c>
       <c r="N64" t="n">
-        <v>-34.583207</v>
+        <v>-34.583277</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>-345</t>
+          <t>-350</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -4770,7 +4778,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>ANDONAEGUI /ALT/ 1774</t>
+          <t>BUCARELLI /ALT/ 1305</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -4780,7 +4788,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>804839181</t>
+          <t>804839440</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -4795,7 +4803,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Aplomo/cambio de columna de 168 colocar columna y rienda en norma.  - VIRARDI</t>
+          <t>Columna corroida en su base realizar cambio.  - VIRARDI</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -4805,7 +4813,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -4819,16 +4827,16 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>-58.484513</v>
+        <v>-58.479078</v>
       </c>
       <c r="N65" t="n">
-        <v>-34.582786</v>
+        <v>-34.586298</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>-346</t>
+          <t>-351</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -4838,17 +4846,17 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>ARGERICH /ALT/ 4710</t>
+          <t>BUCARELLI /ALT/ 1430</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>106591 - VILLA PUEYRREDON</t>
+          <t>106597 - PARQUE CHAS</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>804839198</t>
+          <t>804839511</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -4863,7 +4871,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Cambiar poste con rienda podrido en su base - VIRARDI</t>
+          <t>Aplomar columna normalizar.  - VIRARDI</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -4873,7 +4881,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -4883,20 +4891,20 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>-58.503673</v>
+        <v>-58.479712</v>
       </c>
       <c r="N66" t="n">
-        <v>-34.586925</v>
+        <v>-34.584855</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>-347</t>
+          <t>-352</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -4906,7 +4914,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>AVALOS /ALT/ 1610</t>
+          <t>BUCARELLI /ALT/ 935</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -4916,7 +4924,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>804839214</t>
+          <t>804839565</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -4931,7 +4939,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Cambiar columna de 168 - VIRARDI</t>
+          <t>Aplomar columna de 114. - VIRARDI</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -4941,12 +4949,12 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Nodo/Fuente TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -4955,16 +4963,16 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>-58.480099</v>
+        <v>-58.475389</v>
       </c>
       <c r="N67" t="n">
-        <v>-34.582085</v>
+        <v>-34.590317</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>-349</t>
+          <t>-353</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -4974,17 +4982,17 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>BAUNESS /ALT/ 1616</t>
+          <t>CAAGUAZU /ALT/ 5703</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>106576 - LINIERS</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>804839290</t>
+          <t>804839589</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -4999,7 +5007,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Columna en polígono fuera de plomo con ancla fuera de norma - VIRARDI</t>
+          <t>Cambiar columna de 114. Fuera de plomo empotrada en árbol colocar rienda. ( se pasa tareas a contratista tratista de limpieza tensado y elevación del tendido).  - VIRARDI</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -5023,16 +5031,16 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>-58.48139</v>
+        <v>-58.511462</v>
       </c>
       <c r="N68" t="n">
-        <v>-34.583277</v>
+        <v>-34.640542</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>-350</t>
+          <t>-354</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -5042,17 +5050,17 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>BUCARELLI /ALT/ 1305</t>
+          <t>CONDARCO /ALT/ 5316</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>106591 - VILLA PUEYRREDON</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>804839440</t>
+          <t>804839626</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -5067,7 +5075,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Columna corroida en su base realizar cambio.  - VIRARDI</t>
+          <t>Aplomo de columna de PRFV - VIRARDI</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -5077,7 +5085,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -5091,16 +5099,16 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>-58.479078</v>
+        <v>-58.504455</v>
       </c>
       <c r="N69" t="n">
-        <v>-34.586298</v>
+        <v>-34.579941</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>-351</t>
+          <t>-355</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -5110,17 +5118,17 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>BUCARELLI /ALT/ 1430</t>
+          <t>CUENCA /ALT/ 4480</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>106591 - VILLA PUEYRREDON</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>804839511</t>
+          <t>804839675</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -5135,7 +5143,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Aplomar columna normalizar.  - VIRARDI</t>
+          <t>Columna nueva fuera de plomo sostiene nodo de Telecentro.  Reclamo municipal.  - VIRARDI</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -5150,7 +5158,7 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo/Fuente TLC</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -5159,16 +5167,16 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>-58.479712</v>
+        <v>-58.504568</v>
       </c>
       <c r="N70" t="n">
-        <v>-34.584855</v>
+        <v>-34.590534</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>-352</t>
+          <t>-356</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -5178,17 +5186,17 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>BUCARELLI /ALT/ 935</t>
+          <t>CUENCA /ALT/ 4845</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>106591 - VILLA PUEYRREDON</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>804839565</t>
+          <t>804839715</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -5203,7 +5211,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Aplomar columna de 114. - VIRARDI</t>
+          <t>Retiro de poste viejo en desuso liberado podrido en su base.  - VIRARDI</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -5213,7 +5221,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -5223,20 +5231,20 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>-58.475389</v>
+        <v>-58.507182</v>
       </c>
       <c r="N71" t="n">
-        <v>-34.590317</v>
+        <v>-34.58749</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>-353</t>
+          <t>-357</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -5246,17 +5254,17 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>CAAGUAZU /ALT/ 5703</t>
+          <t>MISTRAL GABRIELA /ALT/ 3376</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>106576 - LINIERS</t>
+          <t>106589 - VILLA DEVOTO</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>804839589</t>
+          <t>804839774</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -5271,7 +5279,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Cambiar columna de 114. Fuera de plomo empotrada en árbol colocar rienda. ( se pasa tareas a contratista tratista de limpieza tensado y elevación del tendido).  - VIRARDI</t>
+          <t>Cambiar columna corroida en su base.  Ubicada en puerta de colegio.  - VIRARDI</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -5295,16 +5303,16 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>-58.511462</v>
+        <v>-58.507591</v>
       </c>
       <c r="N72" t="n">
-        <v>-34.640542</v>
+        <v>-34.590945</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>-354</t>
+          <t>-358</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -5314,17 +5322,17 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>CONDARCO /ALT/ 5316</t>
+          <t>GINEBRA /ALT/ 3887</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>106591 - VILLA PUEYRREDON</t>
+          <t>106597 - PARQUE CHAS</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>804839626</t>
+          <t>804839803</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -5339,7 +5347,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Aplomo de columna de PRFV - VIRARDI</t>
+          <t>Aplomo de columna de 114 - VIRARDI</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -5363,16 +5371,16 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>-58.504455</v>
+        <v>-58.475735</v>
       </c>
       <c r="N73" t="n">
-        <v>-34.579941</v>
+        <v>-34.580487</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>-355</t>
+          <t>-359</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -5382,7 +5390,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>CUENCA /ALT/ 4480</t>
+          <t>CABEZON JOSE LEON /ALT/ 2714</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -5392,7 +5400,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>804839675</t>
+          <t>804839875</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -5407,7 +5415,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Columna nueva fuera de plomo sostiene nodo de Telecentro.  Reclamo municipal.  - VIRARDI</t>
+          <t>Aplomo de columna de 114 - VIRARDI</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -5422,7 +5430,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Nodo/Fuente TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -5431,16 +5439,16 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>-58.504568</v>
+        <v>-58.503195</v>
       </c>
       <c r="N74" t="n">
-        <v>-34.590534</v>
+        <v>-34.581735</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>-356</t>
+          <t>-361</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -5450,17 +5458,17 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>CUENCA /ALT/ 4845</t>
+          <t>LONDRES /ALT/ 4008</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>106591 - VILLA PUEYRREDON</t>
+          <t>106597 - PARQUE CHAS</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>804839715</t>
+          <t>804839936</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -5475,7 +5483,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Retiro de poste viejo en desuso liberado podrido en su base.  - VIRARDI</t>
+          <t>Aplomo de columna de 114. - VIRARDI</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -5485,7 +5493,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -5495,20 +5503,20 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>-58.507182</v>
+        <v>-58.478362</v>
       </c>
       <c r="N75" t="n">
-        <v>-34.58749</v>
+        <v>-34.581404</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>-357</t>
+          <t>-362</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -5518,17 +5526,17 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>MISTRAL GABRIELA /ALT/ 3376</t>
+          <t>MOZART /ALT/ 562</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>106589 - VILLA DEVOTO</t>
+          <t>106571 - PQUE. AVELLANEDA</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>804839774</t>
+          <t>804839947</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -5543,7 +5551,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Cambiar columna corroida en su base.  Ubicada en puerta de colegio.  - VIRARDI</t>
+          <t>Aplomar columna de 114. Se encuentra frente al 575 lado plaza sin número.  - VIRARDI</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -5553,7 +5561,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -5567,16 +5575,16 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>-58.507591</v>
+        <v>-58.489948</v>
       </c>
       <c r="N76" t="n">
-        <v>-34.590945</v>
+        <v>-34.643478</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>-358</t>
+          <t>-363</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -5586,7 +5594,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>GINEBRA /ALT/ 3887</t>
+          <t>OSLO /ALT/ 1255</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -5596,7 +5604,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>804839803</t>
+          <t>804839962</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -5611,7 +5619,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aplomo de columna de 114 - VIRARDI</t>
+          <t>Cambiar columna de 168 podrida en su base.  - VIRARDI</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -5621,7 +5629,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -5635,16 +5643,16 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>-58.475735</v>
+        <v>-58.481767</v>
       </c>
       <c r="N77" t="n">
-        <v>-34.580487</v>
+        <v>-34.589507</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>-359</t>
+          <t>-364</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -5654,17 +5662,17 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>CABEZON JOSE LEON /ALT/ 2714</t>
+          <t>PAROISSIEN /ALT/ 4871</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>106591 - VILLA PUEYRREDON</t>
+          <t>106593 - SAAVEDRA</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>804839875</t>
+          <t>804839991</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -5679,7 +5687,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aplomo de columna de 114 - VIRARDI</t>
+          <t>Aplomar columna de 114 - VIRARDI</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -5703,16 +5711,16 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>-58.503195</v>
+        <v>-58.493164</v>
       </c>
       <c r="N78" t="n">
-        <v>-34.581735</v>
+        <v>-34.55732</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>-361</t>
+          <t>-365</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -5722,17 +5730,17 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>LONDRES /ALT/ 4008</t>
+          <t>QUESADA /ALT/ 5290</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>106592 - VILLA URQUIZA</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>804839936</t>
+          <t>804839995</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -5747,7 +5755,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Aplomo de columna de 114. - VIRARDI</t>
+          <t>Columna nueva de PVC fuera de plomo.  - VIRARDI</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -5757,7 +5765,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -5771,16 +5779,16 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>-58.478362</v>
+        <v>-58.491934</v>
       </c>
       <c r="N79" t="n">
-        <v>-34.581404</v>
+        <v>-34.569348</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>-362</t>
+          <t>-366</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -5790,17 +5798,17 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>MOZART /ALT/ 562</t>
+          <t>QUESADA /ALT/ 6088</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>106571 - PQUE. AVELLANEDA</t>
+          <t>106592 - VILLA URQUIZA</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>804839947</t>
+          <t>804840016</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -5815,7 +5823,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aplomar columna de 114. Se encuentra frente al 575 lado plaza sin número.  - VIRARDI</t>
+          <t>Aplomar columna de 168 cambiar rienda.  - VIRARDI</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -5839,16 +5847,16 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>-58.489948</v>
+        <v>-58.501418</v>
       </c>
       <c r="N80" t="n">
-        <v>-34.643478</v>
+        <v>-34.574363</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>-363</t>
+          <t>-367</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -5858,17 +5866,17 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>OSLO /ALT/ 1255</t>
+          <t>RUIZ HUIDOBRO ,AV. /ALT/ 4771</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>106593 - SAAVEDRA</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>804839962</t>
+          <t>804840024</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -5883,7 +5891,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Cambiar columna de 168 podrida en su base.  - VIRARDI</t>
+          <t>Aplomo de columna de 114 - VIRARDI</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -5893,7 +5901,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -5907,36 +5915,36 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>-58.481767</v>
+        <v>-58.494584</v>
       </c>
       <c r="N81" t="n">
-        <v>-34.589507</v>
+        <v>-34.554981</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>-364</t>
+          <t>-368</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>PAROISSIEN /ALT/ 4871</t>
+          <t>ARIAS /ALT/ 1620</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>106596 - NUNEZ</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>804839991</t>
+          <t>804876039</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -5951,12 +5959,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Aplomar columna de 114 - VIRARDI</t>
+          <t xml:space="preserve">Aplomar columna 168 con rienda </t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -5971,40 +5979,40 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>-58.493164</v>
+        <v>-58.465608</v>
       </c>
       <c r="N82" t="n">
-        <v>-34.55732</v>
+        <v>-34.538489</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>-365</t>
+          <t>-372</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>QUESADA /ALT/ 5290</t>
+          <t>CAMARGO /ALT/ 25</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>106592 - VILLA URQUIZA</t>
+          <t>106582 - VILLA CRESPO</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>804839995</t>
+          <t>804903809</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -6019,12 +6027,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Columna nueva de PVC fuera de plomo.  - VIRARDI</t>
+          <t>Aplomar columna 114 con rienda a pique</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -6043,36 +6051,36 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>-58.491934</v>
+        <v>-58.436788</v>
       </c>
       <c r="N83" t="n">
-        <v>-34.569348</v>
+        <v>-34.604014</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>-366</t>
+          <t>-373</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>QUESADA /ALT/ 6088</t>
+          <t>GALLARDO ANGEL ,AV. /ALT/ 608</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>106592 - VILLA URQUIZA</t>
+          <t>106569 - CABALLITO</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>804840016</t>
+          <t>804903810</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -6087,12 +6095,12 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Aplomar columna de 168 cambiar rienda.  - VIRARDI</t>
+          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -6111,36 +6119,36 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>-58.501418</v>
+        <v>-58.439461</v>
       </c>
       <c r="N84" t="n">
-        <v>-34.574363</v>
+        <v>-34.605744</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>-367</t>
+          <t>-375</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>RUIZ HUIDOBRO ,AV. /ALT/ 4771</t>
+          <t>PAVON /ALT/ 3335</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>106562 - BOEDO</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>804840024</t>
+          <t>804903824</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -6155,17 +6163,17 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Aplomo de columna de 114 - VIRARDI</t>
+          <t>Colocar columna nueva donde estaba la anterior cortada</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -6179,36 +6187,36 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>-58.494584</v>
+        <v>-58.412418</v>
       </c>
       <c r="N85" t="n">
-        <v>-34.554981</v>
+        <v>-34.629288</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>-368</t>
+          <t>-376</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>ARIAS /ALT/ 1620</t>
+          <t xml:space="preserve"> Valentin Gomez 3803</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>106596 - NUNEZ</t>
+          <t>106568 - ALMAGRO</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>804876039</t>
+          <t>804903787</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -6223,7 +6231,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 168 con rienda </t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -6233,7 +6241,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -6243,20 +6251,20 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>-58.465608</v>
+        <v>-58.418424</v>
       </c>
       <c r="N86" t="n">
-        <v>-34.538489</v>
+        <v>-34.604463</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>-372</t>
+          <t>-377</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -6266,17 +6274,17 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>CAMARGO /ALT/ 25</t>
+          <t>HUMAHUACA /ALT/ 3918</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>106582 - VILLA CRESPO</t>
+          <t>106568 - ALMAGRO</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>804903809</t>
+          <t>804903788</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -6291,7 +6299,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Aplomar columna 114 con rienda a pique</t>
+          <t>picada</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -6315,16 +6323,16 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>-58.436788</v>
+        <v>-58.419694</v>
       </c>
       <c r="N87" t="n">
-        <v>-34.604014</v>
+        <v>-34.602062</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>-373</t>
+          <t>-378</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -6334,17 +6342,17 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>GALLARDO ANGEL ,AV. /ALT/ 608</t>
+          <t>MAGARINO CERVANTES A /ALT/ 5054</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>106569 - CABALLITO</t>
+          <t>106574 - VELEZ SARSFIELD</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>804903810</t>
+          <t>804903791</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -6359,7 +6367,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
+          <t>Desmontar poste</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -6369,7 +6377,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -6379,40 +6387,40 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>-58.439461</v>
+        <v>-58.503618</v>
       </c>
       <c r="N88" t="n">
-        <v>-34.605744</v>
+        <v>-34.629209</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>-375</t>
+          <t>-381</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>4/25/2025</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>PAVON /ALT/ 3335</t>
+          <t>RIVADAVIA ,AV. /ALT/ 9477</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>106562 - BOEDO</t>
+          <t>106575 - VILLA LURO</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>804903824</t>
+          <t>805010120</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -6427,7 +6435,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Colocar columna nueva donde estaba la anterior cortada</t>
+          <t>Podrida en la base</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -6451,36 +6459,36 @@
         </is>
       </c>
       <c r="M89" t="n">
-        <v>-58.412418</v>
+        <v>-58.497691</v>
       </c>
       <c r="N89" t="n">
-        <v>-34.629288</v>
+        <v>-34.637087</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>-376</t>
+          <t>-383</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Valentin Gomez 3803</t>
+          <t>VALDERRAMA /ALT/ 4187</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>106568 - ALMAGRO</t>
+          <t>106592 - VILLA URQUIZA</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>804903787</t>
+          <t>805507401</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -6495,7 +6503,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t xml:space="preserve">Aplomar columna 114 </t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -6505,7 +6513,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -6519,36 +6527,36 @@
         </is>
       </c>
       <c r="M90" t="n">
-        <v>-58.418424</v>
+        <v>-58.481834</v>
       </c>
       <c r="N90" t="n">
-        <v>-34.604463</v>
+        <v>-34.560796</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>-377</t>
+          <t>-384</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>HUMAHUACA /ALT/ 3918</t>
+          <t>LUGONES 1721</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>106568 - ALMAGRO</t>
+          <t>106586 - VILLA ORTUZAR</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>804903788</t>
+          <t>805507408</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -6563,7 +6571,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>picada</t>
+          <t>Aplomar columna 168 - La columna esta frente a la altura 1721</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -6573,7 +6581,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -6587,36 +6595,36 @@
         </is>
       </c>
       <c r="M91" t="n">
-        <v>-58.419694</v>
+        <v>-58.473936</v>
       </c>
       <c r="N91" t="n">
-        <v>-34.602062</v>
+        <v>-34.577346</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>-378</t>
+          <t>-385</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>MAGARINO CERVANTES A /ALT/ 5054</t>
+          <t>MOLDES /ALT/ 1913</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>106574 - VELEZ SARSFIELD</t>
+          <t>106595 - BELGRANO</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>804903791</t>
+          <t>805507415</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -6631,7 +6639,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Desmontar poste</t>
+          <t>Aplomar columna 114</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -6641,7 +6649,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -6651,40 +6659,40 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M92" t="n">
-        <v>-58.503618</v>
+        <v>-58.45789</v>
       </c>
       <c r="N92" t="n">
-        <v>-34.629209</v>
+        <v>-34.565423</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>-381</t>
+          <t>-386</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>4/25/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>RIVADAVIA ,AV. /ALT/ 9477</t>
+          <t>MOLDES /ALT/ 1943</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>106575 - VILLA LURO</t>
+          <t>106595 - BELGRANO</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>805010120</t>
+          <t>805507419</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -6699,7 +6707,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Podrida en la base</t>
+          <t>Dos columnas fuera de plomo - aplomar o cambiar la que no tiene nodo de TLC</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -6709,12 +6717,12 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
@@ -6723,36 +6731,36 @@
         </is>
       </c>
       <c r="M93" t="n">
-        <v>-58.497691</v>
+        <v>-58.458217</v>
       </c>
       <c r="N93" t="n">
-        <v>-34.637087</v>
+        <v>-34.565043</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>-383</t>
+          <t>-387</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>5/1/2025</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>VALDERRAMA /ALT/ 4187</t>
+          <t>FLORES GRAL VENANCIO /ALT/ 4139</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>106592 - VILLA URQUIZA</t>
+          <t>106574 - VELEZ SARSFIELD</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>805507401</t>
+          <t>805579025</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -6767,7 +6775,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 114 </t>
+          <t>Columna fuera de plomo - VIRARDI</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -6791,36 +6799,36 @@
         </is>
       </c>
       <c r="M94" t="n">
-        <v>-58.481834</v>
+        <v>-58.485221</v>
       </c>
       <c r="N94" t="n">
-        <v>-34.560796</v>
+        <v>-34.633425</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>-384</t>
+          <t>-391</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>5/5/2025</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>LUGONES 1721</t>
+          <t>IBERA /ALT/ 5074</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>106586 - VILLA ORTUZAR</t>
+          <t>106592 - VILLA URQUIZA</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>805507408</t>
+          <t>805676610</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -6835,7 +6843,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Aplomar columna 168 - La columna esta frente a la altura 1721</t>
+          <t xml:space="preserve">Cambiar columna 114 base corroida </t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -6845,7 +6853,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -6859,36 +6867,36 @@
         </is>
       </c>
       <c r="M95" t="n">
-        <v>-58.473936</v>
+        <v>-58.49045</v>
       </c>
       <c r="N95" t="n">
-        <v>-34.577346</v>
+        <v>-34.566894</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>-385</t>
+          <t>-392</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>5/5/2025</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>MOLDES /ALT/ 1913</t>
+          <t>GARCIA TEODORO /ALT/ 1775</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>106595 - BELGRANO</t>
+          <t>106594 - PALERMO</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>805507415</t>
+          <t>805676615</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -6903,7 +6911,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Aplomar columna 114</t>
+          <t xml:space="preserve">Cambiar columna 114 base corroida </t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -6913,7 +6921,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -6927,36 +6935,36 @@
         </is>
       </c>
       <c r="M96" t="n">
-        <v>-58.45789</v>
+        <v>-58.440367</v>
       </c>
       <c r="N96" t="n">
-        <v>-34.565423</v>
+        <v>-34.563551</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>-386</t>
+          <t>-393</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>5/5/2025</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>MOLDES /ALT/ 1943</t>
+          <t>3 DE FEBRERO /ALT/ 1272</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>106595 - BELGRANO</t>
+          <t>106594 - PALERMO</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>805507419</t>
+          <t>805676618</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -6971,7 +6979,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Dos columnas fuera de plomo - aplomar o cambiar la que no tiene nodo de TLC</t>
+          <t xml:space="preserve">Cambiar columna 114 base corroida </t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -6981,12 +6989,12 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
@@ -6995,36 +7003,36 @@
         </is>
       </c>
       <c r="M97" t="n">
-        <v>-58.458217</v>
+        <v>-58.445186</v>
       </c>
       <c r="N97" t="n">
-        <v>-34.565043</v>
+        <v>-34.567417</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>-387</t>
+          <t>-395</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>5/1/2025</t>
+          <t>5/7/2025</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>FLORES GRAL VENANCIO /ALT/ 4139</t>
+          <t>POSADAS 1567</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>106574 - VELEZ SARSFIELD</t>
+          <t>106560 - RECOLETA</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>805579025</t>
+          <t>805707278</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -7039,7 +7047,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Columna fuera de plomo - VIRARDI</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -7049,7 +7057,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -7063,36 +7071,36 @@
         </is>
       </c>
       <c r="M98" t="n">
-        <v>-58.485221</v>
+        <v>-58.387847</v>
       </c>
       <c r="N98" t="n">
-        <v>-34.633425</v>
+        <v>-34.587043</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>-391</t>
+          <t>-399</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>5/5/2025</t>
+          <t>5/7/2025</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>IBERA /ALT/ 5074</t>
+          <t>Casco 115</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>106592 - VILLA URQUIZA</t>
+          <t>106576 - LINIERS</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>805676610</t>
+          <t>805722774</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -7107,7 +7115,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna 114 base corroida </t>
+          <t>Reclamo municipal pendiente de New OT:707916611 cambiar columna de 168 con rienda.  - VIRARDI</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -7127,40 +7135,40 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M99" t="n">
-        <v>-58.49045</v>
+        <v>-58.525835</v>
       </c>
       <c r="N99" t="n">
-        <v>-34.566894</v>
+        <v>-34.637998</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>-392</t>
+          <t>-403</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>5/5/2025</t>
+          <t>5/7/2025</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>GARCIA TEODORO /ALT/ 1775</t>
+          <t>SUCRE MRCAL A J DE /ALT/ 3515</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>106595 - BELGRANO</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>805676615</t>
+          <t>805722878</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -7175,7 +7183,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna 114 base corroida </t>
+          <t xml:space="preserve">Retirar poste teco cobre tirado y reparar vereda </t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -7185,7 +7193,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -7195,40 +7203,40 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M100" t="n">
-        <v>-58.440367</v>
+        <v>-58.466241</v>
       </c>
       <c r="N100" t="n">
-        <v>-34.563551</v>
+        <v>-34.57047</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>-393</t>
+          <t>-404</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>5/5/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>3 DE FEBRERO /ALT/ 1272</t>
+          <t>Amenabar 3048</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>805676618</t>
+          <t>805791896</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -7243,7 +7251,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna 114 base corroida </t>
+          <t>Aplomar columna 114</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -7253,7 +7261,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -7267,36 +7275,36 @@
         </is>
       </c>
       <c r="M101" t="n">
-        <v>-58.445186</v>
+        <v>-58.46579</v>
       </c>
       <c r="N101" t="n">
-        <v>-34.567417</v>
+        <v>-34.555012</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>-395</t>
+          <t>-405</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>5/7/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>POSADAS 1567</t>
+          <t>Arcos 1855</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>106560 - RECOLETA</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>805707278</t>
+          <t>805791908</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -7311,7 +7319,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar columna 114 picada en base, posee nodo propio.&lt;br&gt;</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -7335,36 +7343,36 @@
         </is>
       </c>
       <c r="M102" t="n">
-        <v>-58.387847</v>
+        <v>-58.451835</v>
       </c>
       <c r="N102" t="n">
-        <v>-34.587043</v>
+        <v>-34.562646</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>-399</t>
+          <t>-406</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>5/7/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Casco 115</t>
+          <t>Olof palme 4144</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>106576 - LINIERS</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>805722774</t>
+          <t>805791925</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -7379,7 +7387,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Reclamo municipal pendiente de New OT:707916611 cambiar columna de 168 con rienda.  - VIRARDI</t>
+          <t>Tensar 2 riendas a pique columna 168</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -7389,7 +7397,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -7403,36 +7411,36 @@
         </is>
       </c>
       <c r="M103" t="n">
-        <v>-58.525835</v>
+        <v>-58.488252</v>
       </c>
       <c r="N103" t="n">
-        <v>-34.637998</v>
+        <v>-34.553391</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>-400</t>
+          <t>-407</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>5/7/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>BYNON /ALT/ 6790</t>
+          <t>Cabildo 4148</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>106576 - LINIERS</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>805722777</t>
+          <t>805791933</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -7447,7 +7455,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Reclamo municipal pendiente de New OT:676904205. Cambiar columna de 114 corroida.  - VIRARDI</t>
+          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -7457,7 +7465,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -7467,40 +7475,40 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M104" t="n">
-        <v>-58.525119</v>
+        <v>-58.470837</v>
       </c>
       <c r="N104" t="n">
-        <v>-34.637178</v>
+        <v>-34.545751</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>-403</t>
+          <t>-408</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>5/7/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>SUCRE MRCAL A J DE /ALT/ 3515</t>
+          <t>Larralde 2847</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>106595 - BELGRANO</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>805722878</t>
+          <t>805791941</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -7515,7 +7523,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t xml:space="preserve">Retirar poste teco cobre tirado y reparar vereda </t>
+          <t>Aplomar columna 114</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -7525,50 +7533,50 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo/Fuente Teco</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M105" t="n">
-        <v>-58.466241</v>
+        <v>-58.472267</v>
       </c>
       <c r="N105" t="n">
-        <v>-34.57047</v>
+        <v>-34.551163</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>-404</t>
+          <t>5805</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>5/14/2025</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Amenabar 3048</t>
+          <t>GUTENBERG 4134</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>805791896</t>
+          <t>806926378</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -7583,7 +7591,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Aplomar columna 114</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -7603,40 +7611,40 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M106" t="n">
-        <v>-58.46579</v>
+        <v>-58.51665</v>
       </c>
       <c r="N106" t="n">
-        <v>-34.555012</v>
+        <v>-34.596644</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>-405</t>
+          <t>-418</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Arcos 1855</t>
+          <t>Porcel de Peralta 415</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>805791908</t>
+          <t>806926542</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -7651,7 +7659,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Cambiar columna 114 picada en base, posee nodo propio.&lt;br&gt;</t>
+          <t>aplomar cementar y colocar rienda</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -7661,7 +7669,7 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -7675,36 +7683,36 @@
         </is>
       </c>
       <c r="M107" t="n">
-        <v>-58.451835</v>
+        <v>-58.520671</v>
       </c>
       <c r="N107" t="n">
-        <v>-34.562646</v>
+        <v>-34.632922</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>-406</t>
+          <t>-417</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Olof palme 4144</t>
+          <t>Porcel de Peralta 535</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>805791925</t>
+          <t>806926548</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -7719,7 +7727,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Tensar 2 riendas a pique columna 168</t>
+          <t>aplomo de columna 114</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -7729,7 +7737,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -7739,40 +7747,40 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M108" t="n">
-        <v>-58.488252</v>
+        <v>-58.52231</v>
       </c>
       <c r="N108" t="n">
-        <v>-34.553391</v>
+        <v>-34.632171</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>-407</t>
+          <t>-421</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Cabildo 4148</t>
+          <t>BESARES 1699</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>805791933</t>
+          <t>806926565</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -7787,7 +7795,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
+          <t>Cambiar columna 114 picada en base tener en cuenta que hay acometidas subterraneas que bajan por la columna para entrar en Libertador 8008 tanto de HFC como FTTH colocar medias cañas y colocar cerca para que quedan precintadas a la columna</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -7797,7 +7805,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -7807,40 +7815,40 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M109" t="n">
-        <v>-58.470837</v>
+        <v>-58.464144</v>
       </c>
       <c r="N109" t="n">
-        <v>-34.545751</v>
+        <v>-34.541832</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>-408</t>
+          <t>-422</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Larralde 2847</t>
+          <t>Franklin Roosevelt 4901</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>805791941</t>
+          <t>806926575</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -7865,12 +7873,12 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>Nodo/Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
@@ -7879,36 +7887,36 @@
         </is>
       </c>
       <c r="M110" t="n">
-        <v>-58.472267</v>
+        <v>-58.485102</v>
       </c>
       <c r="N110" t="n">
-        <v>-34.551163</v>
+        <v>-34.572327</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>5805</t>
+          <t>-424</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>5/14/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>GUTENBERG 4134</t>
+          <t>Jose Enrique Rodo 4487</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>806926378</t>
+          <t>806926590</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -7923,7 +7931,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Retirar columna de 168 fuera de plomo y traspasar tendido con rienda a columna nueva</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -7933,7 +7941,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -7943,20 +7951,20 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M111" t="n">
-        <v>-58.51665</v>
+        <v>-58.487917</v>
       </c>
       <c r="N111" t="n">
-        <v>-34.596644</v>
+        <v>-34.64481</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>-418</t>
+          <t>-425</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -7966,17 +7974,17 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Porcel de Peralta 415</t>
+          <t>Av. Eva Peron 7437</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>806926542</t>
+          <t>806926621</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -7991,7 +7999,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>aplomar cementar y colocar rienda</t>
+          <t>Aplomar o cambiar columna de 114</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -8001,7 +8009,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -8015,16 +8023,16 @@
         </is>
       </c>
       <c r="M112" t="n">
-        <v>-58.520671</v>
+        <v>-58.501029</v>
       </c>
       <c r="N112" t="n">
-        <v>-34.632922</v>
+        <v>-34.673558</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>-417</t>
+          <t>-426</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -8034,17 +8042,17 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Porcel de Peralta 535</t>
+          <t>Av. Eva Peron 7471</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>806926548</t>
+          <t>806926647</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -8059,7 +8067,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>aplomo de columna 114</t>
+          <t>Aplomar columna de 168 con rienda</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -8069,7 +8077,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -8079,20 +8087,20 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M113" t="n">
-        <v>-58.52231</v>
+        <v>-58.501565</v>
       </c>
       <c r="N113" t="n">
-        <v>-34.632171</v>
+        <v>-34.673845</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>-421</t>
+          <t>-430</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -8102,17 +8110,17 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>BESARES 1699</t>
+          <t>Araoz 606</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>806926565</t>
+          <t>806926712</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -8127,7 +8135,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Cambiar columna 114 picada en base tener en cuenta que hay acometidas subterraneas que bajan por la columna para entrar en Libertador 8008 tanto de HFC como FTTH colocar medias cañas y colocar cerca para que quedan precintadas a la columna</t>
+          <t>columna base corroida sin riesgo de caída a la fecha. 14/05/2025</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -8151,16 +8159,16 @@
         </is>
       </c>
       <c r="M114" t="n">
-        <v>-58.464144</v>
+        <v>-58.434761</v>
       </c>
       <c r="N114" t="n">
-        <v>-34.541832</v>
+        <v>-34.598381</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>-422</t>
+          <t>-432</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -8170,17 +8178,17 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Franklin Roosevelt 4901</t>
+          <t>ALVAREZ JULIAN 618</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>806926575</t>
+          <t>806926759</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -8195,7 +8203,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Aplomar columna 114</t>
+          <t>Columna con base corroida sin riesgo de caida al 14/05/2025</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -8219,16 +8227,16 @@
         </is>
       </c>
       <c r="M115" t="n">
-        <v>-58.485102</v>
+        <v>-58.433867</v>
       </c>
       <c r="N115" t="n">
-        <v>-34.572327</v>
+        <v>-34.599149</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>-424</t>
+          <t>-433</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -8238,17 +8246,17 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Jose Enrique Rodo 4487</t>
+          <t>Moldes 2720</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>806926590</t>
+          <t>806926767</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -8263,7 +8271,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Retirar columna de 168 fuera de plomo y traspasar tendido con rienda a columna nueva</t>
+          <t xml:space="preserve">Poste - Pasan 5 lingas y la línea de cobre </t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -8283,20 +8291,20 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M116" t="n">
-        <v>-58.487917</v>
+        <v>-58.464177</v>
       </c>
       <c r="N116" t="n">
-        <v>-34.64481</v>
+        <v>-34.558239</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>-425</t>
+          <t>-434</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -8306,17 +8314,17 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Av. Eva Peron 7437</t>
+          <t>Billinghurst 1478</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>806926621</t>
+          <t>806926806</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -8331,7 +8339,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Aplomar o cambiar columna de 114</t>
+          <t xml:space="preserve">Columna base corroida con Nap y ganancias de ambas compañias, </t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -8355,16 +8363,16 @@
         </is>
       </c>
       <c r="M117" t="n">
-        <v>-58.501029</v>
+        <v>-58.412302</v>
       </c>
       <c r="N117" t="n">
-        <v>-34.673558</v>
+        <v>-34.59301</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>-426</t>
+          <t>-436</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -8374,17 +8382,17 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Av. Eva Peron 7471</t>
+          <t>Nueva York 3982</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>806926647</t>
+          <t>806926812</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -8399,7 +8407,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Aplomar columna de 168 con rienda</t>
+          <t xml:space="preserve">Realizar aplomo de columna y tensar cruce Reclamo municipal </t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -8409,7 +8417,7 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -8423,36 +8431,36 @@
         </is>
       </c>
       <c r="M118" t="n">
-        <v>-58.501565</v>
+        <v>-58.511375</v>
       </c>
       <c r="N118" t="n">
-        <v>-34.673845</v>
+        <v>-34.600017</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>-430</t>
+          <t>-448</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/28/2025</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Araoz 606</t>
+          <t>Tronador 3826</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>806926712</t>
+          <t>806975699</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -8467,12 +8475,12 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>columna base corroida sin riesgo de caída a la fecha. 14/05/2025</t>
+          <t>Columna de retención (columna más ancha</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -8491,36 +8499,36 @@
         </is>
       </c>
       <c r="M119" t="n">
-        <v>-58.434761</v>
+        <v>-58.485056</v>
       </c>
       <c r="N119" t="n">
-        <v>-34.598381</v>
+        <v>-34.555059</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>-432</t>
+          <t>-450</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>ALVAREZ JULIAN 618</t>
+          <t>Moldes 2325</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>806926759</t>
+          <t>807044059</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -8535,7 +8543,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Columna con base corroida sin riesgo de caida al 14/05/2025</t>
+          <t xml:space="preserve">Corroida en base para cambiar contiene CDO/NAP propio </t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -8559,36 +8567,36 @@
         </is>
       </c>
       <c r="M120" t="n">
-        <v>-58.433867</v>
+        <v>-58.461167</v>
       </c>
       <c r="N120" t="n">
-        <v>-34.599149</v>
+        <v>-34.561613</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>-433</t>
+          <t>-470</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Moldes 2720</t>
+          <t>Av. Escalada 2831</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>806926767</t>
+          <t>807208264</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -8603,7 +8611,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poste - Pasan 5 lingas y la línea de cobre </t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -8623,40 +8631,40 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M121" t="n">
-        <v>-58.464177</v>
+        <v>-58.470815</v>
       </c>
       <c r="N121" t="n">
-        <v>-34.558239</v>
+        <v>-34.664201</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>-434</t>
+          <t>-480</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>6/17/2025</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Billinghurst 1478</t>
+          <t>Arias 4384</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>806926806</t>
+          <t>807537909</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -8671,7 +8679,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t xml:space="preserve">Columna base corroida con Nap y ganancias de ambas compañias, </t>
+          <t>Inclinada</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -8695,36 +8703,36 @@
         </is>
       </c>
       <c r="M122" t="n">
-        <v>-58.412302</v>
+        <v>-58.49147</v>
       </c>
       <c r="N122" t="n">
-        <v>-34.59301</v>
+        <v>-34.55031</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>-436</t>
+          <t>-482</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>6/18/2025</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Nueva York 3982</t>
+          <t>Av. Coronel Diaz 2596</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>806926812</t>
+          <t>807605730</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -8737,11 +8745,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Realizar aplomo de columna y tensar cruce Reclamo municipal </t>
-        </is>
-      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr">
         <is>
           <t>1</t>
@@ -8759,40 +8763,40 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M123" t="n">
-        <v>-58.511375</v>
+        <v>-58.405761</v>
       </c>
       <c r="N123" t="n">
-        <v>-34.600017</v>
+        <v>-34.582476</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>-448</t>
+          <t>-486</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>5/28/2025</t>
+          <t>6/23/2025</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Tronador 3826</t>
+          <t>Del Libertador 4596</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>806975699</t>
+          <t>807762871</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -8807,12 +8811,12 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Columna de retención (columna más ancha</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -8831,26 +8835,26 @@
         </is>
       </c>
       <c r="M124" t="n">
-        <v>-58.485056</v>
+        <v>-58.432241</v>
       </c>
       <c r="N124" t="n">
-        <v>-34.555059</v>
+        <v>-34.56642</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>-450</t>
+          <t>-487</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>6/23/2025</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Moldes 2325</t>
+          <t>Gorriti 3735</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -8860,7 +8864,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>807044059</t>
+          <t>807762979</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -8875,7 +8879,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t xml:space="preserve">Corroida en base para cambiar contiene CDO/NAP propio </t>
+          <t>NAP FTTH Columna MAL ESTADO ROTA EN BASE</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -8899,36 +8903,36 @@
         </is>
       </c>
       <c r="M125" t="n">
-        <v>-58.461167</v>
+        <v>-58.417348</v>
       </c>
       <c r="N125" t="n">
-        <v>-34.561613</v>
+        <v>-34.595467</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>-470</t>
+          <t>6223</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Av. Escalada 2831</t>
+          <t>ECHEANDIA 4200</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>807208264</t>
+          <t>807762996</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -8943,7 +8947,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna inclinada con base  corroida</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -8963,40 +8967,40 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M126" t="n">
-        <v>-58.470815</v>
+        <v>-58.472311</v>
       </c>
       <c r="N126" t="n">
-        <v>-34.664201</v>
+        <v>-34.654867</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>-480</t>
+          <t>6197</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>6/17/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Arias 4384</t>
+          <t>RIVADAVIA AV. 5600</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>807537909</t>
+          <t>807763040</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -9011,7 +9015,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Inclinada</t>
+          <t>Aplomar esta es esquina con emilio mitre aprox al 10</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -9035,36 +9039,36 @@
         </is>
       </c>
       <c r="M127" t="n">
-        <v>-58.49147</v>
+        <v>-58.444181</v>
       </c>
       <c r="N127" t="n">
-        <v>-34.55031</v>
+        <v>-34.621883</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>-482</t>
+          <t>6239</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>6/18/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Av. Coronel Diaz 2596</t>
+          <t>PALPA 2964</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>807605730</t>
+          <t>807763098</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -9077,7 +9081,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr"/>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
       <c r="I128" t="inlineStr">
         <is>
           <t>1</t>
@@ -9099,36 +9107,36 @@
         </is>
       </c>
       <c r="M128" t="n">
-        <v>-58.405761</v>
+        <v>-58.450113</v>
       </c>
       <c r="N128" t="n">
-        <v>-34.582476</v>
+        <v>-34.574534</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>-486</t>
+          <t>-488</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>6/23/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Del Libertador 4596</t>
+          <t>Blanco Encalada 4896</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>807762871</t>
+          <t>807763099</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -9143,7 +9151,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Pendiente traspaso rxo y retiro de columna podrida</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -9163,40 +9171,40 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M129" t="n">
-        <v>-58.432241</v>
+        <v>-58.484729</v>
       </c>
       <c r="N129" t="n">
-        <v>-34.56642</v>
+        <v>-34.574614</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>-487</t>
+          <t>6221</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>6/23/2025</t>
+          <t>6/26/2025</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Gorriti 3735</t>
+          <t>FERNANDEZ 1549</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>807762979</t>
+          <t>807789699</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -9211,7 +9219,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>NAP FTTH Columna MAL ESTADO ROTA EN BASE</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -9221,7 +9229,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -9231,40 +9239,40 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M130" t="n">
-        <v>-58.417348</v>
+        <v>-58.471717</v>
       </c>
       <c r="N130" t="n">
-        <v>-34.595467</v>
+        <v>-34.649961</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>6223</t>
+          <t>-491</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/26/2025</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>ECHEANDIA 4200</t>
+          <t>3 de Febrero 2171</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>807762996</t>
+          <t>807789702</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -9279,7 +9287,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Columna inclinada con base  corroida</t>
+          <t>Columna 114 propia picada en base con NAP</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -9299,40 +9307,40 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M131" t="n">
-        <v>-58.472311</v>
+        <v>-58.452636</v>
       </c>
       <c r="N131" t="n">
-        <v>-34.654867</v>
+        <v>-34.558607</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>6197</t>
+          <t>6289</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/30/2025</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 5600</t>
+          <t>ALBARIÑO 536</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>807763040</t>
+          <t>807851594</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -9347,7 +9355,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Aplomar esta es esquina con emilio mitre aprox al 10</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -9371,417 +9379,9 @@
         </is>
       </c>
       <c r="M132" t="n">
-        <v>-58.444181</v>
+        <v>-58.505173</v>
       </c>
       <c r="N132" t="n">
-        <v>-34.621883</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>6239</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>6/24/2025</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>PALPA 2964</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>807763098</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I133" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J133" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>-58.450113</v>
-      </c>
-      <c r="N133" t="n">
-        <v>-34.574534</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>-488</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>6/24/2025</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>Blanco Encalada 4896</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>807763099</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G134" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>Pendiente traspaso rxo y retiro de columna podrida</t>
-        </is>
-      </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J134" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>Poste</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>-58.484729</v>
-      </c>
-      <c r="N134" t="n">
-        <v>-34.574614</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>6221</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>6/26/2025</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>FERNANDEZ 1549</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>807789699</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G135" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>Poste inclinado</t>
-        </is>
-      </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J135" t="inlineStr">
-        <is>
-          <t>Aplomo</t>
-        </is>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>Poste</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>-58.471717</v>
-      </c>
-      <c r="N135" t="n">
-        <v>-34.649961</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>-491</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>6/26/2025</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>3 de Febrero 2171</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>807789702</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G136" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>Columna 114 propia picada en base con NAP</t>
-        </is>
-      </c>
-      <c r="I136" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J136" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>-58.452636</v>
-      </c>
-      <c r="N136" t="n">
-        <v>-34.558607</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>6248</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>6/27/2025</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>AVELLANEDA AV. 2395</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>807817952</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G137" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>Poste podrido</t>
-        </is>
-      </c>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J137" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>Poste</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>-58.4643</v>
-      </c>
-      <c r="N137" t="n">
-        <v>-34.623993</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>6289</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>6/30/2025</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>ALBARIÑO 536</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>807851594</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G138" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I138" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J138" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>-58.505173</v>
-      </c>
-      <c r="N138" t="n">
         <v>-34.643529</v>
       </c>
     </row>

--- a/mapa_interactivo_AYKO.xlsx
+++ b/mapa_interactivo_AYKO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N132"/>
+  <dimension ref="A1:N122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2796,7 +2796,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>-310</t>
+          <t>-311</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2806,7 +2806,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>GONZALEZ JOAQUIN V /ALT/ 729</t>
+          <t>GONZALEZ JOAQUIN V /ALT/ 789</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2816,7 +2816,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>804302855</t>
+          <t>804302872</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2851,40 +2851,40 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.482428</v>
+        <v>-58.482612</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.625289</v>
+        <v>-34.624833</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>-311</t>
+          <t>-314</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>3/29/2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>GONZALEZ JOAQUIN V /ALT/ 789</t>
+          <t>MOLDES /ALT/ 1983</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>106573 - FLORESTA</t>
+          <t>106595 - BELGRANO</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>804302872</t>
+          <t>804333528</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2899,12 +2899,12 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna propia con ampli de red propio picada en base.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2919,40 +2919,40 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.482612</v>
+        <v>-58.458417</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.624833</v>
+        <v>-34.56481</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>-314</t>
+          <t>5138</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>3/29/2025</t>
+          <t>4/1/2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>MOLDES /ALT/ 1983</t>
+          <t>LOPEZ, CARLOS ANTONIO 3326</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>106595 - BELGRANO</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>804333528</t>
+          <t>804468459</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2967,7 +2967,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Columna propia con ampli de red propio picada en base.</t>
+          <t>COLUMNA INCLINADA</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2977,7 +2977,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2991,16 +2991,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.458417</v>
+        <v>-58.508582</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.56481</v>
+        <v>-34.588936</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>5138</t>
+          <t>5139</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3010,7 +3010,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>LOPEZ, CARLOS ANTONIO 3326</t>
+          <t>LOPEZ, CARLOS ANTONIO 3346</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -3020,7 +3020,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>804468459</t>
+          <t>804468467</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3059,36 +3059,36 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.508582</v>
+        <v>-58.508809</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.588936</v>
+        <v>-34.589076</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>5139</t>
+          <t>-316</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>4/1/2025</t>
+          <t>4/3/2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>LOPEZ, CARLOS ANTONIO 3346</t>
+          <t>ALBERTI /ALT/ 621</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>106558 - BALVANERA</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>804468467</t>
+          <t>804468365</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3103,7 +3103,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>COLUMNA INCLINADA</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3113,7 +3113,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3127,36 +3127,36 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.508809</v>
+        <v>-58.401202</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.589076</v>
+        <v>-34.61683</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>-316</t>
+          <t>5500</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>4/3/2025</t>
+          <t>4/7/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>ALBERTI /ALT/ 621</t>
+          <t>LA PLATA AV. 1013</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>106558 - BALVANERA</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>804468365</t>
+          <t>804568914</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3171,7 +3171,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3181,7 +3181,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3195,16 +3195,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.401202</v>
+        <v>-58.426804</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.61683</v>
+        <v>-34.627283</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>5500</t>
+          <t>5728</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3214,17 +3214,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>LA PLATA AV. 1013</t>
+          <t>FRANCO 3340</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>804568914</t>
+          <t>804568964</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3239,7 +3239,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3249,7 +3249,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -3263,36 +3263,36 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.426804</v>
+        <v>-58.512525</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.627283</v>
+        <v>-34.585228</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>5728</t>
+          <t>-325</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>4/7/2025</t>
+          <t>4/8/2025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>FRANCO 3340</t>
+          <t>RINCON /ALT/ 1091</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>106556 - SAN CRISTOBAL</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>804568964</t>
+          <t>804569066</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3331,36 +3331,36 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.512525</v>
+        <v>-58.39573</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.585228</v>
+        <v>-34.621541</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>-325</t>
+          <t>-326</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>4/8/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>RINCON /ALT/ 1091</t>
+          <t>GARCIA DEL RIO /ALT/ 3354</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>106556 - SAN CRISTOBAL</t>
+          <t>106593 - SAAVEDRA</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>804569066</t>
+          <t>804634199</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3375,7 +3375,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Retirar poste de vereda. Reparar la vereda donde estaba colocado el poste.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3395,20 +3395,20 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.39573</v>
+        <v>-58.478106</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.621541</v>
+        <v>-34.551523</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>-326</t>
+          <t>-327</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3418,17 +3418,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>GARCIA DEL RIO /ALT/ 3354</t>
+          <t>ROOSEVELT F D ,AV. /ALT/ 5439</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>106592 - VILLA URQUIZA</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>804634199</t>
+          <t>804634203</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3443,7 +3443,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Retirar poste de vereda. Reparar la vereda donde estaba colocado el poste.</t>
+          <t>Colocar columna R200 y  dar aviso para el traspaso de nodos. (TECO y TLC)</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3453,30 +3453,30 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.478106</v>
+        <v>-58.491074</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.551523</v>
+        <v>-34.575623</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>-327</t>
+          <t>5572</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3486,17 +3486,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>ROOSEVELT F D ,AV. /ALT/ 5439</t>
+          <t>SANABRIA 4289</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>106592 - VILLA URQUIZA</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>804634203</t>
+          <t>804663652</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3511,7 +3511,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Colocar columna R200 y  dar aviso para el traspaso de nodos. (TECO y TLC)</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3521,30 +3521,30 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.491074</v>
+        <v>-58.516755</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.575623</v>
+        <v>-34.6002</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>5572</t>
+          <t>5573</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3554,7 +3554,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>SANABRIA 4289</t>
+          <t>LASTRA AV. 4379</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -3564,7 +3564,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>804663652</t>
+          <t>804663677</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3579,7 +3579,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3599,20 +3599,20 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.516755</v>
+        <v>-58.525125</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.6002</v>
+        <v>-34.604668</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>5573</t>
+          <t>5574</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3622,7 +3622,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>LASTRA AV. 4379</t>
+          <t>GRIVEO 3909</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -3632,7 +3632,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>804663677</t>
+          <t>804663683</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3647,7 +3647,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Poste Inclinado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3667,40 +3667,40 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.525125</v>
+        <v>-58.517126</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.604668</v>
+        <v>-34.592774</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>5574</t>
+          <t>-334</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/21/2025</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>GRIVEO 3909</t>
+          <t>BUCARELLI /ALT/ 1534</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>106597 - PARQUE CHAS</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>804663683</t>
+          <t>804838853</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3715,7 +3715,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Poste Inclinado</t>
+          <t xml:space="preserve">Cambiar Columna dañada torcida y fuera de plomo </t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3725,7 +3725,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3735,20 +3735,20 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.517126</v>
+        <v>-58.481261</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.592774</v>
+        <v>-34.584281</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>-334</t>
+          <t>-335</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3758,7 +3758,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>BUCARELLI /ALT/ 1534</t>
+          <t>BUCARELLI /ALT/ 1412</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -3768,7 +3768,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>804838853</t>
+          <t>804838855</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3783,7 +3783,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar Columna dañada torcida y fuera de plomo </t>
+          <t xml:space="preserve">Aplomar columna 114 </t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3807,16 +3807,16 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.481261</v>
+        <v>-58.479593</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.584281</v>
+        <v>-34.584943</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>-335</t>
+          <t>-336</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3826,7 +3826,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>BUCARELLI /ALT/ 1412</t>
+          <t>BAUNESS /ALT/ 1419</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -3836,7 +3836,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>804838855</t>
+          <t>804838856</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3851,7 +3851,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 114 </t>
+          <t>"Aplomar columna 114 con rienda a pique o colocar terminal"</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3875,16 +3875,16 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>-58.479593</v>
+        <v>-58.479168</v>
       </c>
       <c r="N51" t="n">
-        <v>-34.584943</v>
+        <v>-34.584482</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>-336</t>
+          <t>-337</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3894,17 +3894,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>BAUNESS /ALT/ 1419</t>
+          <t>PARAGUAY /ALT/ 4259</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>106594 - PALERMO</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>804838856</t>
+          <t>804838858</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3919,7 +3919,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>"Aplomar columna 114 con rienda a pique o colocar terminal"</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3943,16 +3943,16 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>-58.479168</v>
+        <v>-58.421822</v>
       </c>
       <c r="N52" t="n">
-        <v>-34.584482</v>
+        <v>-34.58645</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>-337</t>
+          <t>-338</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3962,7 +3962,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>PARAGUAY /ALT/ 4259</t>
+          <t>PARAGUAY /ALT/ 4283</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -3972,7 +3972,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>804838858</t>
+          <t>804838861</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -4011,16 +4011,16 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>-58.421822</v>
+        <v>-58.421964</v>
       </c>
       <c r="N53" t="n">
-        <v>-34.58645</v>
+        <v>-34.586342</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>-338</t>
+          <t>-339</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -4030,17 +4030,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>PARAGUAY /ALT/ 4283</t>
+          <t>GRIVEO /ALT/ 2435</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>106591 - VILLA PUEYRREDON</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>804838861</t>
+          <t>804838868</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4055,7 +4055,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t xml:space="preserve">Aplomar columna 114  </t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4065,7 +4065,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -4079,16 +4079,16 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>-58.421964</v>
+        <v>-58.498493</v>
       </c>
       <c r="N54" t="n">
-        <v>-34.586342</v>
+        <v>-34.581262</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>-339</t>
+          <t>-340</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -4098,17 +4098,17 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>GRIVEO /ALT/ 2435</t>
+          <t>SUPERI /ALT/ 1445</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>106591 - VILLA PUEYRREDON</t>
+          <t>106581 - COLEGIALES</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>804838868</t>
+          <t>804838869</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4123,7 +4123,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 114  </t>
+          <t>Columna podrida en la base</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4133,7 +4133,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -4147,16 +4147,16 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>-58.498493</v>
+        <v>-58.460666</v>
       </c>
       <c r="N55" t="n">
-        <v>-34.581262</v>
+        <v>-34.573823</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>-340</t>
+          <t>-341</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -4166,17 +4166,17 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>SUPERI /ALT/ 1445</t>
+          <t>3 DE FEBRERO /ALT/ 4835</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>106581 - COLEGIALES</t>
+          <t>106596 - NUNEZ</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>804838869</t>
+          <t>804838980</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -4191,7 +4191,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Columna podrida en la base</t>
+          <t>"Retirar poste teco cobre en desuso entrada Edificio reclamo municipal "</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -4211,40 +4211,40 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>-58.460666</v>
+        <v>-58.469157</v>
       </c>
       <c r="N56" t="n">
-        <v>-34.573823</v>
+        <v>-34.536783</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>-341</t>
+          <t>-342</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>4/21/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>3 DE FEBRERO /ALT/ 4835</t>
+          <t>WILLIAMS ALBERTO /ALT/ 5625</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>106596 - NUNEZ</t>
+          <t>106593 - SAAVEDRA</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>804838980</t>
+          <t>804839148</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -4259,17 +4259,17 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>"Retirar poste teco cobre en desuso entrada Edificio reclamo municipal "</t>
+          <t>Cambiar columna de 114. - VIRARDI</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -4279,20 +4279,20 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>-58.469157</v>
+        <v>-58.502447</v>
       </c>
       <c r="N57" t="n">
-        <v>-34.536783</v>
+        <v>-34.561008</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>-342</t>
+          <t>-343</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -4302,17 +4302,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>WILLIAMS ALBERTO /ALT/ 5625</t>
+          <t>ANDONAEGUI /ALT/ 1608</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>106597 - PARQUE CHAS</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>804839148</t>
+          <t>804839150</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -4327,7 +4327,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Cambiar columna de 114. - VIRARDI</t>
+          <t>Aplomar columna de 114 - VIRARDI</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4337,7 +4337,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -4351,16 +4351,16 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>-58.502447</v>
+        <v>-58.48278</v>
       </c>
       <c r="N58" t="n">
-        <v>-34.561008</v>
+        <v>-34.584137</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>-343</t>
+          <t>-344</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -4370,7 +4370,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>ANDONAEGUI /ALT/ 1608</t>
+          <t>ANDONAEGUI /ALT/ 1690</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -4380,7 +4380,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>804839150</t>
+          <t>804839162</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -4395,7 +4395,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Aplomar columna de 114 - VIRARDI</t>
+          <t>Aplomar columna de 114. - VIRARDI</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4419,16 +4419,16 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>-58.48278</v>
+        <v>-58.483947</v>
       </c>
       <c r="N59" t="n">
-        <v>-34.584137</v>
+        <v>-34.583207</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>-344</t>
+          <t>-345</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -4438,7 +4438,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>ANDONAEGUI /ALT/ 1690</t>
+          <t>ANDONAEGUI /ALT/ 1774</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -4448,7 +4448,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>804839162</t>
+          <t>804839181</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -4463,7 +4463,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Aplomar columna de 114. - VIRARDI</t>
+          <t>Aplomo/cambio de columna de 168 colocar columna y rienda en norma.  - VIRARDI</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4487,16 +4487,16 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>-58.483947</v>
+        <v>-58.484513</v>
       </c>
       <c r="N60" t="n">
-        <v>-34.583207</v>
+        <v>-34.582786</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>-345</t>
+          <t>-346</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -4506,17 +4506,17 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>ANDONAEGUI /ALT/ 1774</t>
+          <t>ARGERICH /ALT/ 4710</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>106591 - VILLA PUEYRREDON</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>804839181</t>
+          <t>804839198</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -4531,7 +4531,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Aplomo/cambio de columna de 168 colocar columna y rienda en norma.  - VIRARDI</t>
+          <t>Cambiar poste con rienda podrido en su base - VIRARDI</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -4541,7 +4541,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -4551,20 +4551,20 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>-58.484513</v>
+        <v>-58.503673</v>
       </c>
       <c r="N61" t="n">
-        <v>-34.582786</v>
+        <v>-34.586925</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>-346</t>
+          <t>-347</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -4574,17 +4574,17 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>ARGERICH /ALT/ 4710</t>
+          <t>AVALOS /ALT/ 1610</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>106591 - VILLA PUEYRREDON</t>
+          <t>106597 - PARQUE CHAS</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>804839198</t>
+          <t>804839214</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -4599,7 +4599,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Cambiar poste con rienda podrido en su base - VIRARDI</t>
+          <t>Cambiar columna de 168 - VIRARDI</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -4614,25 +4614,25 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo/Fuente TLC</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>-58.503673</v>
+        <v>-58.480099</v>
       </c>
       <c r="N62" t="n">
-        <v>-34.586925</v>
+        <v>-34.582085</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>-347</t>
+          <t>-349</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -4642,7 +4642,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>AVALOS /ALT/ 1610</t>
+          <t>BAUNESS /ALT/ 1616</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -4652,7 +4652,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>804839214</t>
+          <t>804839290</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -4667,7 +4667,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Cambiar columna de 168 - VIRARDI</t>
+          <t>Columna en polígono fuera de plomo con ancla fuera de norma - VIRARDI</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -4682,7 +4682,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Nodo/Fuente TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -4691,16 +4691,16 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>-58.480099</v>
+        <v>-58.48139</v>
       </c>
       <c r="N63" t="n">
-        <v>-34.582085</v>
+        <v>-34.583277</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>-349</t>
+          <t>-350</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -4710,7 +4710,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>BAUNESS /ALT/ 1616</t>
+          <t>BUCARELLI /ALT/ 1305</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -4720,7 +4720,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>804839290</t>
+          <t>804839440</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -4735,7 +4735,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Columna en polígono fuera de plomo con ancla fuera de norma - VIRARDI</t>
+          <t>Columna corroida en su base realizar cambio.  - VIRARDI</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -4759,16 +4759,16 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>-58.48139</v>
+        <v>-58.479078</v>
       </c>
       <c r="N64" t="n">
-        <v>-34.583277</v>
+        <v>-34.586298</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>-350</t>
+          <t>-351</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -4778,7 +4778,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>BUCARELLI /ALT/ 1305</t>
+          <t>BUCARELLI /ALT/ 1430</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -4788,7 +4788,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>804839440</t>
+          <t>804839511</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -4803,7 +4803,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Columna corroida en su base realizar cambio.  - VIRARDI</t>
+          <t>Aplomar columna normalizar.  - VIRARDI</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -4813,7 +4813,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -4827,16 +4827,16 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>-58.479078</v>
+        <v>-58.479712</v>
       </c>
       <c r="N65" t="n">
-        <v>-34.586298</v>
+        <v>-34.584855</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>-351</t>
+          <t>-352</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -4846,7 +4846,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>BUCARELLI /ALT/ 1430</t>
+          <t>BUCARELLI /ALT/ 935</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -4856,7 +4856,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>804839511</t>
+          <t>804839565</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -4871,7 +4871,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Aplomar columna normalizar.  - VIRARDI</t>
+          <t>Aplomar columna de 114. - VIRARDI</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -4895,16 +4895,16 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>-58.479712</v>
+        <v>-58.475389</v>
       </c>
       <c r="N66" t="n">
-        <v>-34.584855</v>
+        <v>-34.590317</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>-352</t>
+          <t>-353</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -4914,17 +4914,17 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>BUCARELLI /ALT/ 935</t>
+          <t>CAAGUAZU /ALT/ 5703</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>106576 - LINIERS</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>804839565</t>
+          <t>804839589</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -4939,7 +4939,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Aplomar columna de 114. - VIRARDI</t>
+          <t>Cambiar columna de 114. Fuera de plomo empotrada en árbol colocar rienda. ( se pasa tareas a contratista tratista de limpieza tensado y elevación del tendido).  - VIRARDI</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -4949,7 +4949,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -4963,16 +4963,16 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>-58.475389</v>
+        <v>-58.511462</v>
       </c>
       <c r="N67" t="n">
-        <v>-34.590317</v>
+        <v>-34.640542</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>-353</t>
+          <t>-354</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -4982,17 +4982,17 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>CAAGUAZU /ALT/ 5703</t>
+          <t>CONDARCO /ALT/ 5316</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>106576 - LINIERS</t>
+          <t>106591 - VILLA PUEYRREDON</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>804839589</t>
+          <t>804839626</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -5007,7 +5007,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Cambiar columna de 114. Fuera de plomo empotrada en árbol colocar rienda. ( se pasa tareas a contratista tratista de limpieza tensado y elevación del tendido).  - VIRARDI</t>
+          <t>Aplomo de columna de PRFV - VIRARDI</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -5031,16 +5031,16 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>-58.511462</v>
+        <v>-58.504455</v>
       </c>
       <c r="N68" t="n">
-        <v>-34.640542</v>
+        <v>-34.579941</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>-354</t>
+          <t>-355</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -5050,7 +5050,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>CONDARCO /ALT/ 5316</t>
+          <t>CUENCA /ALT/ 4480</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -5060,7 +5060,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>804839626</t>
+          <t>804839675</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -5075,7 +5075,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aplomo de columna de PRFV - VIRARDI</t>
+          <t>Columna nueva fuera de plomo sostiene nodo de Telecentro.  Reclamo municipal.  - VIRARDI</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -5090,7 +5090,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo/Fuente TLC</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -5099,16 +5099,16 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>-58.504455</v>
+        <v>-58.504568</v>
       </c>
       <c r="N69" t="n">
-        <v>-34.579941</v>
+        <v>-34.590534</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>-355</t>
+          <t>-356</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -5118,7 +5118,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>CUENCA /ALT/ 4480</t>
+          <t>CUENCA /ALT/ 4845</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>804839675</t>
+          <t>804839715</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -5143,7 +5143,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Columna nueva fuera de plomo sostiene nodo de Telecentro.  Reclamo municipal.  - VIRARDI</t>
+          <t>Retiro de poste viejo en desuso liberado podrido en su base.  - VIRARDI</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -5153,30 +5153,30 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Nodo/Fuente TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>-58.504568</v>
+        <v>-58.507182</v>
       </c>
       <c r="N70" t="n">
-        <v>-34.590534</v>
+        <v>-34.58749</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>-356</t>
+          <t>-358</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -5186,17 +5186,17 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>CUENCA /ALT/ 4845</t>
+          <t>GINEBRA /ALT/ 3887</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>106591 - VILLA PUEYRREDON</t>
+          <t>106597 - PARQUE CHAS</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>804839715</t>
+          <t>804839803</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -5211,7 +5211,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Retiro de poste viejo en desuso liberado podrido en su base.  - VIRARDI</t>
+          <t>Aplomo de columna de 114 - VIRARDI</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -5221,7 +5221,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -5231,20 +5231,20 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>-58.507182</v>
+        <v>-58.475735</v>
       </c>
       <c r="N71" t="n">
-        <v>-34.58749</v>
+        <v>-34.580487</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>-357</t>
+          <t>-359</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -5254,17 +5254,17 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>MISTRAL GABRIELA /ALT/ 3376</t>
+          <t>CABEZON JOSE LEON /ALT/ 2714</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>106589 - VILLA DEVOTO</t>
+          <t>106591 - VILLA PUEYRREDON</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>804839774</t>
+          <t>804839875</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -5279,7 +5279,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Cambiar columna corroida en su base.  Ubicada en puerta de colegio.  - VIRARDI</t>
+          <t>Aplomo de columna de 114 - VIRARDI</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -5289,7 +5289,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -5303,16 +5303,16 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>-58.507591</v>
+        <v>-58.503195</v>
       </c>
       <c r="N72" t="n">
-        <v>-34.590945</v>
+        <v>-34.581735</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>-358</t>
+          <t>-361</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -5322,7 +5322,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>GINEBRA /ALT/ 3887</t>
+          <t>LONDRES /ALT/ 4008</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -5332,7 +5332,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>804839803</t>
+          <t>804839936</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -5347,7 +5347,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Aplomo de columna de 114 - VIRARDI</t>
+          <t>Aplomo de columna de 114. - VIRARDI</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -5371,16 +5371,16 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>-58.475735</v>
+        <v>-58.478362</v>
       </c>
       <c r="N73" t="n">
-        <v>-34.580487</v>
+        <v>-34.581404</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>-359</t>
+          <t>-363</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -5390,17 +5390,17 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>CABEZON JOSE LEON /ALT/ 2714</t>
+          <t>OSLO /ALT/ 1255</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>106591 - VILLA PUEYRREDON</t>
+          <t>106597 - PARQUE CHAS</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>804839875</t>
+          <t>804839962</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -5415,7 +5415,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Aplomo de columna de 114 - VIRARDI</t>
+          <t>Cambiar columna de 168 podrida en su base.  - VIRARDI</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -5425,7 +5425,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -5439,16 +5439,16 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>-58.503195</v>
+        <v>-58.481767</v>
       </c>
       <c r="N74" t="n">
-        <v>-34.581735</v>
+        <v>-34.589507</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>-361</t>
+          <t>-364</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -5458,17 +5458,17 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>LONDRES /ALT/ 4008</t>
+          <t>PAROISSIEN /ALT/ 4871</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>106593 - SAAVEDRA</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>804839936</t>
+          <t>804839991</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -5483,7 +5483,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Aplomo de columna de 114. - VIRARDI</t>
+          <t>Aplomar columna de 114 - VIRARDI</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -5507,16 +5507,16 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>-58.478362</v>
+        <v>-58.493164</v>
       </c>
       <c r="N75" t="n">
-        <v>-34.581404</v>
+        <v>-34.55732</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>-362</t>
+          <t>-365</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -5526,17 +5526,17 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>MOZART /ALT/ 562</t>
+          <t>QUESADA /ALT/ 5290</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>106571 - PQUE. AVELLANEDA</t>
+          <t>106592 - VILLA URQUIZA</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>804839947</t>
+          <t>804839995</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -5551,7 +5551,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aplomar columna de 114. Se encuentra frente al 575 lado plaza sin número.  - VIRARDI</t>
+          <t>Columna nueva de PVC fuera de plomo.  - VIRARDI</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -5561,7 +5561,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -5575,16 +5575,16 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>-58.489948</v>
+        <v>-58.491934</v>
       </c>
       <c r="N76" t="n">
-        <v>-34.643478</v>
+        <v>-34.569348</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>-363</t>
+          <t>-366</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -5594,17 +5594,17 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>OSLO /ALT/ 1255</t>
+          <t>QUESADA /ALT/ 6088</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>106592 - VILLA URQUIZA</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>804839962</t>
+          <t>804840016</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -5619,7 +5619,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Cambiar columna de 168 podrida en su base.  - VIRARDI</t>
+          <t>Aplomar columna de 168 cambiar rienda.  - VIRARDI</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -5629,7 +5629,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -5643,16 +5643,16 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>-58.481767</v>
+        <v>-58.501418</v>
       </c>
       <c r="N77" t="n">
-        <v>-34.589507</v>
+        <v>-34.574363</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>-364</t>
+          <t>-367</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -5662,7 +5662,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>PAROISSIEN /ALT/ 4871</t>
+          <t>RUIZ HUIDOBRO ,AV. /ALT/ 4771</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -5672,7 +5672,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>804839991</t>
+          <t>804840024</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -5687,7 +5687,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aplomar columna de 114 - VIRARDI</t>
+          <t>Aplomo de columna de 114 - VIRARDI</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -5711,36 +5711,36 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>-58.493164</v>
+        <v>-58.494584</v>
       </c>
       <c r="N78" t="n">
-        <v>-34.55732</v>
+        <v>-34.554981</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>-365</t>
+          <t>-368</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>QUESADA /ALT/ 5290</t>
+          <t>ARIAS /ALT/ 1620</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>106592 - VILLA URQUIZA</t>
+          <t>106596 - NUNEZ</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>804839995</t>
+          <t>804876039</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -5755,17 +5755,17 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Columna nueva de PVC fuera de plomo.  - VIRARDI</t>
+          <t xml:space="preserve">Aplomar columna 168 con rienda </t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -5775,40 +5775,40 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>-58.491934</v>
+        <v>-58.465608</v>
       </c>
       <c r="N79" t="n">
-        <v>-34.569348</v>
+        <v>-34.538489</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>-366</t>
+          <t>-372</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>QUESADA /ALT/ 6088</t>
+          <t>CAMARGO /ALT/ 25</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>106592 - VILLA URQUIZA</t>
+          <t>106582 - VILLA CRESPO</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>804840016</t>
+          <t>804903809</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -5823,17 +5823,17 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aplomar columna de 168 cambiar rienda.  - VIRARDI</t>
+          <t>Aplomar columna 114 con rienda a pique</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -5847,36 +5847,36 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>-58.501418</v>
+        <v>-58.436788</v>
       </c>
       <c r="N80" t="n">
-        <v>-34.574363</v>
+        <v>-34.604014</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>-367</t>
+          <t>-373</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>RUIZ HUIDOBRO ,AV. /ALT/ 4771</t>
+          <t>GALLARDO ANGEL ,AV. /ALT/ 608</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>106569 - CABALLITO</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>804840024</t>
+          <t>804903810</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -5891,12 +5891,12 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Aplomo de columna de 114 - VIRARDI</t>
+          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -5915,36 +5915,36 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>-58.494584</v>
+        <v>-58.439461</v>
       </c>
       <c r="N81" t="n">
-        <v>-34.554981</v>
+        <v>-34.605744</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>-368</t>
+          <t>-375</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>ARIAS /ALT/ 1620</t>
+          <t>PAVON /ALT/ 3335</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>106596 - NUNEZ</t>
+          <t>106562 - BOEDO</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>804876039</t>
+          <t>804903824</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -5959,7 +5959,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 168 con rienda </t>
+          <t>Colocar columna nueva donde estaba la anterior cortada</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -5969,7 +5969,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -5979,20 +5979,20 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>-58.465608</v>
+        <v>-58.412418</v>
       </c>
       <c r="N82" t="n">
-        <v>-34.538489</v>
+        <v>-34.629288</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>-372</t>
+          <t>-376</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -6002,17 +6002,17 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>CAMARGO /ALT/ 25</t>
+          <t xml:space="preserve"> Valentin Gomez 3803</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>106582 - VILLA CRESPO</t>
+          <t>106568 - ALMAGRO</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>804903809</t>
+          <t>804903787</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -6027,7 +6027,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Aplomar columna 114 con rienda a pique</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -6051,16 +6051,16 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>-58.436788</v>
+        <v>-58.418424</v>
       </c>
       <c r="N83" t="n">
-        <v>-34.604014</v>
+        <v>-34.604463</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>-373</t>
+          <t>-377</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -6070,17 +6070,17 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>GALLARDO ANGEL ,AV. /ALT/ 608</t>
+          <t>HUMAHUACA /ALT/ 3918</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>106569 - CABALLITO</t>
+          <t>106568 - ALMAGRO</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>804903810</t>
+          <t>804903788</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -6095,7 +6095,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
+          <t>picada</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -6105,7 +6105,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -6119,36 +6119,36 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>-58.439461</v>
+        <v>-58.419694</v>
       </c>
       <c r="N84" t="n">
-        <v>-34.605744</v>
+        <v>-34.602062</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>-375</t>
+          <t>-383</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>PAVON /ALT/ 3335</t>
+          <t>VALDERRAMA /ALT/ 4187</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>106562 - BOEDO</t>
+          <t>106592 - VILLA URQUIZA</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>804903824</t>
+          <t>805507401</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -6163,7 +6163,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Colocar columna nueva donde estaba la anterior cortada</t>
+          <t xml:space="preserve">Aplomar columna 114 </t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -6173,7 +6173,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -6187,36 +6187,36 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>-58.412418</v>
+        <v>-58.481834</v>
       </c>
       <c r="N85" t="n">
-        <v>-34.629288</v>
+        <v>-34.560796</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>-376</t>
+          <t>-384</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Valentin Gomez 3803</t>
+          <t>LUGONES 1721</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>106568 - ALMAGRO</t>
+          <t>106586 - VILLA ORTUZAR</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>804903787</t>
+          <t>805507408</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -6231,7 +6231,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar columna 168 - La columna esta frente a la altura 1721</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -6241,7 +6241,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -6255,36 +6255,36 @@
         </is>
       </c>
       <c r="M86" t="n">
-        <v>-58.418424</v>
+        <v>-58.473936</v>
       </c>
       <c r="N86" t="n">
-        <v>-34.604463</v>
+        <v>-34.577346</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>-377</t>
+          <t>-385</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>HUMAHUACA /ALT/ 3918</t>
+          <t>MOLDES /ALT/ 1913</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>106568 - ALMAGRO</t>
+          <t>106595 - BELGRANO</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>804903788</t>
+          <t>805507415</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -6299,7 +6299,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>picada</t>
+          <t>Aplomar columna 114</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -6309,7 +6309,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -6323,36 +6323,36 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>-58.419694</v>
+        <v>-58.45789</v>
       </c>
       <c r="N87" t="n">
-        <v>-34.602062</v>
+        <v>-34.565423</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>-378</t>
+          <t>-386</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>MAGARINO CERVANTES A /ALT/ 5054</t>
+          <t>MOLDES /ALT/ 1943</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>106574 - VELEZ SARSFIELD</t>
+          <t>106595 - BELGRANO</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>804903791</t>
+          <t>805507419</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -6367,7 +6367,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Desmontar poste</t>
+          <t>Dos columnas fuera de plomo - aplomar o cambiar la que no tiene nodo de TLC</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -6377,50 +6377,50 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>-58.503618</v>
+        <v>-58.458217</v>
       </c>
       <c r="N88" t="n">
-        <v>-34.629209</v>
+        <v>-34.565043</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>-381</t>
+          <t>-391</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>4/25/2025</t>
+          <t>5/5/2025</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>RIVADAVIA ,AV. /ALT/ 9477</t>
+          <t>IBERA /ALT/ 5074</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>106575 - VILLA LURO</t>
+          <t>106592 - VILLA URQUIZA</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>805010120</t>
+          <t>805676610</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -6435,7 +6435,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Podrida en la base</t>
+          <t xml:space="preserve">Cambiar columna 114 base corroida </t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -6459,36 +6459,36 @@
         </is>
       </c>
       <c r="M89" t="n">
-        <v>-58.497691</v>
+        <v>-58.49045</v>
       </c>
       <c r="N89" t="n">
-        <v>-34.637087</v>
+        <v>-34.566894</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>-383</t>
+          <t>-392</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>5/5/2025</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>VALDERRAMA /ALT/ 4187</t>
+          <t>GARCIA TEODORO /ALT/ 1775</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>106592 - VILLA URQUIZA</t>
+          <t>106594 - PALERMO</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>805507401</t>
+          <t>805676615</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -6503,7 +6503,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 114 </t>
+          <t xml:space="preserve">Cambiar columna 114 base corroida </t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -6513,7 +6513,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -6527,36 +6527,36 @@
         </is>
       </c>
       <c r="M90" t="n">
-        <v>-58.481834</v>
+        <v>-58.440367</v>
       </c>
       <c r="N90" t="n">
-        <v>-34.560796</v>
+        <v>-34.563551</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>-384</t>
+          <t>-393</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>5/5/2025</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>LUGONES 1721</t>
+          <t>3 DE FEBRERO /ALT/ 1272</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>106586 - VILLA ORTUZAR</t>
+          <t>106594 - PALERMO</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>805507408</t>
+          <t>805676618</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -6571,7 +6571,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Aplomar columna 168 - La columna esta frente a la altura 1721</t>
+          <t xml:space="preserve">Cambiar columna 114 base corroida </t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -6581,7 +6581,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -6595,36 +6595,36 @@
         </is>
       </c>
       <c r="M91" t="n">
-        <v>-58.473936</v>
+        <v>-58.445186</v>
       </c>
       <c r="N91" t="n">
-        <v>-34.577346</v>
+        <v>-34.567417</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>-385</t>
+          <t>-395</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>5/7/2025</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>MOLDES /ALT/ 1913</t>
+          <t>POSADAS 1567</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>106595 - BELGRANO</t>
+          <t>106560 - RECOLETA</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>805507415</t>
+          <t>805707278</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -6639,7 +6639,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Aplomar columna 114</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -6649,7 +6649,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -6663,26 +6663,26 @@
         </is>
       </c>
       <c r="M92" t="n">
-        <v>-58.45789</v>
+        <v>-58.387847</v>
       </c>
       <c r="N92" t="n">
-        <v>-34.565423</v>
+        <v>-34.587043</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>-386</t>
+          <t>-403</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>5/7/2025</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>MOLDES /ALT/ 1943</t>
+          <t>SUCRE MRCAL A J DE /ALT/ 3515</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -6692,7 +6692,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>805507419</t>
+          <t>805722878</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -6707,7 +6707,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Dos columnas fuera de plomo - aplomar o cambiar la que no tiene nodo de TLC</t>
+          <t xml:space="preserve">Retirar poste teco cobre tirado y reparar vereda </t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -6717,50 +6717,50 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M93" t="n">
-        <v>-58.458217</v>
+        <v>-58.466241</v>
       </c>
       <c r="N93" t="n">
-        <v>-34.565043</v>
+        <v>-34.57047</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>-387</t>
+          <t>-404</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>5/1/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>FLORES GRAL VENANCIO /ALT/ 4139</t>
+          <t>Amenabar 3048</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>106574 - VELEZ SARSFIELD</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>805579025</t>
+          <t>805791896</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -6775,7 +6775,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Columna fuera de plomo - VIRARDI</t>
+          <t>Aplomar columna 114</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -6799,36 +6799,36 @@
         </is>
       </c>
       <c r="M94" t="n">
-        <v>-58.485221</v>
+        <v>-58.46579</v>
       </c>
       <c r="N94" t="n">
-        <v>-34.633425</v>
+        <v>-34.555012</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>-391</t>
+          <t>-405</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>5/5/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>IBERA /ALT/ 5074</t>
+          <t>Arcos 1855</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>106592 - VILLA URQUIZA</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>805676610</t>
+          <t>805791908</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -6843,7 +6843,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna 114 base corroida </t>
+          <t>Cambiar columna 114 picada en base, posee nodo propio.&lt;br&gt;</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -6867,36 +6867,36 @@
         </is>
       </c>
       <c r="M95" t="n">
-        <v>-58.49045</v>
+        <v>-58.451835</v>
       </c>
       <c r="N95" t="n">
-        <v>-34.566894</v>
+        <v>-34.562646</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>-392</t>
+          <t>-406</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>5/5/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>GARCIA TEODORO /ALT/ 1775</t>
+          <t>Olof palme 4144</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>805676615</t>
+          <t>805791925</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -6911,7 +6911,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna 114 base corroida </t>
+          <t>Tensar 2 riendas a pique columna 168</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -6921,7 +6921,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -6931,40 +6931,40 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M96" t="n">
-        <v>-58.440367</v>
+        <v>-58.488252</v>
       </c>
       <c r="N96" t="n">
-        <v>-34.563551</v>
+        <v>-34.553391</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>-393</t>
+          <t>-407</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>5/5/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>3 DE FEBRERO /ALT/ 1272</t>
+          <t>Cabildo 4148</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>805676618</t>
+          <t>805791933</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -6979,7 +6979,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna 114 base corroida </t>
+          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -6989,7 +6989,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -6999,40 +6999,40 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M97" t="n">
-        <v>-58.445186</v>
+        <v>-58.470837</v>
       </c>
       <c r="N97" t="n">
-        <v>-34.567417</v>
+        <v>-34.545751</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>-395</t>
+          <t>-408</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>5/7/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>POSADAS 1567</t>
+          <t>Larralde 2847</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>106560 - RECOLETA</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>805707278</t>
+          <t>805791941</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -7047,7 +7047,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar columna 114</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -7057,12 +7057,12 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo/Fuente Teco</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
@@ -7071,36 +7071,36 @@
         </is>
       </c>
       <c r="M98" t="n">
-        <v>-58.387847</v>
+        <v>-58.472267</v>
       </c>
       <c r="N98" t="n">
-        <v>-34.587043</v>
+        <v>-34.551163</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>-399</t>
+          <t>5805</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>5/7/2025</t>
+          <t>5/14/2025</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Casco 115</t>
+          <t>GUTENBERG 4134</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>106576 - LINIERS</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>805722774</t>
+          <t>806926378</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -7115,7 +7115,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Reclamo municipal pendiente de New OT:707916611 cambiar columna de 168 con rienda.  - VIRARDI</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -7125,7 +7125,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -7135,40 +7135,40 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M99" t="n">
-        <v>-58.525835</v>
+        <v>-58.51665</v>
       </c>
       <c r="N99" t="n">
-        <v>-34.637998</v>
+        <v>-34.596644</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>-403</t>
+          <t>-418</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>5/7/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>SUCRE MRCAL A J DE /ALT/ 3515</t>
+          <t>Porcel de Peralta 415</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>106595 - BELGRANO</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>805722878</t>
+          <t>806926542</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -7183,7 +7183,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t xml:space="preserve">Retirar poste teco cobre tirado y reparar vereda </t>
+          <t>aplomar cementar y colocar rienda</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -7193,7 +7193,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -7203,30 +7203,30 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M100" t="n">
-        <v>-58.466241</v>
+        <v>-58.520671</v>
       </c>
       <c r="N100" t="n">
-        <v>-34.57047</v>
+        <v>-34.632922</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>-404</t>
+          <t>-421</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Amenabar 3048</t>
+          <t>BESARES 1699</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -7236,7 +7236,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>805791896</t>
+          <t>806926565</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -7251,7 +7251,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Aplomar columna 114</t>
+          <t>Cambiar columna 114 picada en base tener en cuenta que hay acometidas subterraneas que bajan por la columna para entrar en Libertador 8008 tanto de HFC como FTTH colocar medias cañas y colocar cerca para que quedan precintadas a la columna</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -7261,7 +7261,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -7275,26 +7275,26 @@
         </is>
       </c>
       <c r="M101" t="n">
-        <v>-58.46579</v>
+        <v>-58.464144</v>
       </c>
       <c r="N101" t="n">
-        <v>-34.555012</v>
+        <v>-34.541832</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>-405</t>
+          <t>-422</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Arcos 1855</t>
+          <t>Franklin Roosevelt 4901</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -7304,7 +7304,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>805791908</t>
+          <t>806926575</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -7319,7 +7319,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Cambiar columna 114 picada en base, posee nodo propio.&lt;br&gt;</t>
+          <t>Aplomar columna 114</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -7343,36 +7343,36 @@
         </is>
       </c>
       <c r="M102" t="n">
-        <v>-58.451835</v>
+        <v>-58.485102</v>
       </c>
       <c r="N102" t="n">
-        <v>-34.562646</v>
+        <v>-34.572327</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>-406</t>
+          <t>-425</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Olof palme 4144</t>
+          <t>Av. Eva Peron 7437</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>805791925</t>
+          <t>806926621</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -7387,7 +7387,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Tensar 2 riendas a pique columna 168</t>
+          <t>Aplomar o cambiar columna de 114</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -7397,7 +7397,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -7407,40 +7407,40 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M103" t="n">
-        <v>-58.488252</v>
+        <v>-58.501029</v>
       </c>
       <c r="N103" t="n">
-        <v>-34.553391</v>
+        <v>-34.673558</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>-407</t>
+          <t>-426</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Cabildo 4148</t>
+          <t>Av. Eva Peron 7471</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>805791933</t>
+          <t>806926647</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -7455,7 +7455,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
+          <t>Aplomar columna de 168 con rienda</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -7479,36 +7479,36 @@
         </is>
       </c>
       <c r="M104" t="n">
-        <v>-58.470837</v>
+        <v>-58.501565</v>
       </c>
       <c r="N104" t="n">
-        <v>-34.545751</v>
+        <v>-34.673845</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>-408</t>
+          <t>-430</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Larralde 2847</t>
+          <t>Araoz 606</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>805791941</t>
+          <t>806926712</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -7523,7 +7523,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Aplomar columna 114</t>
+          <t>columna base corroida sin riesgo de caída a la fecha. 14/05/2025</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -7533,12 +7533,12 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>Nodo/Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
@@ -7547,36 +7547,36 @@
         </is>
       </c>
       <c r="M105" t="n">
-        <v>-58.472267</v>
+        <v>-58.434761</v>
       </c>
       <c r="N105" t="n">
-        <v>-34.551163</v>
+        <v>-34.598381</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>5805</t>
+          <t>-432</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>5/14/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>GUTENBERG 4134</t>
+          <t>ALVAREZ JULIAN 618</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>806926378</t>
+          <t>806926759</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -7591,7 +7591,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Columna con base corroida sin riesgo de caida al 14/05/2025</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -7601,7 +7601,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -7611,20 +7611,20 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M106" t="n">
-        <v>-58.51665</v>
+        <v>-58.433867</v>
       </c>
       <c r="N106" t="n">
-        <v>-34.596644</v>
+        <v>-34.599149</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>-418</t>
+          <t>-433</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -7634,17 +7634,17 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Porcel de Peralta 415</t>
+          <t>Moldes 2720</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>806926542</t>
+          <t>806926767</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -7659,7 +7659,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>aplomar cementar y colocar rienda</t>
+          <t xml:space="preserve">Poste - Pasan 5 lingas y la línea de cobre </t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -7669,7 +7669,7 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -7679,20 +7679,20 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M107" t="n">
-        <v>-58.520671</v>
+        <v>-58.464177</v>
       </c>
       <c r="N107" t="n">
-        <v>-34.632922</v>
+        <v>-34.558239</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>-417</t>
+          <t>-434</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -7702,17 +7702,17 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Porcel de Peralta 535</t>
+          <t>Billinghurst 1478</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>806926548</t>
+          <t>806926806</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -7727,7 +7727,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>aplomo de columna 114</t>
+          <t xml:space="preserve">Columna base corroida con Nap y ganancias de ambas compañias, </t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -7751,16 +7751,16 @@
         </is>
       </c>
       <c r="M108" t="n">
-        <v>-58.52231</v>
+        <v>-58.412302</v>
       </c>
       <c r="N108" t="n">
-        <v>-34.632171</v>
+        <v>-34.59301</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>-421</t>
+          <t>-436</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -7770,17 +7770,17 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>BESARES 1699</t>
+          <t>Nueva York 3982</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>806926565</t>
+          <t>806926812</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -7795,7 +7795,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Cambiar columna 114 picada en base tener en cuenta que hay acometidas subterraneas que bajan por la columna para entrar en Libertador 8008 tanto de HFC como FTTH colocar medias cañas y colocar cerca para que quedan precintadas a la columna</t>
+          <t xml:space="preserve">Realizar aplomo de columna y tensar cruce Reclamo municipal </t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -7815,40 +7815,40 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M109" t="n">
-        <v>-58.464144</v>
+        <v>-58.511375</v>
       </c>
       <c r="N109" t="n">
-        <v>-34.541832</v>
+        <v>-34.600017</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>-422</t>
+          <t>-448</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/28/2025</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Franklin Roosevelt 4901</t>
+          <t>Tronador 3826</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>806926575</t>
+          <t>806975699</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -7863,12 +7863,12 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Aplomar columna 114</t>
+          <t>Columna de retención (columna más ancha</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -7887,36 +7887,36 @@
         </is>
       </c>
       <c r="M110" t="n">
-        <v>-58.485102</v>
+        <v>-58.485056</v>
       </c>
       <c r="N110" t="n">
-        <v>-34.572327</v>
+        <v>-34.555059</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>-424</t>
+          <t>-450</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Jose Enrique Rodo 4487</t>
+          <t>Moldes 2325</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>806926590</t>
+          <t>807044059</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -7931,7 +7931,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Retirar columna de 168 fuera de plomo y traspasar tendido con rienda a columna nueva</t>
+          <t xml:space="preserve">Corroida en base para cambiar contiene CDO/NAP propio </t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -7955,36 +7955,36 @@
         </is>
       </c>
       <c r="M111" t="n">
-        <v>-58.487917</v>
+        <v>-58.461167</v>
       </c>
       <c r="N111" t="n">
-        <v>-34.64481</v>
+        <v>-34.561613</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>-425</t>
+          <t>-470</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Av. Eva Peron 7437</t>
+          <t>Av. Escalada 2831</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>806926621</t>
+          <t>807208264</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -7999,7 +7999,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Aplomar o cambiar columna de 114</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -8023,36 +8023,36 @@
         </is>
       </c>
       <c r="M112" t="n">
-        <v>-58.501029</v>
+        <v>-58.470815</v>
       </c>
       <c r="N112" t="n">
-        <v>-34.673558</v>
+        <v>-34.664201</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>-426</t>
+          <t>-480</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>6/17/2025</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Av. Eva Peron 7471</t>
+          <t>Arias 4384</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>806926647</t>
+          <t>807537909</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -8067,7 +8067,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Aplomar columna de 168 con rienda</t>
+          <t>Inclinada</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -8077,7 +8077,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -8087,40 +8087,40 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M113" t="n">
-        <v>-58.501565</v>
+        <v>-58.49147</v>
       </c>
       <c r="N113" t="n">
-        <v>-34.673845</v>
+        <v>-34.55031</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>-430</t>
+          <t>-482</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>6/18/2025</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Araoz 606</t>
+          <t>Av. Coronel Diaz 2596</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>806926712</t>
+          <t>807605730</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -8133,11 +8133,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>columna base corroida sin riesgo de caída a la fecha. 14/05/2025</t>
-        </is>
-      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr">
         <is>
           <t>1</t>
@@ -8159,36 +8155,36 @@
         </is>
       </c>
       <c r="M114" t="n">
-        <v>-58.434761</v>
+        <v>-58.405761</v>
       </c>
       <c r="N114" t="n">
-        <v>-34.598381</v>
+        <v>-34.582476</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>-432</t>
+          <t>-486</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>6/23/2025</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>ALVAREZ JULIAN 618</t>
+          <t>Del Libertador 4596</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>806926759</t>
+          <t>807762871</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -8203,7 +8199,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Columna con base corroida sin riesgo de caida al 14/05/2025</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -8227,36 +8223,36 @@
         </is>
       </c>
       <c r="M115" t="n">
-        <v>-58.433867</v>
+        <v>-58.432241</v>
       </c>
       <c r="N115" t="n">
-        <v>-34.599149</v>
+        <v>-34.56642</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>-433</t>
+          <t>-487</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>6/23/2025</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Moldes 2720</t>
+          <t>Gorriti 3735</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>806926767</t>
+          <t>807762979</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -8271,7 +8267,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poste - Pasan 5 lingas y la línea de cobre </t>
+          <t>NAP FTTH Columna MAL ESTADO ROTA EN BASE</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -8291,40 +8287,40 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M116" t="n">
-        <v>-58.464177</v>
+        <v>-58.417348</v>
       </c>
       <c r="N116" t="n">
-        <v>-34.558239</v>
+        <v>-34.595467</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>-434</t>
+          <t>6223</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Billinghurst 1478</t>
+          <t>ECHEANDIA 4200</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>806926806</t>
+          <t>807762996</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -8339,7 +8335,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t xml:space="preserve">Columna base corroida con Nap y ganancias de ambas compañias, </t>
+          <t>Columna inclinada con base  corroida</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -8359,40 +8355,40 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M117" t="n">
-        <v>-58.412302</v>
+        <v>-58.472311</v>
       </c>
       <c r="N117" t="n">
-        <v>-34.59301</v>
+        <v>-34.654867</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>-436</t>
+          <t>6197</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Nueva York 3982</t>
+          <t>RIVADAVIA AV. 5600</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>806926812</t>
+          <t>807763040</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -8407,7 +8403,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t xml:space="preserve">Realizar aplomo de columna y tensar cruce Reclamo municipal </t>
+          <t>Aplomar esta es esquina con emilio mitre aprox al 10</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -8427,40 +8423,40 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M118" t="n">
-        <v>-58.511375</v>
+        <v>-58.444181</v>
       </c>
       <c r="N118" t="n">
-        <v>-34.600017</v>
+        <v>-34.621883</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>-448</t>
+          <t>6239</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>5/28/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Tronador 3826</t>
+          <t>PALPA 2964</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>806975699</t>
+          <t>807763098</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -8475,12 +8471,12 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Columna de retención (columna más ancha</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -8499,36 +8495,36 @@
         </is>
       </c>
       <c r="M119" t="n">
-        <v>-58.485056</v>
+        <v>-58.450113</v>
       </c>
       <c r="N119" t="n">
-        <v>-34.555059</v>
+        <v>-34.574534</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>-450</t>
+          <t>-488</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Moldes 2325</t>
+          <t>Blanco Encalada 4896</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>807044059</t>
+          <t>807763099</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -8543,7 +8539,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t xml:space="preserve">Corroida en base para cambiar contiene CDO/NAP propio </t>
+          <t>Pendiente traspaso rxo y retiro de columna podrida</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -8563,40 +8559,40 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M120" t="n">
-        <v>-58.461167</v>
+        <v>-58.484729</v>
       </c>
       <c r="N120" t="n">
-        <v>-34.561613</v>
+        <v>-34.574614</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>-470</t>
+          <t>6221</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/26/2025</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Av. Escalada 2831</t>
+          <t>FERNANDEZ 1549</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>807208264</t>
+          <t>807789699</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -8611,7 +8607,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -8621,7 +8617,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -8631,40 +8627,40 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M121" t="n">
-        <v>-58.470815</v>
+        <v>-58.471717</v>
       </c>
       <c r="N121" t="n">
-        <v>-34.664201</v>
+        <v>-34.649961</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>-480</t>
+          <t>-491</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>6/17/2025</t>
+          <t>6/26/2025</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Arias 4384</t>
+          <t>3 de Febrero 2171</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>807537909</t>
+          <t>807789702</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -8679,7 +8675,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Inclinada</t>
+          <t>Columna 114 propia picada en base con NAP</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -8703,686 +8699,10 @@
         </is>
       </c>
       <c r="M122" t="n">
-        <v>-58.49147</v>
+        <v>-58.452636</v>
       </c>
       <c r="N122" t="n">
-        <v>-34.55031</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>-482</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>6/18/2025</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>Av. Coronel Diaz 2596</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>807605730</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H123" t="inlineStr"/>
-      <c r="I123" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>-58.405761</v>
-      </c>
-      <c r="N123" t="n">
-        <v>-34.582476</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>-486</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>6/23/2025</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>Del Libertador 4596</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>807762871</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I124" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>-58.432241</v>
-      </c>
-      <c r="N124" t="n">
-        <v>-34.56642</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>-487</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>6/23/2025</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>Gorriti 3735</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>807762979</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>NAP FTTH Columna MAL ESTADO ROTA EN BASE</t>
-        </is>
-      </c>
-      <c r="I125" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J125" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>-58.417348</v>
-      </c>
-      <c r="N125" t="n">
-        <v>-34.595467</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>6223</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>6/24/2025</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>ECHEANDIA 4200</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>807762996</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>Columna inclinada con base  corroida</t>
-        </is>
-      </c>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J126" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>Terminal</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>-58.472311</v>
-      </c>
-      <c r="N126" t="n">
-        <v>-34.654867</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>6197</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>6/24/2025</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>RIVADAVIA AV. 5600</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>807763040</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>Aplomar esta es esquina con emilio mitre aprox al 10</t>
-        </is>
-      </c>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J127" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>-58.444181</v>
-      </c>
-      <c r="N127" t="n">
-        <v>-34.621883</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>6239</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>6/24/2025</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>PALPA 2964</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>807763098</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J128" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>-58.450113</v>
-      </c>
-      <c r="N128" t="n">
-        <v>-34.574534</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>-488</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>6/24/2025</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>Blanco Encalada 4896</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>807763099</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>Pendiente traspaso rxo y retiro de columna podrida</t>
-        </is>
-      </c>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J129" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>Poste</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>-58.484729</v>
-      </c>
-      <c r="N129" t="n">
-        <v>-34.574614</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>6221</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>6/26/2025</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>FERNANDEZ 1549</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>807789699</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>Poste inclinado</t>
-        </is>
-      </c>
-      <c r="I130" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J130" t="inlineStr">
-        <is>
-          <t>Aplomo</t>
-        </is>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>Poste</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>-58.471717</v>
-      </c>
-      <c r="N130" t="n">
-        <v>-34.649961</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>-491</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>6/26/2025</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>3 de Febrero 2171</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>807789702</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G131" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>Columna 114 propia picada en base con NAP</t>
-        </is>
-      </c>
-      <c r="I131" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J131" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>-58.452636</v>
-      </c>
-      <c r="N131" t="n">
         <v>-34.558607</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>6289</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>6/30/2025</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>ALBARIÑO 536</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>807851594</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I132" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J132" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>-58.505173</v>
-      </c>
-      <c r="N132" t="n">
-        <v>-34.643529</v>
       </c>
     </row>
   </sheetData>

--- a/mapa_interactivo_AYKO.xlsx
+++ b/mapa_interactivo_AYKO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N122"/>
+  <dimension ref="A1:N123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3272,7 +3272,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>-325</t>
+          <t>5521</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3282,17 +3282,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>RINCON /ALT/ 1091</t>
+          <t>EL PEREGRINO 3115</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>106556 - SAN CRISTOBAL</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>804569066</t>
+          <t>804569000</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3307,7 +3307,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Volvio a ingresar se inclino el poste - caso 6316</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3317,7 +3317,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3327,40 +3327,40 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.39573</v>
+        <v>-58.485232</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.621541</v>
+        <v>-34.611573</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>-326</t>
+          <t>-325</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/8/2025</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>GARCIA DEL RIO /ALT/ 3354</t>
+          <t>RINCON /ALT/ 1091</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>106556 - SAN CRISTOBAL</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>804634199</t>
+          <t>804569066</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3375,7 +3375,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Retirar poste de vereda. Reparar la vereda donde estaba colocado el poste.</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3395,20 +3395,20 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.478106</v>
+        <v>-58.39573</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.551523</v>
+        <v>-34.621541</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>-327</t>
+          <t>-326</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3418,17 +3418,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>ROOSEVELT F D ,AV. /ALT/ 5439</t>
+          <t>GARCIA DEL RIO /ALT/ 3354</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>106592 - VILLA URQUIZA</t>
+          <t>106593 - SAAVEDRA</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>804634203</t>
+          <t>804634199</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3443,7 +3443,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Colocar columna R200 y  dar aviso para el traspaso de nodos. (TECO y TLC)</t>
+          <t>Retirar poste de vereda. Reparar la vereda donde estaba colocado el poste.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3453,30 +3453,30 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.491074</v>
+        <v>-58.478106</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.575623</v>
+        <v>-34.551523</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>5572</t>
+          <t>-327</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3486,17 +3486,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>SANABRIA 4289</t>
+          <t>ROOSEVELT F D ,AV. /ALT/ 5439</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>106592 - VILLA URQUIZA</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>804663652</t>
+          <t>804634203</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3511,7 +3511,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Colocar columna R200 y  dar aviso para el traspaso de nodos. (TECO y TLC)</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3521,30 +3521,30 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.516755</v>
+        <v>-58.491074</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.6002</v>
+        <v>-34.575623</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>5573</t>
+          <t>5572</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3554,7 +3554,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>LASTRA AV. 4379</t>
+          <t>SANABRIA 4289</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -3564,7 +3564,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>804663677</t>
+          <t>804663652</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3579,7 +3579,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3599,20 +3599,20 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.525125</v>
+        <v>-58.516755</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.604668</v>
+        <v>-34.6002</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>5574</t>
+          <t>5573</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3622,7 +3622,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>GRIVEO 3909</t>
+          <t>LASTRA AV. 4379</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -3632,7 +3632,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>804663683</t>
+          <t>804663677</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3647,7 +3647,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Poste Inclinado</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3667,40 +3667,40 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.517126</v>
+        <v>-58.525125</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.592774</v>
+        <v>-34.604668</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>-334</t>
+          <t>5574</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>4/21/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>BUCARELLI /ALT/ 1534</t>
+          <t>GRIVEO 3909</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>804838853</t>
+          <t>804663683</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3715,7 +3715,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar Columna dañada torcida y fuera de plomo </t>
+          <t>Poste Inclinado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3725,7 +3725,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3735,20 +3735,20 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.481261</v>
+        <v>-58.517126</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.584281</v>
+        <v>-34.592774</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>-335</t>
+          <t>-334</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3758,7 +3758,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>BUCARELLI /ALT/ 1412</t>
+          <t>BUCARELLI /ALT/ 1534</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -3768,7 +3768,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>804838855</t>
+          <t>804838853</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3783,7 +3783,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 114 </t>
+          <t xml:space="preserve">Cambiar Columna dañada torcida y fuera de plomo </t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3807,16 +3807,16 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.479593</v>
+        <v>-58.481261</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.584943</v>
+        <v>-34.584281</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>-336</t>
+          <t>-335</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3826,7 +3826,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>BAUNESS /ALT/ 1419</t>
+          <t>BUCARELLI /ALT/ 1412</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -3836,7 +3836,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>804838856</t>
+          <t>804838855</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3851,7 +3851,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>"Aplomar columna 114 con rienda a pique o colocar terminal"</t>
+          <t xml:space="preserve">Aplomar columna 114 </t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3875,16 +3875,16 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>-58.479168</v>
+        <v>-58.479593</v>
       </c>
       <c r="N51" t="n">
-        <v>-34.584482</v>
+        <v>-34.584943</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>-337</t>
+          <t>-336</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3894,17 +3894,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>PARAGUAY /ALT/ 4259</t>
+          <t>BAUNESS /ALT/ 1419</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>106597 - PARQUE CHAS</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>804838858</t>
+          <t>804838856</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3919,7 +3919,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>"Aplomar columna 114 con rienda a pique o colocar terminal"</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3943,16 +3943,16 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>-58.421822</v>
+        <v>-58.479168</v>
       </c>
       <c r="N52" t="n">
-        <v>-34.58645</v>
+        <v>-34.584482</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>-338</t>
+          <t>-337</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3962,7 +3962,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>PARAGUAY /ALT/ 4283</t>
+          <t>PARAGUAY /ALT/ 4259</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -3972,7 +3972,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>804838861</t>
+          <t>804838858</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -4011,16 +4011,16 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>-58.421964</v>
+        <v>-58.421822</v>
       </c>
       <c r="N53" t="n">
-        <v>-34.586342</v>
+        <v>-34.58645</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>-339</t>
+          <t>-338</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -4030,17 +4030,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>GRIVEO /ALT/ 2435</t>
+          <t>PARAGUAY /ALT/ 4283</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>106591 - VILLA PUEYRREDON</t>
+          <t>106594 - PALERMO</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>804838868</t>
+          <t>804838861</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4055,7 +4055,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 114  </t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4065,7 +4065,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -4079,16 +4079,16 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>-58.498493</v>
+        <v>-58.421964</v>
       </c>
       <c r="N54" t="n">
-        <v>-34.581262</v>
+        <v>-34.586342</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>-340</t>
+          <t>-339</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -4098,17 +4098,17 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>SUPERI /ALT/ 1445</t>
+          <t>GRIVEO /ALT/ 2435</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>106581 - COLEGIALES</t>
+          <t>106591 - VILLA PUEYRREDON</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>804838869</t>
+          <t>804838868</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4123,7 +4123,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Columna podrida en la base</t>
+          <t xml:space="preserve">Aplomar columna 114  </t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4133,7 +4133,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -4147,16 +4147,16 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>-58.460666</v>
+        <v>-58.498493</v>
       </c>
       <c r="N55" t="n">
-        <v>-34.573823</v>
+        <v>-34.581262</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>-341</t>
+          <t>-340</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -4166,17 +4166,17 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>3 DE FEBRERO /ALT/ 4835</t>
+          <t>SUPERI /ALT/ 1445</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>106596 - NUNEZ</t>
+          <t>106581 - COLEGIALES</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>804838980</t>
+          <t>804838869</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -4191,7 +4191,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>"Retirar poste teco cobre en desuso entrada Edificio reclamo municipal "</t>
+          <t>Columna podrida en la base</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -4211,40 +4211,40 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>-58.469157</v>
+        <v>-58.460666</v>
       </c>
       <c r="N56" t="n">
-        <v>-34.536783</v>
+        <v>-34.573823</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>-342</t>
+          <t>-341</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/21/2025</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>WILLIAMS ALBERTO /ALT/ 5625</t>
+          <t>3 DE FEBRERO /ALT/ 4835</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>106596 - NUNEZ</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>804839148</t>
+          <t>804838980</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -4259,17 +4259,17 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Cambiar columna de 114. - VIRARDI</t>
+          <t>"Retirar poste teco cobre en desuso entrada Edificio reclamo municipal "</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -4279,20 +4279,20 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>-58.502447</v>
+        <v>-58.469157</v>
       </c>
       <c r="N57" t="n">
-        <v>-34.561008</v>
+        <v>-34.536783</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>-343</t>
+          <t>-342</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -4302,17 +4302,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>ANDONAEGUI /ALT/ 1608</t>
+          <t>WILLIAMS ALBERTO /ALT/ 5625</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>106593 - SAAVEDRA</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>804839150</t>
+          <t>804839148</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -4327,7 +4327,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Aplomar columna de 114 - VIRARDI</t>
+          <t>Cambiar columna de 114. - VIRARDI</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4337,7 +4337,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -4351,16 +4351,16 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>-58.48278</v>
+        <v>-58.502447</v>
       </c>
       <c r="N58" t="n">
-        <v>-34.584137</v>
+        <v>-34.561008</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>-344</t>
+          <t>-343</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -4370,7 +4370,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>ANDONAEGUI /ALT/ 1690</t>
+          <t>ANDONAEGUI /ALT/ 1608</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -4380,7 +4380,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>804839162</t>
+          <t>804839150</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -4395,7 +4395,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Aplomar columna de 114. - VIRARDI</t>
+          <t>Aplomar columna de 114 - VIRARDI</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4419,16 +4419,16 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>-58.483947</v>
+        <v>-58.48278</v>
       </c>
       <c r="N59" t="n">
-        <v>-34.583207</v>
+        <v>-34.584137</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>-345</t>
+          <t>-344</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -4438,7 +4438,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>ANDONAEGUI /ALT/ 1774</t>
+          <t>ANDONAEGUI /ALT/ 1690</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -4448,7 +4448,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>804839181</t>
+          <t>804839162</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -4463,7 +4463,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Aplomo/cambio de columna de 168 colocar columna y rienda en norma.  - VIRARDI</t>
+          <t>Aplomar columna de 114. - VIRARDI</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4487,16 +4487,16 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>-58.484513</v>
+        <v>-58.483947</v>
       </c>
       <c r="N60" t="n">
-        <v>-34.582786</v>
+        <v>-34.583207</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>-346</t>
+          <t>-345</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -4506,17 +4506,17 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>ARGERICH /ALT/ 4710</t>
+          <t>ANDONAEGUI /ALT/ 1774</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>106591 - VILLA PUEYRREDON</t>
+          <t>106597 - PARQUE CHAS</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>804839198</t>
+          <t>804839181</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -4531,7 +4531,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Cambiar poste con rienda podrido en su base - VIRARDI</t>
+          <t>Aplomo/cambio de columna de 168 colocar columna y rienda en norma.  - VIRARDI</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -4541,7 +4541,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -4551,20 +4551,20 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>-58.503673</v>
+        <v>-58.484513</v>
       </c>
       <c r="N61" t="n">
-        <v>-34.586925</v>
+        <v>-34.582786</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>-347</t>
+          <t>-346</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -4574,17 +4574,17 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>AVALOS /ALT/ 1610</t>
+          <t>ARGERICH /ALT/ 4710</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>106591 - VILLA PUEYRREDON</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>804839214</t>
+          <t>804839198</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -4599,7 +4599,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Cambiar columna de 168 - VIRARDI</t>
+          <t>Cambiar poste con rienda podrido en su base - VIRARDI</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -4614,25 +4614,25 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Nodo/Fuente TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>-58.480099</v>
+        <v>-58.503673</v>
       </c>
       <c r="N62" t="n">
-        <v>-34.582085</v>
+        <v>-34.586925</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>-349</t>
+          <t>-347</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -4642,7 +4642,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>BAUNESS /ALT/ 1616</t>
+          <t>AVALOS /ALT/ 1610</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -4652,7 +4652,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>804839290</t>
+          <t>804839214</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -4667,7 +4667,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Columna en polígono fuera de plomo con ancla fuera de norma - VIRARDI</t>
+          <t>Cambiar columna de 168 - VIRARDI</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -4682,7 +4682,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo/Fuente TLC</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -4691,16 +4691,16 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>-58.48139</v>
+        <v>-58.480099</v>
       </c>
       <c r="N63" t="n">
-        <v>-34.583277</v>
+        <v>-34.582085</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>-350</t>
+          <t>-349</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -4710,7 +4710,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>BUCARELLI /ALT/ 1305</t>
+          <t>BAUNESS /ALT/ 1616</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -4720,7 +4720,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>804839440</t>
+          <t>804839290</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -4735,7 +4735,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Columna corroida en su base realizar cambio.  - VIRARDI</t>
+          <t>Columna en polígono fuera de plomo con ancla fuera de norma - VIRARDI</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -4759,16 +4759,16 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>-58.479078</v>
+        <v>-58.48139</v>
       </c>
       <c r="N64" t="n">
-        <v>-34.586298</v>
+        <v>-34.583277</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>-351</t>
+          <t>-350</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -4778,7 +4778,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>BUCARELLI /ALT/ 1430</t>
+          <t>BUCARELLI /ALT/ 1305</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -4788,7 +4788,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>804839511</t>
+          <t>804839440</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -4803,7 +4803,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Aplomar columna normalizar.  - VIRARDI</t>
+          <t>Columna corroida en su base realizar cambio.  - VIRARDI</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -4813,7 +4813,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -4827,16 +4827,16 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>-58.479712</v>
+        <v>-58.479078</v>
       </c>
       <c r="N65" t="n">
-        <v>-34.584855</v>
+        <v>-34.586298</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>-352</t>
+          <t>-351</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -4846,7 +4846,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>BUCARELLI /ALT/ 935</t>
+          <t>BUCARELLI /ALT/ 1430</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -4856,7 +4856,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>804839565</t>
+          <t>804839511</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -4871,7 +4871,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Aplomar columna de 114. - VIRARDI</t>
+          <t>Aplomar columna normalizar.  - VIRARDI</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -4895,16 +4895,16 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>-58.475389</v>
+        <v>-58.479712</v>
       </c>
       <c r="N66" t="n">
-        <v>-34.590317</v>
+        <v>-34.584855</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>-353</t>
+          <t>-352</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -4914,17 +4914,17 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>CAAGUAZU /ALT/ 5703</t>
+          <t>BUCARELLI /ALT/ 935</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>106576 - LINIERS</t>
+          <t>106597 - PARQUE CHAS</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>804839589</t>
+          <t>804839565</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -4939,7 +4939,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Cambiar columna de 114. Fuera de plomo empotrada en árbol colocar rienda. ( se pasa tareas a contratista tratista de limpieza tensado y elevación del tendido).  - VIRARDI</t>
+          <t>Aplomar columna de 114. - VIRARDI</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -4949,7 +4949,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -4963,16 +4963,16 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>-58.511462</v>
+        <v>-58.475389</v>
       </c>
       <c r="N67" t="n">
-        <v>-34.640542</v>
+        <v>-34.590317</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>-354</t>
+          <t>-353</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -4982,17 +4982,17 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>CONDARCO /ALT/ 5316</t>
+          <t>CAAGUAZU /ALT/ 5703</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>106591 - VILLA PUEYRREDON</t>
+          <t>106576 - LINIERS</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>804839626</t>
+          <t>804839589</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -5007,7 +5007,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Aplomo de columna de PRFV - VIRARDI</t>
+          <t>Cambiar columna de 114. Fuera de plomo empotrada en árbol colocar rienda. ( se pasa tareas a contratista tratista de limpieza tensado y elevación del tendido).  - VIRARDI</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -5031,16 +5031,16 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>-58.504455</v>
+        <v>-58.511462</v>
       </c>
       <c r="N68" t="n">
-        <v>-34.579941</v>
+        <v>-34.640542</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>-355</t>
+          <t>-354</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -5050,7 +5050,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>CUENCA /ALT/ 4480</t>
+          <t>CONDARCO /ALT/ 5316</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -5060,7 +5060,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>804839675</t>
+          <t>804839626</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -5075,7 +5075,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Columna nueva fuera de plomo sostiene nodo de Telecentro.  Reclamo municipal.  - VIRARDI</t>
+          <t>Aplomo de columna de PRFV - VIRARDI</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -5090,7 +5090,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Nodo/Fuente TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -5099,16 +5099,16 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>-58.504568</v>
+        <v>-58.504455</v>
       </c>
       <c r="N69" t="n">
-        <v>-34.590534</v>
+        <v>-34.579941</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>-356</t>
+          <t>-355</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -5118,7 +5118,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>CUENCA /ALT/ 4845</t>
+          <t>CUENCA /ALT/ 4480</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>804839715</t>
+          <t>804839675</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -5143,7 +5143,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Retiro de poste viejo en desuso liberado podrido en su base.  - VIRARDI</t>
+          <t>Columna nueva fuera de plomo sostiene nodo de Telecentro.  Reclamo municipal.  - VIRARDI</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -5153,30 +5153,30 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo/Fuente TLC</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>-58.507182</v>
+        <v>-58.504568</v>
       </c>
       <c r="N70" t="n">
-        <v>-34.58749</v>
+        <v>-34.590534</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>-358</t>
+          <t>-356</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -5186,17 +5186,17 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>GINEBRA /ALT/ 3887</t>
+          <t>CUENCA /ALT/ 4845</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>106591 - VILLA PUEYRREDON</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>804839803</t>
+          <t>804839715</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -5211,7 +5211,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Aplomo de columna de 114 - VIRARDI</t>
+          <t>Retiro de poste viejo en desuso liberado podrido en su base.  - VIRARDI</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -5221,7 +5221,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -5231,20 +5231,20 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>-58.475735</v>
+        <v>-58.507182</v>
       </c>
       <c r="N71" t="n">
-        <v>-34.580487</v>
+        <v>-34.58749</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>-359</t>
+          <t>-358</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -5254,17 +5254,17 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>CABEZON JOSE LEON /ALT/ 2714</t>
+          <t>GINEBRA /ALT/ 3887</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>106591 - VILLA PUEYRREDON</t>
+          <t>106597 - PARQUE CHAS</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>804839875</t>
+          <t>804839803</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -5303,16 +5303,16 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>-58.503195</v>
+        <v>-58.475735</v>
       </c>
       <c r="N72" t="n">
-        <v>-34.581735</v>
+        <v>-34.580487</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>-361</t>
+          <t>-359</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -5322,17 +5322,17 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>LONDRES /ALT/ 4008</t>
+          <t>CABEZON JOSE LEON /ALT/ 2714</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>106591 - VILLA PUEYRREDON</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>804839936</t>
+          <t>804839875</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -5347,7 +5347,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Aplomo de columna de 114. - VIRARDI</t>
+          <t>Aplomo de columna de 114 - VIRARDI</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -5371,16 +5371,16 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>-58.478362</v>
+        <v>-58.503195</v>
       </c>
       <c r="N73" t="n">
-        <v>-34.581404</v>
+        <v>-34.581735</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>-363</t>
+          <t>-361</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -5390,7 +5390,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>OSLO /ALT/ 1255</t>
+          <t>LONDRES /ALT/ 4008</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -5400,7 +5400,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>804839962</t>
+          <t>804839936</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -5415,7 +5415,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Cambiar columna de 168 podrida en su base.  - VIRARDI</t>
+          <t>Aplomo de columna de 114. - VIRARDI</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -5425,7 +5425,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -5439,16 +5439,16 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>-58.481767</v>
+        <v>-58.478362</v>
       </c>
       <c r="N74" t="n">
-        <v>-34.589507</v>
+        <v>-34.581404</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>-364</t>
+          <t>-363</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -5458,17 +5458,17 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>PAROISSIEN /ALT/ 4871</t>
+          <t>OSLO /ALT/ 1255</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>106597 - PARQUE CHAS</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>804839991</t>
+          <t>804839962</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -5483,7 +5483,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Aplomar columna de 114 - VIRARDI</t>
+          <t>Cambiar columna de 168 podrida en su base.  - VIRARDI</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -5493,7 +5493,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -5507,16 +5507,16 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>-58.493164</v>
+        <v>-58.481767</v>
       </c>
       <c r="N75" t="n">
-        <v>-34.55732</v>
+        <v>-34.589507</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>-365</t>
+          <t>-364</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -5526,17 +5526,17 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>QUESADA /ALT/ 5290</t>
+          <t>PAROISSIEN /ALT/ 4871</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>106592 - VILLA URQUIZA</t>
+          <t>106593 - SAAVEDRA</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>804839995</t>
+          <t>804839991</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -5551,7 +5551,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Columna nueva de PVC fuera de plomo.  - VIRARDI</t>
+          <t>Aplomar columna de 114 - VIRARDI</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -5561,7 +5561,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -5575,16 +5575,16 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>-58.491934</v>
+        <v>-58.493164</v>
       </c>
       <c r="N76" t="n">
-        <v>-34.569348</v>
+        <v>-34.55732</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>-366</t>
+          <t>-365</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -5594,7 +5594,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>QUESADA /ALT/ 6088</t>
+          <t>QUESADA /ALT/ 5290</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -5604,7 +5604,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>804840016</t>
+          <t>804839995</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -5619,7 +5619,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aplomar columna de 168 cambiar rienda.  - VIRARDI</t>
+          <t>Columna nueva de PVC fuera de plomo.  - VIRARDI</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -5629,7 +5629,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -5643,16 +5643,16 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>-58.501418</v>
+        <v>-58.491934</v>
       </c>
       <c r="N77" t="n">
-        <v>-34.574363</v>
+        <v>-34.569348</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>-367</t>
+          <t>-366</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -5662,17 +5662,17 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>RUIZ HUIDOBRO ,AV. /ALT/ 4771</t>
+          <t>QUESADA /ALT/ 6088</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>106592 - VILLA URQUIZA</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>804840024</t>
+          <t>804840016</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -5687,7 +5687,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aplomo de columna de 114 - VIRARDI</t>
+          <t>Aplomar columna de 168 cambiar rienda.  - VIRARDI</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -5711,36 +5711,36 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>-58.494584</v>
+        <v>-58.501418</v>
       </c>
       <c r="N78" t="n">
-        <v>-34.554981</v>
+        <v>-34.574363</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>-368</t>
+          <t>-367</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>ARIAS /ALT/ 1620</t>
+          <t>RUIZ HUIDOBRO ,AV. /ALT/ 4771</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>106596 - NUNEZ</t>
+          <t>106593 - SAAVEDRA</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>804876039</t>
+          <t>804840024</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -5755,12 +5755,12 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 168 con rienda </t>
+          <t>Aplomo de columna de 114 - VIRARDI</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -5775,40 +5775,40 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>-58.465608</v>
+        <v>-58.494584</v>
       </c>
       <c r="N79" t="n">
-        <v>-34.538489</v>
+        <v>-34.554981</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>-372</t>
+          <t>-368</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>CAMARGO /ALT/ 25</t>
+          <t>ARIAS /ALT/ 1620</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>106582 - VILLA CRESPO</t>
+          <t>106596 - NUNEZ</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>804903809</t>
+          <t>804876039</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -5823,7 +5823,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aplomar columna 114 con rienda a pique</t>
+          <t xml:space="preserve">Aplomar columna 168 con rienda </t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -5833,7 +5833,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -5843,20 +5843,20 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>-58.436788</v>
+        <v>-58.465608</v>
       </c>
       <c r="N80" t="n">
-        <v>-34.604014</v>
+        <v>-34.538489</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>-373</t>
+          <t>-372</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -5866,17 +5866,17 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>GALLARDO ANGEL ,AV. /ALT/ 608</t>
+          <t>CAMARGO /ALT/ 25</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>106569 - CABALLITO</t>
+          <t>106582 - VILLA CRESPO</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>804903810</t>
+          <t>804903809</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -5891,7 +5891,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
+          <t>Aplomar columna 114 con rienda a pique</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -5901,7 +5901,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -5915,16 +5915,16 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>-58.439461</v>
+        <v>-58.436788</v>
       </c>
       <c r="N81" t="n">
-        <v>-34.605744</v>
+        <v>-34.604014</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>-375</t>
+          <t>-373</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -5934,17 +5934,17 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>PAVON /ALT/ 3335</t>
+          <t>GALLARDO ANGEL ,AV. /ALT/ 608</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>106562 - BOEDO</t>
+          <t>106569 - CABALLITO</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>804903824</t>
+          <t>804903810</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -5959,7 +5959,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Colocar columna nueva donde estaba la anterior cortada</t>
+          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -5969,7 +5969,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -5983,16 +5983,16 @@
         </is>
       </c>
       <c r="M82" t="n">
-        <v>-58.412418</v>
+        <v>-58.439461</v>
       </c>
       <c r="N82" t="n">
-        <v>-34.629288</v>
+        <v>-34.605744</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>-376</t>
+          <t>-375</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -6002,17 +6002,17 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Valentin Gomez 3803</t>
+          <t>PAVON /ALT/ 3335</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>106568 - ALMAGRO</t>
+          <t>106562 - BOEDO</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>804903787</t>
+          <t>804903824</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -6027,7 +6027,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar columna nueva donde estaba la anterior cortada</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -6051,16 +6051,16 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>-58.418424</v>
+        <v>-58.412418</v>
       </c>
       <c r="N83" t="n">
-        <v>-34.604463</v>
+        <v>-34.629288</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>-377</t>
+          <t>-376</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -6070,7 +6070,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>HUMAHUACA /ALT/ 3918</t>
+          <t xml:space="preserve"> Valentin Gomez 3803</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -6080,7 +6080,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>804903788</t>
+          <t>804903787</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -6095,7 +6095,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>picada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -6119,36 +6119,36 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>-58.419694</v>
+        <v>-58.418424</v>
       </c>
       <c r="N84" t="n">
-        <v>-34.602062</v>
+        <v>-34.604463</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>-383</t>
+          <t>-377</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>VALDERRAMA /ALT/ 4187</t>
+          <t>HUMAHUACA /ALT/ 3918</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>106592 - VILLA URQUIZA</t>
+          <t>106568 - ALMAGRO</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>805507401</t>
+          <t>804903788</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -6163,7 +6163,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 114 </t>
+          <t>picada</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -6173,7 +6173,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -6187,16 +6187,16 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>-58.481834</v>
+        <v>-58.419694</v>
       </c>
       <c r="N85" t="n">
-        <v>-34.560796</v>
+        <v>-34.602062</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>-384</t>
+          <t>-383</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -6206,17 +6206,17 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>LUGONES 1721</t>
+          <t>VALDERRAMA /ALT/ 4187</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>106586 - VILLA ORTUZAR</t>
+          <t>106592 - VILLA URQUIZA</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>805507408</t>
+          <t>805507401</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -6231,7 +6231,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Aplomar columna 168 - La columna esta frente a la altura 1721</t>
+          <t xml:space="preserve">Aplomar columna 114 </t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -6255,16 +6255,16 @@
         </is>
       </c>
       <c r="M86" t="n">
-        <v>-58.473936</v>
+        <v>-58.481834</v>
       </c>
       <c r="N86" t="n">
-        <v>-34.577346</v>
+        <v>-34.560796</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>-385</t>
+          <t>-384</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -6274,17 +6274,17 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>MOLDES /ALT/ 1913</t>
+          <t>LUGONES 1721</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>106595 - BELGRANO</t>
+          <t>106586 - VILLA ORTUZAR</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>805507415</t>
+          <t>805507408</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -6299,7 +6299,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Aplomar columna 114</t>
+          <t>Aplomar columna 168 - La columna esta frente a la altura 1721</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -6323,16 +6323,16 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>-58.45789</v>
+        <v>-58.473936</v>
       </c>
       <c r="N87" t="n">
-        <v>-34.565423</v>
+        <v>-34.577346</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>-386</t>
+          <t>-385</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -6342,7 +6342,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>MOLDES /ALT/ 1943</t>
+          <t>MOLDES /ALT/ 1913</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -6352,7 +6352,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>805507419</t>
+          <t>805507415</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -6367,7 +6367,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Dos columnas fuera de plomo - aplomar o cambiar la que no tiene nodo de TLC</t>
+          <t>Aplomar columna 114</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -6382,7 +6382,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
@@ -6391,36 +6391,36 @@
         </is>
       </c>
       <c r="M88" t="n">
-        <v>-58.458217</v>
+        <v>-58.45789</v>
       </c>
       <c r="N88" t="n">
-        <v>-34.565043</v>
+        <v>-34.565423</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>-391</t>
+          <t>-386</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>5/5/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>IBERA /ALT/ 5074</t>
+          <t>MOLDES /ALT/ 1943</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>106592 - VILLA URQUIZA</t>
+          <t>106595 - BELGRANO</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>805676610</t>
+          <t>805507419</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -6435,7 +6435,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna 114 base corroida </t>
+          <t>Dos columnas fuera de plomo - aplomar o cambiar la que no tiene nodo de TLC</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -6445,12 +6445,12 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
@@ -6459,16 +6459,16 @@
         </is>
       </c>
       <c r="M89" t="n">
-        <v>-58.49045</v>
+        <v>-58.458217</v>
       </c>
       <c r="N89" t="n">
-        <v>-34.566894</v>
+        <v>-34.565043</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>-392</t>
+          <t>-391</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -6478,17 +6478,17 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>GARCIA TEODORO /ALT/ 1775</t>
+          <t>IBERA /ALT/ 5074</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>106592 - VILLA URQUIZA</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>805676615</t>
+          <t>805676610</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -6527,16 +6527,16 @@
         </is>
       </c>
       <c r="M90" t="n">
-        <v>-58.440367</v>
+        <v>-58.49045</v>
       </c>
       <c r="N90" t="n">
-        <v>-34.563551</v>
+        <v>-34.566894</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>-393</t>
+          <t>-392</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -6546,7 +6546,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>3 DE FEBRERO /ALT/ 1272</t>
+          <t>GARCIA TEODORO /ALT/ 1775</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -6556,7 +6556,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>805676618</t>
+          <t>805676615</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -6595,36 +6595,36 @@
         </is>
       </c>
       <c r="M91" t="n">
-        <v>-58.445186</v>
+        <v>-58.440367</v>
       </c>
       <c r="N91" t="n">
-        <v>-34.567417</v>
+        <v>-34.563551</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>-395</t>
+          <t>-393</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>5/7/2025</t>
+          <t>5/5/2025</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>POSADAS 1567</t>
+          <t>3 DE FEBRERO /ALT/ 1272</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>106560 - RECOLETA</t>
+          <t>106594 - PALERMO</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>805707278</t>
+          <t>805676618</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -6639,7 +6639,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t xml:space="preserve">Cambiar columna 114 base corroida </t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -6663,16 +6663,16 @@
         </is>
       </c>
       <c r="M92" t="n">
-        <v>-58.387847</v>
+        <v>-58.445186</v>
       </c>
       <c r="N92" t="n">
-        <v>-34.587043</v>
+        <v>-34.567417</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>-403</t>
+          <t>-395</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -6682,17 +6682,17 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>SUCRE MRCAL A J DE /ALT/ 3515</t>
+          <t>POSADAS 1567</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>106595 - BELGRANO</t>
+          <t>106560 - RECOLETA</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>805722878</t>
+          <t>805707278</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -6707,7 +6707,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t xml:space="preserve">Retirar poste teco cobre tirado y reparar vereda </t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -6717,7 +6717,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -6727,40 +6727,40 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M93" t="n">
-        <v>-58.466241</v>
+        <v>-58.387847</v>
       </c>
       <c r="N93" t="n">
-        <v>-34.57047</v>
+        <v>-34.587043</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>-404</t>
+          <t>-403</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>5/7/2025</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Amenabar 3048</t>
+          <t>SUCRE MRCAL A J DE /ALT/ 3515</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>106595 - BELGRANO</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>805791896</t>
+          <t>805722878</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -6775,7 +6775,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Aplomar columna 114</t>
+          <t xml:space="preserve">Retirar poste teco cobre tirado y reparar vereda </t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -6785,7 +6785,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -6795,20 +6795,20 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M94" t="n">
-        <v>-58.46579</v>
+        <v>-58.466241</v>
       </c>
       <c r="N94" t="n">
-        <v>-34.555012</v>
+        <v>-34.57047</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>-405</t>
+          <t>-404</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -6818,7 +6818,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Arcos 1855</t>
+          <t>Amenabar 3048</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -6828,7 +6828,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>805791908</t>
+          <t>805791896</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -6843,7 +6843,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Cambiar columna 114 picada en base, posee nodo propio.&lt;br&gt;</t>
+          <t>Aplomar columna 114</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -6853,7 +6853,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -6867,16 +6867,16 @@
         </is>
       </c>
       <c r="M95" t="n">
-        <v>-58.451835</v>
+        <v>-58.46579</v>
       </c>
       <c r="N95" t="n">
-        <v>-34.562646</v>
+        <v>-34.555012</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>-406</t>
+          <t>-405</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -6886,17 +6886,17 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Olof palme 4144</t>
+          <t>Arcos 1855</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>805791925</t>
+          <t>805791908</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -6911,7 +6911,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Tensar 2 riendas a pique columna 168</t>
+          <t>Cambiar columna 114 picada en base, posee nodo propio.&lt;br&gt;</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -6921,7 +6921,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -6931,20 +6931,20 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M96" t="n">
-        <v>-58.488252</v>
+        <v>-58.451835</v>
       </c>
       <c r="N96" t="n">
-        <v>-34.553391</v>
+        <v>-34.562646</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>-407</t>
+          <t>-406</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -6954,7 +6954,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Cabildo 4148</t>
+          <t>Olof palme 4144</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -6964,7 +6964,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>805791933</t>
+          <t>805791925</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -6979,7 +6979,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
+          <t>Tensar 2 riendas a pique columna 168</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -6989,7 +6989,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -7003,16 +7003,16 @@
         </is>
       </c>
       <c r="M97" t="n">
-        <v>-58.470837</v>
+        <v>-58.488252</v>
       </c>
       <c r="N97" t="n">
-        <v>-34.545751</v>
+        <v>-34.553391</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>-408</t>
+          <t>-407</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -7022,7 +7022,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Larralde 2847</t>
+          <t>Cabildo 4148</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -7032,7 +7032,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>805791941</t>
+          <t>805791933</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -7047,7 +7047,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Aplomar columna 114</t>
+          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -7062,45 +7062,45 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Nodo/Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M98" t="n">
-        <v>-58.472267</v>
+        <v>-58.470837</v>
       </c>
       <c r="N98" t="n">
-        <v>-34.551163</v>
+        <v>-34.545751</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>5805</t>
+          <t>-408</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>5/14/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>GUTENBERG 4134</t>
+          <t>Larralde 2847</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>806926378</t>
+          <t>805791941</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -7115,7 +7115,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Aplomar columna 114</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -7130,45 +7130,45 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo/Fuente Teco</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M99" t="n">
-        <v>-58.51665</v>
+        <v>-58.472267</v>
       </c>
       <c r="N99" t="n">
-        <v>-34.596644</v>
+        <v>-34.551163</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>-418</t>
+          <t>5805</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/14/2025</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Porcel de Peralta 415</t>
+          <t>GUTENBERG 4134</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>806926542</t>
+          <t>806926378</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -7183,7 +7183,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>aplomar cementar y colocar rienda</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -7203,20 +7203,20 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M100" t="n">
-        <v>-58.520671</v>
+        <v>-58.51665</v>
       </c>
       <c r="N100" t="n">
-        <v>-34.632922</v>
+        <v>-34.596644</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>-421</t>
+          <t>-418</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -7226,17 +7226,17 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>BESARES 1699</t>
+          <t>Porcel de Peralta 415</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>806926565</t>
+          <t>806926542</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -7251,7 +7251,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Cambiar columna 114 picada en base tener en cuenta que hay acometidas subterraneas que bajan por la columna para entrar en Libertador 8008 tanto de HFC como FTTH colocar medias cañas y colocar cerca para que quedan precintadas a la columna</t>
+          <t>aplomar cementar y colocar rienda</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -7261,7 +7261,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -7275,16 +7275,16 @@
         </is>
       </c>
       <c r="M101" t="n">
-        <v>-58.464144</v>
+        <v>-58.520671</v>
       </c>
       <c r="N101" t="n">
-        <v>-34.541832</v>
+        <v>-34.632922</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>-422</t>
+          <t>-421</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -7294,7 +7294,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Franklin Roosevelt 4901</t>
+          <t>BESARES 1699</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -7304,7 +7304,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>806926575</t>
+          <t>806926565</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -7319,7 +7319,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Aplomar columna 114</t>
+          <t>Cambiar columna 114 picada en base tener en cuenta que hay acometidas subterraneas que bajan por la columna para entrar en Libertador 8008 tanto de HFC como FTTH colocar medias cañas y colocar cerca para que quedan precintadas a la columna</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -7343,16 +7343,16 @@
         </is>
       </c>
       <c r="M102" t="n">
-        <v>-58.485102</v>
+        <v>-58.464144</v>
       </c>
       <c r="N102" t="n">
-        <v>-34.572327</v>
+        <v>-34.541832</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>-425</t>
+          <t>-422</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -7362,17 +7362,17 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Av. Eva Peron 7437</t>
+          <t>Franklin Roosevelt 4901</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>806926621</t>
+          <t>806926575</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -7387,7 +7387,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Aplomar o cambiar columna de 114</t>
+          <t>Aplomar columna 114</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -7411,16 +7411,16 @@
         </is>
       </c>
       <c r="M103" t="n">
-        <v>-58.501029</v>
+        <v>-58.485102</v>
       </c>
       <c r="N103" t="n">
-        <v>-34.673558</v>
+        <v>-34.572327</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>-426</t>
+          <t>-425</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -7430,7 +7430,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Av. Eva Peron 7471</t>
+          <t>Av. Eva Peron 7437</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -7440,7 +7440,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>806926647</t>
+          <t>806926621</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -7455,7 +7455,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Aplomar columna de 168 con rienda</t>
+          <t>Aplomar o cambiar columna de 114</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -7465,7 +7465,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -7475,20 +7475,20 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M104" t="n">
-        <v>-58.501565</v>
+        <v>-58.501029</v>
       </c>
       <c r="N104" t="n">
-        <v>-34.673845</v>
+        <v>-34.673558</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>-430</t>
+          <t>-426</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -7498,17 +7498,17 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Araoz 606</t>
+          <t>Av. Eva Peron 7471</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>806926712</t>
+          <t>806926647</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -7523,7 +7523,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>columna base corroida sin riesgo de caída a la fecha. 14/05/2025</t>
+          <t>Aplomar columna de 168 con rienda</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -7533,7 +7533,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -7543,20 +7543,20 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M105" t="n">
-        <v>-58.434761</v>
+        <v>-58.501565</v>
       </c>
       <c r="N105" t="n">
-        <v>-34.598381</v>
+        <v>-34.673845</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>-432</t>
+          <t>-430</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -7566,17 +7566,17 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>ALVAREZ JULIAN 618</t>
+          <t>Araoz 606</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>806926759</t>
+          <t>806926712</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -7591,7 +7591,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Columna con base corroida sin riesgo de caida al 14/05/2025</t>
+          <t>columna base corroida sin riesgo de caída a la fecha. 14/05/2025</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -7615,16 +7615,16 @@
         </is>
       </c>
       <c r="M106" t="n">
-        <v>-58.433867</v>
+        <v>-58.434761</v>
       </c>
       <c r="N106" t="n">
-        <v>-34.599149</v>
+        <v>-34.598381</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>-433</t>
+          <t>-432</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -7634,17 +7634,17 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Moldes 2720</t>
+          <t>ALVAREZ JULIAN 618</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>806926767</t>
+          <t>806926759</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -7659,7 +7659,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poste - Pasan 5 lingas y la línea de cobre </t>
+          <t>Columna con base corroida sin riesgo de caida al 14/05/2025</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -7679,20 +7679,20 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M107" t="n">
-        <v>-58.464177</v>
+        <v>-58.433867</v>
       </c>
       <c r="N107" t="n">
-        <v>-34.558239</v>
+        <v>-34.599149</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>-434</t>
+          <t>-433</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -7702,17 +7702,17 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Billinghurst 1478</t>
+          <t>Moldes 2720</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>806926806</t>
+          <t>806926767</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -7727,7 +7727,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t xml:space="preserve">Columna base corroida con Nap y ganancias de ambas compañias, </t>
+          <t xml:space="preserve">Poste - Pasan 5 lingas y la línea de cobre </t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -7747,20 +7747,20 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M108" t="n">
-        <v>-58.412302</v>
+        <v>-58.464177</v>
       </c>
       <c r="N108" t="n">
-        <v>-34.59301</v>
+        <v>-34.558239</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>-436</t>
+          <t>-434</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -7770,17 +7770,17 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Nueva York 3982</t>
+          <t>Billinghurst 1478</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>806926812</t>
+          <t>806926806</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -7795,7 +7795,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t xml:space="preserve">Realizar aplomo de columna y tensar cruce Reclamo municipal </t>
+          <t xml:space="preserve">Columna base corroida con Nap y ganancias de ambas compañias, </t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -7815,40 +7815,40 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M109" t="n">
-        <v>-58.511375</v>
+        <v>-58.412302</v>
       </c>
       <c r="N109" t="n">
-        <v>-34.600017</v>
+        <v>-34.59301</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>-448</t>
+          <t>-436</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>5/28/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Tronador 3826</t>
+          <t>Nueva York 3982</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>806975699</t>
+          <t>806926812</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -7863,12 +7863,12 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Columna de retención (columna más ancha</t>
+          <t xml:space="preserve">Realizar aplomo de columna y tensar cruce Reclamo municipal </t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -7883,40 +7883,40 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M110" t="n">
-        <v>-58.485056</v>
+        <v>-58.511375</v>
       </c>
       <c r="N110" t="n">
-        <v>-34.555059</v>
+        <v>-34.600017</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>-450</t>
+          <t>-448</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>5/28/2025</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Moldes 2325</t>
+          <t>Tronador 3826</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>807044059</t>
+          <t>806975699</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -7931,12 +7931,12 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t xml:space="preserve">Corroida en base para cambiar contiene CDO/NAP propio </t>
+          <t>Columna de retención (columna más ancha</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -7955,36 +7955,36 @@
         </is>
       </c>
       <c r="M111" t="n">
-        <v>-58.461167</v>
+        <v>-58.485056</v>
       </c>
       <c r="N111" t="n">
-        <v>-34.561613</v>
+        <v>-34.555059</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>-470</t>
+          <t>-450</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Av. Escalada 2831</t>
+          <t>Moldes 2325</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>807208264</t>
+          <t>807044059</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -7999,7 +7999,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t xml:space="preserve">Corroida en base para cambiar contiene CDO/NAP propio </t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -8023,36 +8023,36 @@
         </is>
       </c>
       <c r="M112" t="n">
-        <v>-58.470815</v>
+        <v>-58.461167</v>
       </c>
       <c r="N112" t="n">
-        <v>-34.664201</v>
+        <v>-34.561613</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>-480</t>
+          <t>-470</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>6/17/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Arias 4384</t>
+          <t>Av. Escalada 2831</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>807537909</t>
+          <t>807208264</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -8067,7 +8067,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Inclinada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -8091,36 +8091,36 @@
         </is>
       </c>
       <c r="M113" t="n">
-        <v>-58.49147</v>
+        <v>-58.470815</v>
       </c>
       <c r="N113" t="n">
-        <v>-34.55031</v>
+        <v>-34.664201</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>-482</t>
+          <t>-480</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>6/18/2025</t>
+          <t>6/17/2025</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Av. Coronel Diaz 2596</t>
+          <t>Arias 4384</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>807605730</t>
+          <t>807537909</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -8133,7 +8133,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr"/>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Inclinada</t>
+        </is>
+      </c>
       <c r="I114" t="inlineStr">
         <is>
           <t>1</t>
@@ -8155,26 +8159,26 @@
         </is>
       </c>
       <c r="M114" t="n">
-        <v>-58.405761</v>
+        <v>-58.49147</v>
       </c>
       <c r="N114" t="n">
-        <v>-34.582476</v>
+        <v>-34.55031</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>-486</t>
+          <t>-482</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>6/23/2025</t>
+          <t>6/18/2025</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Del Libertador 4596</t>
+          <t>Av. Coronel Diaz 2596</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -8184,7 +8188,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>807762871</t>
+          <t>807605730</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -8197,11 +8201,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
         <is>
           <t>1</t>
@@ -8223,16 +8223,16 @@
         </is>
       </c>
       <c r="M115" t="n">
-        <v>-58.432241</v>
+        <v>-58.405761</v>
       </c>
       <c r="N115" t="n">
-        <v>-34.56642</v>
+        <v>-34.582476</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>-487</t>
+          <t>-486</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -8242,7 +8242,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Gorriti 3735</t>
+          <t>Del Libertador 4596</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -8252,7 +8252,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>807762979</t>
+          <t>807762871</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -8267,7 +8267,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>NAP FTTH Columna MAL ESTADO ROTA EN BASE</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -8291,36 +8291,36 @@
         </is>
       </c>
       <c r="M116" t="n">
-        <v>-58.417348</v>
+        <v>-58.432241</v>
       </c>
       <c r="N116" t="n">
-        <v>-34.595467</v>
+        <v>-34.56642</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>6223</t>
+          <t>-487</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/23/2025</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>ECHEANDIA 4200</t>
+          <t>Gorriti 3735</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>807762996</t>
+          <t>807762979</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -8335,7 +8335,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Columna inclinada con base  corroida</t>
+          <t>NAP FTTH Columna MAL ESTADO ROTA EN BASE</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -8355,20 +8355,20 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M117" t="n">
-        <v>-58.472311</v>
+        <v>-58.417348</v>
       </c>
       <c r="N117" t="n">
-        <v>-34.654867</v>
+        <v>-34.595467</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>6197</t>
+          <t>6223</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -8378,17 +8378,17 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 5600</t>
+          <t>ECHEANDIA 4200</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>807763040</t>
+          <t>807762996</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -8403,7 +8403,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Aplomar esta es esquina con emilio mitre aprox al 10</t>
+          <t>Columna inclinada con base  corroida</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -8423,20 +8423,20 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M118" t="n">
-        <v>-58.444181</v>
+        <v>-58.472311</v>
       </c>
       <c r="N118" t="n">
-        <v>-34.621883</v>
+        <v>-34.654867</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>6239</t>
+          <t>6197</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -8446,17 +8446,17 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>PALPA 2964</t>
+          <t>RIVADAVIA AV. 5600</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>807763098</t>
+          <t>807763040</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -8471,7 +8471,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar esta es esquina con emilio mitre aprox al 10</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -8495,16 +8495,16 @@
         </is>
       </c>
       <c r="M119" t="n">
-        <v>-58.450113</v>
+        <v>-58.444181</v>
       </c>
       <c r="N119" t="n">
-        <v>-34.574534</v>
+        <v>-34.621883</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>-488</t>
+          <t>6239</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -8514,17 +8514,17 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Blanco Encalada 4896</t>
+          <t>PALPA 2964</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>807763099</t>
+          <t>807763098</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -8539,7 +8539,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Pendiente traspaso rxo y retiro de columna podrida</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -8559,40 +8559,40 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M120" t="n">
-        <v>-58.484729</v>
+        <v>-58.450113</v>
       </c>
       <c r="N120" t="n">
-        <v>-34.574614</v>
+        <v>-34.574534</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>6221</t>
+          <t>-488</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>6/26/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>FERNANDEZ 1549</t>
+          <t>Blanco Encalada 4896</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>807789699</t>
+          <t>807763099</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -8607,7 +8607,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Pendiente traspaso rxo y retiro de columna podrida</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -8617,7 +8617,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -8631,77 +8631,145 @@
         </is>
       </c>
       <c r="M121" t="n">
-        <v>-58.471717</v>
+        <v>-58.484729</v>
       </c>
       <c r="N121" t="n">
-        <v>-34.649961</v>
+        <v>-34.574614</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
+          <t>6221</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>6/26/2025</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>FERNANDEZ 1549</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>807789699</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Poste inclinado</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>Aplomo</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>Poste</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>-58.471717</v>
+      </c>
+      <c r="N122" t="n">
+        <v>-34.649961</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
           <t>-491</t>
         </is>
       </c>
-      <c r="B122" t="inlineStr">
+      <c r="B123" t="inlineStr">
         <is>
           <t>6/26/2025</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
+      <c r="C123" t="inlineStr">
         <is>
           <t>3 de Febrero 2171</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
+      <c r="D123" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
+      <c r="E123" t="inlineStr">
         <is>
           <t>807789702</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H122" t="inlineStr">
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
         <is>
           <t>Columna 114 propia picada en base con NAP</t>
         </is>
       </c>
-      <c r="I122" t="inlineStr">
+      <c r="I123" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J122" t="inlineStr">
+      <c r="J123" t="inlineStr">
         <is>
           <t>Cambio</t>
         </is>
       </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
         <v>-58.452636</v>
       </c>
-      <c r="N122" t="n">
+      <c r="N123" t="n">
         <v>-34.558607</v>
       </c>
     </row>

--- a/mapa_interactivo_AYKO.xlsx
+++ b/mapa_interactivo_AYKO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N123"/>
+  <dimension ref="A1:P118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,6 +504,16 @@
           <t>Coordenada_Y</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Operacion</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Zona</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -572,6 +582,16 @@
       <c r="N2" t="n">
         <v>-34.56033</v>
       </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -640,6 +660,16 @@
       <c r="N3" t="n">
         <v>-34.576446</v>
       </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -704,6 +734,16 @@
       <c r="N4" t="n">
         <v>-34.593784</v>
       </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -772,6 +812,16 @@
       <c r="N5" t="n">
         <v>-34.577571</v>
       </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -840,6 +890,16 @@
       <c r="N6" t="n">
         <v>-34.591026</v>
       </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -908,31 +968,41 @@
       <c r="N7" t="n">
         <v>-34.574247</v>
       </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>-56</t>
+          <t>-103</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>4/13/2024</t>
+          <t>6/12/2024</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>LA PAMPA /ALT/ 2119</t>
+          <t>SALGUERO JERONIMO /ALT/ 2533</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>106595 - BELGRANO</t>
+          <t>106594 - PALERMO</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>783370812</t>
+          <t>788206681</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -947,7 +1017,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>La pampa 2119 cambiar columna 114 y efectuar transferencias base corroida</t>
+          <t>Altura correcta 2549</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -971,36 +1041,46 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>-58.451674</v>
+        <v>-58.409971</v>
       </c>
       <c r="N8" t="n">
-        <v>-34.563292</v>
+        <v>-34.58175</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>-103</t>
+          <t>-118</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>6/12/2024</t>
+          <t>8/15/2024</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>SALGUERO JERONIMO /ALT/ 2533</t>
+          <t>SUCRE MRCAL A J DE /ALT/ 1437</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>106595 - BELGRANO</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>788206681</t>
+          <t>793333193</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1015,7 +1095,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Altura correcta 2549</t>
+          <t>Retirar columna vieja, nodo ya traspasado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1030,7 +1110,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1039,26 +1119,36 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>-58.409971</v>
+        <v>-58.445523</v>
       </c>
       <c r="N9" t="n">
-        <v>-34.58175</v>
+        <v>-34.558237</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>-118</t>
+          <t>-143</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>8/15/2024</t>
+          <t>10/7/2024</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>SUCRE MRCAL A J DE /ALT/ 1437</t>
+          <t>CIUDAD DE LA PAZ /ALT/ 2261</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1068,7 +1158,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>793333193</t>
+          <t>797752816</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1081,11 +1171,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Retirar columna vieja, nodo ya traspasado</t>
-        </is>
-      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
           <t>0</t>
@@ -1098,7 +1184,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1107,36 +1193,46 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>-58.445523</v>
+        <v>-58.458864</v>
       </c>
       <c r="N10" t="n">
-        <v>-34.558237</v>
+        <v>-34.561167</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>-143</t>
+          <t>-152</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>10/7/2024</t>
+          <t>11/1/2024</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CIUDAD DE LA PAZ /ALT/ 2261</t>
+          <t>FERNANDEZ DE ENCISO /ALT/ 3610</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>106595 - BELGRANO</t>
+          <t>106589 - VILLA DEVOTO</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>797752816</t>
+          <t>798984311</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1149,7 +1245,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>El poste esta pegado al arbol ver la foto adjunta</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr">
         <is>
           <t>0</t>
@@ -1162,25 +1262,35 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>-58.458864</v>
+        <v>-58.513363</v>
       </c>
       <c r="N11" t="n">
-        <v>-34.561167</v>
+        <v>-34.605473</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Devoto</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>-152</t>
+          <t>-160</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1190,17 +1300,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>FERNANDEZ DE ENCISO /ALT/ 3610</t>
+          <t>MORAN PEDRO /ALT/ 3100</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>106589 - VILLA DEVOTO</t>
+          <t>106587 - AGRONOMIA</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>798984311</t>
+          <t>798984905</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1213,11 +1323,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>El poste esta pegado al arbol ver la foto adjunta</t>
-        </is>
-      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
           <t>0</t>
@@ -1239,36 +1345,46 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>-58.513363</v>
+        <v>-58.498724</v>
       </c>
       <c r="N12" t="n">
-        <v>-34.605473</v>
+        <v>-34.594329</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>-160</t>
+          <t>-193</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>11/1/2024</t>
+          <t>12/31/2023</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>MORAN PEDRO /ALT/ 3100</t>
+          <t>WASHINGTON /ALT/ 3251</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>106587 - AGRONOMIA</t>
+          <t>106590 - COGHLAN</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>798984905</t>
+          <t>799539971</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1281,7 +1397,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Washington 3251 cambiar columna de 114 transferir tendidos. dejar pasivos en norma</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr">
         <is>
           <t>0</t>
@@ -1299,20 +1419,30 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>-58.498724</v>
+        <v>-58.478272</v>
       </c>
       <c r="N13" t="n">
-        <v>-34.594329</v>
+        <v>-34.558899</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>-193</t>
+          <t>-201</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1322,17 +1452,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>WASHINGTON /ALT/ 3251</t>
+          <t>MIGUELETES /ALT/ 1007</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>106590 - COGHLAN</t>
+          <t>106594 - PALERMO</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>799539971</t>
+          <t>799540497</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1347,7 +1477,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Washington 3251 cambiar columna de 114 transferir tendidos. dejar pasivos en norma</t>
+          <t>reemplazo de columnas en mal estado Migueletes 1007 reemplazar columna 114 y colocar rienda a pique</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1367,20 +1497,30 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>-58.478272</v>
+        <v>-58.436377</v>
       </c>
       <c r="N14" t="n">
-        <v>-34.558899</v>
+        <v>-34.565075</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>-201</t>
+          <t>-202</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1390,7 +1530,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>MIGUELETES /ALT/ 1007</t>
+          <t>MIGUELETES /ALT/ 1030</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1400,7 +1540,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>799540497</t>
+          <t>799540503</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1415,7 +1555,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>reemplazo de columnas en mal estado Migueletes 1007 reemplazar columna 114 y colocar rienda a pique</t>
+          <t>Recambio de columna - alt correcta 1010</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1439,16 +1579,26 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>-58.436377</v>
+        <v>-58.436601</v>
       </c>
       <c r="N15" t="n">
-        <v>-34.565075</v>
+        <v>-34.565035</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>-202</t>
+          <t>-203</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1458,7 +1608,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>MIGUELETES /ALT/ 1030</t>
+          <t>NEWBERY JORGE /ALT/ 2644</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1468,7 +1618,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>799540503</t>
+          <t>799540511</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1483,7 +1633,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Recambio de columna - alt correcta 1010</t>
+          <t>Recambio de columna</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1503,20 +1653,30 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>-58.436601</v>
+        <v>-58.442706</v>
       </c>
       <c r="N16" t="n">
-        <v>-34.565035</v>
+        <v>-34.574158</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>-203</t>
+          <t>-210</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1526,17 +1686,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>NEWBERY JORGE /ALT/ 2644</t>
+          <t>GANDARA /ALT/ 2797</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>106597 - PARQUE CHAS</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>799540511</t>
+          <t>799540574</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1551,7 +1711,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Recambio de columna</t>
+          <t>CAMBIAR COLUMNA 114 CON 5 TRANSICIONES MAS RIENDA A PIQUE</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1571,40 +1731,50 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>-58.442706</v>
+        <v>-58.480672</v>
       </c>
       <c r="N17" t="n">
-        <v>-34.574158</v>
+        <v>-34.583085</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>-210</t>
+          <t>-213</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>12/31/2023</t>
+          <t>11/7/2024</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>GANDARA /ALT/ 2797</t>
+          <t>SCALABRINI ORTIZ R ,AV. /ALT/ 2452</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>106594 - PALERMO</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>799540574</t>
+          <t>799451003</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1617,11 +1787,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>CAMBIAR COLUMNA 114 CON 5 TRANSICIONES MAS RIENDA A PIQUE</t>
-        </is>
-      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
           <t>0</t>
@@ -1639,20 +1805,30 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>-58.480672</v>
+        <v>-58.416896</v>
       </c>
       <c r="N18" t="n">
-        <v>-34.583085</v>
+        <v>-34.585625</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>-213</t>
+          <t>-214</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1662,7 +1838,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>SCALABRINI ORTIZ R ,AV. /ALT/ 2452</t>
+          <t>SCALABRINI ORTIZ R ,AV. /ALT/ 2394</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1672,7 +1848,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>799451003</t>
+          <t>799450985</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1707,26 +1883,36 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>-58.416896</v>
+        <v>-58.417746</v>
       </c>
       <c r="N19" t="n">
-        <v>-34.585625</v>
+        <v>-34.586158</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>-214</t>
+          <t>-216</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>11/7/2024</t>
+          <t>5/2/2024</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>SCALABRINI ORTIZ R ,AV. /ALT/ 2394</t>
+          <t>ORTIZ DE OCAMPO ,AV. /ALT/ 2635</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1736,7 +1922,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>799450985</t>
+          <t>784655947</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1749,7 +1935,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Cambiar</t>
+        </is>
+      </c>
       <c r="I20" t="inlineStr">
         <is>
           <t>0</t>
@@ -1771,36 +1961,46 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>-58.417746</v>
+        <v>-58.404652</v>
       </c>
       <c r="N20" t="n">
-        <v>-34.586158</v>
+        <v>-34.58263</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Recoleta</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>-216</t>
+          <t>-219</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>5/2/2024</t>
+          <t>10/31/2024</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ORTIZ DE OCAMPO ,AV. /ALT/ 2635</t>
+          <t>LA PAMPA /ALT/ 2836</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>106595 - BELGRANO</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>784655947</t>
+          <t>798953875</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1815,7 +2015,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Colocar Columna entre 2836/2838 ver con inspector la viabilidad</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1839,26 +2039,36 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>-58.404652</v>
+        <v>-58.458282</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.58263</v>
+        <v>-34.56718</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Colegiales</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>-219</t>
+          <t>-226</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>10/31/2024</t>
+          <t>11/20/2024</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>LA PAMPA /ALT/ 2836</t>
+          <t>CUBA /ALT/ 2308</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1868,7 +2078,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>798953875</t>
+          <t>800502281</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1883,7 +2093,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Colocar Columna entre 2836/2838 ver con inspector la viabilidad</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1907,36 +2117,46 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-58.458282</v>
+        <v>-58.456674</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.56718</v>
+        <v>-34.558757</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>-226</t>
+          <t>-228</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>11/20/2024</t>
+          <t>11/22/2024</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CUBA /ALT/ 2308</t>
+          <t>ALVAREZ JULIAN /ALT/ 1272</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>106595 - BELGRANO</t>
+          <t>106594 - PALERMO</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>800502281</t>
+          <t>800645527</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1975,36 +2195,46 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-58.456674</v>
+        <v>-58.426725</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.558757</v>
+        <v>-34.5945</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>-228</t>
+          <t>-254</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>11/22/2024</t>
+          <t>1/7/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>ALVAREZ JULIAN /ALT/ 1272</t>
+          <t>BELAUSTEGUI DR LUIS /ALT/ 1185</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>106569 - CABALLITO</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>800645527</t>
+          <t>802367713</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2017,14 +2247,10 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Cambiar</t>
-        </is>
-      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2034,7 +2260,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2043,36 +2269,46 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>-58.426725</v>
+        <v>-58.457158</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.5945</v>
+        <v>-34.605839</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>-254</t>
+          <t>-263</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1/7/2025</t>
+          <t>1/22/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>BELAUSTEGUI DR LUIS /ALT/ 1185</t>
+          <t>Fraga 93</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>106569 - CABALLITO</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>802367713</t>
+          <t>802848838</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2085,7 +2321,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
       <c r="I25" t="inlineStr">
         <is>
           <t>1</t>
@@ -2098,45 +2338,55 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.457158</v>
+        <v>-58.446721</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.605839</v>
+        <v>-34.587175</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Colegiales</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>-263</t>
+          <t>803608154</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1/22/2025</t>
+          <t>2/24/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Fraga 93</t>
+          <t>CUBAS JOSE /ALT/ 3372</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>106589 - VILLA DEVOTO</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>802848838</t>
+          <t>803608154</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2151,12 +2401,12 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar columna</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2171,20 +2421,30 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.446721</v>
+        <v>-58.506318</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.587175</v>
+        <v>-34.592417</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>803608154</t>
+          <t>803608215</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2194,17 +2454,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CUBAS JOSE /ALT/ 3372</t>
+          <t>DEL PINO VIRREY /ALT/ 2646</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>106589 - VILLA DEVOTO</t>
+          <t>106581 - COLEGIALES</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>803608154</t>
+          <t>803608215</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2219,7 +2479,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Colocar columna</t>
+          <t>Columna 114 quebrada en base dar prioridad.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2243,16 +2503,26 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.506318</v>
+        <v>-58.45524</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.592417</v>
+        <v>-34.567858</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Colegiales</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>803608215</t>
+          <t>803608331</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2262,17 +2532,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>DEL PINO VIRREY /ALT/ 2646</t>
+          <t>ROOSEVELT F D ,AV. /ALT/ 4875</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>106581 - COLEGIALES</t>
+          <t>106592 - VILLA URQUIZA</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>803608215</t>
+          <t>803608331</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2287,7 +2557,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Columna 114 quebrada en base dar prioridad.</t>
+          <t xml:space="preserve">Columna terminal168 con rienda a pique fuera de plomo  y base con cimentación rota </t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2311,16 +2581,26 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.45524</v>
+        <v>-58.484493</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.567858</v>
+        <v>-34.572049</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Colegiales</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>803608331</t>
+          <t>803608455</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2330,17 +2610,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ROOSEVELT F D ,AV. /ALT/ 4875</t>
+          <t>VALDENEGRO /ALT/ 4037</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>106592 - VILLA URQUIZA</t>
+          <t>106593 - SAAVEDRA</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>803608331</t>
+          <t>803608455</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2355,7 +2635,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Columna terminal168 con rienda a pique fuera de plomo  y base con cimentación rota </t>
+          <t>Cambiar poste podrido apoyado en tanque de agua. Es sobre parque junto a medianera.  Dar prioridad .</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2375,20 +2655,30 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.484493</v>
+        <v>-58.493679</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.572049</v>
+        <v>-34.557149</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>803608455</t>
+          <t>803608463</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2398,17 +2688,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>VALDENEGRO /ALT/ 4037</t>
+          <t>COCHABAMBA /ALT/ 1790</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>106552 - CONSTITUCION</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>803608455</t>
+          <t>803608463</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2423,7 +2713,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Cambiar poste podrido apoyado en tanque de agua. Es sobre parque junto a medianera.  Dar prioridad .</t>
+          <t>SIN RIEGO</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2438,45 +2728,55 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo/Fuente Teco</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.493679</v>
+        <v>-58.391153</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.557149</v>
+        <v>-34.624022</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>803608463</t>
+          <t>-281</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2/24/2025</t>
+          <t>2/26/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>COCHABAMBA /ALT/ 1790</t>
+          <t>SOLER /ALT/ 4517</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>106552 - CONSTITUCION</t>
+          <t>106594 - PALERMO</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>803608463</t>
+          <t>803651203</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2491,7 +2791,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>SIN RIEGO</t>
+          <t>columna de 114 con nodo y redes nuestra.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2515,36 +2815,46 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.391153</v>
+        <v>-58.423405</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.624022</v>
+        <v>-34.588075</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>-281</t>
+          <t>-300</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2/26/2025</t>
+          <t>3/17/2025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>SOLER /ALT/ 4517</t>
+          <t>SAN MARTIN ,AV. /ALT/ 6195</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>106587 - AGRONOMIA</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>803651203</t>
+          <t>804081102</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2559,7 +2869,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>columna de 114 con nodo y redes nuestra.</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2574,45 +2884,55 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Nodo/Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.423405</v>
+        <v>-58.502505</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.588075</v>
+        <v>-34.59465</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>-284</t>
+          <t>-307</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2/26/2025</t>
+          <t>3/25/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>ARCOS /ALT/ 1715</t>
+          <t>BERUTI ANTONIO /ALT/ 4645</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>106595 - BELGRANO</t>
+          <t>106594 - PALERMO</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>803651216</t>
+          <t>804288212</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2627,12 +2947,12 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>114 mm picada</t>
+          <t>Picada traspasar red y retirar columna</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2647,40 +2967,50 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.450714</v>
+        <v>-58.42486</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.563958</v>
+        <v>-34.577318</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>-300</t>
+          <t>5138</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>3/17/2025</t>
+          <t>4/1/2025</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>SAN MARTIN ,AV. /ALT/ 6195</t>
+          <t>LOPEZ, CARLOS ANTONIO 3326</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>106587 - AGRONOMIA</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>804081102</t>
+          <t>804468459</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2695,17 +3025,17 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>COLUMNA INCLINADA</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2715,40 +3045,50 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.502505</v>
+        <v>-58.508582</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.59465</v>
+        <v>-34.588936</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>-307</t>
+          <t>5139</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>3/25/2025</t>
+          <t>4/1/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>BERUTI ANTONIO /ALT/ 4645</t>
+          <t>LOPEZ, CARLOS ANTONIO 3346</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>804288212</t>
+          <t>804468467</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2763,7 +3103,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Picada traspasar red y retirar columna</t>
+          <t>COLUMNA INCLINADA</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2773,7 +3113,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2783,40 +3123,50 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.42486</v>
+        <v>-58.508809</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.577318</v>
+        <v>-34.589076</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>-311</t>
+          <t>-316</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>4/3/2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>GONZALEZ JOAQUIN V /ALT/ 789</t>
+          <t>ALBERTI /ALT/ 621</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>106573 - FLORESTA</t>
+          <t>106558 - BALVANERA</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>804302872</t>
+          <t>804468365</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2836,7 +3186,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2851,40 +3201,50 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.482612</v>
+        <v>-58.401202</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.624833</v>
+        <v>-34.61683</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Almagro</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>-314</t>
+          <t>5500</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>3/29/2025</t>
+          <t>4/7/2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>MOLDES /ALT/ 1983</t>
+          <t>LA PLATA AV. 1013</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>106595 - BELGRANO</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>804333528</t>
+          <t>804568914</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2899,7 +3259,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Columna propia con ampli de red propio picada en base.</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2909,7 +3269,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2923,26 +3283,36 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.458417</v>
+        <v>-58.426804</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.56481</v>
+        <v>-34.627283</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>5138</t>
+          <t>5728</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>4/1/2025</t>
+          <t>4/7/2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>LOPEZ, CARLOS ANTONIO 3326</t>
+          <t>FRANCO 3340</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2952,7 +3322,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>804468459</t>
+          <t>804568964</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2967,7 +3337,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>COLUMNA INCLINADA</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2977,7 +3347,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2991,26 +3361,36 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.508582</v>
+        <v>-58.512525</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.588936</v>
+        <v>-34.585228</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>5139</t>
+          <t>5521</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>4/1/2025</t>
+          <t>4/8/2025</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>LOPEZ, CARLOS ANTONIO 3346</t>
+          <t>EL PEREGRINO 3115</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -3020,7 +3400,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>804468467</t>
+          <t>804569000</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3035,7 +3415,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>COLUMNA INCLINADA</t>
+          <t>Volvio a ingresar se inclino el poste - caso 6316</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3055,40 +3435,50 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.508809</v>
+        <v>-58.485232</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.589076</v>
+        <v>-34.611573</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Devoto</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>-316</t>
+          <t>-325</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>4/3/2025</t>
+          <t>4/8/2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>ALBERTI /ALT/ 621</t>
+          <t>RINCON /ALT/ 1091</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>106558 - BALVANERA</t>
+          <t>106556 - SAN CRISTOBAL</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>804468365</t>
+          <t>804569066</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3127,36 +3517,46 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.401202</v>
+        <v>-58.39573</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.61683</v>
+        <v>-34.621541</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>5500</t>
+          <t>-326</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>4/7/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>LA PLATA AV. 1013</t>
+          <t>GARCIA DEL RIO /ALT/ 3354</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>106593 - SAAVEDRA</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>804568914</t>
+          <t>804634199</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3171,7 +3571,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Retirar poste de vereda. Reparar la vereda donde estaba colocado el poste.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3181,7 +3581,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3191,40 +3591,50 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.426804</v>
+        <v>-58.478106</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.627283</v>
+        <v>-34.551523</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>5728</t>
+          <t>-327</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>4/7/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>FRANCO 3340</t>
+          <t>ROOSEVELT F D ,AV. /ALT/ 5439</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>106592 - VILLA URQUIZA</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>804568964</t>
+          <t>804634203</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3239,7 +3649,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar columna R200 y  dar aviso para el traspaso de nodos. (TECO y TLC)</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3254,7 +3664,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3263,26 +3673,36 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.512525</v>
+        <v>-58.491074</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.585228</v>
+        <v>-34.575623</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>5521</t>
+          <t>5572</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>4/8/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>EL PEREGRINO 3115</t>
+          <t>SANABRIA 4289</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -3292,7 +3712,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>804569000</t>
+          <t>804663652</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3307,7 +3727,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Volvio a ingresar se inclino el poste - caso 6316</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3331,36 +3751,46 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.485232</v>
+        <v>-58.516755</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.611573</v>
+        <v>-34.6002</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>-325</t>
+          <t>5573</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>4/8/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>RINCON /ALT/ 1091</t>
+          <t>LASTRA AV. 4379</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>106556 - SAN CRISTOBAL</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>804569066</t>
+          <t>804663677</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3375,7 +3805,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3385,7 +3815,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3399,16 +3829,26 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.39573</v>
+        <v>-58.525125</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.621541</v>
+        <v>-34.604668</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Devoto</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>-326</t>
+          <t>5574</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3418,17 +3858,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>GARCIA DEL RIO /ALT/ 3354</t>
+          <t>GRIVEO 3909</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>804634199</t>
+          <t>804663683</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3443,7 +3883,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Retirar poste de vereda. Reparar la vereda donde estaba colocado el poste.</t>
+          <t>Poste Inclinado</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3453,7 +3893,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -3467,36 +3907,46 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.478106</v>
+        <v>-58.517126</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.551523</v>
+        <v>-34.592774</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>-327</t>
+          <t>-334</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/21/2025</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>ROOSEVELT F D ,AV. /ALT/ 5439</t>
+          <t>BUCARELLI /ALT/ 1534</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>106592 - VILLA URQUIZA</t>
+          <t>106597 - PARQUE CHAS</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>804634203</t>
+          <t>804838853</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3511,7 +3961,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Colocar columna R200 y  dar aviso para el traspaso de nodos. (TECO y TLC)</t>
+          <t xml:space="preserve">Cambiar Columna dañada torcida y fuera de plomo </t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3526,7 +3976,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -3535,36 +3985,46 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.491074</v>
+        <v>-58.481261</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.575623</v>
+        <v>-34.584281</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>5572</t>
+          <t>-335</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/21/2025</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>SANABRIA 4289</t>
+          <t>BUCARELLI /ALT/ 1412</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>106597 - PARQUE CHAS</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>804663652</t>
+          <t>804838855</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3579,7 +4039,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t xml:space="preserve">Aplomar columna 114 </t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3589,7 +4049,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3599,40 +4059,50 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.516755</v>
+        <v>-58.479593</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.6002</v>
+        <v>-34.584943</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>5573</t>
+          <t>-336</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/21/2025</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>LASTRA AV. 4379</t>
+          <t>BAUNESS /ALT/ 1419</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>106597 - PARQUE CHAS</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>804663677</t>
+          <t>804838856</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3647,7 +4117,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>"Aplomar columna 114 con rienda a pique o colocar terminal"</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3657,7 +4127,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3671,36 +4141,46 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.525125</v>
+        <v>-58.479168</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.604668</v>
+        <v>-34.584482</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>5574</t>
+          <t>-337</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/21/2025</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>GRIVEO 3909</t>
+          <t>PARAGUAY /ALT/ 4259</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>106594 - PALERMO</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>804663683</t>
+          <t>804838858</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3715,7 +4195,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Poste Inclinado</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3725,7 +4205,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3735,20 +4215,30 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.517126</v>
+        <v>-58.421822</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.592774</v>
+        <v>-34.58645</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>-334</t>
+          <t>-338</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3758,17 +4248,17 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>BUCARELLI /ALT/ 1534</t>
+          <t>PARAGUAY /ALT/ 4283</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>106594 - PALERMO</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>804838853</t>
+          <t>804838861</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3783,7 +4273,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar Columna dañada torcida y fuera de plomo </t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3807,16 +4297,26 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.481261</v>
+        <v>-58.421964</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.584281</v>
+        <v>-34.586342</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>-335</t>
+          <t>-339</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3826,17 +4326,17 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>BUCARELLI /ALT/ 1412</t>
+          <t>GRIVEO /ALT/ 2435</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>106591 - VILLA PUEYRREDON</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>804838855</t>
+          <t>804838868</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3851,7 +4351,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 114 </t>
+          <t xml:space="preserve">Aplomar columna 114  </t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3861,7 +4361,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -3875,16 +4375,26 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>-58.479593</v>
+        <v>-58.498493</v>
       </c>
       <c r="N51" t="n">
-        <v>-34.584943</v>
+        <v>-34.581262</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>-336</t>
+          <t>-340</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3894,17 +4404,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>BAUNESS /ALT/ 1419</t>
+          <t>SUPERI /ALT/ 1445</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>106581 - COLEGIALES</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>804838856</t>
+          <t>804838869</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3919,7 +4429,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>"Aplomar columna 114 con rienda a pique o colocar terminal"</t>
+          <t>Columna podrida en la base</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3943,16 +4453,26 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>-58.479168</v>
+        <v>-58.460666</v>
       </c>
       <c r="N52" t="n">
-        <v>-34.584482</v>
+        <v>-34.573823</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>Colegiales</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>-337</t>
+          <t>-341</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3962,17 +4482,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>PARAGUAY /ALT/ 4259</t>
+          <t>3 DE FEBRERO /ALT/ 4835</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>106596 - NUNEZ</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>804838858</t>
+          <t>804838980</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3987,7 +4507,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>"Retirar poste teco cobre en desuso entrada Edificio reclamo municipal "</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3997,7 +4517,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -4007,40 +4527,50 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>-58.421822</v>
+        <v>-58.469157</v>
       </c>
       <c r="N53" t="n">
-        <v>-34.58645</v>
+        <v>-34.536783</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>-338</t>
+          <t>-342</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>4/21/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>PARAGUAY /ALT/ 4283</t>
+          <t>WILLIAMS ALBERTO /ALT/ 5625</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>106593 - SAAVEDRA</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>804838861</t>
+          <t>804839148</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4055,12 +4585,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar columna de 114. - VIRARDI</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -4079,36 +4609,46 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>-58.421964</v>
+        <v>-58.502447</v>
       </c>
       <c r="N54" t="n">
-        <v>-34.586342</v>
+        <v>-34.561008</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>-339</t>
+          <t>-343</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>4/21/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>GRIVEO /ALT/ 2435</t>
+          <t>ANDONAEGUI /ALT/ 1608</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>106591 - VILLA PUEYRREDON</t>
+          <t>106597 - PARQUE CHAS</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>804838868</t>
+          <t>804839150</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4123,12 +4663,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 114  </t>
+          <t>Aplomar columna de 114 - VIRARDI</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -4147,36 +4687,46 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>-58.498493</v>
+        <v>-58.48278</v>
       </c>
       <c r="N55" t="n">
-        <v>-34.581262</v>
+        <v>-34.584137</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>-340</t>
+          <t>-344</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>4/21/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>SUPERI /ALT/ 1445</t>
+          <t>ANDONAEGUI /ALT/ 1690</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>106581 - COLEGIALES</t>
+          <t>106597 - PARQUE CHAS</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>804838869</t>
+          <t>804839162</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -4191,17 +4741,17 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Columna podrida en la base</t>
+          <t>Aplomar columna de 114. - VIRARDI</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -4215,36 +4765,46 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>-58.460666</v>
+        <v>-58.483947</v>
       </c>
       <c r="N56" t="n">
-        <v>-34.573823</v>
+        <v>-34.583207</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>-341</t>
+          <t>-345</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>4/21/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>3 DE FEBRERO /ALT/ 4835</t>
+          <t>ANDONAEGUI /ALT/ 1774</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>106596 - NUNEZ</t>
+          <t>106597 - PARQUE CHAS</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>804838980</t>
+          <t>804839181</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -4259,17 +4819,17 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>"Retirar poste teco cobre en desuso entrada Edificio reclamo municipal "</t>
+          <t>Aplomo/cambio de columna de 168 colocar columna y rienda en norma.  - VIRARDI</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -4279,20 +4839,30 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>-58.469157</v>
+        <v>-58.484513</v>
       </c>
       <c r="N57" t="n">
-        <v>-34.536783</v>
+        <v>-34.582786</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>-342</t>
+          <t>-346</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -4302,17 +4872,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>WILLIAMS ALBERTO /ALT/ 5625</t>
+          <t>ARGERICH /ALT/ 4710</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>106591 - VILLA PUEYRREDON</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>804839148</t>
+          <t>804839198</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -4327,7 +4897,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Cambiar columna de 114. - VIRARDI</t>
+          <t>Cambiar poste con rienda podrido en su base - VIRARDI</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4347,20 +4917,30 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>-58.502447</v>
+        <v>-58.503673</v>
       </c>
       <c r="N58" t="n">
-        <v>-34.561008</v>
+        <v>-34.586925</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>-343</t>
+          <t>-347</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -4370,7 +4950,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>ANDONAEGUI /ALT/ 1608</t>
+          <t>AVALOS /ALT/ 1610</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -4380,7 +4960,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>804839150</t>
+          <t>804839214</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -4395,7 +4975,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Aplomar columna de 114 - VIRARDI</t>
+          <t>Cambiar columna de 168 - VIRARDI</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4405,12 +4985,12 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo/Fuente TLC</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -4419,16 +4999,26 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>-58.48278</v>
+        <v>-58.480099</v>
       </c>
       <c r="N59" t="n">
-        <v>-34.584137</v>
+        <v>-34.582085</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>-344</t>
+          <t>-349</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -4438,7 +5028,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>ANDONAEGUI /ALT/ 1690</t>
+          <t>BAUNESS /ALT/ 1616</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -4448,7 +5038,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>804839162</t>
+          <t>804839290</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -4463,7 +5053,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Aplomar columna de 114. - VIRARDI</t>
+          <t>Columna en polígono fuera de plomo con ancla fuera de norma - VIRARDI</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4473,7 +5063,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -4487,16 +5077,26 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>-58.483947</v>
+        <v>-58.48139</v>
       </c>
       <c r="N60" t="n">
-        <v>-34.583207</v>
+        <v>-34.583277</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>-345</t>
+          <t>-350</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -4506,7 +5106,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>ANDONAEGUI /ALT/ 1774</t>
+          <t>BUCARELLI /ALT/ 1305</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -4516,7 +5116,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>804839181</t>
+          <t>804839440</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -4531,7 +5131,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Aplomo/cambio de columna de 168 colocar columna y rienda en norma.  - VIRARDI</t>
+          <t>Columna corroida en su base realizar cambio.  - VIRARDI</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -4541,7 +5141,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -4555,16 +5155,26 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>-58.484513</v>
+        <v>-58.479078</v>
       </c>
       <c r="N61" t="n">
-        <v>-34.582786</v>
+        <v>-34.586298</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>-346</t>
+          <t>-351</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -4574,17 +5184,17 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>ARGERICH /ALT/ 4710</t>
+          <t>BUCARELLI /ALT/ 1430</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>106591 - VILLA PUEYRREDON</t>
+          <t>106597 - PARQUE CHAS</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>804839198</t>
+          <t>804839511</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -4599,7 +5209,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Cambiar poste con rienda podrido en su base - VIRARDI</t>
+          <t>Aplomar columna normalizar.  - VIRARDI</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -4609,7 +5219,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -4619,20 +5229,30 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>-58.503673</v>
+        <v>-58.479712</v>
       </c>
       <c r="N62" t="n">
-        <v>-34.586925</v>
+        <v>-34.584855</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>-347</t>
+          <t>-352</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -4642,7 +5262,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>AVALOS /ALT/ 1610</t>
+          <t>BUCARELLI /ALT/ 935</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -4652,7 +5272,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>804839214</t>
+          <t>804839565</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -4667,7 +5287,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Cambiar columna de 168 - VIRARDI</t>
+          <t>Aplomar columna de 114. - VIRARDI</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -4677,12 +5297,12 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Nodo/Fuente TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -4691,16 +5311,26 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>-58.480099</v>
+        <v>-58.475389</v>
       </c>
       <c r="N63" t="n">
-        <v>-34.582085</v>
+        <v>-34.590317</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>-349</t>
+          <t>-353</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -4710,17 +5340,17 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>BAUNESS /ALT/ 1616</t>
+          <t>CAAGUAZU /ALT/ 5703</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>106576 - LINIERS</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>804839290</t>
+          <t>804839589</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -4735,7 +5365,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Columna en polígono fuera de plomo con ancla fuera de norma - VIRARDI</t>
+          <t>Cambiar columna de 114. Fuera de plomo empotrada en árbol colocar rienda. ( se pasa tareas a contratista tratista de limpieza tensado y elevación del tendido).  - VIRARDI</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -4759,16 +5389,26 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>-58.48139</v>
+        <v>-58.511462</v>
       </c>
       <c r="N64" t="n">
-        <v>-34.583277</v>
+        <v>-34.640542</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>Devoto</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>-350</t>
+          <t>-354</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -4778,17 +5418,17 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>BUCARELLI /ALT/ 1305</t>
+          <t>CONDARCO /ALT/ 5316</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>106591 - VILLA PUEYRREDON</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>804839440</t>
+          <t>804839626</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -4803,7 +5443,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Columna corroida en su base realizar cambio.  - VIRARDI</t>
+          <t>Aplomo de columna de PRFV - VIRARDI</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -4813,7 +5453,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -4827,16 +5467,26 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>-58.479078</v>
+        <v>-58.504455</v>
       </c>
       <c r="N65" t="n">
-        <v>-34.586298</v>
+        <v>-34.579941</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>-351</t>
+          <t>-355</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -4846,17 +5496,17 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>BUCARELLI /ALT/ 1430</t>
+          <t>CUENCA /ALT/ 4480</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>106591 - VILLA PUEYRREDON</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>804839511</t>
+          <t>804839675</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -4871,7 +5521,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Aplomar columna normalizar.  - VIRARDI</t>
+          <t>Columna nueva fuera de plomo sostiene nodo de Telecentro.  Reclamo municipal.  - VIRARDI</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -4886,7 +5536,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo/Fuente TLC</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -4895,16 +5545,26 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>-58.479712</v>
+        <v>-58.504568</v>
       </c>
       <c r="N66" t="n">
-        <v>-34.584855</v>
+        <v>-34.590534</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>-352</t>
+          <t>-356</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -4914,17 +5574,17 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>BUCARELLI /ALT/ 935</t>
+          <t>CUENCA /ALT/ 4845</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>106591 - VILLA PUEYRREDON</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>804839565</t>
+          <t>804839715</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -4939,7 +5599,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Aplomar columna de 114. - VIRARDI</t>
+          <t>Retiro de poste viejo en desuso liberado podrido en su base.  - VIRARDI</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -4949,7 +5609,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -4959,20 +5619,30 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>-58.475389</v>
+        <v>-58.507182</v>
       </c>
       <c r="N67" t="n">
-        <v>-34.590317</v>
+        <v>-34.58749</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>-353</t>
+          <t>-358</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -4982,17 +5652,17 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>CAAGUAZU /ALT/ 5703</t>
+          <t>GINEBRA /ALT/ 3887</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>106576 - LINIERS</t>
+          <t>106597 - PARQUE CHAS</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>804839589</t>
+          <t>804839803</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -5007,7 +5677,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Cambiar columna de 114. Fuera de plomo empotrada en árbol colocar rienda. ( se pasa tareas a contratista tratista de limpieza tensado y elevación del tendido).  - VIRARDI</t>
+          <t>Aplomo de columna de 114 - VIRARDI</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -5017,7 +5687,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -5031,16 +5701,26 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>-58.511462</v>
+        <v>-58.475735</v>
       </c>
       <c r="N68" t="n">
-        <v>-34.640542</v>
+        <v>-34.580487</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>-354</t>
+          <t>-359</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -5050,7 +5730,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>CONDARCO /ALT/ 5316</t>
+          <t>CABEZON JOSE LEON /ALT/ 2714</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -5060,7 +5740,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>804839626</t>
+          <t>804839875</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -5075,7 +5755,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aplomo de columna de PRFV - VIRARDI</t>
+          <t>Aplomo de columna de 114 - VIRARDI</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -5099,16 +5779,26 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>-58.504455</v>
+        <v>-58.503195</v>
       </c>
       <c r="N69" t="n">
-        <v>-34.579941</v>
+        <v>-34.581735</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>-355</t>
+          <t>-361</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -5118,17 +5808,17 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>CUENCA /ALT/ 4480</t>
+          <t>LONDRES /ALT/ 4008</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>106591 - VILLA PUEYRREDON</t>
+          <t>106597 - PARQUE CHAS</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>804839675</t>
+          <t>804839936</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -5143,7 +5833,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Columna nueva fuera de plomo sostiene nodo de Telecentro.  Reclamo municipal.  - VIRARDI</t>
+          <t>Aplomo de columna de 114. - VIRARDI</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -5158,7 +5848,7 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Nodo/Fuente TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -5167,16 +5857,26 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>-58.504568</v>
+        <v>-58.478362</v>
       </c>
       <c r="N70" t="n">
-        <v>-34.590534</v>
+        <v>-34.581404</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>-356</t>
+          <t>-363</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -5186,17 +5886,17 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>CUENCA /ALT/ 4845</t>
+          <t>OSLO /ALT/ 1255</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>106591 - VILLA PUEYRREDON</t>
+          <t>106597 - PARQUE CHAS</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>804839715</t>
+          <t>804839962</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -5211,7 +5911,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Retiro de poste viejo en desuso liberado podrido en su base.  - VIRARDI</t>
+          <t>Cambiar columna de 168 podrida en su base.  - VIRARDI</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -5221,7 +5921,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -5231,20 +5931,30 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>-58.507182</v>
+        <v>-58.481767</v>
       </c>
       <c r="N71" t="n">
-        <v>-34.58749</v>
+        <v>-34.589507</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>-358</t>
+          <t>-364</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -5254,17 +5964,17 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>GINEBRA /ALT/ 3887</t>
+          <t>PAROISSIEN /ALT/ 4871</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>106593 - SAAVEDRA</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>804839803</t>
+          <t>804839991</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -5279,7 +5989,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Aplomo de columna de 114 - VIRARDI</t>
+          <t>Aplomar columna de 114 - VIRARDI</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -5303,16 +6013,26 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>-58.475735</v>
+        <v>-58.493164</v>
       </c>
       <c r="N72" t="n">
-        <v>-34.580487</v>
+        <v>-34.55732</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>-359</t>
+          <t>-365</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -5322,17 +6042,17 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>CABEZON JOSE LEON /ALT/ 2714</t>
+          <t>QUESADA /ALT/ 5290</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>106591 - VILLA PUEYRREDON</t>
+          <t>106592 - VILLA URQUIZA</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>804839875</t>
+          <t>804839995</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -5347,7 +6067,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Aplomo de columna de 114 - VIRARDI</t>
+          <t>Columna nueva de PVC fuera de plomo.  - VIRARDI</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -5357,7 +6077,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -5371,16 +6091,26 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>-58.503195</v>
+        <v>-58.491934</v>
       </c>
       <c r="N73" t="n">
-        <v>-34.581735</v>
+        <v>-34.569348</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>-361</t>
+          <t>-366</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -5390,17 +6120,17 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>LONDRES /ALT/ 4008</t>
+          <t>QUESADA /ALT/ 6088</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>106592 - VILLA URQUIZA</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>804839936</t>
+          <t>804840016</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -5415,7 +6145,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Aplomo de columna de 114. - VIRARDI</t>
+          <t>Aplomar columna de 168 cambiar rienda.  - VIRARDI</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -5439,16 +6169,26 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>-58.478362</v>
+        <v>-58.501418</v>
       </c>
       <c r="N74" t="n">
-        <v>-34.581404</v>
+        <v>-34.574363</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>-363</t>
+          <t>-367</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -5458,17 +6198,17 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>OSLO /ALT/ 1255</t>
+          <t>RUIZ HUIDOBRO ,AV. /ALT/ 4771</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>106593 - SAAVEDRA</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>804839962</t>
+          <t>804840024</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -5483,7 +6223,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Cambiar columna de 168 podrida en su base.  - VIRARDI</t>
+          <t>Aplomo de columna de 114 - VIRARDI</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -5493,7 +6233,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -5507,36 +6247,46 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>-58.481767</v>
+        <v>-58.494584</v>
       </c>
       <c r="N75" t="n">
-        <v>-34.589507</v>
+        <v>-34.554981</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>-364</t>
+          <t>-368</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>PAROISSIEN /ALT/ 4871</t>
+          <t>ARIAS /ALT/ 1620</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>106596 - NUNEZ</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>804839991</t>
+          <t>804876039</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -5551,12 +6301,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aplomar columna de 114 - VIRARDI</t>
+          <t xml:space="preserve">Aplomar columna 168 con rienda </t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -5571,40 +6321,50 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>-58.493164</v>
+        <v>-58.465608</v>
       </c>
       <c r="N76" t="n">
-        <v>-34.55732</v>
+        <v>-34.538489</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>-365</t>
+          <t>-372</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>QUESADA /ALT/ 5290</t>
+          <t>CAMARGO /ALT/ 25</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>106592 - VILLA URQUIZA</t>
+          <t>106582 - VILLA CRESPO</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>804839995</t>
+          <t>804903809</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -5619,12 +6379,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Columna nueva de PVC fuera de plomo.  - VIRARDI</t>
+          <t>Aplomar columna 114 con rienda a pique</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -5643,36 +6403,46 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>-58.491934</v>
+        <v>-58.436788</v>
       </c>
       <c r="N77" t="n">
-        <v>-34.569348</v>
+        <v>-34.604014</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>-366</t>
+          <t>-373</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>QUESADA /ALT/ 6088</t>
+          <t>GALLARDO ANGEL ,AV. /ALT/ 608</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>106592 - VILLA URQUIZA</t>
+          <t>106569 - CABALLITO</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>804840016</t>
+          <t>804903810</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -5687,12 +6457,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aplomar columna de 168 cambiar rienda.  - VIRARDI</t>
+          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -5711,36 +6481,46 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>-58.501418</v>
+        <v>-58.439461</v>
       </c>
       <c r="N78" t="n">
-        <v>-34.574363</v>
+        <v>-34.605744</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>Almagro</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>-367</t>
+          <t>-375</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>RUIZ HUIDOBRO ,AV. /ALT/ 4771</t>
+          <t>PAVON /ALT/ 3335</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>106562 - BOEDO</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>804840024</t>
+          <t>804903824</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -5755,17 +6535,17 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Aplomo de columna de 114 - VIRARDI</t>
+          <t>Colocar columna nueva donde estaba la anterior cortada</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -5779,36 +6559,46 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>-58.494584</v>
+        <v>-58.412418</v>
       </c>
       <c r="N79" t="n">
-        <v>-34.554981</v>
+        <v>-34.629288</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>-368</t>
+          <t>-376</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>ARIAS /ALT/ 1620</t>
+          <t xml:space="preserve"> Valentin Gomez 3803</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>106596 - NUNEZ</t>
+          <t>106568 - ALMAGRO</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>804876039</t>
+          <t>804903787</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -5823,7 +6613,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 168 con rienda </t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -5833,7 +6623,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -5843,20 +6633,30 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>-58.465608</v>
+        <v>-58.418424</v>
       </c>
       <c r="N80" t="n">
-        <v>-34.538489</v>
+        <v>-34.604463</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>Almagro</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>-372</t>
+          <t>-377</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -5866,17 +6666,17 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>CAMARGO /ALT/ 25</t>
+          <t>HUMAHUACA /ALT/ 3918</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>106582 - VILLA CRESPO</t>
+          <t>106568 - ALMAGRO</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>804903809</t>
+          <t>804903788</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -5891,7 +6691,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Aplomar columna 114 con rienda a pique</t>
+          <t>picada</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -5915,36 +6715,46 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>-58.436788</v>
+        <v>-58.419694</v>
       </c>
       <c r="N81" t="n">
-        <v>-34.604014</v>
+        <v>-34.602062</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>Almagro</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>-373</t>
+          <t>-383</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>GALLARDO ANGEL ,AV. /ALT/ 608</t>
+          <t>VALDERRAMA /ALT/ 4187</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>106569 - CABALLITO</t>
+          <t>106592 - VILLA URQUIZA</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>804903810</t>
+          <t>805507401</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -5959,7 +6769,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
+          <t xml:space="preserve">Aplomar columna 114 </t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -5983,36 +6793,46 @@
         </is>
       </c>
       <c r="M82" t="n">
-        <v>-58.439461</v>
+        <v>-58.481834</v>
       </c>
       <c r="N82" t="n">
-        <v>-34.605744</v>
+        <v>-34.560796</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>-375</t>
+          <t>-384</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>PAVON /ALT/ 3335</t>
+          <t>LUGONES 1721</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>106562 - BOEDO</t>
+          <t>106586 - VILLA ORTUZAR</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>804903824</t>
+          <t>805507408</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -6027,7 +6847,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Colocar columna nueva donde estaba la anterior cortada</t>
+          <t>Aplomar columna 168 - La columna esta frente a la altura 1721</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -6037,7 +6857,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -6051,36 +6871,46 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>-58.412418</v>
+        <v>-58.473936</v>
       </c>
       <c r="N83" t="n">
-        <v>-34.629288</v>
+        <v>-34.577346</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>Colegiales</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>-376</t>
+          <t>-385</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Valentin Gomez 3803</t>
+          <t>MOLDES /ALT/ 1913</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>106568 - ALMAGRO</t>
+          <t>106595 - BELGRANO</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>804903787</t>
+          <t>805507415</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -6095,7 +6925,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar columna 114</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -6105,7 +6935,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -6119,36 +6949,46 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>-58.418424</v>
+        <v>-58.45789</v>
       </c>
       <c r="N84" t="n">
-        <v>-34.604463</v>
+        <v>-34.565423</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>Colegiales</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>-377</t>
+          <t>-386</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>HUMAHUACA /ALT/ 3918</t>
+          <t>MOLDES /ALT/ 1943</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>106568 - ALMAGRO</t>
+          <t>106595 - BELGRANO</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>804903788</t>
+          <t>805507419</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -6163,7 +7003,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>picada</t>
+          <t>Dos columnas fuera de plomo - aplomar o cambiar la que no tiene nodo de TLC</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -6173,12 +7013,12 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
@@ -6187,26 +7027,36 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>-58.419694</v>
+        <v>-58.458217</v>
       </c>
       <c r="N85" t="n">
-        <v>-34.602062</v>
+        <v>-34.565043</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>Colegiales</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>-383</t>
+          <t>-391</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>5/5/2025</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>VALDERRAMA /ALT/ 4187</t>
+          <t>IBERA /ALT/ 5074</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -6216,7 +7066,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>805507401</t>
+          <t>805676610</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -6231,7 +7081,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 114 </t>
+          <t xml:space="preserve">Cambiar columna 114 base corroida </t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -6241,7 +7091,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -6255,36 +7105,46 @@
         </is>
       </c>
       <c r="M86" t="n">
-        <v>-58.481834</v>
+        <v>-58.49045</v>
       </c>
       <c r="N86" t="n">
-        <v>-34.560796</v>
+        <v>-34.566894</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>-384</t>
+          <t>-392</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>5/5/2025</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>LUGONES 1721</t>
+          <t>GARCIA TEODORO /ALT/ 1775</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>106586 - VILLA ORTUZAR</t>
+          <t>106594 - PALERMO</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>805507408</t>
+          <t>805676615</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -6299,7 +7159,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Aplomar columna 168 - La columna esta frente a la altura 1721</t>
+          <t xml:space="preserve">Cambiar columna 114 base corroida </t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -6309,7 +7169,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -6323,36 +7183,46 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>-58.473936</v>
+        <v>-58.440367</v>
       </c>
       <c r="N87" t="n">
-        <v>-34.577346</v>
+        <v>-34.563551</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>Colegiales</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>-385</t>
+          <t>-393</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>5/5/2025</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>MOLDES /ALT/ 1913</t>
+          <t>3 DE FEBRERO /ALT/ 1272</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>106595 - BELGRANO</t>
+          <t>106594 - PALERMO</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>805507415</t>
+          <t>805676618</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -6367,7 +7237,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Aplomar columna 114</t>
+          <t xml:space="preserve">Cambiar columna 114 base corroida </t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -6377,7 +7247,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -6391,36 +7261,46 @@
         </is>
       </c>
       <c r="M88" t="n">
-        <v>-58.45789</v>
+        <v>-58.445186</v>
       </c>
       <c r="N88" t="n">
-        <v>-34.565423</v>
+        <v>-34.567417</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>Colegiales</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>-386</t>
+          <t>-395</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>5/7/2025</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>MOLDES /ALT/ 1943</t>
+          <t>POSADAS 1567</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>106595 - BELGRANO</t>
+          <t>106560 - RECOLETA</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>805507419</t>
+          <t>805707278</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -6435,7 +7315,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Dos columnas fuera de plomo - aplomar o cambiar la que no tiene nodo de TLC</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -6445,12 +7325,12 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
@@ -6459,36 +7339,46 @@
         </is>
       </c>
       <c r="M89" t="n">
-        <v>-58.458217</v>
+        <v>-58.387847</v>
       </c>
       <c r="N89" t="n">
-        <v>-34.565043</v>
+        <v>-34.587043</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>Recoleta</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>-391</t>
+          <t>-403</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>5/5/2025</t>
+          <t>5/7/2025</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>IBERA /ALT/ 5074</t>
+          <t>SUCRE MRCAL A J DE /ALT/ 3515</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>106592 - VILLA URQUIZA</t>
+          <t>106595 - BELGRANO</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>805676610</t>
+          <t>805722878</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -6503,7 +7393,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna 114 base corroida </t>
+          <t xml:space="preserve">Retirar poste teco cobre tirado y reparar vereda </t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -6513,7 +7403,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -6523,40 +7413,50 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>-58.49045</v>
+        <v>-58.466241</v>
       </c>
       <c r="N90" t="n">
-        <v>-34.566894</v>
+        <v>-34.57047</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>Colegiales</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>-392</t>
+          <t>-404</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>5/5/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>GARCIA TEODORO /ALT/ 1775</t>
+          <t>Amenabar 3048</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>805676615</t>
+          <t>805791896</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -6571,7 +7471,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna 114 base corroida </t>
+          <t>Aplomar columna 114</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -6581,7 +7481,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -6595,36 +7495,46 @@
         </is>
       </c>
       <c r="M91" t="n">
-        <v>-58.440367</v>
+        <v>-58.46579</v>
       </c>
       <c r="N91" t="n">
-        <v>-34.563551</v>
+        <v>-34.555012</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>-393</t>
+          <t>-405</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>5/5/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>3 DE FEBRERO /ALT/ 1272</t>
+          <t>Arcos 1855</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>805676618</t>
+          <t>805791908</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -6639,7 +7549,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna 114 base corroida </t>
+          <t>Cambiar columna 114 picada en base, posee nodo propio.&lt;br&gt;</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -6663,36 +7573,46 @@
         </is>
       </c>
       <c r="M92" t="n">
-        <v>-58.445186</v>
+        <v>-58.451835</v>
       </c>
       <c r="N92" t="n">
-        <v>-34.567417</v>
+        <v>-34.562646</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>Colegiales</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>-395</t>
+          <t>-406</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>5/7/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>POSADAS 1567</t>
+          <t>Olof palme 4144</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>106560 - RECOLETA</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>805707278</t>
+          <t>805791925</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -6707,7 +7627,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Tensar 2 riendas a pique columna 168</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -6717,7 +7637,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -6727,40 +7647,50 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M93" t="n">
-        <v>-58.387847</v>
+        <v>-58.488252</v>
       </c>
       <c r="N93" t="n">
-        <v>-34.587043</v>
+        <v>-34.553391</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>-403</t>
+          <t>-407</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>5/7/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>SUCRE MRCAL A J DE /ALT/ 3515</t>
+          <t>Cabildo 4148</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>106595 - BELGRANO</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>805722878</t>
+          <t>805791933</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -6775,7 +7705,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t xml:space="preserve">Retirar poste teco cobre tirado y reparar vereda </t>
+          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -6785,7 +7715,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -6795,20 +7725,30 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M94" t="n">
-        <v>-58.466241</v>
+        <v>-58.470837</v>
       </c>
       <c r="N94" t="n">
-        <v>-34.57047</v>
+        <v>-34.545751</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>-404</t>
+          <t>-408</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -6818,17 +7758,17 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Amenabar 3048</t>
+          <t>Larralde 2847</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>805791896</t>
+          <t>805791941</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -6858,7 +7798,7 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo/Fuente Teco</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
@@ -6867,36 +7807,46 @@
         </is>
       </c>
       <c r="M95" t="n">
-        <v>-58.46579</v>
+        <v>-58.472267</v>
       </c>
       <c r="N95" t="n">
-        <v>-34.555012</v>
+        <v>-34.551163</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>-405</t>
+          <t>5805</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>5/14/2025</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Arcos 1855</t>
+          <t>GUTENBERG 4134</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>805791908</t>
+          <t>806926378</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -6911,7 +7861,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Cambiar columna 114 picada en base, posee nodo propio.&lt;br&gt;</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -6921,7 +7871,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -6931,40 +7881,50 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M96" t="n">
-        <v>-58.451835</v>
+        <v>-58.51665</v>
       </c>
       <c r="N96" t="n">
-        <v>-34.562646</v>
+        <v>-34.596644</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>-406</t>
+          <t>-421</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Olof palme 4144</t>
+          <t>BESARES 1699</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>805791925</t>
+          <t>806926565</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -6979,7 +7939,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Tensar 2 riendas a pique columna 168</t>
+          <t>Cambiar columna 114 picada en base tener en cuenta que hay acometidas subterraneas que bajan por la columna para entrar en Libertador 8008 tanto de HFC como FTTH colocar medias cañas y colocar cerca para que quedan precintadas a la columna</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -6989,7 +7949,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -6999,40 +7959,50 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M97" t="n">
-        <v>-58.488252</v>
+        <v>-58.464144</v>
       </c>
       <c r="N97" t="n">
-        <v>-34.553391</v>
+        <v>-34.541832</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>-407</t>
+          <t>-422</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Cabildo 4148</t>
+          <t>Franklin Roosevelt 4901</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>805791933</t>
+          <t>806926575</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -7047,7 +8017,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
+          <t>Aplomar columna 114</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -7057,7 +8027,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -7067,40 +8037,50 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M98" t="n">
-        <v>-58.470837</v>
+        <v>-58.485102</v>
       </c>
       <c r="N98" t="n">
-        <v>-34.545751</v>
+        <v>-34.572327</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>-408</t>
+          <t>-425</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Larralde 2847</t>
+          <t>Av. Eva Peron 7437</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>805791941</t>
+          <t>806926621</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -7115,7 +8095,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Aplomar columna 114</t>
+          <t>Aplomar o cambiar columna de 114</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -7125,12 +8105,12 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>Nodo/Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
@@ -7139,36 +8119,46 @@
         </is>
       </c>
       <c r="M99" t="n">
-        <v>-58.472267</v>
+        <v>-58.501029</v>
       </c>
       <c r="N99" t="n">
-        <v>-34.551163</v>
+        <v>-34.673558</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>Devoto</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>5805</t>
+          <t>-426</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>5/14/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>GUTENBERG 4134</t>
+          <t>Av. Eva Peron 7471</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>806926378</t>
+          <t>806926647</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -7183,7 +8173,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Aplomar columna de 168 con rienda</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -7203,20 +8193,30 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M100" t="n">
-        <v>-58.51665</v>
+        <v>-58.501565</v>
       </c>
       <c r="N100" t="n">
-        <v>-34.596644</v>
+        <v>-34.673845</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>Devoto</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>-418</t>
+          <t>-430</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -7226,7 +8226,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Porcel de Peralta 415</t>
+          <t>Araoz 606</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -7236,7 +8236,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>806926542</t>
+          <t>806926712</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -7251,7 +8251,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>aplomar cementar y colocar rienda</t>
+          <t>columna base corroida sin riesgo de caída a la fecha. 14/05/2025</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -7261,7 +8261,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -7275,16 +8275,26 @@
         </is>
       </c>
       <c r="M101" t="n">
-        <v>-58.520671</v>
+        <v>-58.434761</v>
       </c>
       <c r="N101" t="n">
-        <v>-34.632922</v>
+        <v>-34.598381</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>-421</t>
+          <t>-432</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -7294,17 +8304,17 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>BESARES 1699</t>
+          <t>ALVAREZ JULIAN 618</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>806926565</t>
+          <t>806926759</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -7319,7 +8329,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Cambiar columna 114 picada en base tener en cuenta que hay acometidas subterraneas que bajan por la columna para entrar en Libertador 8008 tanto de HFC como FTTH colocar medias cañas y colocar cerca para que quedan precintadas a la columna</t>
+          <t>Columna con base corroida sin riesgo de caida al 14/05/2025</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -7343,16 +8353,26 @@
         </is>
       </c>
       <c r="M102" t="n">
-        <v>-58.464144</v>
+        <v>-58.433867</v>
       </c>
       <c r="N102" t="n">
-        <v>-34.541832</v>
+        <v>-34.599149</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>-422</t>
+          <t>-433</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -7362,7 +8382,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Franklin Roosevelt 4901</t>
+          <t>Moldes 2720</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -7372,7 +8392,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>806926575</t>
+          <t>806926767</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -7387,7 +8407,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Aplomar columna 114</t>
+          <t xml:space="preserve">Poste - Pasan 5 lingas y la línea de cobre </t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -7407,20 +8427,30 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M103" t="n">
-        <v>-58.485102</v>
+        <v>-58.464177</v>
       </c>
       <c r="N103" t="n">
-        <v>-34.572327</v>
+        <v>-34.558239</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>-425</t>
+          <t>-434</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -7430,17 +8460,17 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Av. Eva Peron 7437</t>
+          <t>Billinghurst 1478</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>806926621</t>
+          <t>806926806</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -7455,7 +8485,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Aplomar o cambiar columna de 114</t>
+          <t xml:space="preserve">Columna base corroida con Nap y ganancias de ambas compañias, </t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -7479,16 +8509,26 @@
         </is>
       </c>
       <c r="M104" t="n">
-        <v>-58.501029</v>
+        <v>-58.412302</v>
       </c>
       <c r="N104" t="n">
-        <v>-34.673558</v>
+        <v>-34.59301</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>Almagro</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>-426</t>
+          <t>-436</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -7498,17 +8538,17 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Av. Eva Peron 7471</t>
+          <t>Nueva York 3982</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>806926647</t>
+          <t>806926812</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -7523,7 +8563,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Aplomar columna de 168 con rienda</t>
+          <t xml:space="preserve">Realizar aplomo de columna y tensar cruce Reclamo municipal </t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -7533,7 +8573,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -7547,36 +8587,46 @@
         </is>
       </c>
       <c r="M105" t="n">
-        <v>-58.501565</v>
+        <v>-58.511375</v>
       </c>
       <c r="N105" t="n">
-        <v>-34.673845</v>
+        <v>-34.600017</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>-430</t>
+          <t>-448</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/28/2025</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Araoz 606</t>
+          <t>Tronador 3826</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>806926712</t>
+          <t>806975699</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -7591,12 +8641,12 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>columna base corroida sin riesgo de caída a la fecha. 14/05/2025</t>
+          <t>Columna de retención (columna más ancha</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -7615,36 +8665,46 @@
         </is>
       </c>
       <c r="M106" t="n">
-        <v>-58.434761</v>
+        <v>-58.485056</v>
       </c>
       <c r="N106" t="n">
-        <v>-34.598381</v>
+        <v>-34.555059</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>-432</t>
+          <t>-450</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>ALVAREZ JULIAN 618</t>
+          <t>Moldes 2325</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>806926759</t>
+          <t>807044059</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -7659,7 +8719,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Columna con base corroida sin riesgo de caida al 14/05/2025</t>
+          <t xml:space="preserve">Corroida en base para cambiar contiene CDO/NAP propio </t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -7683,36 +8743,46 @@
         </is>
       </c>
       <c r="M107" t="n">
-        <v>-58.433867</v>
+        <v>-58.461167</v>
       </c>
       <c r="N107" t="n">
-        <v>-34.599149</v>
+        <v>-34.561613</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>-433</t>
+          <t>-470</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Moldes 2720</t>
+          <t>Av. Escalada 2831</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>806926767</t>
+          <t>807208264</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -7727,7 +8797,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poste - Pasan 5 lingas y la línea de cobre </t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -7747,40 +8817,50 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M108" t="n">
-        <v>-58.464177</v>
+        <v>-58.470815</v>
       </c>
       <c r="N108" t="n">
-        <v>-34.558239</v>
+        <v>-34.664201</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>-434</t>
+          <t>-480</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>6/17/2025</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Billinghurst 1478</t>
+          <t>Arias 4384</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>806926806</t>
+          <t>807537909</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -7795,7 +8875,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t xml:space="preserve">Columna base corroida con Nap y ganancias de ambas compañias, </t>
+          <t>Inclinada</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -7819,36 +8899,46 @@
         </is>
       </c>
       <c r="M109" t="n">
-        <v>-58.412302</v>
+        <v>-58.49147</v>
       </c>
       <c r="N109" t="n">
-        <v>-34.59301</v>
+        <v>-34.55031</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>-436</t>
+          <t>-482</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>6/18/2025</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Nueva York 3982</t>
+          <t>Av. Coronel Diaz 2596</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>806926812</t>
+          <t>807605730</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -7861,11 +8951,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Realizar aplomo de columna y tensar cruce Reclamo municipal </t>
-        </is>
-      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr">
         <is>
           <t>1</t>
@@ -7883,40 +8969,50 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M110" t="n">
-        <v>-58.511375</v>
+        <v>-58.405761</v>
       </c>
       <c r="N110" t="n">
-        <v>-34.600017</v>
+        <v>-34.582476</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>Recoleta</t>
+        </is>
+      </c>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>-448</t>
+          <t>-486</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>5/28/2025</t>
+          <t>6/23/2025</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Tronador 3826</t>
+          <t>Del Libertador 4596</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>806975699</t>
+          <t>807762871</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -7931,12 +9027,12 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Columna de retención (columna más ancha</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -7955,26 +9051,36 @@
         </is>
       </c>
       <c r="M111" t="n">
-        <v>-58.485056</v>
+        <v>-58.432241</v>
       </c>
       <c r="N111" t="n">
-        <v>-34.555059</v>
+        <v>-34.56642</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>-450</t>
+          <t>-487</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>6/23/2025</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Moldes 2325</t>
+          <t>Gorriti 3735</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -7984,7 +9090,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>807044059</t>
+          <t>807762979</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -7999,7 +9105,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t xml:space="preserve">Corroida en base para cambiar contiene CDO/NAP propio </t>
+          <t>NAP FTTH Columna MAL ESTADO ROTA EN BASE</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -8023,36 +9129,46 @@
         </is>
       </c>
       <c r="M112" t="n">
-        <v>-58.461167</v>
+        <v>-58.417348</v>
       </c>
       <c r="N112" t="n">
-        <v>-34.561613</v>
+        <v>-34.595467</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>-470</t>
+          <t>6223</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Av. Escalada 2831</t>
+          <t>ECHEANDIA 4200</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>807208264</t>
+          <t>807762996</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -8067,7 +9183,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna inclinada con base  corroida</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -8087,40 +9203,50 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M113" t="n">
-        <v>-58.470815</v>
+        <v>-58.472311</v>
       </c>
       <c r="N113" t="n">
-        <v>-34.664201</v>
+        <v>-34.654867</v>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>-480</t>
+          <t>6197</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>6/17/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Arias 4384</t>
+          <t>RIVADAVIA AV. 5600</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>807537909</t>
+          <t>807763040</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -8135,7 +9261,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Inclinada</t>
+          <t>Aplomar esta es esquina con emilio mitre aprox al 10</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -8159,36 +9285,46 @@
         </is>
       </c>
       <c r="M114" t="n">
-        <v>-58.49147</v>
+        <v>-58.444181</v>
       </c>
       <c r="N114" t="n">
-        <v>-34.55031</v>
+        <v>-34.621883</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>-482</t>
+          <t>6239</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>6/18/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Av. Coronel Diaz 2596</t>
+          <t>PALPA 2964</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>807605730</t>
+          <t>807763098</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -8201,7 +9337,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr"/>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
       <c r="I115" t="inlineStr">
         <is>
           <t>1</t>
@@ -8223,36 +9363,46 @@
         </is>
       </c>
       <c r="M115" t="n">
-        <v>-58.405761</v>
+        <v>-58.450113</v>
       </c>
       <c r="N115" t="n">
-        <v>-34.582476</v>
+        <v>-34.574534</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>Colegiales</t>
+        </is>
+      </c>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>-486</t>
+          <t>-488</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>6/23/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Del Libertador 4596</t>
+          <t>Blanco Encalada 4896</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>807762871</t>
+          <t>807763099</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -8267,7 +9417,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Pendiente traspaso rxo y retiro de columna podrida</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -8287,40 +9437,50 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M116" t="n">
-        <v>-58.432241</v>
+        <v>-58.484729</v>
       </c>
       <c r="N116" t="n">
-        <v>-34.56642</v>
+        <v>-34.574614</v>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>-487</t>
+          <t>6221</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>6/23/2025</t>
+          <t>6/26/2025</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Gorriti 3735</t>
+          <t>FERNANDEZ 1549</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>807762979</t>
+          <t>807789699</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -8335,7 +9495,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>NAP FTTH Columna MAL ESTADO ROTA EN BASE</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -8345,7 +9505,7 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -8355,40 +9515,50 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M117" t="n">
-        <v>-58.417348</v>
+        <v>-58.471717</v>
       </c>
       <c r="N117" t="n">
-        <v>-34.595467</v>
+        <v>-34.649961</v>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>Devoto</t>
+        </is>
+      </c>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>6223</t>
+          <t>-491</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/26/2025</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>ECHEANDIA 4200</t>
+          <t>3 de Febrero 2171</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>807762996</t>
+          <t>807789702</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -8403,7 +9573,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Columna inclinada con base  corroida</t>
+          <t>Columna 114 propia picada en base con NAP</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -8423,354 +9593,24 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M118" t="n">
-        <v>-58.472311</v>
+        <v>-58.452636</v>
       </c>
       <c r="N118" t="n">
-        <v>-34.654867</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>6197</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>6/24/2025</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>RIVADAVIA AV. 5600</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>807763040</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>Aplomar esta es esquina con emilio mitre aprox al 10</t>
-        </is>
-      </c>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J119" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>-58.444181</v>
-      </c>
-      <c r="N119" t="n">
-        <v>-34.621883</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>6239</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>6/24/2025</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>PALPA 2964</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>807763098</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I120" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>-58.450113</v>
-      </c>
-      <c r="N120" t="n">
-        <v>-34.574534</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>-488</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>6/24/2025</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>Blanco Encalada 4896</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>807763099</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>Pendiente traspaso rxo y retiro de columna podrida</t>
-        </is>
-      </c>
-      <c r="I121" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>Poste</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>-58.484729</v>
-      </c>
-      <c r="N121" t="n">
-        <v>-34.574614</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>6221</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>6/26/2025</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>FERNANDEZ 1549</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>807789699</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>Poste inclinado</t>
-        </is>
-      </c>
-      <c r="I122" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t>Aplomo</t>
-        </is>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>Poste</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>-58.471717</v>
-      </c>
-      <c r="N122" t="n">
-        <v>-34.649961</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>-491</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>6/26/2025</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>3 de Febrero 2171</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>807789702</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>Columna 114 propia picada en base con NAP</t>
-        </is>
-      </c>
-      <c r="I123" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>-58.452636</v>
-      </c>
-      <c r="N123" t="n">
         <v>-34.558607</v>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/mapa_interactivo_AYKO.xlsx
+++ b/mapa_interactivo_AYKO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P118"/>
+  <dimension ref="A1:P119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9613,6 +9613,84 @@
         </is>
       </c>
     </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>-500</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>7/3/2025</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Castañares 5656</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>807965768</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Columna chocada con rienda a pique</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>-58.479921</v>
+      </c>
+      <c r="N119" t="n">
+        <v>-34.673021</v>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapa_interactivo_AYKO.xlsx
+++ b/mapa_interactivo_AYKO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P119"/>
+  <dimension ref="A1:P120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9691,6 +9691,84 @@
         </is>
       </c>
     </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>6330</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>7/3/2025</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>REPUBLICA DE LA INDIA 3106</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>807965776</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Picada e inclinada</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>-58.413941</v>
+      </c>
+      <c r="N120" t="n">
+        <v>-34.57698</v>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="P120" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapa_interactivo_AYKO.xlsx
+++ b/mapa_interactivo_AYKO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P120"/>
+  <dimension ref="A1:P121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9769,6 +9769,84 @@
         </is>
       </c>
     </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>-501</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>7/3/2025</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Cabello 3107</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>807971967</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Aplomar</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>Aplomo</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>-58.405749</v>
+      </c>
+      <c r="N121" t="n">
+        <v>-34.58224</v>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>Recoleta</t>
+        </is>
+      </c>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapa_interactivo_AYKO.xlsx
+++ b/mapa_interactivo_AYKO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P121"/>
+  <dimension ref="A1:P118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3380,7 +3380,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>5521</t>
+          <t>-325</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3390,17 +3390,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>EL PEREGRINO 3115</t>
+          <t>RINCON /ALT/ 1091</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>106556 - SAN CRISTOBAL</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>804569000</t>
+          <t>804569066</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3415,7 +3415,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Volvio a ingresar se inclino el poste - caso 6316</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3425,7 +3425,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3435,50 +3435,50 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.485232</v>
+        <v>-58.39573</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.611573</v>
+        <v>-34.621541</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>-325</t>
+          <t>-326</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>4/8/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>RINCON /ALT/ 1091</t>
+          <t>GARCIA DEL RIO /ALT/ 3354</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>106556 - SAN CRISTOBAL</t>
+          <t>106593 - SAAVEDRA</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>804569066</t>
+          <t>804634199</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3493,7 +3493,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Retirar poste de vereda. Reparar la vereda donde estaba colocado el poste.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3503,7 +3503,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3513,30 +3513,30 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.39573</v>
+        <v>-58.478106</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.621541</v>
+        <v>-34.551523</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>-326</t>
+          <t>-327</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3546,17 +3546,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>GARCIA DEL RIO /ALT/ 3354</t>
+          <t>ROOSEVELT F D ,AV. /ALT/ 5439</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>106592 - VILLA URQUIZA</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>804634199</t>
+          <t>804634203</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3571,7 +3571,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Retirar poste de vereda. Reparar la vereda donde estaba colocado el poste.</t>
+          <t>Colocar columna R200 y  dar aviso para el traspaso de nodos. (TECO y TLC)</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3581,28 +3581,28 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.478106</v>
+        <v>-58.491074</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.551523</v>
+        <v>-34.575623</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -3614,7 +3614,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>-327</t>
+          <t>5572</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3624,17 +3624,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>ROOSEVELT F D ,AV. /ALT/ 5439</t>
+          <t>SANABRIA 4289</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>106592 - VILLA URQUIZA</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>804634203</t>
+          <t>804663652</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3649,7 +3649,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Colocar columna R200 y  dar aviso para el traspaso de nodos. (TECO y TLC)</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3659,24 +3659,24 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.491074</v>
+        <v>-58.516755</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.575623</v>
+        <v>-34.6002</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>5572</t>
+          <t>5573</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3702,7 +3702,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>SANABRIA 4289</t>
+          <t>LASTRA AV. 4379</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -3712,7 +3712,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>804663652</t>
+          <t>804663677</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3727,7 +3727,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3747,18 +3747,18 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.516755</v>
+        <v>-58.525125</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.6002</v>
+        <v>-34.604668</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -3770,7 +3770,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>5573</t>
+          <t>5574</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3780,7 +3780,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>LASTRA AV. 4379</t>
+          <t>GRIVEO 3909</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -3790,7 +3790,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>804663677</t>
+          <t>804663683</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3805,7 +3805,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Poste Inclinado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3825,18 +3825,18 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.525125</v>
+        <v>-58.517126</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.604668</v>
+        <v>-34.592774</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -3848,27 +3848,27 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>5574</t>
+          <t>-334</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/21/2025</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>GRIVEO 3909</t>
+          <t>BUCARELLI /ALT/ 1534</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>106597 - PARQUE CHAS</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>804663683</t>
+          <t>804838853</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3883,7 +3883,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Poste Inclinado</t>
+          <t xml:space="preserve">Cambiar Columna dañada torcida y fuera de plomo </t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3893,7 +3893,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -3903,14 +3903,14 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.517126</v>
+        <v>-58.481261</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.592774</v>
+        <v>-34.584281</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -3926,7 +3926,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>-334</t>
+          <t>-335</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3936,7 +3936,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>BUCARELLI /ALT/ 1534</t>
+          <t>BUCARELLI /ALT/ 1412</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -3946,7 +3946,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>804838853</t>
+          <t>804838855</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar Columna dañada torcida y fuera de plomo </t>
+          <t xml:space="preserve">Aplomar columna 114 </t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3985,10 +3985,10 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.481261</v>
+        <v>-58.479593</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.584281</v>
+        <v>-34.584943</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>-335</t>
+          <t>-336</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -4014,7 +4014,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>BUCARELLI /ALT/ 1412</t>
+          <t>BAUNESS /ALT/ 1419</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>804838855</t>
+          <t>804838856</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -4039,7 +4039,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 114 </t>
+          <t>"Aplomar columna 114 con rienda a pique o colocar terminal"</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -4063,10 +4063,10 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.479593</v>
+        <v>-58.479168</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.584943</v>
+        <v>-34.584482</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>-336</t>
+          <t>-337</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -4092,17 +4092,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>BAUNESS /ALT/ 1419</t>
+          <t>PARAGUAY /ALT/ 4259</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>106594 - PALERMO</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>804838856</t>
+          <t>804838858</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -4117,7 +4117,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>"Aplomar columna 114 con rienda a pique o colocar terminal"</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -4141,26 +4141,26 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.479168</v>
+        <v>-58.421822</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.584482</v>
+        <v>-34.58645</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>-337</t>
+          <t>-338</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -4170,7 +4170,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>PARAGUAY /ALT/ 4259</t>
+          <t>PARAGUAY /ALT/ 4283</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -4180,7 +4180,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>804838858</t>
+          <t>804838861</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -4219,10 +4219,10 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.421822</v>
+        <v>-58.421964</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.58645</v>
+        <v>-34.586342</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4238,7 +4238,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>-338</t>
+          <t>-339</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -4248,17 +4248,17 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>PARAGUAY /ALT/ 4283</t>
+          <t>GRIVEO /ALT/ 2435</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>106591 - VILLA PUEYRREDON</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>804838861</t>
+          <t>804838868</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -4273,7 +4273,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t xml:space="preserve">Aplomar columna 114  </t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -4283,7 +4283,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -4297,26 +4297,26 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.421964</v>
+        <v>-58.498493</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.586342</v>
+        <v>-34.581262</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>-339</t>
+          <t>-340</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -4326,17 +4326,17 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>GRIVEO /ALT/ 2435</t>
+          <t>SUPERI /ALT/ 1445</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>106591 - VILLA PUEYRREDON</t>
+          <t>106581 - COLEGIALES</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>804838868</t>
+          <t>804838869</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -4351,7 +4351,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 114  </t>
+          <t>Columna podrida en la base</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -4361,7 +4361,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -4375,14 +4375,14 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>-58.498493</v>
+        <v>-58.460666</v>
       </c>
       <c r="N51" t="n">
-        <v>-34.581262</v>
+        <v>-34.573823</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -4394,7 +4394,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>-340</t>
+          <t>-341</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -4404,17 +4404,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>SUPERI /ALT/ 1445</t>
+          <t>3 DE FEBRERO /ALT/ 4835</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>106581 - COLEGIALES</t>
+          <t>106596 - NUNEZ</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>804838869</t>
+          <t>804838980</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -4429,7 +4429,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Columna podrida en la base</t>
+          <t>"Retirar poste teco cobre en desuso entrada Edificio reclamo municipal "</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4439,7 +4439,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -4449,18 +4449,18 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>-58.460666</v>
+        <v>-58.469157</v>
       </c>
       <c r="N52" t="n">
-        <v>-34.573823</v>
+        <v>-34.536783</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
@@ -4472,27 +4472,27 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>-341</t>
+          <t>-342</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>4/21/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>3 DE FEBRERO /ALT/ 4835</t>
+          <t>WILLIAMS ALBERTO /ALT/ 5625</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>106596 - NUNEZ</t>
+          <t>106593 - SAAVEDRA</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>804838980</t>
+          <t>804839148</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -4507,17 +4507,17 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>"Retirar poste teco cobre en desuso entrada Edificio reclamo municipal "</t>
+          <t>Cambiar columna de 114. - VIRARDI</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -4527,18 +4527,18 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>-58.469157</v>
+        <v>-58.502447</v>
       </c>
       <c r="N53" t="n">
-        <v>-34.536783</v>
+        <v>-34.561008</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
@@ -4550,7 +4550,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>-342</t>
+          <t>-343</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -4560,17 +4560,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>WILLIAMS ALBERTO /ALT/ 5625</t>
+          <t>ANDONAEGUI /ALT/ 1608</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>106597 - PARQUE CHAS</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>804839148</t>
+          <t>804839150</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Cambiar columna de 114. - VIRARDI</t>
+          <t>Aplomar columna de 114 - VIRARDI</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4595,7 +4595,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -4609,10 +4609,10 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>-58.502447</v>
+        <v>-58.48278</v>
       </c>
       <c r="N54" t="n">
-        <v>-34.561008</v>
+        <v>-34.584137</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>-343</t>
+          <t>-344</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -4638,7 +4638,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>ANDONAEGUI /ALT/ 1608</t>
+          <t>ANDONAEGUI /ALT/ 1690</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>804839150</t>
+          <t>804839162</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4663,7 +4663,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Aplomar columna de 114 - VIRARDI</t>
+          <t>Aplomar columna de 114. - VIRARDI</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4687,10 +4687,10 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>-58.48278</v>
+        <v>-58.483947</v>
       </c>
       <c r="N55" t="n">
-        <v>-34.584137</v>
+        <v>-34.583207</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>-344</t>
+          <t>-345</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -4716,7 +4716,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>ANDONAEGUI /ALT/ 1690</t>
+          <t>ANDONAEGUI /ALT/ 1774</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -4726,7 +4726,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>804839162</t>
+          <t>804839181</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -4741,7 +4741,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Aplomar columna de 114. - VIRARDI</t>
+          <t>Aplomo/cambio de columna de 168 colocar columna y rienda en norma.  - VIRARDI</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4765,10 +4765,10 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>-58.483947</v>
+        <v>-58.484513</v>
       </c>
       <c r="N56" t="n">
-        <v>-34.583207</v>
+        <v>-34.582786</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -4784,7 +4784,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>-345</t>
+          <t>-346</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -4794,17 +4794,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>ANDONAEGUI /ALT/ 1774</t>
+          <t>ARGERICH /ALT/ 4710</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>106591 - VILLA PUEYRREDON</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>804839181</t>
+          <t>804839198</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -4819,7 +4819,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aplomo/cambio de columna de 168 colocar columna y rienda en norma.  - VIRARDI</t>
+          <t>Cambiar poste con rienda podrido en su base - VIRARDI</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -4829,7 +4829,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -4839,14 +4839,14 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>-58.484513</v>
+        <v>-58.503673</v>
       </c>
       <c r="N57" t="n">
-        <v>-34.582786</v>
+        <v>-34.586925</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>-346</t>
+          <t>-347</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -4872,17 +4872,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>ARGERICH /ALT/ 4710</t>
+          <t>AVALOS /ALT/ 1610</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>106591 - VILLA PUEYRREDON</t>
+          <t>106597 - PARQUE CHAS</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>804839198</t>
+          <t>804839214</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -4897,7 +4897,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Cambiar poste con rienda podrido en su base - VIRARDI</t>
+          <t>Cambiar columna de 168 - VIRARDI</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4912,19 +4912,19 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo/Fuente TLC</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>-58.503673</v>
+        <v>-58.480099</v>
       </c>
       <c r="N58" t="n">
-        <v>-34.586925</v>
+        <v>-34.582085</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>-347</t>
+          <t>-349</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -4950,7 +4950,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>AVALOS /ALT/ 1610</t>
+          <t>BAUNESS /ALT/ 1616</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -4960,7 +4960,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>804839214</t>
+          <t>804839290</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -4975,7 +4975,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Cambiar columna de 168 - VIRARDI</t>
+          <t>Columna en polígono fuera de plomo con ancla fuera de norma - VIRARDI</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4990,7 +4990,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Nodo/Fuente TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -4999,10 +4999,10 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>-58.480099</v>
+        <v>-58.48139</v>
       </c>
       <c r="N59" t="n">
-        <v>-34.582085</v>
+        <v>-34.583277</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -5018,7 +5018,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>-349</t>
+          <t>-350</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -5028,7 +5028,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>BAUNESS /ALT/ 1616</t>
+          <t>BUCARELLI /ALT/ 1305</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -5038,7 +5038,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>804839290</t>
+          <t>804839440</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -5053,7 +5053,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Columna en polígono fuera de plomo con ancla fuera de norma - VIRARDI</t>
+          <t>Columna corroida en su base realizar cambio.  - VIRARDI</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -5077,10 +5077,10 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>-58.48139</v>
+        <v>-58.479078</v>
       </c>
       <c r="N60" t="n">
-        <v>-34.583277</v>
+        <v>-34.586298</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>-350</t>
+          <t>-351</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -5106,7 +5106,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>BUCARELLI /ALT/ 1305</t>
+          <t>BUCARELLI /ALT/ 1430</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -5116,7 +5116,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>804839440</t>
+          <t>804839511</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -5131,7 +5131,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Columna corroida en su base realizar cambio.  - VIRARDI</t>
+          <t>Aplomar columna normalizar.  - VIRARDI</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -5141,7 +5141,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -5155,10 +5155,10 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>-58.479078</v>
+        <v>-58.479712</v>
       </c>
       <c r="N61" t="n">
-        <v>-34.586298</v>
+        <v>-34.584855</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -5174,7 +5174,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>-351</t>
+          <t>-352</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -5184,7 +5184,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>BUCARELLI /ALT/ 1430</t>
+          <t>BUCARELLI /ALT/ 935</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -5194,7 +5194,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>804839511</t>
+          <t>804839565</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Aplomar columna normalizar.  - VIRARDI</t>
+          <t>Aplomar columna de 114. - VIRARDI</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -5233,10 +5233,10 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>-58.479712</v>
+        <v>-58.475389</v>
       </c>
       <c r="N62" t="n">
-        <v>-34.584855</v>
+        <v>-34.590317</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>-352</t>
+          <t>-353</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -5262,17 +5262,17 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>BUCARELLI /ALT/ 935</t>
+          <t>CAAGUAZU /ALT/ 5703</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>106576 - LINIERS</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>804839565</t>
+          <t>804839589</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -5287,7 +5287,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aplomar columna de 114. - VIRARDI</t>
+          <t>Cambiar columna de 114. Fuera de plomo empotrada en árbol colocar rienda. ( se pasa tareas a contratista tratista de limpieza tensado y elevación del tendido).  - VIRARDI</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -5297,7 +5297,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -5311,14 +5311,14 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>-58.475389</v>
+        <v>-58.511462</v>
       </c>
       <c r="N63" t="n">
-        <v>-34.590317</v>
+        <v>-34.640542</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
@@ -5330,7 +5330,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>-353</t>
+          <t>-354</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -5340,17 +5340,17 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>CAAGUAZU /ALT/ 5703</t>
+          <t>CONDARCO /ALT/ 5316</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>106576 - LINIERS</t>
+          <t>106591 - VILLA PUEYRREDON</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>804839589</t>
+          <t>804839626</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -5365,7 +5365,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Cambiar columna de 114. Fuera de plomo empotrada en árbol colocar rienda. ( se pasa tareas a contratista tratista de limpieza tensado y elevación del tendido).  - VIRARDI</t>
+          <t>Aplomo de columna de PRFV - VIRARDI</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -5375,7 +5375,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -5389,14 +5389,14 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>-58.511462</v>
+        <v>-58.504455</v>
       </c>
       <c r="N64" t="n">
-        <v>-34.640542</v>
+        <v>-34.579941</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
@@ -5408,7 +5408,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>-354</t>
+          <t>-355</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -5418,7 +5418,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>CONDARCO /ALT/ 5316</t>
+          <t>CUENCA /ALT/ 4480</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -5428,7 +5428,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>804839626</t>
+          <t>804839675</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -5443,7 +5443,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Aplomo de columna de PRFV - VIRARDI</t>
+          <t>Columna nueva fuera de plomo sostiene nodo de Telecentro.  Reclamo municipal.  - VIRARDI</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -5458,7 +5458,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo/Fuente TLC</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -5467,10 +5467,10 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>-58.504455</v>
+        <v>-58.504568</v>
       </c>
       <c r="N65" t="n">
-        <v>-34.579941</v>
+        <v>-34.590534</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>-355</t>
+          <t>-356</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -5496,7 +5496,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>CUENCA /ALT/ 4480</t>
+          <t>CUENCA /ALT/ 4845</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -5506,7 +5506,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>804839675</t>
+          <t>804839715</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -5521,7 +5521,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Columna nueva fuera de plomo sostiene nodo de Telecentro.  Reclamo municipal.  - VIRARDI</t>
+          <t>Retiro de poste viejo en desuso liberado podrido en su base.  - VIRARDI</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -5531,24 +5531,24 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Nodo/Fuente TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>-58.504568</v>
+        <v>-58.507182</v>
       </c>
       <c r="N66" t="n">
-        <v>-34.590534</v>
+        <v>-34.58749</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -5564,7 +5564,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>-356</t>
+          <t>-358</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -5574,17 +5574,17 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>CUENCA /ALT/ 4845</t>
+          <t>GINEBRA /ALT/ 3887</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>106591 - VILLA PUEYRREDON</t>
+          <t>106597 - PARQUE CHAS</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>804839715</t>
+          <t>804839803</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -5599,7 +5599,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Retiro de poste viejo en desuso liberado podrido en su base.  - VIRARDI</t>
+          <t>Aplomo de columna de 114 - VIRARDI</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -5609,7 +5609,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -5619,14 +5619,14 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>-58.507182</v>
+        <v>-58.475735</v>
       </c>
       <c r="N67" t="n">
-        <v>-34.58749</v>
+        <v>-34.580487</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -5642,7 +5642,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>-358</t>
+          <t>-359</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -5652,17 +5652,17 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>GINEBRA /ALT/ 3887</t>
+          <t>CABEZON JOSE LEON /ALT/ 2714</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>106591 - VILLA PUEYRREDON</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>804839803</t>
+          <t>804839875</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -5701,10 +5701,10 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>-58.475735</v>
+        <v>-58.503195</v>
       </c>
       <c r="N68" t="n">
-        <v>-34.580487</v>
+        <v>-34.581735</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -5720,7 +5720,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>-359</t>
+          <t>-361</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -5730,17 +5730,17 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>CABEZON JOSE LEON /ALT/ 2714</t>
+          <t>LONDRES /ALT/ 4008</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>106591 - VILLA PUEYRREDON</t>
+          <t>106597 - PARQUE CHAS</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>804839875</t>
+          <t>804839936</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -5755,7 +5755,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aplomo de columna de 114 - VIRARDI</t>
+          <t>Aplomo de columna de 114. - VIRARDI</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -5779,10 +5779,10 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>-58.503195</v>
+        <v>-58.478362</v>
       </c>
       <c r="N69" t="n">
-        <v>-34.581735</v>
+        <v>-34.581404</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>-361</t>
+          <t>-363</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -5808,7 +5808,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>LONDRES /ALT/ 4008</t>
+          <t>OSLO /ALT/ 1255</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -5818,7 +5818,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>804839936</t>
+          <t>804839962</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -5833,7 +5833,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Aplomo de columna de 114. - VIRARDI</t>
+          <t>Cambiar columna de 168 podrida en su base.  - VIRARDI</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -5843,7 +5843,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -5857,10 +5857,10 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>-58.478362</v>
+        <v>-58.481767</v>
       </c>
       <c r="N70" t="n">
-        <v>-34.581404</v>
+        <v>-34.589507</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -5876,7 +5876,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>-363</t>
+          <t>-364</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -5886,17 +5886,17 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>OSLO /ALT/ 1255</t>
+          <t>PAROISSIEN /ALT/ 4871</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>106593 - SAAVEDRA</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>804839962</t>
+          <t>804839991</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -5911,7 +5911,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Cambiar columna de 168 podrida en su base.  - VIRARDI</t>
+          <t>Aplomar columna de 114 - VIRARDI</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -5921,7 +5921,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -5935,14 +5935,14 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>-58.481767</v>
+        <v>-58.493164</v>
       </c>
       <c r="N71" t="n">
-        <v>-34.589507</v>
+        <v>-34.55732</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
@@ -5954,7 +5954,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>-364</t>
+          <t>-365</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -5964,17 +5964,17 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>PAROISSIEN /ALT/ 4871</t>
+          <t>QUESADA /ALT/ 5290</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>106592 - VILLA URQUIZA</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>804839991</t>
+          <t>804839995</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -5989,7 +5989,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Aplomar columna de 114 - VIRARDI</t>
+          <t>Columna nueva de PVC fuera de plomo.  - VIRARDI</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -5999,7 +5999,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -6013,14 +6013,14 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>-58.493164</v>
+        <v>-58.491934</v>
       </c>
       <c r="N72" t="n">
-        <v>-34.55732</v>
+        <v>-34.569348</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
@@ -6032,7 +6032,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>-365</t>
+          <t>-366</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -6042,7 +6042,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>QUESADA /ALT/ 5290</t>
+          <t>QUESADA /ALT/ 6088</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -6052,7 +6052,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>804839995</t>
+          <t>804840016</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -6067,7 +6067,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Columna nueva de PVC fuera de plomo.  - VIRARDI</t>
+          <t>Aplomar columna de 168 cambiar rienda.  - VIRARDI</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -6077,7 +6077,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -6091,10 +6091,10 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>-58.491934</v>
+        <v>-58.501418</v>
       </c>
       <c r="N73" t="n">
-        <v>-34.569348</v>
+        <v>-34.574363</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -6110,7 +6110,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>-366</t>
+          <t>-367</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -6120,17 +6120,17 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>QUESADA /ALT/ 6088</t>
+          <t>RUIZ HUIDOBRO ,AV. /ALT/ 4771</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>106592 - VILLA URQUIZA</t>
+          <t>106593 - SAAVEDRA</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>804840016</t>
+          <t>804840024</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -6145,7 +6145,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Aplomar columna de 168 cambiar rienda.  - VIRARDI</t>
+          <t>Aplomo de columna de 114 - VIRARDI</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -6169,14 +6169,14 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>-58.501418</v>
+        <v>-58.494584</v>
       </c>
       <c r="N74" t="n">
-        <v>-34.574363</v>
+        <v>-34.554981</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
@@ -6188,27 +6188,27 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>-367</t>
+          <t>-368</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>RUIZ HUIDOBRO ,AV. /ALT/ 4771</t>
+          <t>ARIAS /ALT/ 1620</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>106596 - NUNEZ</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>804840024</t>
+          <t>804876039</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -6223,12 +6223,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Aplomo de columna de 114 - VIRARDI</t>
+          <t xml:space="preserve">Aplomar columna 168 con rienda </t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -6243,14 +6243,14 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>-58.494584</v>
+        <v>-58.465608</v>
       </c>
       <c r="N75" t="n">
-        <v>-34.554981</v>
+        <v>-34.538489</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -6266,27 +6266,27 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>-368</t>
+          <t>-372</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>ARIAS /ALT/ 1620</t>
+          <t>CAMARGO /ALT/ 25</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>106596 - NUNEZ</t>
+          <t>106582 - VILLA CRESPO</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>804876039</t>
+          <t>804903809</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -6301,7 +6301,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 168 con rienda </t>
+          <t>Aplomar columna 114 con rienda a pique</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -6311,7 +6311,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -6321,18 +6321,18 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>-58.465608</v>
+        <v>-58.436788</v>
       </c>
       <c r="N76" t="n">
-        <v>-34.538489</v>
+        <v>-34.604014</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
@@ -6344,7 +6344,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>-372</t>
+          <t>-373</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -6354,17 +6354,17 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>CAMARGO /ALT/ 25</t>
+          <t>GALLARDO ANGEL ,AV. /ALT/ 608</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>106582 - VILLA CRESPO</t>
+          <t>106569 - CABALLITO</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>804903809</t>
+          <t>804903810</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -6379,7 +6379,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aplomar columna 114 con rienda a pique</t>
+          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -6389,7 +6389,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -6403,26 +6403,26 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>-58.436788</v>
+        <v>-58.439461</v>
       </c>
       <c r="N77" t="n">
-        <v>-34.604014</v>
+        <v>-34.605744</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>-373</t>
+          <t>-375</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -6432,17 +6432,17 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>GALLARDO ANGEL ,AV. /ALT/ 608</t>
+          <t>PAVON /ALT/ 3335</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>106569 - CABALLITO</t>
+          <t>106562 - BOEDO</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>804903810</t>
+          <t>804903824</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -6457,7 +6457,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
+          <t>Colocar columna nueva donde estaba la anterior cortada</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -6467,7 +6467,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -6481,14 +6481,14 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>-58.439461</v>
+        <v>-58.412418</v>
       </c>
       <c r="N78" t="n">
-        <v>-34.605744</v>
+        <v>-34.629288</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
@@ -6500,7 +6500,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>-375</t>
+          <t>-376</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -6510,17 +6510,17 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>PAVON /ALT/ 3335</t>
+          <t xml:space="preserve"> Valentin Gomez 3803</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>106562 - BOEDO</t>
+          <t>106568 - ALMAGRO</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>804903824</t>
+          <t>804903787</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -6535,7 +6535,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Colocar columna nueva donde estaba la anterior cortada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -6559,14 +6559,14 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>-58.412418</v>
+        <v>-58.418424</v>
       </c>
       <c r="N79" t="n">
-        <v>-34.629288</v>
+        <v>-34.604463</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
@@ -6578,7 +6578,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>-376</t>
+          <t>-377</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -6588,7 +6588,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Valentin Gomez 3803</t>
+          <t>HUMAHUACA /ALT/ 3918</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -6598,7 +6598,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>804903787</t>
+          <t>804903788</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -6613,7 +6613,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>picada</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -6637,10 +6637,10 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>-58.418424</v>
+        <v>-58.419694</v>
       </c>
       <c r="N80" t="n">
-        <v>-34.604463</v>
+        <v>-34.602062</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -6656,27 +6656,27 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>-377</t>
+          <t>-383</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>HUMAHUACA /ALT/ 3918</t>
+          <t>VALDERRAMA /ALT/ 4187</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>106568 - ALMAGRO</t>
+          <t>106592 - VILLA URQUIZA</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>804903788</t>
+          <t>805507401</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -6691,7 +6691,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>picada</t>
+          <t xml:space="preserve">Aplomar columna 114 </t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -6701,7 +6701,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -6715,26 +6715,26 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>-58.419694</v>
+        <v>-58.481834</v>
       </c>
       <c r="N81" t="n">
-        <v>-34.602062</v>
+        <v>-34.560796</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>-383</t>
+          <t>-384</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -6744,17 +6744,17 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>VALDERRAMA /ALT/ 4187</t>
+          <t>LUGONES 1721</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>106592 - VILLA URQUIZA</t>
+          <t>106586 - VILLA ORTUZAR</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>805507401</t>
+          <t>805507408</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -6769,7 +6769,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 114 </t>
+          <t>Aplomar columna 168 - La columna esta frente a la altura 1721</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -6793,14 +6793,14 @@
         </is>
       </c>
       <c r="M82" t="n">
-        <v>-58.481834</v>
+        <v>-58.473936</v>
       </c>
       <c r="N82" t="n">
-        <v>-34.560796</v>
+        <v>-34.577346</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
@@ -6812,7 +6812,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>-384</t>
+          <t>-385</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -6822,17 +6822,17 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>LUGONES 1721</t>
+          <t>MOLDES /ALT/ 1913</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>106586 - VILLA ORTUZAR</t>
+          <t>106595 - BELGRANO</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>805507408</t>
+          <t>805507415</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -6847,7 +6847,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Aplomar columna 168 - La columna esta frente a la altura 1721</t>
+          <t>Aplomar columna 114</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -6871,10 +6871,10 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>-58.473936</v>
+        <v>-58.45789</v>
       </c>
       <c r="N83" t="n">
-        <v>-34.577346</v>
+        <v>-34.565423</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>-385</t>
+          <t>-386</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -6900,7 +6900,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>MOLDES /ALT/ 1913</t>
+          <t>MOLDES /ALT/ 1943</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -6910,7 +6910,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>805507415</t>
+          <t>805507419</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -6925,7 +6925,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Aplomar columna 114</t>
+          <t>Dos columnas fuera de plomo - aplomar o cambiar la que no tiene nodo de TLC</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -6940,7 +6940,7 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
@@ -6949,10 +6949,10 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>-58.45789</v>
+        <v>-58.458217</v>
       </c>
       <c r="N84" t="n">
-        <v>-34.565423</v>
+        <v>-34.565043</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -6968,27 +6968,27 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>-386</t>
+          <t>-391</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>5/5/2025</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>MOLDES /ALT/ 1943</t>
+          <t>IBERA /ALT/ 5074</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>106595 - BELGRANO</t>
+          <t>106592 - VILLA URQUIZA</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>805507419</t>
+          <t>805676610</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -7003,7 +7003,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Dos columnas fuera de plomo - aplomar o cambiar la que no tiene nodo de TLC</t>
+          <t xml:space="preserve">Cambiar columna 114 base corroida </t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -7013,12 +7013,12 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
@@ -7027,14 +7027,14 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>-58.458217</v>
+        <v>-58.49045</v>
       </c>
       <c r="N85" t="n">
-        <v>-34.565043</v>
+        <v>-34.566894</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
@@ -7046,7 +7046,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>-391</t>
+          <t>-392</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -7056,17 +7056,17 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>IBERA /ALT/ 5074</t>
+          <t>GARCIA TEODORO /ALT/ 1775</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>106592 - VILLA URQUIZA</t>
+          <t>106594 - PALERMO</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>805676610</t>
+          <t>805676615</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -7105,14 +7105,14 @@
         </is>
       </c>
       <c r="M86" t="n">
-        <v>-58.49045</v>
+        <v>-58.440367</v>
       </c>
       <c r="N86" t="n">
-        <v>-34.566894</v>
+        <v>-34.563551</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
@@ -7124,7 +7124,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>-392</t>
+          <t>-393</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -7134,7 +7134,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>GARCIA TEODORO /ALT/ 1775</t>
+          <t>3 DE FEBRERO /ALT/ 1272</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>805676615</t>
+          <t>805676618</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -7183,10 +7183,10 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>-58.440367</v>
+        <v>-58.445186</v>
       </c>
       <c r="N87" t="n">
-        <v>-34.563551</v>
+        <v>-34.567417</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -7202,27 +7202,27 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>-393</t>
+          <t>-395</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>5/5/2025</t>
+          <t>5/7/2025</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>3 DE FEBRERO /ALT/ 1272</t>
+          <t>POSADAS 1567</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>106560 - RECOLETA</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>805676618</t>
+          <t>805707278</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -7237,7 +7237,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna 114 base corroida </t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -7261,26 +7261,26 @@
         </is>
       </c>
       <c r="M88" t="n">
-        <v>-58.445186</v>
+        <v>-58.387847</v>
       </c>
       <c r="N88" t="n">
-        <v>-34.567417</v>
+        <v>-34.587043</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>-395</t>
+          <t>-403</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -7290,17 +7290,17 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>POSADAS 1567</t>
+          <t>SUCRE MRCAL A J DE /ALT/ 3515</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>106560 - RECOLETA</t>
+          <t>106595 - BELGRANO</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>805707278</t>
+          <t>805722878</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -7315,7 +7315,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t xml:space="preserve">Retirar poste teco cobre tirado y reparar vereda </t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -7325,7 +7325,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -7335,50 +7335,50 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M89" t="n">
-        <v>-58.387847</v>
+        <v>-58.466241</v>
       </c>
       <c r="N89" t="n">
-        <v>-34.587043</v>
+        <v>-34.57047</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>-403</t>
+          <t>-404</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>5/7/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>SUCRE MRCAL A J DE /ALT/ 3515</t>
+          <t>Amenabar 3048</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>106595 - BELGRANO</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>805722878</t>
+          <t>805791896</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -7393,7 +7393,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t xml:space="preserve">Retirar poste teco cobre tirado y reparar vereda </t>
+          <t>Aplomar columna 114</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -7403,7 +7403,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -7413,18 +7413,18 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>-58.466241</v>
+        <v>-58.46579</v>
       </c>
       <c r="N90" t="n">
-        <v>-34.57047</v>
+        <v>-34.555012</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P90" t="inlineStr">
@@ -7436,7 +7436,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>-404</t>
+          <t>-405</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -7446,7 +7446,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Amenabar 3048</t>
+          <t>Arcos 1855</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -7456,7 +7456,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>805791896</t>
+          <t>805791908</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -7471,7 +7471,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Aplomar columna 114</t>
+          <t>Cambiar columna 114 picada en base, posee nodo propio.&lt;br&gt;</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -7481,7 +7481,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -7495,14 +7495,14 @@
         </is>
       </c>
       <c r="M91" t="n">
-        <v>-58.46579</v>
+        <v>-58.451835</v>
       </c>
       <c r="N91" t="n">
-        <v>-34.555012</v>
+        <v>-34.562646</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P91" t="inlineStr">
@@ -7514,7 +7514,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>-405</t>
+          <t>-406</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -7524,17 +7524,17 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Arcos 1855</t>
+          <t>Olof palme 4144</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>805791908</t>
+          <t>805791925</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -7549,7 +7549,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Cambiar columna 114 picada en base, posee nodo propio.&lt;br&gt;</t>
+          <t>Tensar 2 riendas a pique columna 168</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -7559,7 +7559,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -7569,18 +7569,18 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M92" t="n">
-        <v>-58.451835</v>
+        <v>-58.488252</v>
       </c>
       <c r="N92" t="n">
-        <v>-34.562646</v>
+        <v>-34.553391</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P92" t="inlineStr">
@@ -7592,7 +7592,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>-406</t>
+          <t>-407</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -7602,7 +7602,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Olof palme 4144</t>
+          <t>Cabildo 4148</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -7612,7 +7612,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>805791925</t>
+          <t>805791933</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -7627,7 +7627,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Tensar 2 riendas a pique columna 168</t>
+          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -7637,7 +7637,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -7651,10 +7651,10 @@
         </is>
       </c>
       <c r="M93" t="n">
-        <v>-58.488252</v>
+        <v>-58.470837</v>
       </c>
       <c r="N93" t="n">
-        <v>-34.553391</v>
+        <v>-34.545751</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -7670,7 +7670,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>-407</t>
+          <t>-408</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -7680,7 +7680,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Cabildo 4148</t>
+          <t>Larralde 2847</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -7690,7 +7690,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>805791933</t>
+          <t>805791941</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -7705,7 +7705,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
+          <t>Aplomar columna 114</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -7720,19 +7720,19 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo/Fuente Teco</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M94" t="n">
-        <v>-58.470837</v>
+        <v>-58.472267</v>
       </c>
       <c r="N94" t="n">
-        <v>-34.545751</v>
+        <v>-34.551163</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -7748,27 +7748,27 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>-408</t>
+          <t>5805</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>5/14/2025</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Larralde 2847</t>
+          <t>GUTENBERG 4134</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>805791941</t>
+          <t>806926378</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -7783,7 +7783,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Aplomar columna 114</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -7798,23 +7798,23 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Nodo/Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M95" t="n">
-        <v>-58.472267</v>
+        <v>-58.51665</v>
       </c>
       <c r="N95" t="n">
-        <v>-34.551163</v>
+        <v>-34.596644</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P95" t="inlineStr">
@@ -7826,27 +7826,27 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>5805</t>
+          <t>-421</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>5/14/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>GUTENBERG 4134</t>
+          <t>BESARES 1699</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>806926378</t>
+          <t>806926565</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -7861,7 +7861,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Cambiar columna 114 picada en base tener en cuenta que hay acometidas subterraneas que bajan por la columna para entrar en Libertador 8008 tanto de HFC como FTTH colocar medias cañas y colocar cerca para que quedan precintadas a la columna</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -7871,7 +7871,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -7881,18 +7881,18 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M96" t="n">
-        <v>-58.51665</v>
+        <v>-58.464144</v>
       </c>
       <c r="N96" t="n">
-        <v>-34.596644</v>
+        <v>-34.541832</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P96" t="inlineStr">
@@ -7904,7 +7904,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>-421</t>
+          <t>-422</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -7914,7 +7914,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>BESARES 1699</t>
+          <t>Franklin Roosevelt 4901</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -7924,7 +7924,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>806926565</t>
+          <t>806926575</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -7939,7 +7939,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Cambiar columna 114 picada en base tener en cuenta que hay acometidas subterraneas que bajan por la columna para entrar en Libertador 8008 tanto de HFC como FTTH colocar medias cañas y colocar cerca para que quedan precintadas a la columna</t>
+          <t>Aplomar columna 114</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -7963,14 +7963,14 @@
         </is>
       </c>
       <c r="M97" t="n">
-        <v>-58.464144</v>
+        <v>-58.485102</v>
       </c>
       <c r="N97" t="n">
-        <v>-34.541832</v>
+        <v>-34.572327</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P97" t="inlineStr">
@@ -7982,7 +7982,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>-422</t>
+          <t>-425</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -7992,17 +7992,17 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Franklin Roosevelt 4901</t>
+          <t>Av. Eva Peron 7437</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>806926575</t>
+          <t>806926621</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -8017,7 +8017,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Aplomar columna 114</t>
+          <t>Aplomar o cambiar columna de 114</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -8041,14 +8041,14 @@
         </is>
       </c>
       <c r="M98" t="n">
-        <v>-58.485102</v>
+        <v>-58.501029</v>
       </c>
       <c r="N98" t="n">
-        <v>-34.572327</v>
+        <v>-34.673558</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P98" t="inlineStr">
@@ -8060,7 +8060,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>-425</t>
+          <t>-426</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -8070,7 +8070,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Av. Eva Peron 7437</t>
+          <t>Av. Eva Peron 7471</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -8080,7 +8080,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>806926621</t>
+          <t>806926647</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -8095,7 +8095,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Aplomar o cambiar columna de 114</t>
+          <t>Aplomar columna de 168 con rienda</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -8105,7 +8105,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -8115,14 +8115,14 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M99" t="n">
-        <v>-58.501029</v>
+        <v>-58.501565</v>
       </c>
       <c r="N99" t="n">
-        <v>-34.673558</v>
+        <v>-34.673845</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -8138,7 +8138,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>-426</t>
+          <t>-430</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -8148,17 +8148,17 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Av. Eva Peron 7471</t>
+          <t>Araoz 606</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>806926647</t>
+          <t>806926712</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -8173,7 +8173,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Aplomar columna de 168 con rienda</t>
+          <t>columna base corroida sin riesgo de caída a la fecha. 14/05/2025</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -8183,7 +8183,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -8193,30 +8193,30 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M100" t="n">
-        <v>-58.501565</v>
+        <v>-58.434761</v>
       </c>
       <c r="N100" t="n">
-        <v>-34.673845</v>
+        <v>-34.598381</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P100" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>-430</t>
+          <t>-432</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -8226,17 +8226,17 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Araoz 606</t>
+          <t>ALVAREZ JULIAN 618</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>806926712</t>
+          <t>806926759</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -8251,7 +8251,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>columna base corroida sin riesgo de caída a la fecha. 14/05/2025</t>
+          <t>Columna con base corroida sin riesgo de caida al 14/05/2025</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -8275,10 +8275,10 @@
         </is>
       </c>
       <c r="M101" t="n">
-        <v>-58.434761</v>
+        <v>-58.433867</v>
       </c>
       <c r="N101" t="n">
-        <v>-34.598381</v>
+        <v>-34.599149</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -8294,7 +8294,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>-432</t>
+          <t>-433</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -8304,17 +8304,17 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>ALVAREZ JULIAN 618</t>
+          <t>Moldes 2720</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>806926759</t>
+          <t>806926767</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -8329,7 +8329,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Columna con base corroida sin riesgo de caida al 14/05/2025</t>
+          <t xml:space="preserve">Poste - Pasan 5 lingas y la línea de cobre </t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -8349,30 +8349,30 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M102" t="n">
-        <v>-58.433867</v>
+        <v>-58.464177</v>
       </c>
       <c r="N102" t="n">
-        <v>-34.599149</v>
+        <v>-34.558239</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P102" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>-433</t>
+          <t>-434</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -8382,17 +8382,17 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Moldes 2720</t>
+          <t>Billinghurst 1478</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>806926767</t>
+          <t>806926806</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -8407,7 +8407,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poste - Pasan 5 lingas y la línea de cobre </t>
+          <t xml:space="preserve">Columna base corroida con Nap y ganancias de ambas compañias, </t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -8427,30 +8427,30 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M103" t="n">
-        <v>-58.464177</v>
+        <v>-58.412302</v>
       </c>
       <c r="N103" t="n">
-        <v>-34.558239</v>
+        <v>-34.59301</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P103" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>-434</t>
+          <t>-436</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -8460,17 +8460,17 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Billinghurst 1478</t>
+          <t>Nueva York 3982</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>806926806</t>
+          <t>806926812</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -8485,7 +8485,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t xml:space="preserve">Columna base corroida con Nap y ganancias de ambas compañias, </t>
+          <t xml:space="preserve">Realizar aplomo de columna y tensar cruce Reclamo municipal </t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -8505,50 +8505,50 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M104" t="n">
-        <v>-58.412302</v>
+        <v>-58.511375</v>
       </c>
       <c r="N104" t="n">
-        <v>-34.59301</v>
+        <v>-34.600017</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P104" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>-436</t>
+          <t>-448</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/28/2025</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Nueva York 3982</t>
+          <t>Tronador 3826</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>806926812</t>
+          <t>806975699</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -8563,12 +8563,12 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t xml:space="preserve">Realizar aplomo de columna y tensar cruce Reclamo municipal </t>
+          <t>Columna de retención (columna más ancha</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -8583,18 +8583,18 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M105" t="n">
-        <v>-58.511375</v>
+        <v>-58.485056</v>
       </c>
       <c r="N105" t="n">
-        <v>-34.600017</v>
+        <v>-34.555059</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P105" t="inlineStr">
@@ -8606,27 +8606,27 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>-448</t>
+          <t>-450</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>5/28/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Tronador 3826</t>
+          <t>Moldes 2325</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>806975699</t>
+          <t>807044059</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -8641,12 +8641,12 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Columna de retención (columna más ancha</t>
+          <t xml:space="preserve">Corroida en base para cambiar contiene CDO/NAP propio </t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -8665,10 +8665,10 @@
         </is>
       </c>
       <c r="M106" t="n">
-        <v>-58.485056</v>
+        <v>-58.461167</v>
       </c>
       <c r="N106" t="n">
-        <v>-34.555059</v>
+        <v>-34.561613</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
@@ -8684,27 +8684,27 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>-450</t>
+          <t>-470</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Moldes 2325</t>
+          <t>Av. Escalada 2831</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>807044059</t>
+          <t>807208264</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -8719,7 +8719,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t xml:space="preserve">Corroida en base para cambiar contiene CDO/NAP propio </t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -8743,46 +8743,46 @@
         </is>
       </c>
       <c r="M107" t="n">
-        <v>-58.461167</v>
+        <v>-58.470815</v>
       </c>
       <c r="N107" t="n">
-        <v>-34.561613</v>
+        <v>-34.664201</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P107" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>-470</t>
+          <t>-480</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/17/2025</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Av. Escalada 2831</t>
+          <t>Arias 4384</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>807208264</t>
+          <t>807537909</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -8797,7 +8797,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Inclinada</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -8821,46 +8821,46 @@
         </is>
       </c>
       <c r="M108" t="n">
-        <v>-58.470815</v>
+        <v>-58.49147</v>
       </c>
       <c r="N108" t="n">
-        <v>-34.664201</v>
+        <v>-34.55031</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P108" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>-480</t>
+          <t>-482</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>6/17/2025</t>
+          <t>6/18/2025</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Arias 4384</t>
+          <t>Av. Coronel Diaz 2596</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>807537909</t>
+          <t>807605730</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -8873,11 +8873,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>Inclinada</t>
-        </is>
-      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
         <is>
           <t>1</t>
@@ -8899,36 +8895,36 @@
         </is>
       </c>
       <c r="M109" t="n">
-        <v>-58.49147</v>
+        <v>-58.405761</v>
       </c>
       <c r="N109" t="n">
-        <v>-34.55031</v>
+        <v>-34.582476</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P109" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>-482</t>
+          <t>-486</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>6/18/2025</t>
+          <t>6/23/2025</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Av. Coronel Diaz 2596</t>
+          <t>Del Libertador 4596</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -8938,7 +8934,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>807605730</t>
+          <t>807762871</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -8951,7 +8947,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr"/>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
       <c r="I110" t="inlineStr">
         <is>
           <t>1</t>
@@ -8973,14 +8973,14 @@
         </is>
       </c>
       <c r="M110" t="n">
-        <v>-58.405761</v>
+        <v>-58.432241</v>
       </c>
       <c r="N110" t="n">
-        <v>-34.582476</v>
+        <v>-34.56642</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P110" t="inlineStr">
@@ -8992,7 +8992,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>-486</t>
+          <t>-487</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -9002,7 +9002,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Del Libertador 4596</t>
+          <t>Gorriti 3735</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -9012,7 +9012,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>807762871</t>
+          <t>807762979</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -9027,7 +9027,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>NAP FTTH Columna MAL ESTADO ROTA EN BASE</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -9051,10 +9051,10 @@
         </is>
       </c>
       <c r="M111" t="n">
-        <v>-58.432241</v>
+        <v>-58.417348</v>
       </c>
       <c r="N111" t="n">
-        <v>-34.56642</v>
+        <v>-34.595467</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
@@ -9070,27 +9070,27 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>-487</t>
+          <t>6223</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>6/23/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Gorriti 3735</t>
+          <t>ECHEANDIA 4200</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>807762979</t>
+          <t>807762996</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -9105,7 +9105,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>NAP FTTH Columna MAL ESTADO ROTA EN BASE</t>
+          <t>Columna inclinada con base  corroida</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -9125,18 +9125,18 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M112" t="n">
-        <v>-58.417348</v>
+        <v>-58.472311</v>
       </c>
       <c r="N112" t="n">
-        <v>-34.595467</v>
+        <v>-34.654867</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P112" t="inlineStr">
@@ -9148,7 +9148,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>6223</t>
+          <t>6197</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -9158,17 +9158,17 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>ECHEANDIA 4200</t>
+          <t>RIVADAVIA AV. 5600</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>807762996</t>
+          <t>807763040</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -9183,7 +9183,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Columna inclinada con base  corroida</t>
+          <t>Aplomar esta es esquina con emilio mitre aprox al 10</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -9203,14 +9203,14 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M113" t="n">
-        <v>-58.472311</v>
+        <v>-58.444181</v>
       </c>
       <c r="N113" t="n">
-        <v>-34.654867</v>
+        <v>-34.621883</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>6197</t>
+          <t>6239</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -9236,17 +9236,17 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 5600</t>
+          <t>PALPA 2964</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>807763040</t>
+          <t>807763098</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -9261,7 +9261,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Aplomar esta es esquina con emilio mitre aprox al 10</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -9285,26 +9285,26 @@
         </is>
       </c>
       <c r="M114" t="n">
-        <v>-58.444181</v>
+        <v>-58.450113</v>
       </c>
       <c r="N114" t="n">
-        <v>-34.621883</v>
+        <v>-34.574534</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P114" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>6239</t>
+          <t>-488</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -9314,17 +9314,17 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>PALPA 2964</t>
+          <t>Blanco Encalada 4896</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>807763098</t>
+          <t>807763099</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -9339,7 +9339,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Pendiente traspaso rxo y retiro de columna podrida</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -9359,18 +9359,18 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M115" t="n">
-        <v>-58.450113</v>
+        <v>-58.484729</v>
       </c>
       <c r="N115" t="n">
-        <v>-34.574534</v>
+        <v>-34.574614</v>
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P115" t="inlineStr">
@@ -9382,27 +9382,27 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>-488</t>
+          <t>6221</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/26/2025</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Blanco Encalada 4896</t>
+          <t>FERNANDEZ 1549</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>807763099</t>
+          <t>807789699</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -9417,7 +9417,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Pendiente traspaso rxo y retiro de columna podrida</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -9427,7 +9427,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -9441,14 +9441,14 @@
         </is>
       </c>
       <c r="M116" t="n">
-        <v>-58.484729</v>
+        <v>-58.471717</v>
       </c>
       <c r="N116" t="n">
-        <v>-34.574614</v>
+        <v>-34.649961</v>
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P116" t="inlineStr">
@@ -9460,7 +9460,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>6221</t>
+          <t>-491</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -9470,17 +9470,17 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>FERNANDEZ 1549</t>
+          <t>3 de Febrero 2171</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>807789699</t>
+          <t>807789702</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -9495,7 +9495,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Columna 114 propia picada en base con NAP</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -9505,7 +9505,7 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -9515,18 +9515,18 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M117" t="n">
-        <v>-58.471717</v>
+        <v>-58.452636</v>
       </c>
       <c r="N117" t="n">
-        <v>-34.649961</v>
+        <v>-34.558607</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P117" t="inlineStr">
@@ -9538,27 +9538,27 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>-491</t>
+          <t>-500</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>6/26/2025</t>
+          <t>7/3/2025</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>3 de Febrero 2171</t>
+          <t>Castañares 5656</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>807789702</t>
+          <t>807965768</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -9573,7 +9573,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Columna 114 propia picada en base con NAP</t>
+          <t>Columna chocada con rienda a pique</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -9593,255 +9593,21 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M118" t="n">
-        <v>-58.452636</v>
+        <v>-58.479921</v>
       </c>
       <c r="N118" t="n">
-        <v>-34.558607</v>
+        <v>-34.673021</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P118" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>-500</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>7/3/2025</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>Castañares 5656</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>807965768</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>Columna chocada con rienda a pique</t>
-        </is>
-      </c>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J119" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>Terminal</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>-58.479921</v>
-      </c>
-      <c r="N119" t="n">
-        <v>-34.673021</v>
-      </c>
-      <c r="O119" t="inlineStr">
-        <is>
-          <t>Boedo</t>
-        </is>
-      </c>
-      <c r="P119" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>6330</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>7/3/2025</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>REPUBLICA DE LA INDIA 3106</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>807965776</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>Picada e inclinada</t>
-        </is>
-      </c>
-      <c r="I120" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>-58.413941</v>
-      </c>
-      <c r="N120" t="n">
-        <v>-34.57698</v>
-      </c>
-      <c r="O120" t="inlineStr">
-        <is>
-          <t>Palermo</t>
-        </is>
-      </c>
-      <c r="P120" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>-501</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>7/3/2025</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>Cabello 3107</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>807971967</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>Aplomar</t>
-        </is>
-      </c>
-      <c r="I121" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>Aplomo</t>
-        </is>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>Terminal</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>-58.405749</v>
-      </c>
-      <c r="N121" t="n">
-        <v>-34.58224</v>
-      </c>
-      <c r="O121" t="inlineStr">
-        <is>
-          <t>Recoleta</t>
-        </is>
-      </c>
-      <c r="P121" t="inlineStr">
         <is>
           <t>Capital Sur</t>
         </is>

--- a/mapa_interactivo_AYKO.xlsx
+++ b/mapa_interactivo_AYKO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P118"/>
+  <dimension ref="A1:P111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1676,27 +1676,27 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>-210</t>
+          <t>-213</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>12/31/2023</t>
+          <t>11/7/2024</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>GANDARA /ALT/ 2797</t>
+          <t>SCALABRINI ORTIZ R ,AV. /ALT/ 2452</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>106594 - PALERMO</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>799540574</t>
+          <t>799451003</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1709,11 +1709,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>CAMBIAR COLUMNA 114 CON 5 TRANSICIONES MAS RIENDA A PIQUE</t>
-        </is>
-      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
           <t>0</t>
@@ -1731,30 +1727,30 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>-58.480672</v>
+        <v>-58.416896</v>
       </c>
       <c r="N17" t="n">
-        <v>-34.583085</v>
+        <v>-34.585625</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>-213</t>
+          <t>-214</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1764,7 +1760,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>SCALABRINI ORTIZ R ,AV. /ALT/ 2452</t>
+          <t>SCALABRINI ORTIZ R ,AV. /ALT/ 2394</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1774,7 +1770,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>799451003</t>
+          <t>799450985</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1809,10 +1805,10 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>-58.416896</v>
+        <v>-58.417746</v>
       </c>
       <c r="N18" t="n">
-        <v>-34.585625</v>
+        <v>-34.586158</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1828,17 +1824,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>-214</t>
+          <t>-216</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>11/7/2024</t>
+          <t>5/2/2024</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>SCALABRINI ORTIZ R ,AV. /ALT/ 2394</t>
+          <t>ORTIZ DE OCAMPO ,AV. /ALT/ 2635</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1848,7 +1844,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>799450985</t>
+          <t>784655947</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1861,7 +1857,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Cambiar</t>
+        </is>
+      </c>
       <c r="I19" t="inlineStr">
         <is>
           <t>0</t>
@@ -1883,14 +1883,14 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>-58.417746</v>
+        <v>-58.404652</v>
       </c>
       <c r="N19" t="n">
-        <v>-34.586158</v>
+        <v>-34.58263</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -1902,27 +1902,27 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>-216</t>
+          <t>-219</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>5/2/2024</t>
+          <t>10/31/2024</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ORTIZ DE OCAMPO ,AV. /ALT/ 2635</t>
+          <t>LA PAMPA /ALT/ 2836</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>106595 - BELGRANO</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>784655947</t>
+          <t>798953875</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1937,7 +1937,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Colocar Columna entre 2836/2838 ver con inspector la viabilidad</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1961,36 +1961,36 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>-58.404652</v>
+        <v>-58.458282</v>
       </c>
       <c r="N20" t="n">
-        <v>-34.58263</v>
+        <v>-34.56718</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>-219</t>
+          <t>-226</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>10/31/2024</t>
+          <t>11/20/2024</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>LA PAMPA /ALT/ 2836</t>
+          <t>CUBA /ALT/ 2308</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -2000,7 +2000,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>798953875</t>
+          <t>800502281</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -2015,7 +2015,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Colocar Columna entre 2836/2838 ver con inspector la viabilidad</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -2039,14 +2039,14 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>-58.458282</v>
+        <v>-58.456674</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.56718</v>
+        <v>-34.558757</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -2058,27 +2058,27 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>-226</t>
+          <t>-228</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>11/20/2024</t>
+          <t>11/22/2024</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CUBA /ALT/ 2308</t>
+          <t>ALVAREZ JULIAN /ALT/ 1272</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>106595 - BELGRANO</t>
+          <t>106594 - PALERMO</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>800502281</t>
+          <t>800645527</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2117,46 +2117,46 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-58.456674</v>
+        <v>-58.426725</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.558757</v>
+        <v>-34.5945</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>-228</t>
+          <t>-254</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>11/22/2024</t>
+          <t>1/7/2025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>ALVAREZ JULIAN /ALT/ 1272</t>
+          <t>BELAUSTEGUI DR LUIS /ALT/ 1185</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>106569 - CABALLITO</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>800645527</t>
+          <t>802367713</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2169,14 +2169,10 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Cambiar</t>
-        </is>
-      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -2186,7 +2182,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2195,46 +2191,46 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-58.426725</v>
+        <v>-58.457158</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.5945</v>
+        <v>-34.605839</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>-254</t>
+          <t>-263</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1/7/2025</t>
+          <t>1/22/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>BELAUSTEGUI DR LUIS /ALT/ 1185</t>
+          <t>Fraga 93</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>106569 - CABALLITO</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>802367713</t>
+          <t>802848838</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2247,7 +2243,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
       <c r="I24" t="inlineStr">
         <is>
           <t>1</t>
@@ -2260,23 +2260,23 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>-58.457158</v>
+        <v>-58.446721</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.605839</v>
+        <v>-34.587175</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -2288,27 +2288,27 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>-263</t>
+          <t>803608154</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1/22/2025</t>
+          <t>2/24/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Fraga 93</t>
+          <t>CUBAS JOSE /ALT/ 3372</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>106589 - VILLA DEVOTO</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>802848838</t>
+          <t>803608154</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2323,12 +2323,12 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar columna</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2343,18 +2343,18 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.446721</v>
+        <v>-58.506318</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.587175</v>
+        <v>-34.592417</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -2366,7 +2366,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>803608154</t>
+          <t>803608215</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2376,17 +2376,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CUBAS JOSE /ALT/ 3372</t>
+          <t>DEL PINO VIRREY /ALT/ 2646</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>106589 - VILLA DEVOTO</t>
+          <t>106581 - COLEGIALES</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>803608154</t>
+          <t>803608215</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2401,7 +2401,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Colocar columna</t>
+          <t>Columna 114 quebrada en base dar prioridad.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2425,14 +2425,14 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.506318</v>
+        <v>-58.45524</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.592417</v>
+        <v>-34.567858</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -2444,7 +2444,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>803608215</t>
+          <t>803608331</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2454,17 +2454,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>DEL PINO VIRREY /ALT/ 2646</t>
+          <t>ROOSEVELT F D ,AV. /ALT/ 4875</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>106581 - COLEGIALES</t>
+          <t>106592 - VILLA URQUIZA</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>803608215</t>
+          <t>803608331</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2479,7 +2479,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Columna 114 quebrada en base dar prioridad.</t>
+          <t xml:space="preserve">Columna terminal168 con rienda a pique fuera de plomo  y base con cimentación rota </t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2503,10 +2503,10 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.45524</v>
+        <v>-58.484493</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.567858</v>
+        <v>-34.572049</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>803608331</t>
+          <t>803608455</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2532,17 +2532,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ROOSEVELT F D ,AV. /ALT/ 4875</t>
+          <t>VALDENEGRO /ALT/ 4037</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>106592 - VILLA URQUIZA</t>
+          <t>106593 - SAAVEDRA</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>803608331</t>
+          <t>803608455</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2557,7 +2557,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Columna terminal168 con rienda a pique fuera de plomo  y base con cimentación rota </t>
+          <t>Cambiar poste podrido apoyado en tanque de agua. Es sobre parque junto a medianera.  Dar prioridad .</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2577,18 +2577,18 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.484493</v>
+        <v>-58.493679</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.572049</v>
+        <v>-34.557149</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -2600,7 +2600,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>803608455</t>
+          <t>803608463</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2610,17 +2610,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>VALDENEGRO /ALT/ 4037</t>
+          <t>COCHABAMBA /ALT/ 1790</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>106552 - CONSTITUCION</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>803608455</t>
+          <t>803608463</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2635,7 +2635,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Cambiar poste podrido apoyado en tanque de agua. Es sobre parque junto a medianera.  Dar prioridad .</t>
+          <t>SIN RIEGO</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2650,55 +2650,55 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo/Fuente Teco</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.493679</v>
+        <v>-58.391153</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.557149</v>
+        <v>-34.624022</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>803608463</t>
+          <t>-281</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2/24/2025</t>
+          <t>2/26/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>COCHABAMBA /ALT/ 1790</t>
+          <t>SOLER /ALT/ 4517</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>106552 - CONSTITUCION</t>
+          <t>106594 - PALERMO</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>803608463</t>
+          <t>803651203</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>SIN RIEGO</t>
+          <t>columna de 114 con nodo y redes nuestra.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2737,14 +2737,14 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.391153</v>
+        <v>-58.423405</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.624022</v>
+        <v>-34.588075</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -2756,27 +2756,27 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>-281</t>
+          <t>-300</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2/26/2025</t>
+          <t>3/17/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>SOLER /ALT/ 4517</t>
+          <t>SAN MARTIN ,AV. /ALT/ 6195</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>106587 - AGRONOMIA</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>803651203</t>
+          <t>804081102</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2791,7 +2791,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>columna de 114 con nodo y redes nuestra.</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2806,55 +2806,55 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Nodo/Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.423405</v>
+        <v>-58.502505</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.588075</v>
+        <v>-34.59465</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>-300</t>
+          <t>-307</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>3/17/2025</t>
+          <t>3/25/2025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>SAN MARTIN ,AV. /ALT/ 6195</t>
+          <t>BERUTI ANTONIO /ALT/ 4645</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>106587 - AGRONOMIA</t>
+          <t>106594 - PALERMO</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>804081102</t>
+          <t>804288212</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2869,12 +2869,12 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada traspasar red y retirar columna</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2893,46 +2893,46 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.502505</v>
+        <v>-58.42486</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.59465</v>
+        <v>-34.577318</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>-307</t>
+          <t>5138</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>3/25/2025</t>
+          <t>4/1/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>BERUTI ANTONIO /ALT/ 4645</t>
+          <t>LOPEZ, CARLOS ANTONIO 3326</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>804288212</t>
+          <t>804468459</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2947,7 +2947,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Picada traspasar red y retirar columna</t>
+          <t>COLUMNA INCLINADA</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2957,7 +2957,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2967,30 +2967,30 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.42486</v>
+        <v>-58.508582</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.577318</v>
+        <v>-34.588936</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>5138</t>
+          <t>5139</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -3000,7 +3000,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>LOPEZ, CARLOS ANTONIO 3326</t>
+          <t>LOPEZ, CARLOS ANTONIO 3346</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -3010,7 +3010,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>804468459</t>
+          <t>804468467</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -3049,10 +3049,10 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.508582</v>
+        <v>-58.508809</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.588936</v>
+        <v>-34.589076</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3068,27 +3068,27 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>5139</t>
+          <t>-316</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>4/1/2025</t>
+          <t>4/3/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>LOPEZ, CARLOS ANTONIO 3346</t>
+          <t>ALBERTI /ALT/ 621</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>106558 - BALVANERA</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>804468467</t>
+          <t>804468365</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -3103,7 +3103,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>COLUMNA INCLINADA</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -3113,7 +3113,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -3127,46 +3127,46 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.508809</v>
+        <v>-58.401202</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.589076</v>
+        <v>-34.61683</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>-316</t>
+          <t>5728</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>4/3/2025</t>
+          <t>4/7/2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>ALBERTI /ALT/ 621</t>
+          <t>FRANCO 3340</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>106558 - BALVANERA</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>804468365</t>
+          <t>804568964</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -3205,46 +3205,46 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.401202</v>
+        <v>-58.512525</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.61683</v>
+        <v>-34.585228</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>5500</t>
+          <t>-326</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>4/7/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>LA PLATA AV. 1013</t>
+          <t>GARCIA DEL RIO /ALT/ 3354</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>106593 - SAAVEDRA</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>804568914</t>
+          <t>804634199</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -3259,7 +3259,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Retirar poste de vereda. Reparar la vereda donde estaba colocado el poste.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3269,7 +3269,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -3279,50 +3279,50 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.426804</v>
+        <v>-58.478106</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.627283</v>
+        <v>-34.551523</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>5728</t>
+          <t>-327</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>4/7/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>FRANCO 3340</t>
+          <t>ROOSEVELT F D ,AV. /ALT/ 5439</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>106592 - VILLA URQUIZA</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>804568964</t>
+          <t>804634203</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar columna R200 y  dar aviso para el traspaso de nodos. (TECO y TLC)</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -3361,10 +3361,10 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.512525</v>
+        <v>-58.491074</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.585228</v>
+        <v>-34.575623</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3380,27 +3380,27 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>-325</t>
+          <t>5572</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>4/8/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>RINCON /ALT/ 1091</t>
+          <t>SANABRIA 4289</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>106556 - SAN CRISTOBAL</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>804569066</t>
+          <t>804663652</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3415,7 +3415,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3425,7 +3425,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3435,30 +3435,30 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.39573</v>
+        <v>-58.516755</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.621541</v>
+        <v>-34.6002</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>-326</t>
+          <t>5573</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3468,17 +3468,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>GARCIA DEL RIO /ALT/ 3354</t>
+          <t>LASTRA AV. 4379</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>804634199</t>
+          <t>804663677</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3493,7 +3493,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Retirar poste de vereda. Reparar la vereda donde estaba colocado el poste.</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3503,7 +3503,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3513,18 +3513,18 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.478106</v>
+        <v>-58.525125</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.551523</v>
+        <v>-34.604668</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -3536,7 +3536,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>-327</t>
+          <t>5574</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3546,17 +3546,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>ROOSEVELT F D ,AV. /ALT/ 5439</t>
+          <t>GRIVEO 3909</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>106592 - VILLA URQUIZA</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>804634203</t>
+          <t>804663683</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3571,7 +3571,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Colocar columna R200 y  dar aviso para el traspaso de nodos. (TECO y TLC)</t>
+          <t>Poste Inclinado</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3581,24 +3581,24 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.491074</v>
+        <v>-58.517126</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.575623</v>
+        <v>-34.592774</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -3614,27 +3614,27 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>5572</t>
+          <t>-334</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/21/2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>SANABRIA 4289</t>
+          <t>BUCARELLI /ALT/ 1534</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>106597 - PARQUE CHAS</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>804663652</t>
+          <t>804838853</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3649,7 +3649,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t xml:space="preserve">Cambiar Columna dañada torcida y fuera de plomo </t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3659,7 +3659,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -3669,14 +3669,14 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.516755</v>
+        <v>-58.481261</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.6002</v>
+        <v>-34.584281</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -3692,27 +3692,27 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>5573</t>
+          <t>-336</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/21/2025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>LASTRA AV. 4379</t>
+          <t>BAUNESS /ALT/ 1419</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>106597 - PARQUE CHAS</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>804663677</t>
+          <t>804838856</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3727,7 +3727,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>"Aplomar columna 114 con rienda a pique o colocar terminal"</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3737,7 +3737,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3751,14 +3751,14 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.525125</v>
+        <v>-58.479168</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.604668</v>
+        <v>-34.584482</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -3770,27 +3770,27 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>5574</t>
+          <t>-337</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/21/2025</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>GRIVEO 3909</t>
+          <t>PARAGUAY /ALT/ 4259</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>106594 - PALERMO</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>804663683</t>
+          <t>804838858</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3805,7 +3805,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Poste Inclinado</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3815,7 +3815,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3825,30 +3825,30 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.517126</v>
+        <v>-58.421822</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.592774</v>
+        <v>-34.58645</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>-334</t>
+          <t>-338</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3858,17 +3858,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>BUCARELLI /ALT/ 1534</t>
+          <t>PARAGUAY /ALT/ 4283</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>106594 - PALERMO</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>804838853</t>
+          <t>804838861</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3883,7 +3883,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar Columna dañada torcida y fuera de plomo </t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3907,26 +3907,26 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.481261</v>
+        <v>-58.421964</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.584281</v>
+        <v>-34.586342</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>-335</t>
+          <t>-339</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3936,17 +3936,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>BUCARELLI /ALT/ 1412</t>
+          <t>GRIVEO /ALT/ 2435</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>106591 - VILLA PUEYRREDON</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>804838855</t>
+          <t>804838868</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 114 </t>
+          <t xml:space="preserve">Aplomar columna 114  </t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3971,7 +3971,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3985,10 +3985,10 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.479593</v>
+        <v>-58.498493</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.584943</v>
+        <v>-34.581262</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>-336</t>
+          <t>-340</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -4014,17 +4014,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>BAUNESS /ALT/ 1419</t>
+          <t>SUPERI /ALT/ 1445</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>106581 - COLEGIALES</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>804838856</t>
+          <t>804838869</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -4039,7 +4039,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>"Aplomar columna 114 con rienda a pique o colocar terminal"</t>
+          <t>Columna podrida en la base</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -4063,14 +4063,14 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.479168</v>
+        <v>-58.460666</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.584482</v>
+        <v>-34.573823</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -4082,7 +4082,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>-337</t>
+          <t>-341</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -4092,17 +4092,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>PARAGUAY /ALT/ 4259</t>
+          <t>3 DE FEBRERO /ALT/ 4835</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>106596 - NUNEZ</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>804838858</t>
+          <t>804838980</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -4117,7 +4117,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>"Retirar poste teco cobre en desuso entrada Edificio reclamo municipal "</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -4127,7 +4127,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -4137,50 +4137,50 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.421822</v>
+        <v>-58.469157</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.58645</v>
+        <v>-34.536783</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>-338</t>
+          <t>-342</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>4/21/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>PARAGUAY /ALT/ 4283</t>
+          <t>WILLIAMS ALBERTO /ALT/ 5625</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>106593 - SAAVEDRA</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>804838861</t>
+          <t>804839148</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -4195,12 +4195,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar columna de 114. - VIRARDI</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -4219,46 +4219,46 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.421964</v>
+        <v>-58.502447</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.586342</v>
+        <v>-34.561008</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>-339</t>
+          <t>-343</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>4/21/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>GRIVEO /ALT/ 2435</t>
+          <t>ANDONAEGUI /ALT/ 1608</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>106591 - VILLA PUEYRREDON</t>
+          <t>106597 - PARQUE CHAS</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>804838868</t>
+          <t>804839150</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -4273,12 +4273,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 114  </t>
+          <t>Aplomar columna de 114 - VIRARDI</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -4297,10 +4297,10 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.498493</v>
+        <v>-58.48278</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.581262</v>
+        <v>-34.584137</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -4316,27 +4316,27 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>-340</t>
+          <t>-344</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>4/21/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>SUPERI /ALT/ 1445</t>
+          <t>ANDONAEGUI /ALT/ 1690</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>106581 - COLEGIALES</t>
+          <t>106597 - PARQUE CHAS</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>804838869</t>
+          <t>804839162</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -4351,17 +4351,17 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Columna podrida en la base</t>
+          <t>Aplomar columna de 114. - VIRARDI</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -4375,14 +4375,14 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>-58.460666</v>
+        <v>-58.483947</v>
       </c>
       <c r="N51" t="n">
-        <v>-34.573823</v>
+        <v>-34.583207</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -4394,27 +4394,27 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>-341</t>
+          <t>-345</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>4/21/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>3 DE FEBRERO /ALT/ 4835</t>
+          <t>ANDONAEGUI /ALT/ 1774</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>106596 - NUNEZ</t>
+          <t>106597 - PARQUE CHAS</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>804838980</t>
+          <t>804839181</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -4429,17 +4429,17 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>"Retirar poste teco cobre en desuso entrada Edificio reclamo municipal "</t>
+          <t>Aplomo/cambio de columna de 168 colocar columna y rienda en norma.  - VIRARDI</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -4449,18 +4449,18 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>-58.469157</v>
+        <v>-58.484513</v>
       </c>
       <c r="N52" t="n">
-        <v>-34.536783</v>
+        <v>-34.582786</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
@@ -4472,7 +4472,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>-342</t>
+          <t>-346</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -4482,17 +4482,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>WILLIAMS ALBERTO /ALT/ 5625</t>
+          <t>ARGERICH /ALT/ 4710</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>106591 - VILLA PUEYRREDON</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>804839148</t>
+          <t>804839198</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -4507,7 +4507,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Cambiar columna de 114. - VIRARDI</t>
+          <t>Cambiar poste con rienda podrido en su base - VIRARDI</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4527,14 +4527,14 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>-58.502447</v>
+        <v>-58.503673</v>
       </c>
       <c r="N53" t="n">
-        <v>-34.561008</v>
+        <v>-34.586925</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>-343</t>
+          <t>-347</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -4560,7 +4560,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>ANDONAEGUI /ALT/ 1608</t>
+          <t>AVALOS /ALT/ 1610</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -4570,7 +4570,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>804839150</t>
+          <t>804839214</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Aplomar columna de 114 - VIRARDI</t>
+          <t>Cambiar columna de 168 - VIRARDI</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4595,12 +4595,12 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo/Fuente TLC</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -4609,10 +4609,10 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>-58.48278</v>
+        <v>-58.480099</v>
       </c>
       <c r="N54" t="n">
-        <v>-34.584137</v>
+        <v>-34.582085</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>-344</t>
+          <t>-349</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -4638,7 +4638,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>ANDONAEGUI /ALT/ 1690</t>
+          <t>BAUNESS /ALT/ 1616</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>804839162</t>
+          <t>804839290</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4663,7 +4663,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Aplomar columna de 114. - VIRARDI</t>
+          <t>Columna en polígono fuera de plomo con ancla fuera de norma - VIRARDI</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4673,7 +4673,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -4687,10 +4687,10 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>-58.483947</v>
+        <v>-58.48139</v>
       </c>
       <c r="N55" t="n">
-        <v>-34.583207</v>
+        <v>-34.583277</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>-345</t>
+          <t>-352</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -4716,7 +4716,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>ANDONAEGUI /ALT/ 1774</t>
+          <t>BUCARELLI /ALT/ 935</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -4726,7 +4726,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>804839181</t>
+          <t>804839565</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -4741,7 +4741,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Aplomo/cambio de columna de 168 colocar columna y rienda en norma.  - VIRARDI</t>
+          <t>Aplomar columna de 114. - VIRARDI</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4765,10 +4765,10 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>-58.484513</v>
+        <v>-58.475389</v>
       </c>
       <c r="N56" t="n">
-        <v>-34.582786</v>
+        <v>-34.590317</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -4784,7 +4784,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>-346</t>
+          <t>-353</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -4794,17 +4794,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>ARGERICH /ALT/ 4710</t>
+          <t>CAAGUAZU /ALT/ 5703</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>106591 - VILLA PUEYRREDON</t>
+          <t>106576 - LINIERS</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>804839198</t>
+          <t>804839589</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -4819,7 +4819,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Cambiar poste con rienda podrido en su base - VIRARDI</t>
+          <t>Cambiar columna de 114. Fuera de plomo empotrada en árbol colocar rienda. ( se pasa tareas a contratista tratista de limpieza tensado y elevación del tendido).  - VIRARDI</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -4839,18 +4839,18 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>-58.503673</v>
+        <v>-58.511462</v>
       </c>
       <c r="N57" t="n">
-        <v>-34.586925</v>
+        <v>-34.640542</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
@@ -4862,7 +4862,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>-347</t>
+          <t>-354</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -4872,17 +4872,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>AVALOS /ALT/ 1610</t>
+          <t>CONDARCO /ALT/ 5316</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>106591 - VILLA PUEYRREDON</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>804839214</t>
+          <t>804839626</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -4897,7 +4897,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Cambiar columna de 168 - VIRARDI</t>
+          <t>Aplomo de columna de PRFV - VIRARDI</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4907,12 +4907,12 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Nodo/Fuente TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -4921,10 +4921,10 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>-58.480099</v>
+        <v>-58.504455</v>
       </c>
       <c r="N58" t="n">
-        <v>-34.582085</v>
+        <v>-34.579941</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>-349</t>
+          <t>-355</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -4950,17 +4950,17 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>BAUNESS /ALT/ 1616</t>
+          <t>CUENCA /ALT/ 4480</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>106591 - VILLA PUEYRREDON</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>804839290</t>
+          <t>804839675</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -4975,7 +4975,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Columna en polígono fuera de plomo con ancla fuera de norma - VIRARDI</t>
+          <t>Columna nueva fuera de plomo sostiene nodo de Telecentro.  Reclamo municipal.  - VIRARDI</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4985,12 +4985,12 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo/Fuente TLC</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -4999,10 +4999,10 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>-58.48139</v>
+        <v>-58.504568</v>
       </c>
       <c r="N59" t="n">
-        <v>-34.583277</v>
+        <v>-34.590534</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -5018,7 +5018,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>-350</t>
+          <t>-356</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -5028,17 +5028,17 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>BUCARELLI /ALT/ 1305</t>
+          <t>CUENCA /ALT/ 4845</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>106591 - VILLA PUEYRREDON</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>804839440</t>
+          <t>804839715</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -5053,7 +5053,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Columna corroida en su base realizar cambio.  - VIRARDI</t>
+          <t>Retiro de poste viejo en desuso liberado podrido en su base.  - VIRARDI</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -5063,7 +5063,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -5073,14 +5073,14 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>-58.479078</v>
+        <v>-58.507182</v>
       </c>
       <c r="N60" t="n">
-        <v>-34.586298</v>
+        <v>-34.58749</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>-351</t>
+          <t>-358</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -5106,7 +5106,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>BUCARELLI /ALT/ 1430</t>
+          <t>GINEBRA /ALT/ 3887</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -5116,7 +5116,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>804839511</t>
+          <t>804839803</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -5131,7 +5131,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Aplomar columna normalizar.  - VIRARDI</t>
+          <t>Aplomo de columna de 114 - VIRARDI</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -5155,10 +5155,10 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>-58.479712</v>
+        <v>-58.475735</v>
       </c>
       <c r="N61" t="n">
-        <v>-34.584855</v>
+        <v>-34.580487</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -5174,7 +5174,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>-352</t>
+          <t>-359</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -5184,17 +5184,17 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>BUCARELLI /ALT/ 935</t>
+          <t>CABEZON JOSE LEON /ALT/ 2714</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>106591 - VILLA PUEYRREDON</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>804839565</t>
+          <t>804839875</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Aplomar columna de 114. - VIRARDI</t>
+          <t>Aplomo de columna de 114 - VIRARDI</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -5233,10 +5233,10 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>-58.475389</v>
+        <v>-58.503195</v>
       </c>
       <c r="N62" t="n">
-        <v>-34.590317</v>
+        <v>-34.581735</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>-353</t>
+          <t>-361</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -5262,17 +5262,17 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>CAAGUAZU /ALT/ 5703</t>
+          <t>LONDRES /ALT/ 4008</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>106576 - LINIERS</t>
+          <t>106597 - PARQUE CHAS</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>804839589</t>
+          <t>804839936</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -5287,7 +5287,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Cambiar columna de 114. Fuera de plomo empotrada en árbol colocar rienda. ( se pasa tareas a contratista tratista de limpieza tensado y elevación del tendido).  - VIRARDI</t>
+          <t>Aplomo de columna de 114. - VIRARDI</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -5297,7 +5297,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -5311,14 +5311,14 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>-58.511462</v>
+        <v>-58.478362</v>
       </c>
       <c r="N63" t="n">
-        <v>-34.640542</v>
+        <v>-34.581404</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
@@ -5330,7 +5330,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>-354</t>
+          <t>-363</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -5340,17 +5340,17 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>CONDARCO /ALT/ 5316</t>
+          <t>OSLO /ALT/ 1255</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>106591 - VILLA PUEYRREDON</t>
+          <t>106597 - PARQUE CHAS</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>804839626</t>
+          <t>804839962</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -5365,7 +5365,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Aplomo de columna de PRFV - VIRARDI</t>
+          <t>Cambiar columna de 168 podrida en su base.  - VIRARDI</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -5375,7 +5375,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -5389,10 +5389,10 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>-58.504455</v>
+        <v>-58.481767</v>
       </c>
       <c r="N64" t="n">
-        <v>-34.579941</v>
+        <v>-34.589507</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>-355</t>
+          <t>-364</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -5418,17 +5418,17 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>CUENCA /ALT/ 4480</t>
+          <t>PAROISSIEN /ALT/ 4871</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>106591 - VILLA PUEYRREDON</t>
+          <t>106593 - SAAVEDRA</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>804839675</t>
+          <t>804839991</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -5443,7 +5443,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Columna nueva fuera de plomo sostiene nodo de Telecentro.  Reclamo municipal.  - VIRARDI</t>
+          <t>Aplomar columna de 114 - VIRARDI</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -5458,7 +5458,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Nodo/Fuente TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -5467,14 +5467,14 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>-58.504568</v>
+        <v>-58.493164</v>
       </c>
       <c r="N65" t="n">
-        <v>-34.590534</v>
+        <v>-34.55732</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
@@ -5486,7 +5486,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>-356</t>
+          <t>-365</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -5496,17 +5496,17 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>CUENCA /ALT/ 4845</t>
+          <t>QUESADA /ALT/ 5290</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>106591 - VILLA PUEYRREDON</t>
+          <t>106592 - VILLA URQUIZA</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>804839715</t>
+          <t>804839995</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -5521,7 +5521,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Retiro de poste viejo en desuso liberado podrido en su base.  - VIRARDI</t>
+          <t>Columna nueva de PVC fuera de plomo.  - VIRARDI</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -5531,7 +5531,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -5541,14 +5541,14 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>-58.507182</v>
+        <v>-58.491934</v>
       </c>
       <c r="N66" t="n">
-        <v>-34.58749</v>
+        <v>-34.569348</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -5564,7 +5564,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>-358</t>
+          <t>-366</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -5574,17 +5574,17 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>GINEBRA /ALT/ 3887</t>
+          <t>QUESADA /ALT/ 6088</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>106592 - VILLA URQUIZA</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>804839803</t>
+          <t>804840016</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -5599,7 +5599,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Aplomo de columna de 114 - VIRARDI</t>
+          <t>Aplomar columna de 168 cambiar rienda.  - VIRARDI</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -5623,10 +5623,10 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>-58.475735</v>
+        <v>-58.501418</v>
       </c>
       <c r="N67" t="n">
-        <v>-34.580487</v>
+        <v>-34.574363</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -5642,7 +5642,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>-359</t>
+          <t>-367</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -5652,17 +5652,17 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>CABEZON JOSE LEON /ALT/ 2714</t>
+          <t>RUIZ HUIDOBRO ,AV. /ALT/ 4771</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>106591 - VILLA PUEYRREDON</t>
+          <t>106593 - SAAVEDRA</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>804839875</t>
+          <t>804840024</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -5701,14 +5701,14 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>-58.503195</v>
+        <v>-58.494584</v>
       </c>
       <c r="N68" t="n">
-        <v>-34.581735</v>
+        <v>-34.554981</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
@@ -5720,27 +5720,27 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>-361</t>
+          <t>-368</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>LONDRES /ALT/ 4008</t>
+          <t>ARIAS /ALT/ 1620</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>106596 - NUNEZ</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>804839936</t>
+          <t>804876039</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -5755,12 +5755,12 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aplomo de columna de 114. - VIRARDI</t>
+          <t xml:space="preserve">Aplomar columna 168 con rienda </t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -5775,18 +5775,18 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>-58.478362</v>
+        <v>-58.465608</v>
       </c>
       <c r="N69" t="n">
-        <v>-34.581404</v>
+        <v>-34.538489</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
@@ -5798,27 +5798,27 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>-363</t>
+          <t>-372</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>OSLO /ALT/ 1255</t>
+          <t>CAMARGO /ALT/ 25</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>106582 - VILLA CRESPO</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>804839962</t>
+          <t>804903809</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -5833,12 +5833,12 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Cambiar columna de 168 podrida en su base.  - VIRARDI</t>
+          <t>Aplomar columna 114 con rienda a pique</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -5857,10 +5857,10 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>-58.481767</v>
+        <v>-58.436788</v>
       </c>
       <c r="N70" t="n">
-        <v>-34.589507</v>
+        <v>-34.604014</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -5876,27 +5876,27 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>-364</t>
+          <t>-373</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>PAROISSIEN /ALT/ 4871</t>
+          <t>GALLARDO ANGEL ,AV. /ALT/ 608</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>106569 - CABALLITO</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>804839991</t>
+          <t>804903810</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -5911,12 +5911,12 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Aplomar columna de 114 - VIRARDI</t>
+          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -5935,46 +5935,46 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>-58.493164</v>
+        <v>-58.439461</v>
       </c>
       <c r="N71" t="n">
-        <v>-34.55732</v>
+        <v>-34.605744</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>-365</t>
+          <t>-375</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>QUESADA /ALT/ 5290</t>
+          <t>PAVON /ALT/ 3335</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>106592 - VILLA URQUIZA</t>
+          <t>106562 - BOEDO</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>804839995</t>
+          <t>804903824</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -5989,12 +5989,12 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Columna nueva de PVC fuera de plomo.  - VIRARDI</t>
+          <t>Colocar columna nueva donde estaba la anterior cortada</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -6013,46 +6013,46 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>-58.491934</v>
+        <v>-58.412418</v>
       </c>
       <c r="N72" t="n">
-        <v>-34.569348</v>
+        <v>-34.629288</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>-366</t>
+          <t>-376</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>QUESADA /ALT/ 6088</t>
+          <t xml:space="preserve"> Valentin Gomez 3803</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>106592 - VILLA URQUIZA</t>
+          <t>106568 - ALMAGRO</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>804840016</t>
+          <t>804903787</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -6067,17 +6067,17 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Aplomar columna de 168 cambiar rienda.  - VIRARDI</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -6091,46 +6091,46 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>-58.501418</v>
+        <v>-58.418424</v>
       </c>
       <c r="N73" t="n">
-        <v>-34.574363</v>
+        <v>-34.604463</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>-367</t>
+          <t>-377</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>RUIZ HUIDOBRO ,AV. /ALT/ 4771</t>
+          <t>HUMAHUACA /ALT/ 3918</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>106568 - ALMAGRO</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>804840024</t>
+          <t>804903788</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -6145,17 +6145,17 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Aplomo de columna de 114 - VIRARDI</t>
+          <t>picada</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -6169,46 +6169,46 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>-58.494584</v>
+        <v>-58.419694</v>
       </c>
       <c r="N74" t="n">
-        <v>-34.554981</v>
+        <v>-34.602062</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>-368</t>
+          <t>-383</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>ARIAS /ALT/ 1620</t>
+          <t>VALDERRAMA /ALT/ 4187</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>106596 - NUNEZ</t>
+          <t>106592 - VILLA URQUIZA</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>804876039</t>
+          <t>805507401</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -6223,7 +6223,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 168 con rienda </t>
+          <t xml:space="preserve">Aplomar columna 114 </t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -6243,14 +6243,14 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>-58.465608</v>
+        <v>-58.481834</v>
       </c>
       <c r="N75" t="n">
-        <v>-34.538489</v>
+        <v>-34.560796</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -6266,27 +6266,27 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>-372</t>
+          <t>-384</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>CAMARGO /ALT/ 25</t>
+          <t>LUGONES 1721</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>106582 - VILLA CRESPO</t>
+          <t>106586 - VILLA ORTUZAR</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>804903809</t>
+          <t>805507408</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -6301,7 +6301,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aplomar columna 114 con rienda a pique</t>
+          <t>Aplomar columna 168 - La columna esta frente a la altura 1721</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -6311,7 +6311,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -6325,14 +6325,14 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>-58.436788</v>
+        <v>-58.473936</v>
       </c>
       <c r="N76" t="n">
-        <v>-34.604014</v>
+        <v>-34.577346</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
@@ -6344,27 +6344,27 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>-373</t>
+          <t>-385</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>GALLARDO ANGEL ,AV. /ALT/ 608</t>
+          <t>MOLDES /ALT/ 1913</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>106569 - CABALLITO</t>
+          <t>106595 - BELGRANO</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>804903810</t>
+          <t>805507415</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -6379,7 +6379,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
+          <t>Aplomar columna 114</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -6403,46 +6403,46 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>-58.439461</v>
+        <v>-58.45789</v>
       </c>
       <c r="N77" t="n">
-        <v>-34.605744</v>
+        <v>-34.565423</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>-375</t>
+          <t>-386</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>PAVON /ALT/ 3335</t>
+          <t>MOLDES /ALT/ 1943</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>106562 - BOEDO</t>
+          <t>106595 - BELGRANO</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>804903824</t>
+          <t>805507419</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -6457,7 +6457,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Colocar columna nueva donde estaba la anterior cortada</t>
+          <t>Dos columnas fuera de plomo - aplomar o cambiar la que no tiene nodo de TLC</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -6467,12 +6467,12 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -6481,46 +6481,46 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>-58.412418</v>
+        <v>-58.458217</v>
       </c>
       <c r="N78" t="n">
-        <v>-34.629288</v>
+        <v>-34.565043</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>-376</t>
+          <t>-391</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>5/5/2025</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Valentin Gomez 3803</t>
+          <t>IBERA /ALT/ 5074</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>106568 - ALMAGRO</t>
+          <t>106592 - VILLA URQUIZA</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>804903787</t>
+          <t>805676610</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -6535,7 +6535,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t xml:space="preserve">Cambiar columna 114 base corroida </t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -6559,46 +6559,46 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>-58.418424</v>
+        <v>-58.49045</v>
       </c>
       <c r="N79" t="n">
-        <v>-34.604463</v>
+        <v>-34.566894</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>-377</t>
+          <t>-392</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>5/5/2025</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>HUMAHUACA /ALT/ 3918</t>
+          <t>GARCIA TEODORO /ALT/ 1775</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>106568 - ALMAGRO</t>
+          <t>106594 - PALERMO</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>804903788</t>
+          <t>805676615</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -6613,7 +6613,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>picada</t>
+          <t xml:space="preserve">Cambiar columna 114 base corroida </t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -6637,46 +6637,46 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>-58.419694</v>
+        <v>-58.440367</v>
       </c>
       <c r="N80" t="n">
-        <v>-34.602062</v>
+        <v>-34.563551</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>-383</t>
+          <t>-393</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>5/5/2025</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>VALDERRAMA /ALT/ 4187</t>
+          <t>3 DE FEBRERO /ALT/ 1272</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>106592 - VILLA URQUIZA</t>
+          <t>106594 - PALERMO</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>805507401</t>
+          <t>805676618</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -6691,7 +6691,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 114 </t>
+          <t xml:space="preserve">Cambiar columna 114 base corroida </t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -6701,7 +6701,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -6715,14 +6715,14 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>-58.481834</v>
+        <v>-58.445186</v>
       </c>
       <c r="N81" t="n">
-        <v>-34.560796</v>
+        <v>-34.567417</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
@@ -6734,27 +6734,27 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>-384</t>
+          <t>-395</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>5/7/2025</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>LUGONES 1721</t>
+          <t>POSADAS 1567</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>106586 - VILLA ORTUZAR</t>
+          <t>106560 - RECOLETA</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>805507408</t>
+          <t>805707278</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -6769,7 +6769,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Aplomar columna 168 - La columna esta frente a la altura 1721</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -6779,7 +6779,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -6793,36 +6793,36 @@
         </is>
       </c>
       <c r="M82" t="n">
-        <v>-58.473936</v>
+        <v>-58.387847</v>
       </c>
       <c r="N82" t="n">
-        <v>-34.577346</v>
+        <v>-34.587043</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>-385</t>
+          <t>-403</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>5/7/2025</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>MOLDES /ALT/ 1913</t>
+          <t>SUCRE MRCAL A J DE /ALT/ 3515</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -6832,7 +6832,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>805507415</t>
+          <t>805722878</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -6847,7 +6847,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Aplomar columna 114</t>
+          <t xml:space="preserve">Retirar poste teco cobre tirado y reparar vereda </t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -6857,7 +6857,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -6867,14 +6867,14 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>-58.45789</v>
+        <v>-58.466241</v>
       </c>
       <c r="N83" t="n">
-        <v>-34.565423</v>
+        <v>-34.57047</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -6890,27 +6890,27 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>-386</t>
+          <t>-404</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>MOLDES /ALT/ 1943</t>
+          <t>Amenabar 3048</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>106595 - BELGRANO</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>805507419</t>
+          <t>805791896</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -6925,7 +6925,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Dos columnas fuera de plomo - aplomar o cambiar la que no tiene nodo de TLC</t>
+          <t>Aplomar columna 114</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -6940,7 +6940,7 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
@@ -6949,14 +6949,14 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>-58.458217</v>
+        <v>-58.46579</v>
       </c>
       <c r="N84" t="n">
-        <v>-34.565043</v>
+        <v>-34.555012</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
@@ -6968,27 +6968,27 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>-391</t>
+          <t>-405</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>5/5/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>IBERA /ALT/ 5074</t>
+          <t>Arcos 1855</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>106592 - VILLA URQUIZA</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>805676610</t>
+          <t>805791908</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -7003,7 +7003,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna 114 base corroida </t>
+          <t>Cambiar columna 114 picada en base, posee nodo propio.&lt;br&gt;</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -7027,14 +7027,14 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>-58.49045</v>
+        <v>-58.451835</v>
       </c>
       <c r="N85" t="n">
-        <v>-34.566894</v>
+        <v>-34.562646</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
@@ -7046,27 +7046,27 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>-392</t>
+          <t>-406</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>5/5/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>GARCIA TEODORO /ALT/ 1775</t>
+          <t>Olof palme 4144</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>805676615</t>
+          <t>805791925</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -7081,7 +7081,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna 114 base corroida </t>
+          <t>Tensar 2 riendas a pique columna 168</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -7091,7 +7091,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -7101,18 +7101,18 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>-58.440367</v>
+        <v>-58.488252</v>
       </c>
       <c r="N86" t="n">
-        <v>-34.563551</v>
+        <v>-34.553391</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
@@ -7124,27 +7124,27 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>-393</t>
+          <t>-407</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>5/5/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>3 DE FEBRERO /ALT/ 1272</t>
+          <t>Cabildo 4148</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>805676618</t>
+          <t>805791933</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -7159,7 +7159,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna 114 base corroida </t>
+          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -7169,7 +7169,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -7179,18 +7179,18 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>-58.445186</v>
+        <v>-58.470837</v>
       </c>
       <c r="N87" t="n">
-        <v>-34.567417</v>
+        <v>-34.545751</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P87" t="inlineStr">
@@ -7202,27 +7202,27 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>-395</t>
+          <t>-408</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>5/7/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>POSADAS 1567</t>
+          <t>Larralde 2847</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>106560 - RECOLETA</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>805707278</t>
+          <t>805791941</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -7237,7 +7237,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar columna 114</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -7247,12 +7247,12 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo/Fuente Teco</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
@@ -7261,46 +7261,46 @@
         </is>
       </c>
       <c r="M88" t="n">
-        <v>-58.387847</v>
+        <v>-58.472267</v>
       </c>
       <c r="N88" t="n">
-        <v>-34.587043</v>
+        <v>-34.551163</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>-403</t>
+          <t>5805</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>5/7/2025</t>
+          <t>5/14/2025</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>SUCRE MRCAL A J DE /ALT/ 3515</t>
+          <t>GUTENBERG 4134</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>106595 - BELGRANO</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>805722878</t>
+          <t>806926378</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -7315,7 +7315,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t xml:space="preserve">Retirar poste teco cobre tirado y reparar vereda </t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -7325,7 +7325,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -7339,14 +7339,14 @@
         </is>
       </c>
       <c r="M89" t="n">
-        <v>-58.466241</v>
+        <v>-58.51665</v>
       </c>
       <c r="N89" t="n">
-        <v>-34.57047</v>
+        <v>-34.596644</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P89" t="inlineStr">
@@ -7358,17 +7358,17 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>-404</t>
+          <t>-421</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Amenabar 3048</t>
+          <t>BESARES 1699</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -7378,7 +7378,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>805791896</t>
+          <t>806926565</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -7393,7 +7393,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Aplomar columna 114</t>
+          <t>Cambiar columna 114 picada en base tener en cuenta que hay acometidas subterraneas que bajan por la columna para entrar en Libertador 8008 tanto de HFC como FTTH colocar medias cañas y colocar cerca para que quedan precintadas a la columna</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -7403,7 +7403,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -7417,10 +7417,10 @@
         </is>
       </c>
       <c r="M90" t="n">
-        <v>-58.46579</v>
+        <v>-58.464144</v>
       </c>
       <c r="N90" t="n">
-        <v>-34.555012</v>
+        <v>-34.541832</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -7436,17 +7436,17 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>-405</t>
+          <t>-422</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Arcos 1855</t>
+          <t>Franklin Roosevelt 4901</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -7456,7 +7456,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>805791908</t>
+          <t>806926575</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -7471,7 +7471,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Cambiar columna 114 picada en base, posee nodo propio.&lt;br&gt;</t>
+          <t>Aplomar columna 114</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -7495,14 +7495,14 @@
         </is>
       </c>
       <c r="M91" t="n">
-        <v>-58.451835</v>
+        <v>-58.485102</v>
       </c>
       <c r="N91" t="n">
-        <v>-34.562646</v>
+        <v>-34.572327</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P91" t="inlineStr">
@@ -7514,27 +7514,27 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>-406</t>
+          <t>-425</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Olof palme 4144</t>
+          <t>Av. Eva Peron 7437</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>805791925</t>
+          <t>806926621</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -7549,7 +7549,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Tensar 2 riendas a pique columna 168</t>
+          <t>Aplomar o cambiar columna de 114</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -7559,7 +7559,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -7569,18 +7569,18 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M92" t="n">
-        <v>-58.488252</v>
+        <v>-58.501029</v>
       </c>
       <c r="N92" t="n">
-        <v>-34.553391</v>
+        <v>-34.673558</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P92" t="inlineStr">
@@ -7592,27 +7592,27 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>-407</t>
+          <t>-426</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Cabildo 4148</t>
+          <t>Av. Eva Peron 7471</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>805791933</t>
+          <t>806926647</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -7627,7 +7627,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
+          <t>Aplomar columna de 168 con rienda</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -7651,14 +7651,14 @@
         </is>
       </c>
       <c r="M93" t="n">
-        <v>-58.470837</v>
+        <v>-58.501565</v>
       </c>
       <c r="N93" t="n">
-        <v>-34.545751</v>
+        <v>-34.673845</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P93" t="inlineStr">
@@ -7670,27 +7670,27 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>-408</t>
+          <t>-430</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Larralde 2847</t>
+          <t>Araoz 606</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>805791941</t>
+          <t>806926712</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -7705,7 +7705,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Aplomar columna 114</t>
+          <t>columna base corroida sin riesgo de caída a la fecha. 14/05/2025</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -7715,12 +7715,12 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Nodo/Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
@@ -7729,46 +7729,46 @@
         </is>
       </c>
       <c r="M94" t="n">
-        <v>-58.472267</v>
+        <v>-58.434761</v>
       </c>
       <c r="N94" t="n">
-        <v>-34.551163</v>
+        <v>-34.598381</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P94" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>5805</t>
+          <t>-432</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>5/14/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>GUTENBERG 4134</t>
+          <t>ALVAREZ JULIAN 618</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>806926378</t>
+          <t>806926759</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -7783,7 +7783,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Columna con base corroida sin riesgo de caida al 14/05/2025</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -7793,7 +7793,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -7803,30 +7803,30 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M95" t="n">
-        <v>-58.51665</v>
+        <v>-58.433867</v>
       </c>
       <c r="N95" t="n">
-        <v>-34.596644</v>
+        <v>-34.599149</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P95" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>-421</t>
+          <t>-433</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -7836,7 +7836,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>BESARES 1699</t>
+          <t>Moldes 2720</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -7846,7 +7846,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>806926565</t>
+          <t>806926767</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -7861,7 +7861,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Cambiar columna 114 picada en base tener en cuenta que hay acometidas subterraneas que bajan por la columna para entrar en Libertador 8008 tanto de HFC como FTTH colocar medias cañas y colocar cerca para que quedan precintadas a la columna</t>
+          <t xml:space="preserve">Poste - Pasan 5 lingas y la línea de cobre </t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -7881,14 +7881,14 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M96" t="n">
-        <v>-58.464144</v>
+        <v>-58.464177</v>
       </c>
       <c r="N96" t="n">
-        <v>-34.541832</v>
+        <v>-34.558239</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -7904,7 +7904,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>-422</t>
+          <t>-434</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -7914,17 +7914,17 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Franklin Roosevelt 4901</t>
+          <t>Billinghurst 1478</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>806926575</t>
+          <t>806926806</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -7939,7 +7939,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Aplomar columna 114</t>
+          <t xml:space="preserve">Columna base corroida con Nap y ganancias de ambas compañias, </t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -7963,26 +7963,26 @@
         </is>
       </c>
       <c r="M97" t="n">
-        <v>-58.485102</v>
+        <v>-58.412302</v>
       </c>
       <c r="N97" t="n">
-        <v>-34.572327</v>
+        <v>-34.59301</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P97" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>-425</t>
+          <t>-436</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -7992,17 +7992,17 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Av. Eva Peron 7437</t>
+          <t>Nueva York 3982</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>806926621</t>
+          <t>806926812</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -8017,7 +8017,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Aplomar o cambiar columna de 114</t>
+          <t xml:space="preserve">Realizar aplomo de columna y tensar cruce Reclamo municipal </t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -8037,18 +8037,18 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M98" t="n">
-        <v>-58.501029</v>
+        <v>-58.511375</v>
       </c>
       <c r="N98" t="n">
-        <v>-34.673558</v>
+        <v>-34.600017</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P98" t="inlineStr">
@@ -8060,27 +8060,27 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>-426</t>
+          <t>-448</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/28/2025</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Av. Eva Peron 7471</t>
+          <t>Tronador 3826</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>806926647</t>
+          <t>806975699</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -8095,17 +8095,17 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Aplomar columna de 168 con rienda</t>
+          <t>Columna de retención (columna más ancha</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -8115,18 +8115,18 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M99" t="n">
-        <v>-58.501565</v>
+        <v>-58.485056</v>
       </c>
       <c r="N99" t="n">
-        <v>-34.673845</v>
+        <v>-34.555059</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P99" t="inlineStr">
@@ -8138,27 +8138,27 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>-430</t>
+          <t>-450</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Araoz 606</t>
+          <t>Moldes 2325</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>806926712</t>
+          <t>807044059</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -8173,7 +8173,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>columna base corroida sin riesgo de caída a la fecha. 14/05/2025</t>
+          <t xml:space="preserve">Corroida en base para cambiar contiene CDO/NAP propio </t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -8197,46 +8197,46 @@
         </is>
       </c>
       <c r="M100" t="n">
-        <v>-58.434761</v>
+        <v>-58.461167</v>
       </c>
       <c r="N100" t="n">
-        <v>-34.598381</v>
+        <v>-34.561613</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P100" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>-432</t>
+          <t>-470</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>ALVAREZ JULIAN 618</t>
+          <t>Av. Escalada 2831</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>806926759</t>
+          <t>807208264</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -8251,7 +8251,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Columna con base corroida sin riesgo de caida al 14/05/2025</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -8275,14 +8275,14 @@
         </is>
       </c>
       <c r="M101" t="n">
-        <v>-58.433867</v>
+        <v>-58.470815</v>
       </c>
       <c r="N101" t="n">
-        <v>-34.599149</v>
+        <v>-34.664201</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P101" t="inlineStr">
@@ -8294,27 +8294,27 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>-433</t>
+          <t>-480</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>6/17/2025</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Moldes 2720</t>
+          <t>Arias 4384</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>806926767</t>
+          <t>807537909</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -8329,7 +8329,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poste - Pasan 5 lingas y la línea de cobre </t>
+          <t>Inclinada</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -8349,14 +8349,14 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M102" t="n">
-        <v>-58.464177</v>
+        <v>-58.49147</v>
       </c>
       <c r="N102" t="n">
-        <v>-34.558239</v>
+        <v>-34.55031</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
@@ -8372,27 +8372,27 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>-434</t>
+          <t>-482</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>6/18/2025</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Billinghurst 1478</t>
+          <t>Av. Coronel Diaz 2596</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>806926806</t>
+          <t>807605730</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -8405,11 +8405,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Columna base corroida con Nap y ganancias de ambas compañias, </t>
-        </is>
-      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
           <t>1</t>
@@ -8431,14 +8427,14 @@
         </is>
       </c>
       <c r="M103" t="n">
-        <v>-58.412302</v>
+        <v>-58.405761</v>
       </c>
       <c r="N103" t="n">
-        <v>-34.59301</v>
+        <v>-34.582476</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P103" t="inlineStr">
@@ -8450,27 +8446,27 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>-436</t>
+          <t>-486</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>6/23/2025</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Nueva York 3982</t>
+          <t>Del Libertador 4596</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>806926812</t>
+          <t>807762871</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -8485,7 +8481,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t xml:space="preserve">Realizar aplomo de columna y tensar cruce Reclamo municipal </t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -8505,50 +8501,50 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M104" t="n">
-        <v>-58.511375</v>
+        <v>-58.432241</v>
       </c>
       <c r="N104" t="n">
-        <v>-34.600017</v>
+        <v>-34.56642</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P104" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>-448</t>
+          <t>-487</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>5/28/2025</t>
+          <t>6/23/2025</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Tronador 3826</t>
+          <t>Gorriti 3735</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>806975699</t>
+          <t>807762979</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -8563,12 +8559,12 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Columna de retención (columna más ancha</t>
+          <t>NAP FTTH Columna MAL ESTADO ROTA EN BASE</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -8587,46 +8583,46 @@
         </is>
       </c>
       <c r="M105" t="n">
-        <v>-58.485056</v>
+        <v>-58.417348</v>
       </c>
       <c r="N105" t="n">
-        <v>-34.555059</v>
+        <v>-34.595467</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P105" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>-450</t>
+          <t>6223</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Moldes 2325</t>
+          <t>ECHEANDIA 4200</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>807044059</t>
+          <t>807762996</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -8641,7 +8637,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t xml:space="preserve">Corroida en base para cambiar contiene CDO/NAP propio </t>
+          <t>Columna inclinada con base  corroida</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -8661,50 +8657,50 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M106" t="n">
-        <v>-58.461167</v>
+        <v>-58.472311</v>
       </c>
       <c r="N106" t="n">
-        <v>-34.561613</v>
+        <v>-34.654867</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P106" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>-470</t>
+          <t>6239</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Av. Escalada 2831</t>
+          <t>PALPA 2964</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>807208264</t>
+          <t>807763098</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -8743,36 +8739,36 @@
         </is>
       </c>
       <c r="M107" t="n">
-        <v>-58.470815</v>
+        <v>-58.450113</v>
       </c>
       <c r="N107" t="n">
-        <v>-34.664201</v>
+        <v>-34.574534</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P107" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>-480</t>
+          <t>-488</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>6/17/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Arias 4384</t>
+          <t>Blanco Encalada 4896</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -8782,7 +8778,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>807537909</t>
+          <t>807763099</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -8797,7 +8793,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Inclinada</t>
+          <t>Pendiente traspaso rxo y retiro de columna podrida</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -8817,18 +8813,18 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M108" t="n">
-        <v>-58.49147</v>
+        <v>-58.484729</v>
       </c>
       <c r="N108" t="n">
-        <v>-34.55031</v>
+        <v>-34.574614</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P108" t="inlineStr">
@@ -8840,27 +8836,27 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>-482</t>
+          <t>6221</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>6/18/2025</t>
+          <t>6/26/2025</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Av. Coronel Diaz 2596</t>
+          <t>FERNANDEZ 1549</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>807605730</t>
+          <t>807789699</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -8873,7 +8869,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr"/>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Poste inclinado</t>
+        </is>
+      </c>
       <c r="I109" t="inlineStr">
         <is>
           <t>1</t>
@@ -8881,7 +8881,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -8891,50 +8891,50 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M109" t="n">
-        <v>-58.405761</v>
+        <v>-58.471717</v>
       </c>
       <c r="N109" t="n">
-        <v>-34.582476</v>
+        <v>-34.649961</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P109" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>-486</t>
+          <t>-491</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>6/23/2025</t>
+          <t>6/26/2025</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Del Libertador 4596</t>
+          <t>3 de Febrero 2171</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>807762871</t>
+          <t>807789702</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -8949,7 +8949,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna 114 propia picada en base con NAP</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -8973,46 +8973,46 @@
         </is>
       </c>
       <c r="M110" t="n">
-        <v>-58.432241</v>
+        <v>-58.452636</v>
       </c>
       <c r="N110" t="n">
-        <v>-34.56642</v>
+        <v>-34.558607</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P110" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>-487</t>
+          <t>-500</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>6/23/2025</t>
+          <t>7/3/2025</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Gorriti 3735</t>
+          <t>Castañares 5656</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>807762979</t>
+          <t>807965768</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -9027,7 +9027,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>NAP FTTH Columna MAL ESTADO ROTA EN BASE</t>
+          <t>Columna chocada con rienda a pique</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -9047,567 +9047,21 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M111" t="n">
-        <v>-58.417348</v>
+        <v>-58.479921</v>
       </c>
       <c r="N111" t="n">
-        <v>-34.595467</v>
+        <v>-34.673021</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P111" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>6223</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>6/24/2025</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>ECHEANDIA 4200</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>807762996</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>Columna inclinada con base  corroida</t>
-        </is>
-      </c>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>Terminal</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>-58.472311</v>
-      </c>
-      <c r="N112" t="n">
-        <v>-34.654867</v>
-      </c>
-      <c r="O112" t="inlineStr">
-        <is>
-          <t>Boedo</t>
-        </is>
-      </c>
-      <c r="P112" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>6197</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>6/24/2025</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>RIVADAVIA AV. 5600</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>807763040</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>Aplomar esta es esquina con emilio mitre aprox al 10</t>
-        </is>
-      </c>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>-58.444181</v>
-      </c>
-      <c r="N113" t="n">
-        <v>-34.621883</v>
-      </c>
-      <c r="O113" t="inlineStr">
-        <is>
-          <t>Boedo</t>
-        </is>
-      </c>
-      <c r="P113" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>6239</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>6/24/2025</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>PALPA 2964</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>807763098</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J114" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>-58.450113</v>
-      </c>
-      <c r="N114" t="n">
-        <v>-34.574534</v>
-      </c>
-      <c r="O114" t="inlineStr">
-        <is>
-          <t>Colegiales</t>
-        </is>
-      </c>
-      <c r="P114" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>-488</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>6/24/2025</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>Blanco Encalada 4896</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>807763099</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>Pendiente traspaso rxo y retiro de columna podrida</t>
-        </is>
-      </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>Poste</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>-58.484729</v>
-      </c>
-      <c r="N115" t="n">
-        <v>-34.574614</v>
-      </c>
-      <c r="O115" t="inlineStr">
-        <is>
-          <t>Paternal</t>
-        </is>
-      </c>
-      <c r="P115" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>6221</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>6/26/2025</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>FERNANDEZ 1549</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>807789699</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>Poste inclinado</t>
-        </is>
-      </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t>Aplomo</t>
-        </is>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>Poste</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>-58.471717</v>
-      </c>
-      <c r="N116" t="n">
-        <v>-34.649961</v>
-      </c>
-      <c r="O116" t="inlineStr">
-        <is>
-          <t>Devoto</t>
-        </is>
-      </c>
-      <c r="P116" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>-491</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>6/26/2025</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>3 de Febrero 2171</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>807789702</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>Columna 114 propia picada en base con NAP</t>
-        </is>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J117" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>-58.452636</v>
-      </c>
-      <c r="N117" t="n">
-        <v>-34.558607</v>
-      </c>
-      <c r="O117" t="inlineStr">
-        <is>
-          <t>Saavedra</t>
-        </is>
-      </c>
-      <c r="P117" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>-500</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>7/3/2025</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>Castañares 5656</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>807965768</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>Columna chocada con rienda a pique</t>
-        </is>
-      </c>
-      <c r="I118" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J118" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>Terminal</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>-58.479921</v>
-      </c>
-      <c r="N118" t="n">
-        <v>-34.673021</v>
-      </c>
-      <c r="O118" t="inlineStr">
-        <is>
-          <t>Boedo</t>
-        </is>
-      </c>
-      <c r="P118" t="inlineStr">
         <is>
           <t>Capital Sur</t>
         </is>

--- a/mapa_interactivo_AYKO.xlsx
+++ b/mapa_interactivo_AYKO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P111"/>
+  <dimension ref="A1:P112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9067,6 +9067,84 @@
         </is>
       </c>
     </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>6372</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>7/8/2025</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>AVELLANEDA 4500</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>808099405</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
+        <v>-58.489219</v>
+      </c>
+      <c r="N112" t="n">
+        <v>-34.632475</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>Devoto</t>
+        </is>
+      </c>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapa_interactivo_AYKO.xlsx
+++ b/mapa_interactivo_AYKO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P112"/>
+  <dimension ref="A1:P111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3770,7 +3770,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>-337</t>
+          <t>-338</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3780,7 +3780,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>PARAGUAY /ALT/ 4259</t>
+          <t>PARAGUAY /ALT/ 4283</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -3790,7 +3790,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>804838858</t>
+          <t>804838861</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3829,10 +3829,10 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.421822</v>
+        <v>-58.421964</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.58645</v>
+        <v>-34.586342</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>-338</t>
+          <t>-339</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3858,17 +3858,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>PARAGUAY /ALT/ 4283</t>
+          <t>GRIVEO /ALT/ 2435</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>106591 - VILLA PUEYRREDON</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>804838861</t>
+          <t>804838868</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3883,7 +3883,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t xml:space="preserve">Aplomar columna 114  </t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3893,7 +3893,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -3907,26 +3907,26 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.421964</v>
+        <v>-58.498493</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.586342</v>
+        <v>-34.581262</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>-339</t>
+          <t>-340</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3936,17 +3936,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>GRIVEO /ALT/ 2435</t>
+          <t>SUPERI /ALT/ 1445</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>106591 - VILLA PUEYRREDON</t>
+          <t>106581 - COLEGIALES</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>804838868</t>
+          <t>804838869</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 114  </t>
+          <t>Columna podrida en la base</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3971,7 +3971,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3985,14 +3985,14 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.498493</v>
+        <v>-58.460666</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.581262</v>
+        <v>-34.573823</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -4004,7 +4004,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>-340</t>
+          <t>-341</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -4014,17 +4014,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>SUPERI /ALT/ 1445</t>
+          <t>3 DE FEBRERO /ALT/ 4835</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>106581 - COLEGIALES</t>
+          <t>106596 - NUNEZ</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>804838869</t>
+          <t>804838980</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -4039,7 +4039,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Columna podrida en la base</t>
+          <t>"Retirar poste teco cobre en desuso entrada Edificio reclamo municipal "</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -4049,7 +4049,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -4059,18 +4059,18 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.460666</v>
+        <v>-58.469157</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.573823</v>
+        <v>-34.536783</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -4082,27 +4082,27 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>-341</t>
+          <t>-342</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>4/21/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>3 DE FEBRERO /ALT/ 4835</t>
+          <t>WILLIAMS ALBERTO /ALT/ 5625</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>106596 - NUNEZ</t>
+          <t>106593 - SAAVEDRA</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>804838980</t>
+          <t>804839148</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -4117,17 +4117,17 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>"Retirar poste teco cobre en desuso entrada Edificio reclamo municipal "</t>
+          <t>Cambiar columna de 114. - VIRARDI</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -4137,18 +4137,18 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.469157</v>
+        <v>-58.502447</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.536783</v>
+        <v>-34.561008</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -4160,7 +4160,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>-342</t>
+          <t>-343</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -4170,17 +4170,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>WILLIAMS ALBERTO /ALT/ 5625</t>
+          <t>ANDONAEGUI /ALT/ 1608</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>106597 - PARQUE CHAS</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>804839148</t>
+          <t>804839150</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -4195,7 +4195,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Cambiar columna de 114. - VIRARDI</t>
+          <t>Aplomar columna de 114 - VIRARDI</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -4205,7 +4205,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -4219,10 +4219,10 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.502447</v>
+        <v>-58.48278</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.561008</v>
+        <v>-34.584137</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4238,7 +4238,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>-343</t>
+          <t>-344</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -4248,7 +4248,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>ANDONAEGUI /ALT/ 1608</t>
+          <t>ANDONAEGUI /ALT/ 1690</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -4258,7 +4258,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>804839150</t>
+          <t>804839162</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -4273,7 +4273,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aplomar columna de 114 - VIRARDI</t>
+          <t>Aplomar columna de 114. - VIRARDI</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -4297,10 +4297,10 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.48278</v>
+        <v>-58.483947</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.584137</v>
+        <v>-34.583207</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>-344</t>
+          <t>-345</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -4326,7 +4326,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>ANDONAEGUI /ALT/ 1690</t>
+          <t>ANDONAEGUI /ALT/ 1774</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -4336,7 +4336,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>804839162</t>
+          <t>804839181</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -4351,7 +4351,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aplomar columna de 114. - VIRARDI</t>
+          <t>Aplomo/cambio de columna de 168 colocar columna y rienda en norma.  - VIRARDI</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -4375,10 +4375,10 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>-58.483947</v>
+        <v>-58.484513</v>
       </c>
       <c r="N51" t="n">
-        <v>-34.583207</v>
+        <v>-34.582786</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>-345</t>
+          <t>-346</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -4404,17 +4404,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>ANDONAEGUI /ALT/ 1774</t>
+          <t>ARGERICH /ALT/ 4710</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>106591 - VILLA PUEYRREDON</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>804839181</t>
+          <t>804839198</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -4429,7 +4429,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Aplomo/cambio de columna de 168 colocar columna y rienda en norma.  - VIRARDI</t>
+          <t>Cambiar poste con rienda podrido en su base - VIRARDI</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4439,7 +4439,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -4449,14 +4449,14 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>-58.484513</v>
+        <v>-58.503673</v>
       </c>
       <c r="N52" t="n">
-        <v>-34.582786</v>
+        <v>-34.586925</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -4472,7 +4472,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>-346</t>
+          <t>-347</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -4482,17 +4482,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>ARGERICH /ALT/ 4710</t>
+          <t>AVALOS /ALT/ 1610</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>106591 - VILLA PUEYRREDON</t>
+          <t>106597 - PARQUE CHAS</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>804839198</t>
+          <t>804839214</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -4507,7 +4507,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Cambiar poste con rienda podrido en su base - VIRARDI</t>
+          <t>Cambiar columna de 168 - VIRARDI</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4522,19 +4522,19 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo/Fuente TLC</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>-58.503673</v>
+        <v>-58.480099</v>
       </c>
       <c r="N53" t="n">
-        <v>-34.586925</v>
+        <v>-34.582085</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>-347</t>
+          <t>-349</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -4560,7 +4560,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>AVALOS /ALT/ 1610</t>
+          <t>BAUNESS /ALT/ 1616</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -4570,7 +4570,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>804839214</t>
+          <t>804839290</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Cambiar columna de 168 - VIRARDI</t>
+          <t>Columna en polígono fuera de plomo con ancla fuera de norma - VIRARDI</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Nodo/Fuente TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -4609,10 +4609,10 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>-58.480099</v>
+        <v>-58.48139</v>
       </c>
       <c r="N54" t="n">
-        <v>-34.582085</v>
+        <v>-34.583277</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>-349</t>
+          <t>-352</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -4638,7 +4638,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>BAUNESS /ALT/ 1616</t>
+          <t>BUCARELLI /ALT/ 935</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>804839290</t>
+          <t>804839565</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4663,7 +4663,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Columna en polígono fuera de plomo con ancla fuera de norma - VIRARDI</t>
+          <t>Aplomar columna de 114. - VIRARDI</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4673,7 +4673,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -4687,10 +4687,10 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>-58.48139</v>
+        <v>-58.475389</v>
       </c>
       <c r="N55" t="n">
-        <v>-34.583277</v>
+        <v>-34.590317</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>-352</t>
+          <t>-353</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -4716,17 +4716,17 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>BUCARELLI /ALT/ 935</t>
+          <t>CAAGUAZU /ALT/ 5703</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>106576 - LINIERS</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>804839565</t>
+          <t>804839589</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -4741,7 +4741,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Aplomar columna de 114. - VIRARDI</t>
+          <t>Cambiar columna de 114. Fuera de plomo empotrada en árbol colocar rienda. ( se pasa tareas a contratista tratista de limpieza tensado y elevación del tendido).  - VIRARDI</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4751,7 +4751,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -4765,14 +4765,14 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>-58.475389</v>
+        <v>-58.511462</v>
       </c>
       <c r="N56" t="n">
-        <v>-34.590317</v>
+        <v>-34.640542</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
@@ -4784,7 +4784,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>-353</t>
+          <t>-354</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -4794,17 +4794,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>CAAGUAZU /ALT/ 5703</t>
+          <t>CONDARCO /ALT/ 5316</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>106576 - LINIERS</t>
+          <t>106591 - VILLA PUEYRREDON</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>804839589</t>
+          <t>804839626</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -4819,7 +4819,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Cambiar columna de 114. Fuera de plomo empotrada en árbol colocar rienda. ( se pasa tareas a contratista tratista de limpieza tensado y elevación del tendido).  - VIRARDI</t>
+          <t>Aplomo de columna de PRFV - VIRARDI</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -4829,7 +4829,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -4843,14 +4843,14 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>-58.511462</v>
+        <v>-58.504455</v>
       </c>
       <c r="N57" t="n">
-        <v>-34.640542</v>
+        <v>-34.579941</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
@@ -4862,7 +4862,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>-354</t>
+          <t>-355</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -4872,7 +4872,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>CONDARCO /ALT/ 5316</t>
+          <t>CUENCA /ALT/ 4480</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -4882,7 +4882,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>804839626</t>
+          <t>804839675</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -4897,7 +4897,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Aplomo de columna de PRFV - VIRARDI</t>
+          <t>Columna nueva fuera de plomo sostiene nodo de Telecentro.  Reclamo municipal.  - VIRARDI</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4912,7 +4912,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo/Fuente TLC</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -4921,10 +4921,10 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>-58.504455</v>
+        <v>-58.504568</v>
       </c>
       <c r="N58" t="n">
-        <v>-34.579941</v>
+        <v>-34.590534</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>-355</t>
+          <t>-356</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -4950,7 +4950,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>CUENCA /ALT/ 4480</t>
+          <t>CUENCA /ALT/ 4845</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -4960,7 +4960,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>804839675</t>
+          <t>804839715</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -4975,7 +4975,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Columna nueva fuera de plomo sostiene nodo de Telecentro.  Reclamo municipal.  - VIRARDI</t>
+          <t>Retiro de poste viejo en desuso liberado podrido en su base.  - VIRARDI</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4985,24 +4985,24 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Nodo/Fuente TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>-58.504568</v>
+        <v>-58.507182</v>
       </c>
       <c r="N59" t="n">
-        <v>-34.590534</v>
+        <v>-34.58749</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -5018,7 +5018,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>-356</t>
+          <t>-358</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -5028,17 +5028,17 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>CUENCA /ALT/ 4845</t>
+          <t>GINEBRA /ALT/ 3887</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>106591 - VILLA PUEYRREDON</t>
+          <t>106597 - PARQUE CHAS</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>804839715</t>
+          <t>804839803</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -5053,7 +5053,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Retiro de poste viejo en desuso liberado podrido en su base.  - VIRARDI</t>
+          <t>Aplomo de columna de 114 - VIRARDI</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -5063,7 +5063,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -5073,14 +5073,14 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>-58.507182</v>
+        <v>-58.475735</v>
       </c>
       <c r="N60" t="n">
-        <v>-34.58749</v>
+        <v>-34.580487</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>-358</t>
+          <t>-359</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -5106,17 +5106,17 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>GINEBRA /ALT/ 3887</t>
+          <t>CABEZON JOSE LEON /ALT/ 2714</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>106591 - VILLA PUEYRREDON</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>804839803</t>
+          <t>804839875</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -5155,10 +5155,10 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>-58.475735</v>
+        <v>-58.503195</v>
       </c>
       <c r="N61" t="n">
-        <v>-34.580487</v>
+        <v>-34.581735</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -5174,7 +5174,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>-359</t>
+          <t>-361</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -5184,17 +5184,17 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>CABEZON JOSE LEON /ALT/ 2714</t>
+          <t>LONDRES /ALT/ 4008</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>106591 - VILLA PUEYRREDON</t>
+          <t>106597 - PARQUE CHAS</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>804839875</t>
+          <t>804839936</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Aplomo de columna de 114 - VIRARDI</t>
+          <t>Aplomo de columna de 114. - VIRARDI</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -5233,10 +5233,10 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>-58.503195</v>
+        <v>-58.478362</v>
       </c>
       <c r="N62" t="n">
-        <v>-34.581735</v>
+        <v>-34.581404</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>-361</t>
+          <t>-363</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -5262,7 +5262,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>LONDRES /ALT/ 4008</t>
+          <t>OSLO /ALT/ 1255</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>804839936</t>
+          <t>804839962</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -5287,7 +5287,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aplomo de columna de 114. - VIRARDI</t>
+          <t>Cambiar columna de 168 podrida en su base.  - VIRARDI</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -5297,7 +5297,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -5311,10 +5311,10 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>-58.478362</v>
+        <v>-58.481767</v>
       </c>
       <c r="N63" t="n">
-        <v>-34.581404</v>
+        <v>-34.589507</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>-363</t>
+          <t>-364</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -5340,17 +5340,17 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>OSLO /ALT/ 1255</t>
+          <t>PAROISSIEN /ALT/ 4871</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>106593 - SAAVEDRA</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>804839962</t>
+          <t>804839991</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -5365,7 +5365,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Cambiar columna de 168 podrida en su base.  - VIRARDI</t>
+          <t>Aplomar columna de 114 - VIRARDI</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -5375,7 +5375,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -5389,14 +5389,14 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>-58.481767</v>
+        <v>-58.493164</v>
       </c>
       <c r="N64" t="n">
-        <v>-34.589507</v>
+        <v>-34.55732</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
@@ -5408,7 +5408,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>-364</t>
+          <t>-365</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -5418,17 +5418,17 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>PAROISSIEN /ALT/ 4871</t>
+          <t>QUESADA /ALT/ 5290</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>106592 - VILLA URQUIZA</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>804839991</t>
+          <t>804839995</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -5443,7 +5443,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Aplomar columna de 114 - VIRARDI</t>
+          <t>Columna nueva de PVC fuera de plomo.  - VIRARDI</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -5453,7 +5453,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -5467,14 +5467,14 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>-58.493164</v>
+        <v>-58.491934</v>
       </c>
       <c r="N65" t="n">
-        <v>-34.55732</v>
+        <v>-34.569348</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
@@ -5486,7 +5486,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>-365</t>
+          <t>-366</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -5496,7 +5496,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>QUESADA /ALT/ 5290</t>
+          <t>QUESADA /ALT/ 6088</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -5506,7 +5506,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>804839995</t>
+          <t>804840016</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -5521,7 +5521,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Columna nueva de PVC fuera de plomo.  - VIRARDI</t>
+          <t>Aplomar columna de 168 cambiar rienda.  - VIRARDI</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -5531,7 +5531,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -5545,10 +5545,10 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>-58.491934</v>
+        <v>-58.501418</v>
       </c>
       <c r="N66" t="n">
-        <v>-34.569348</v>
+        <v>-34.574363</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -5564,7 +5564,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>-366</t>
+          <t>-367</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -5574,17 +5574,17 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>QUESADA /ALT/ 6088</t>
+          <t>RUIZ HUIDOBRO ,AV. /ALT/ 4771</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>106592 - VILLA URQUIZA</t>
+          <t>106593 - SAAVEDRA</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>804840016</t>
+          <t>804840024</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -5599,7 +5599,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Aplomar columna de 168 cambiar rienda.  - VIRARDI</t>
+          <t>Aplomo de columna de 114 - VIRARDI</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -5623,14 +5623,14 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>-58.501418</v>
+        <v>-58.494584</v>
       </c>
       <c r="N67" t="n">
-        <v>-34.574363</v>
+        <v>-34.554981</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
@@ -5642,27 +5642,27 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>-367</t>
+          <t>-368</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>RUIZ HUIDOBRO ,AV. /ALT/ 4771</t>
+          <t>ARIAS /ALT/ 1620</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>106596 - NUNEZ</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>804840024</t>
+          <t>804876039</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -5677,12 +5677,12 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Aplomo de columna de 114 - VIRARDI</t>
+          <t xml:space="preserve">Aplomar columna 168 con rienda </t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -5697,14 +5697,14 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>-58.494584</v>
+        <v>-58.465608</v>
       </c>
       <c r="N68" t="n">
-        <v>-34.554981</v>
+        <v>-34.538489</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -5720,27 +5720,27 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>-368</t>
+          <t>-372</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>ARIAS /ALT/ 1620</t>
+          <t>CAMARGO /ALT/ 25</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>106596 - NUNEZ</t>
+          <t>106582 - VILLA CRESPO</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>804876039</t>
+          <t>804903809</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -5755,7 +5755,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 168 con rienda </t>
+          <t>Aplomar columna 114 con rienda a pique</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -5765,7 +5765,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -5775,18 +5775,18 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>-58.465608</v>
+        <v>-58.436788</v>
       </c>
       <c r="N69" t="n">
-        <v>-34.538489</v>
+        <v>-34.604014</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
@@ -5798,7 +5798,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>-372</t>
+          <t>-373</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -5808,17 +5808,17 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>CAMARGO /ALT/ 25</t>
+          <t>GALLARDO ANGEL ,AV. /ALT/ 608</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>106582 - VILLA CRESPO</t>
+          <t>106569 - CABALLITO</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>804903809</t>
+          <t>804903810</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -5833,7 +5833,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Aplomar columna 114 con rienda a pique</t>
+          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -5843,7 +5843,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -5857,26 +5857,26 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>-58.436788</v>
+        <v>-58.439461</v>
       </c>
       <c r="N70" t="n">
-        <v>-34.604014</v>
+        <v>-34.605744</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>-373</t>
+          <t>-375</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -5886,17 +5886,17 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>GALLARDO ANGEL ,AV. /ALT/ 608</t>
+          <t>PAVON /ALT/ 3335</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>106569 - CABALLITO</t>
+          <t>106562 - BOEDO</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>804903810</t>
+          <t>804903824</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -5911,7 +5911,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
+          <t>Colocar columna nueva donde estaba la anterior cortada</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -5921,7 +5921,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -5935,14 +5935,14 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>-58.439461</v>
+        <v>-58.412418</v>
       </c>
       <c r="N71" t="n">
-        <v>-34.605744</v>
+        <v>-34.629288</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
@@ -5954,7 +5954,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>-375</t>
+          <t>-376</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -5964,17 +5964,17 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>PAVON /ALT/ 3335</t>
+          <t xml:space="preserve"> Valentin Gomez 3803</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>106562 - BOEDO</t>
+          <t>106568 - ALMAGRO</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>804903824</t>
+          <t>804903787</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -5989,7 +5989,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Colocar columna nueva donde estaba la anterior cortada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -6013,14 +6013,14 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>-58.412418</v>
+        <v>-58.418424</v>
       </c>
       <c r="N72" t="n">
-        <v>-34.629288</v>
+        <v>-34.604463</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
@@ -6032,7 +6032,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>-376</t>
+          <t>-377</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -6042,7 +6042,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Valentin Gomez 3803</t>
+          <t>HUMAHUACA /ALT/ 3918</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -6052,7 +6052,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>804903787</t>
+          <t>804903788</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -6067,7 +6067,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>picada</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -6091,10 +6091,10 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>-58.418424</v>
+        <v>-58.419694</v>
       </c>
       <c r="N73" t="n">
-        <v>-34.604463</v>
+        <v>-34.602062</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -6110,27 +6110,27 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>-377</t>
+          <t>-383</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>HUMAHUACA /ALT/ 3918</t>
+          <t>VALDERRAMA /ALT/ 4187</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>106568 - ALMAGRO</t>
+          <t>106592 - VILLA URQUIZA</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>804903788</t>
+          <t>805507401</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -6145,7 +6145,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>picada</t>
+          <t xml:space="preserve">Aplomar columna 114 </t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -6155,7 +6155,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -6169,26 +6169,26 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>-58.419694</v>
+        <v>-58.481834</v>
       </c>
       <c r="N74" t="n">
-        <v>-34.602062</v>
+        <v>-34.560796</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>-383</t>
+          <t>-384</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -6198,17 +6198,17 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>VALDERRAMA /ALT/ 4187</t>
+          <t>LUGONES 1721</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>106592 - VILLA URQUIZA</t>
+          <t>106586 - VILLA ORTUZAR</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>805507401</t>
+          <t>805507408</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -6223,7 +6223,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 114 </t>
+          <t>Aplomar columna 168 - La columna esta frente a la altura 1721</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -6247,14 +6247,14 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>-58.481834</v>
+        <v>-58.473936</v>
       </c>
       <c r="N75" t="n">
-        <v>-34.560796</v>
+        <v>-34.577346</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
@@ -6266,7 +6266,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>-384</t>
+          <t>-385</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -6276,17 +6276,17 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>LUGONES 1721</t>
+          <t>MOLDES /ALT/ 1913</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>106586 - VILLA ORTUZAR</t>
+          <t>106595 - BELGRANO</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>805507408</t>
+          <t>805507415</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -6301,7 +6301,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aplomar columna 168 - La columna esta frente a la altura 1721</t>
+          <t>Aplomar columna 114</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -6325,10 +6325,10 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>-58.473936</v>
+        <v>-58.45789</v>
       </c>
       <c r="N76" t="n">
-        <v>-34.577346</v>
+        <v>-34.565423</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>-385</t>
+          <t>-386</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -6354,7 +6354,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>MOLDES /ALT/ 1913</t>
+          <t>MOLDES /ALT/ 1943</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -6364,7 +6364,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>805507415</t>
+          <t>805507419</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -6379,7 +6379,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aplomar columna 114</t>
+          <t>Dos columnas fuera de plomo - aplomar o cambiar la que no tiene nodo de TLC</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -6394,7 +6394,7 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -6403,10 +6403,10 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>-58.45789</v>
+        <v>-58.458217</v>
       </c>
       <c r="N77" t="n">
-        <v>-34.565423</v>
+        <v>-34.565043</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -6422,27 +6422,27 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>-386</t>
+          <t>-391</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>5/5/2025</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>MOLDES /ALT/ 1943</t>
+          <t>IBERA /ALT/ 5074</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>106595 - BELGRANO</t>
+          <t>106592 - VILLA URQUIZA</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>805507419</t>
+          <t>805676610</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -6457,7 +6457,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Dos columnas fuera de plomo - aplomar o cambiar la que no tiene nodo de TLC</t>
+          <t xml:space="preserve">Cambiar columna 114 base corroida </t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -6467,12 +6467,12 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -6481,14 +6481,14 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>-58.458217</v>
+        <v>-58.49045</v>
       </c>
       <c r="N78" t="n">
-        <v>-34.565043</v>
+        <v>-34.566894</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
@@ -6500,7 +6500,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>-391</t>
+          <t>-392</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -6510,17 +6510,17 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>IBERA /ALT/ 5074</t>
+          <t>GARCIA TEODORO /ALT/ 1775</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>106592 - VILLA URQUIZA</t>
+          <t>106594 - PALERMO</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>805676610</t>
+          <t>805676615</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -6559,14 +6559,14 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>-58.49045</v>
+        <v>-58.440367</v>
       </c>
       <c r="N79" t="n">
-        <v>-34.566894</v>
+        <v>-34.563551</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
@@ -6578,7 +6578,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>-392</t>
+          <t>-393</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -6588,7 +6588,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>GARCIA TEODORO /ALT/ 1775</t>
+          <t>3 DE FEBRERO /ALT/ 1272</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -6598,7 +6598,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>805676615</t>
+          <t>805676618</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -6637,10 +6637,10 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>-58.440367</v>
+        <v>-58.445186</v>
       </c>
       <c r="N80" t="n">
-        <v>-34.563551</v>
+        <v>-34.567417</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -6656,27 +6656,27 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>-393</t>
+          <t>-395</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>5/5/2025</t>
+          <t>5/7/2025</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>3 DE FEBRERO /ALT/ 1272</t>
+          <t>POSADAS 1567</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>106560 - RECOLETA</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>805676618</t>
+          <t>805707278</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -6691,7 +6691,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna 114 base corroida </t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -6715,26 +6715,26 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>-58.445186</v>
+        <v>-58.387847</v>
       </c>
       <c r="N81" t="n">
-        <v>-34.567417</v>
+        <v>-34.587043</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>-395</t>
+          <t>-403</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -6744,17 +6744,17 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>POSADAS 1567</t>
+          <t>SUCRE MRCAL A J DE /ALT/ 3515</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>106560 - RECOLETA</t>
+          <t>106595 - BELGRANO</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>805707278</t>
+          <t>805722878</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -6769,7 +6769,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t xml:space="preserve">Retirar poste teco cobre tirado y reparar vereda </t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -6779,7 +6779,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -6789,50 +6789,50 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>-58.387847</v>
+        <v>-58.466241</v>
       </c>
       <c r="N82" t="n">
-        <v>-34.587043</v>
+        <v>-34.57047</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>-403</t>
+          <t>-404</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>5/7/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>SUCRE MRCAL A J DE /ALT/ 3515</t>
+          <t>Amenabar 3048</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>106595 - BELGRANO</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>805722878</t>
+          <t>805791896</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -6847,7 +6847,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t xml:space="preserve">Retirar poste teco cobre tirado y reparar vereda </t>
+          <t>Aplomar columna 114</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -6857,7 +6857,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -6867,18 +6867,18 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>-58.466241</v>
+        <v>-58.46579</v>
       </c>
       <c r="N83" t="n">
-        <v>-34.57047</v>
+        <v>-34.555012</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
@@ -6890,7 +6890,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>-404</t>
+          <t>-405</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -6900,7 +6900,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Amenabar 3048</t>
+          <t>Arcos 1855</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -6910,7 +6910,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>805791896</t>
+          <t>805791908</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -6925,7 +6925,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Aplomar columna 114</t>
+          <t>Cambiar columna 114 picada en base, posee nodo propio.&lt;br&gt;</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -6935,7 +6935,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -6949,14 +6949,14 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>-58.46579</v>
+        <v>-58.451835</v>
       </c>
       <c r="N84" t="n">
-        <v>-34.555012</v>
+        <v>-34.562646</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
@@ -6968,7 +6968,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>-405</t>
+          <t>-406</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -6978,17 +6978,17 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Arcos 1855</t>
+          <t>Olof palme 4144</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>805791908</t>
+          <t>805791925</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -7003,7 +7003,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Cambiar columna 114 picada en base, posee nodo propio.&lt;br&gt;</t>
+          <t>Tensar 2 riendas a pique columna 168</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -7013,7 +7013,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -7023,18 +7023,18 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>-58.451835</v>
+        <v>-58.488252</v>
       </c>
       <c r="N85" t="n">
-        <v>-34.562646</v>
+        <v>-34.553391</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
@@ -7046,7 +7046,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>-406</t>
+          <t>-407</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -7056,7 +7056,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Olof palme 4144</t>
+          <t>Cabildo 4148</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -7066,7 +7066,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>805791925</t>
+          <t>805791933</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -7081,7 +7081,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Tensar 2 riendas a pique columna 168</t>
+          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -7091,7 +7091,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -7105,10 +7105,10 @@
         </is>
       </c>
       <c r="M86" t="n">
-        <v>-58.488252</v>
+        <v>-58.470837</v>
       </c>
       <c r="N86" t="n">
-        <v>-34.553391</v>
+        <v>-34.545751</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -7124,7 +7124,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>-407</t>
+          <t>-408</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -7134,7 +7134,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Cabildo 4148</t>
+          <t>Larralde 2847</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>805791933</t>
+          <t>805791941</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -7159,7 +7159,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
+          <t>Aplomar columna 114</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -7174,19 +7174,19 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo/Fuente Teco</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>-58.470837</v>
+        <v>-58.472267</v>
       </c>
       <c r="N87" t="n">
-        <v>-34.545751</v>
+        <v>-34.551163</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -7202,27 +7202,27 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>-408</t>
+          <t>5805</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>5/14/2025</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Larralde 2847</t>
+          <t>GUTENBERG 4134</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>805791941</t>
+          <t>806926378</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -7237,7 +7237,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Aplomar columna 114</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -7252,23 +7252,23 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Nodo/Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>-58.472267</v>
+        <v>-58.51665</v>
       </c>
       <c r="N88" t="n">
-        <v>-34.551163</v>
+        <v>-34.596644</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P88" t="inlineStr">
@@ -7280,27 +7280,27 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>5805</t>
+          <t>-421</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>5/14/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>GUTENBERG 4134</t>
+          <t>BESARES 1699</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>806926378</t>
+          <t>806926565</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -7315,7 +7315,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Cambiar columna 114 picada en base tener en cuenta que hay acometidas subterraneas que bajan por la columna para entrar en Libertador 8008 tanto de HFC como FTTH colocar medias cañas y colocar cerca para que quedan precintadas a la columna</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -7325,7 +7325,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -7335,18 +7335,18 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M89" t="n">
-        <v>-58.51665</v>
+        <v>-58.464144</v>
       </c>
       <c r="N89" t="n">
-        <v>-34.596644</v>
+        <v>-34.541832</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P89" t="inlineStr">
@@ -7358,7 +7358,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>-421</t>
+          <t>-422</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -7368,7 +7368,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>BESARES 1699</t>
+          <t>Franklin Roosevelt 4901</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -7378,7 +7378,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>806926565</t>
+          <t>806926575</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -7393,7 +7393,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Cambiar columna 114 picada en base tener en cuenta que hay acometidas subterraneas que bajan por la columna para entrar en Libertador 8008 tanto de HFC como FTTH colocar medias cañas y colocar cerca para que quedan precintadas a la columna</t>
+          <t>Aplomar columna 114</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -7417,14 +7417,14 @@
         </is>
       </c>
       <c r="M90" t="n">
-        <v>-58.464144</v>
+        <v>-58.485102</v>
       </c>
       <c r="N90" t="n">
-        <v>-34.541832</v>
+        <v>-34.572327</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P90" t="inlineStr">
@@ -7436,7 +7436,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>-422</t>
+          <t>-425</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -7446,17 +7446,17 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Franklin Roosevelt 4901</t>
+          <t>Av. Eva Peron 7437</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>806926575</t>
+          <t>806926621</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -7471,7 +7471,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Aplomar columna 114</t>
+          <t>Aplomar o cambiar columna de 114</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -7495,14 +7495,14 @@
         </is>
       </c>
       <c r="M91" t="n">
-        <v>-58.485102</v>
+        <v>-58.501029</v>
       </c>
       <c r="N91" t="n">
-        <v>-34.572327</v>
+        <v>-34.673558</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P91" t="inlineStr">
@@ -7514,7 +7514,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>-425</t>
+          <t>-426</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -7524,7 +7524,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Av. Eva Peron 7437</t>
+          <t>Av. Eva Peron 7471</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -7534,7 +7534,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>806926621</t>
+          <t>806926647</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -7549,7 +7549,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Aplomar o cambiar columna de 114</t>
+          <t>Aplomar columna de 168 con rienda</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -7559,7 +7559,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -7569,14 +7569,14 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M92" t="n">
-        <v>-58.501029</v>
+        <v>-58.501565</v>
       </c>
       <c r="N92" t="n">
-        <v>-34.673558</v>
+        <v>-34.673845</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -7592,7 +7592,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>-426</t>
+          <t>-430</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -7602,17 +7602,17 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Av. Eva Peron 7471</t>
+          <t>Araoz 606</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>806926647</t>
+          <t>806926712</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -7627,7 +7627,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Aplomar columna de 168 con rienda</t>
+          <t>columna base corroida sin riesgo de caída a la fecha. 14/05/2025</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -7637,7 +7637,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -7647,30 +7647,30 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M93" t="n">
-        <v>-58.501565</v>
+        <v>-58.434761</v>
       </c>
       <c r="N93" t="n">
-        <v>-34.673845</v>
+        <v>-34.598381</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>-430</t>
+          <t>-432</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -7680,17 +7680,17 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Araoz 606</t>
+          <t>ALVAREZ JULIAN 618</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>806926712</t>
+          <t>806926759</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -7705,7 +7705,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>columna base corroida sin riesgo de caída a la fecha. 14/05/2025</t>
+          <t>Columna con base corroida sin riesgo de caida al 14/05/2025</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -7729,10 +7729,10 @@
         </is>
       </c>
       <c r="M94" t="n">
-        <v>-58.434761</v>
+        <v>-58.433867</v>
       </c>
       <c r="N94" t="n">
-        <v>-34.598381</v>
+        <v>-34.599149</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>-432</t>
+          <t>-433</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -7758,17 +7758,17 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>ALVAREZ JULIAN 618</t>
+          <t>Moldes 2720</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>806926759</t>
+          <t>806926767</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -7783,7 +7783,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Columna con base corroida sin riesgo de caida al 14/05/2025</t>
+          <t xml:space="preserve">Poste - Pasan 5 lingas y la línea de cobre </t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -7803,30 +7803,30 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M95" t="n">
-        <v>-58.433867</v>
+        <v>-58.464177</v>
       </c>
       <c r="N95" t="n">
-        <v>-34.599149</v>
+        <v>-34.558239</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P95" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>-433</t>
+          <t>-434</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -7836,17 +7836,17 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Moldes 2720</t>
+          <t>Billinghurst 1478</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>806926767</t>
+          <t>806926806</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -7861,7 +7861,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poste - Pasan 5 lingas y la línea de cobre </t>
+          <t xml:space="preserve">Columna base corroida con Nap y ganancias de ambas compañias, </t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -7881,30 +7881,30 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M96" t="n">
-        <v>-58.464177</v>
+        <v>-58.412302</v>
       </c>
       <c r="N96" t="n">
-        <v>-34.558239</v>
+        <v>-34.59301</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P96" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>-434</t>
+          <t>-436</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -7914,17 +7914,17 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Billinghurst 1478</t>
+          <t>Nueva York 3982</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>806926806</t>
+          <t>806926812</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -7939,7 +7939,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t xml:space="preserve">Columna base corroida con Nap y ganancias de ambas compañias, </t>
+          <t xml:space="preserve">Realizar aplomo de columna y tensar cruce Reclamo municipal </t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -7959,50 +7959,50 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M97" t="n">
-        <v>-58.412302</v>
+        <v>-58.511375</v>
       </c>
       <c r="N97" t="n">
-        <v>-34.59301</v>
+        <v>-34.600017</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P97" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>-436</t>
+          <t>-448</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/28/2025</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Nueva York 3982</t>
+          <t>Tronador 3826</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>806926812</t>
+          <t>806975699</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -8017,12 +8017,12 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t xml:space="preserve">Realizar aplomo de columna y tensar cruce Reclamo municipal </t>
+          <t>Columna de retención (columna más ancha</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -8037,18 +8037,18 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M98" t="n">
-        <v>-58.511375</v>
+        <v>-58.485056</v>
       </c>
       <c r="N98" t="n">
-        <v>-34.600017</v>
+        <v>-34.555059</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P98" t="inlineStr">
@@ -8060,27 +8060,27 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>-448</t>
+          <t>-450</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>5/28/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Tronador 3826</t>
+          <t>Moldes 2325</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>806975699</t>
+          <t>807044059</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -8095,12 +8095,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Columna de retención (columna más ancha</t>
+          <t xml:space="preserve">Corroida en base para cambiar contiene CDO/NAP propio </t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -8119,10 +8119,10 @@
         </is>
       </c>
       <c r="M99" t="n">
-        <v>-58.485056</v>
+        <v>-58.461167</v>
       </c>
       <c r="N99" t="n">
-        <v>-34.555059</v>
+        <v>-34.561613</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -8138,27 +8138,27 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>-450</t>
+          <t>-470</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Moldes 2325</t>
+          <t>Av. Escalada 2831</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>807044059</t>
+          <t>807208264</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -8173,7 +8173,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t xml:space="preserve">Corroida en base para cambiar contiene CDO/NAP propio </t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -8197,46 +8197,46 @@
         </is>
       </c>
       <c r="M100" t="n">
-        <v>-58.461167</v>
+        <v>-58.470815</v>
       </c>
       <c r="N100" t="n">
-        <v>-34.561613</v>
+        <v>-34.664201</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P100" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>-470</t>
+          <t>-480</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/17/2025</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Av. Escalada 2831</t>
+          <t>Arias 4384</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>807208264</t>
+          <t>807537909</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -8251,7 +8251,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Inclinada</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -8275,46 +8275,46 @@
         </is>
       </c>
       <c r="M101" t="n">
-        <v>-58.470815</v>
+        <v>-58.49147</v>
       </c>
       <c r="N101" t="n">
-        <v>-34.664201</v>
+        <v>-34.55031</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P101" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>-480</t>
+          <t>-482</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>6/17/2025</t>
+          <t>6/18/2025</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Arias 4384</t>
+          <t>Av. Coronel Diaz 2596</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>807537909</t>
+          <t>807605730</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -8327,11 +8327,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>Inclinada</t>
-        </is>
-      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
           <t>1</t>
@@ -8353,36 +8349,36 @@
         </is>
       </c>
       <c r="M102" t="n">
-        <v>-58.49147</v>
+        <v>-58.405761</v>
       </c>
       <c r="N102" t="n">
-        <v>-34.55031</v>
+        <v>-34.582476</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P102" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>-482</t>
+          <t>-486</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>6/18/2025</t>
+          <t>6/23/2025</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Av. Coronel Diaz 2596</t>
+          <t>Del Libertador 4596</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -8392,7 +8388,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>807605730</t>
+          <t>807762871</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -8405,7 +8401,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr"/>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
       <c r="I103" t="inlineStr">
         <is>
           <t>1</t>
@@ -8427,14 +8427,14 @@
         </is>
       </c>
       <c r="M103" t="n">
-        <v>-58.405761</v>
+        <v>-58.432241</v>
       </c>
       <c r="N103" t="n">
-        <v>-34.582476</v>
+        <v>-34.56642</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P103" t="inlineStr">
@@ -8446,7 +8446,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>-486</t>
+          <t>-487</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -8456,7 +8456,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Del Libertador 4596</t>
+          <t>Gorriti 3735</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -8466,7 +8466,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>807762871</t>
+          <t>807762979</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -8481,7 +8481,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>NAP FTTH Columna MAL ESTADO ROTA EN BASE</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -8505,10 +8505,10 @@
         </is>
       </c>
       <c r="M104" t="n">
-        <v>-58.432241</v>
+        <v>-58.417348</v>
       </c>
       <c r="N104" t="n">
-        <v>-34.56642</v>
+        <v>-34.595467</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
@@ -8524,27 +8524,27 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>-487</t>
+          <t>6223</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>6/23/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Gorriti 3735</t>
+          <t>ECHEANDIA 4200</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>807762979</t>
+          <t>807762996</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -8559,7 +8559,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>NAP FTTH Columna MAL ESTADO ROTA EN BASE</t>
+          <t>Columna inclinada con base  corroida</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -8579,18 +8579,18 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M105" t="n">
-        <v>-58.417348</v>
+        <v>-58.472311</v>
       </c>
       <c r="N105" t="n">
-        <v>-34.595467</v>
+        <v>-34.654867</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P105" t="inlineStr">
@@ -8602,7 +8602,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>6223</t>
+          <t>6239</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -8612,17 +8612,17 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>ECHEANDIA 4200</t>
+          <t>PALPA 2964</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>807762996</t>
+          <t>807763098</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -8637,7 +8637,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Columna inclinada con base  corroida</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -8657,30 +8657,30 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M106" t="n">
-        <v>-58.472311</v>
+        <v>-58.450113</v>
       </c>
       <c r="N106" t="n">
-        <v>-34.654867</v>
+        <v>-34.574534</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P106" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>6239</t>
+          <t>-488</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -8690,17 +8690,17 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>PALPA 2964</t>
+          <t>Blanco Encalada 4896</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>807763098</t>
+          <t>807763099</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -8715,7 +8715,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Pendiente traspaso rxo y retiro de columna podrida</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -8735,18 +8735,18 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M107" t="n">
-        <v>-58.450113</v>
+        <v>-58.484729</v>
       </c>
       <c r="N107" t="n">
-        <v>-34.574534</v>
+        <v>-34.574614</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P107" t="inlineStr">
@@ -8758,27 +8758,27 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>-488</t>
+          <t>6221</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/26/2025</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Blanco Encalada 4896</t>
+          <t>FERNANDEZ 1549</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>807763099</t>
+          <t>807789699</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -8793,7 +8793,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Pendiente traspaso rxo y retiro de columna podrida</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -8803,7 +8803,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -8817,14 +8817,14 @@
         </is>
       </c>
       <c r="M108" t="n">
-        <v>-58.484729</v>
+        <v>-58.471717</v>
       </c>
       <c r="N108" t="n">
-        <v>-34.574614</v>
+        <v>-34.649961</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P108" t="inlineStr">
@@ -8836,7 +8836,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>6221</t>
+          <t>-491</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -8846,17 +8846,17 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>FERNANDEZ 1549</t>
+          <t>3 de Febrero 2171</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>807789699</t>
+          <t>807789702</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -8871,7 +8871,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Columna 114 propia picada en base con NAP</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -8881,7 +8881,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -8891,18 +8891,18 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M109" t="n">
-        <v>-58.471717</v>
+        <v>-58.452636</v>
       </c>
       <c r="N109" t="n">
-        <v>-34.649961</v>
+        <v>-34.558607</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P109" t="inlineStr">
@@ -8914,27 +8914,27 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>-491</t>
+          <t>-500</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>6/26/2025</t>
+          <t>7/3/2025</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>3 de Febrero 2171</t>
+          <t>Castañares 5656</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>807789702</t>
+          <t>807965768</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -8949,7 +8949,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Columna 114 propia picada en base con NAP</t>
+          <t>Columna chocada con rienda a pique</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -8969,50 +8969,50 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M110" t="n">
-        <v>-58.452636</v>
+        <v>-58.479921</v>
       </c>
       <c r="N110" t="n">
-        <v>-34.558607</v>
+        <v>-34.673021</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P110" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>-500</t>
+          <t>6372</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>7/3/2025</t>
+          <t>7/8/2025</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Castañares 5656</t>
+          <t>AVELLANEDA 4500</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>807965768</t>
+          <t>808099405</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -9027,7 +9027,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Columna chocada con rienda a pique</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -9047,99 +9047,21 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M111" t="n">
-        <v>-58.479921</v>
+        <v>-58.489219</v>
       </c>
       <c r="N111" t="n">
-        <v>-34.673021</v>
+        <v>-34.632475</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P111" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>6372</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>7/8/2025</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>AVELLANEDA 4500</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>808099405</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>-58.489219</v>
-      </c>
-      <c r="N112" t="n">
-        <v>-34.632475</v>
-      </c>
-      <c r="O112" t="inlineStr">
-        <is>
-          <t>Devoto</t>
-        </is>
-      </c>
-      <c r="P112" t="inlineStr">
         <is>
           <t>Capital Norte</t>
         </is>

--- a/mapa_interactivo_AYKO.xlsx
+++ b/mapa_interactivo_AYKO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P111"/>
+  <dimension ref="A1:P110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -533,7 +533,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -689,7 +689,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>106582 - VILLA CRESPO</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -997,7 +997,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>106595 - BELGRANO</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>106595 - BELGRANO</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>106589 - VILLA DEVOTO</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>106587 - AGRONOMIA</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1379,7 +1379,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>106590 - COGHLAN</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1457,7 +1457,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1535,7 +1535,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1613,7 +1613,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1765,7 +1765,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1917,7 +1917,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>106595 - BELGRANO</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1995,7 +1995,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>106595 - BELGRANO</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -2073,7 +2073,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -2151,7 +2151,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>106569 - CABALLITO</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2303,7 +2303,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>106589 - VILLA DEVOTO</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2381,7 +2381,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>106581 - COLEGIALES</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2459,7 +2459,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>106592 - VILLA URQUIZA</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2537,7 +2537,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2615,7 +2615,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>106552 - CONSTITUCION</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2693,7 +2693,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>106587 - AGRONOMIA</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2849,7 +2849,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -3083,7 +3083,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>106558 - BALVANERA</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -3239,7 +3239,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -3317,7 +3317,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>106592 - VILLA URQUIZA</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -3629,7 +3629,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -3707,7 +3707,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -3785,7 +3785,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -3863,7 +3863,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>106591 - VILLA PUEYRREDON</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -3941,7 +3941,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>106581 - COLEGIALES</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -4019,7 +4019,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>106596 - NUNEZ</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -4097,7 +4097,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -4175,7 +4175,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -4253,7 +4253,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -4331,7 +4331,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -4409,7 +4409,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>106591 - VILLA PUEYRREDON</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -4487,7 +4487,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -4565,7 +4565,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -4643,7 +4643,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -4721,7 +4721,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>106576 - LINIERS</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -4799,7 +4799,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>106591 - VILLA PUEYRREDON</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -4877,7 +4877,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>106591 - VILLA PUEYRREDON</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -4955,7 +4955,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>106591 - VILLA PUEYRREDON</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -5033,7 +5033,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -5111,7 +5111,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>106591 - VILLA PUEYRREDON</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -5189,7 +5189,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -5267,7 +5267,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>106597 - PARQUE CHAS</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -5345,7 +5345,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -5423,7 +5423,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>106592 - VILLA URQUIZA</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -5501,7 +5501,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>106592 - VILLA URQUIZA</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -5579,7 +5579,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>106593 - SAAVEDRA</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -5657,7 +5657,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>106596 - NUNEZ</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -5735,7 +5735,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>106582 - VILLA CRESPO</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -5813,7 +5813,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>106569 - CABALLITO</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -5891,7 +5891,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>106562 - BOEDO</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -5969,7 +5969,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>106568 - ALMAGRO</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -6047,7 +6047,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>106568 - ALMAGRO</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -6125,7 +6125,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>106592 - VILLA URQUIZA</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -6203,7 +6203,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>106586 - VILLA ORTUZAR</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -6281,7 +6281,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>106595 - BELGRANO</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -6359,7 +6359,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>106595 - BELGRANO</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -6437,7 +6437,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>106592 - VILLA URQUIZA</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -6515,7 +6515,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -6593,7 +6593,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>106594 - PALERMO</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -6671,7 +6671,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>106560 - RECOLETA</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -6749,7 +6749,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>106595 - BELGRANO</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -8758,7 +8758,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>6221</t>
+          <t>-491</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -8768,17 +8768,17 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>FERNANDEZ 1549</t>
+          <t>3 de Febrero 2171</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>807789699</t>
+          <t>807789702</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -8793,7 +8793,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Columna 114 propia picada en base con NAP</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -8803,7 +8803,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -8813,18 +8813,18 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M108" t="n">
-        <v>-58.471717</v>
+        <v>-58.452636</v>
       </c>
       <c r="N108" t="n">
-        <v>-34.649961</v>
+        <v>-34.558607</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P108" t="inlineStr">
@@ -8836,27 +8836,27 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>-491</t>
+          <t>-500</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>6/26/2025</t>
+          <t>7/3/2025</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>3 de Febrero 2171</t>
+          <t>Castañares 5656</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>807789702</t>
+          <t>807965768</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -8871,7 +8871,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Columna 114 propia picada en base con NAP</t>
+          <t>Columna chocada con rienda a pique</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -8891,50 +8891,50 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M109" t="n">
-        <v>-58.452636</v>
+        <v>-58.479921</v>
       </c>
       <c r="N109" t="n">
-        <v>-34.558607</v>
+        <v>-34.673021</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P109" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>-500</t>
+          <t>6372</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>7/3/2025</t>
+          <t>7/8/2025</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Castañares 5656</t>
+          <t>AVELLANEDA 4500</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>807965768</t>
+          <t>808099405</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -8949,7 +8949,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Columna chocada con rienda a pique</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -8969,99 +8969,21 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M110" t="n">
-        <v>-58.479921</v>
+        <v>-58.489219</v>
       </c>
       <c r="N110" t="n">
-        <v>-34.673021</v>
+        <v>-34.632475</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P110" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>6372</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>7/8/2025</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>AVELLANEDA 4500</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>808099405</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J111" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>-58.489219</v>
-      </c>
-      <c r="N111" t="n">
-        <v>-34.632475</v>
-      </c>
-      <c r="O111" t="inlineStr">
-        <is>
-          <t>Devoto</t>
-        </is>
-      </c>
-      <c r="P111" t="inlineStr">
         <is>
           <t>Capital Norte</t>
         </is>

--- a/mapa_interactivo_AYKO.xlsx
+++ b/mapa_interactivo_AYKO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P110"/>
+  <dimension ref="A1:P98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2288,7 +2288,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>803608154</t>
+          <t>803608215</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2298,17 +2298,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CUBAS JOSE /ALT/ 3372</t>
+          <t>DEL PINO VIRREY /ALT/ 2646</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>803608154</t>
+          <t>803608215</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Colocar columna</t>
+          <t>Columna 114 quebrada en base dar prioridad.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2347,14 +2347,14 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.506318</v>
+        <v>-58.45524</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.592417</v>
+        <v>-34.567858</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -2366,7 +2366,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>803608215</t>
+          <t>803608331</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2376,17 +2376,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>DEL PINO VIRREY /ALT/ 2646</t>
+          <t>ROOSEVELT F D ,AV. /ALT/ 4875</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>803608215</t>
+          <t>803608331</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2401,7 +2401,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Columna 114 quebrada en base dar prioridad.</t>
+          <t xml:space="preserve">Columna terminal168 con rienda a pique fuera de plomo  y base con cimentación rota </t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2425,10 +2425,10 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.45524</v>
+        <v>-58.484493</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.567858</v>
+        <v>-34.572049</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>803608331</t>
+          <t>803608455</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2454,7 +2454,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ROOSEVELT F D ,AV. /ALT/ 4875</t>
+          <t>VALDENEGRO /ALT/ 4037</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2464,7 +2464,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>803608331</t>
+          <t>803608455</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2479,7 +2479,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Columna terminal168 con rienda a pique fuera de plomo  y base con cimentación rota </t>
+          <t>Cambiar poste podrido apoyado en tanque de agua. Es sobre parque junto a medianera.  Dar prioridad .</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2499,18 +2499,18 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.484493</v>
+        <v>-58.493679</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.572049</v>
+        <v>-34.557149</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -2522,7 +2522,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>803608455</t>
+          <t>803608463</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2532,17 +2532,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>VALDENEGRO /ALT/ 4037</t>
+          <t>COCHABAMBA /ALT/ 1790</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>803608455</t>
+          <t>803608463</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2557,7 +2557,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Cambiar poste podrido apoyado en tanque de agua. Es sobre parque junto a medianera.  Dar prioridad .</t>
+          <t>SIN RIEGO</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2572,55 +2572,55 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo/Fuente Teco</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.493679</v>
+        <v>-58.391153</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.557149</v>
+        <v>-34.624022</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>803608463</t>
+          <t>-281</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2/24/2025</t>
+          <t>2/26/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>COCHABAMBA /ALT/ 1790</t>
+          <t>SOLER /ALT/ 4517</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>803608463</t>
+          <t>803651203</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2635,7 +2635,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>SIN RIEGO</t>
+          <t>columna de 114 con nodo y redes nuestra.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2659,14 +2659,14 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.391153</v>
+        <v>-58.423405</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.624022</v>
+        <v>-34.588075</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -2678,17 +2678,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>-281</t>
+          <t>-307</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2/26/2025</t>
+          <t>3/25/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>SOLER /ALT/ 4517</t>
+          <t>BERUTI ANTONIO /ALT/ 4645</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2698,7 +2698,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>803651203</t>
+          <t>804288212</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2713,12 +2713,12 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>columna de 114 con nodo y redes nuestra.</t>
+          <t>Picada traspasar red y retirar columna</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -2728,19 +2728,19 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Nodo/Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.423405</v>
+        <v>-58.42486</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.588075</v>
+        <v>-34.577318</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -2756,27 +2756,27 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>-300</t>
+          <t>-316</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>3/17/2025</t>
+          <t>4/3/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>SAN MARTIN ,AV. /ALT/ 6195</t>
+          <t>ALBERTI /ALT/ 621</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>804081102</t>
+          <t>804468365</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2791,12 +2791,12 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -2811,50 +2811,50 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.502505</v>
+        <v>-58.401202</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.59465</v>
+        <v>-34.61683</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>-307</t>
+          <t>-326</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>3/25/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>BERUTI ANTONIO /ALT/ 4645</t>
+          <t>GARCIA DEL RIO /ALT/ 3354</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>804288212</t>
+          <t>804634199</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2869,7 +2869,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Picada traspasar red y retirar columna</t>
+          <t>Retirar poste de vereda. Reparar la vereda donde estaba colocado el poste.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2879,7 +2879,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2889,50 +2889,50 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.42486</v>
+        <v>-58.478106</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.577318</v>
+        <v>-34.551523</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>5138</t>
+          <t>-327</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>4/1/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>LOPEZ, CARLOS ANTONIO 3326</t>
+          <t>ROOSEVELT F D ,AV. /ALT/ 5439</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>804468459</t>
+          <t>804634203</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2947,7 +2947,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>COLUMNA INCLINADA</t>
+          <t>Colocar columna R200 y  dar aviso para el traspaso de nodos. (TECO y TLC)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2957,12 +2957,12 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -2971,10 +2971,10 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.508582</v>
+        <v>-58.491074</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.588936</v>
+        <v>-34.575623</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -2990,17 +2990,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>5139</t>
+          <t>5572</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>4/1/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>LOPEZ, CARLOS ANTONIO 3346</t>
+          <t>SANABRIA 4289</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -3010,7 +3010,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>804468467</t>
+          <t>804663652</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -3025,7 +3025,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>COLUMNA INCLINADA</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -3045,14 +3045,14 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.508809</v>
+        <v>-58.516755</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.589076</v>
+        <v>-34.6002</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3068,27 +3068,27 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>-316</t>
+          <t>5573</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>4/3/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>ALBERTI /ALT/ 621</t>
+          <t>LASTRA AV. 4379</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>804468365</t>
+          <t>804663677</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -3103,7 +3103,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -3113,7 +3113,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -3127,36 +3127,36 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.401202</v>
+        <v>-58.525125</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.61683</v>
+        <v>-34.604668</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5728</t>
+          <t>5574</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>4/7/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>FRANCO 3340</t>
+          <t>GRIVEO 3909</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -3166,7 +3166,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>804568964</t>
+          <t>804663683</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -3181,7 +3181,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Poste Inclinado</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -3191,7 +3191,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -3201,14 +3201,14 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.512525</v>
+        <v>-58.517126</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.585228</v>
+        <v>-34.592774</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3224,27 +3224,27 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>-326</t>
+          <t>-336</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/21/2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>GARCIA DEL RIO /ALT/ 3354</t>
+          <t>BAUNESS /ALT/ 1419</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>804634199</t>
+          <t>804838856</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -3259,7 +3259,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Retirar poste de vereda. Reparar la vereda donde estaba colocado el poste.</t>
+          <t>"Aplomar columna 114 con rienda a pique o colocar terminal"</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3269,7 +3269,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -3279,18 +3279,18 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.478106</v>
+        <v>-58.479168</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.551523</v>
+        <v>-34.584482</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -3302,27 +3302,27 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>-327</t>
+          <t>-338</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/21/2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>ROOSEVELT F D ,AV. /ALT/ 5439</t>
+          <t>PARAGUAY /ALT/ 4283</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>804634203</t>
+          <t>804838861</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Colocar columna R200 y  dar aviso para el traspaso de nodos. (TECO y TLC)</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -3361,46 +3361,46 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.491074</v>
+        <v>-58.421964</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.575623</v>
+        <v>-34.586342</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>5572</t>
+          <t>-339</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/21/2025</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>SANABRIA 4289</t>
+          <t>GRIVEO /ALT/ 2435</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>804663652</t>
+          <t>804838868</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3415,7 +3415,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t xml:space="preserve">Aplomar columna 114  </t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3435,14 +3435,14 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.516755</v>
+        <v>-58.498493</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.6002</v>
+        <v>-34.581262</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3458,27 +3458,27 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>5573</t>
+          <t>-340</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/21/2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>LASTRA AV. 4379</t>
+          <t>SUPERI /ALT/ 1445</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>804663677</t>
+          <t>804838869</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3493,7 +3493,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Columna podrida en la base</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3503,7 +3503,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3517,14 +3517,14 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.525125</v>
+        <v>-58.460666</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.604668</v>
+        <v>-34.573823</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -3536,27 +3536,27 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>5574</t>
+          <t>-341</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/21/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>GRIVEO 3909</t>
+          <t>3 DE FEBRERO /ALT/ 4835</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>804663683</t>
+          <t>804838980</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3571,7 +3571,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Poste Inclinado</t>
+          <t>"Retirar poste teco cobre en desuso entrada Edificio reclamo municipal "</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3581,7 +3581,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3595,14 +3595,14 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.517126</v>
+        <v>-58.469157</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.592774</v>
+        <v>-34.536783</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -3614,27 +3614,27 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>-334</t>
+          <t>-342</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>4/21/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>BUCARELLI /ALT/ 1534</t>
+          <t>WILLIAMS ALBERTO /ALT/ 5625</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>804838853</t>
+          <t>804839148</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3649,12 +3649,12 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar Columna dañada torcida y fuera de plomo </t>
+          <t>Cambiar columna de 114. - VIRARDI</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -3673,10 +3673,10 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.481261</v>
+        <v>-58.502447</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.584281</v>
+        <v>-34.561008</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -3692,17 +3692,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>-336</t>
+          <t>-344</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>4/21/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>BAUNESS /ALT/ 1419</t>
+          <t>ANDONAEGUI /ALT/ 1690</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -3712,7 +3712,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>804838856</t>
+          <t>804839162</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3727,17 +3727,17 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>"Aplomar columna 114 con rienda a pique o colocar terminal"</t>
+          <t>Aplomar columna de 114. - VIRARDI</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3751,10 +3751,10 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.479168</v>
+        <v>-58.483947</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.584482</v>
+        <v>-34.583207</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -3770,27 +3770,27 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>-338</t>
+          <t>-345</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>4/21/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
      